--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Metadata" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Locations" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Counts" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="APALs" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="1464">
   <si>
     <t>Date</t>
   </si>
@@ -4068,6 +4069,240 @@
     <t>orange2_C</t>
   </si>
   <si>
+    <t>SRA_001</t>
+  </si>
+  <si>
+    <t>G1881</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>SRA_002</t>
+  </si>
+  <si>
+    <t>SRA_003</t>
+  </si>
+  <si>
+    <t>G1892</t>
+  </si>
+  <si>
+    <t>SRA_004</t>
+  </si>
+  <si>
+    <t>G1891</t>
+  </si>
+  <si>
+    <t>*Maybe fav;*Tag used for multiple corals</t>
+  </si>
+  <si>
+    <t>SRA_005</t>
+  </si>
+  <si>
+    <t>SRA_006</t>
+  </si>
+  <si>
+    <t>G1893</t>
+  </si>
+  <si>
+    <t>SRA_007</t>
+  </si>
+  <si>
+    <t>DISEASE;*Tag used for multiple corals</t>
+  </si>
+  <si>
+    <t>SRA_008</t>
+  </si>
+  <si>
+    <t>G1894</t>
+  </si>
+  <si>
+    <t>SRA_009</t>
+  </si>
+  <si>
+    <t>G1895</t>
+  </si>
+  <si>
+    <t>SRA_010</t>
+  </si>
+  <si>
+    <t>G1885</t>
+  </si>
+  <si>
+    <t>Maybe fav</t>
+  </si>
+  <si>
+    <t>SRA_011</t>
+  </si>
+  <si>
+    <t>G1884</t>
+  </si>
+  <si>
+    <t>SRA_012</t>
+  </si>
+  <si>
+    <t>G1883</t>
+  </si>
+  <si>
+    <t>SRA_013</t>
+  </si>
+  <si>
+    <t>SRA_014</t>
+  </si>
+  <si>
+    <t>G1875</t>
+  </si>
+  <si>
+    <t>SRA_015</t>
+  </si>
+  <si>
+    <t>SRA_016</t>
+  </si>
+  <si>
+    <t>G1874</t>
+  </si>
+  <si>
+    <t>slight disease;*Tag used for multiple corals</t>
+  </si>
+  <si>
+    <t>SRA_017</t>
+  </si>
+  <si>
+    <t>SRA_018</t>
+  </si>
+  <si>
+    <t>G1882</t>
+  </si>
+  <si>
+    <t>SRA_019</t>
+  </si>
+  <si>
+    <t>SRA_020</t>
+  </si>
+  <si>
+    <t>G1700</t>
+  </si>
+  <si>
+    <t>SRA_021</t>
+  </si>
+  <si>
+    <t>G1696</t>
+  </si>
+  <si>
+    <t>SRA_022</t>
+  </si>
+  <si>
+    <t>SRA_023</t>
+  </si>
+  <si>
+    <t>G1697</t>
+  </si>
+  <si>
+    <t>SRA_024</t>
+  </si>
+  <si>
+    <t>SRA_025</t>
+  </si>
+  <si>
+    <t>G1656</t>
+  </si>
+  <si>
+    <t>SRA_026</t>
+  </si>
+  <si>
+    <t>G1657</t>
+  </si>
+  <si>
+    <t>SRA_027</t>
+  </si>
+  <si>
+    <t>G1658</t>
+  </si>
+  <si>
+    <t>SRA_028</t>
+  </si>
+  <si>
+    <t>G1659</t>
+  </si>
+  <si>
+    <t>SRA_029</t>
+  </si>
+  <si>
+    <t>SRA_030</t>
+  </si>
+  <si>
+    <t>G1666</t>
+  </si>
+  <si>
+    <t>SRA_031</t>
+  </si>
+  <si>
+    <t>G1660</t>
+  </si>
+  <si>
+    <t>SRA_032</t>
+  </si>
+  <si>
+    <t>SRA_033</t>
+  </si>
+  <si>
+    <t>G1667</t>
+  </si>
+  <si>
+    <t>SRA_034</t>
+  </si>
+  <si>
+    <t>SRA_035</t>
+  </si>
+  <si>
+    <t>G1676</t>
+  </si>
+  <si>
+    <t>SRA_036</t>
+  </si>
+  <si>
+    <t>SRA_037</t>
+  </si>
+  <si>
+    <t>G1668</t>
+  </si>
+  <si>
+    <t>SRA_038</t>
+  </si>
+  <si>
+    <t>SRA_039</t>
+  </si>
+  <si>
+    <t>G1669</t>
+  </si>
+  <si>
+    <t>SRA_040</t>
+  </si>
+  <si>
+    <t>SRA_041</t>
+  </si>
+  <si>
+    <t>SRA_042</t>
+  </si>
+  <si>
+    <t>G1670</t>
+  </si>
+  <si>
+    <t>SRA_043</t>
+  </si>
+  <si>
+    <t>SRA_044</t>
+  </si>
+  <si>
+    <t>G1677</t>
+  </si>
+  <si>
+    <t>SRA_045</t>
+  </si>
+  <si>
+    <t>G1678</t>
+  </si>
+  <si>
     <t>Site_ID</t>
   </si>
   <si>
@@ -4134,10 +4369,43 @@
     <t>Coki</t>
   </si>
   <si>
+    <t>ISLAND</t>
+  </si>
+  <si>
     <t>LOCATION</t>
   </si>
   <si>
     <t>BLP</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Thatch Cay</t>
+  </si>
+  <si>
+    <t>big yellow tag (unknown tagger?)</t>
+  </si>
+  <si>
+    <t>Cow &amp; Calf</t>
+  </si>
+  <si>
+    <t>Botany Bay</t>
+  </si>
+  <si>
+    <t>Flat Cay</t>
+  </si>
+  <si>
+    <t>Great St James</t>
+  </si>
+  <si>
+    <t>ACERs</t>
   </si>
 </sst>
 </file>
@@ -4150,7 +4418,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4190,6 +4458,16 @@
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
+    <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4205,13 +4483,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4263,12 +4546,40 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4287,6 +4598,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6969,6 +7284,12 @@
       <c r="H72" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J72" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K72" s="10">
+        <v>-64.928</v>
+      </c>
       <c r="M72" s="7" t="s">
         <v>138</v>
       </c>
@@ -6998,6 +7319,12 @@
       <c r="H73" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J73" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K73" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
@@ -7024,6 +7351,12 @@
       <c r="H74" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J74" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K74" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
@@ -7050,6 +7383,12 @@
       <c r="H75" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J75" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K75" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
@@ -7076,6 +7415,12 @@
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J76" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K76" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
@@ -7102,6 +7447,12 @@
       <c r="H77" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J77" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K77" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
@@ -7128,6 +7479,12 @@
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J78" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K78" s="10">
+        <v>-64.928</v>
+      </c>
       <c r="M78" s="7" t="s">
         <v>152</v>
       </c>
@@ -7157,6 +7514,12 @@
       <c r="H79" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J79" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K79" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="6">
@@ -7183,6 +7546,12 @@
       <c r="H80" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J80" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K80" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6">
@@ -7209,6 +7578,12 @@
       <c r="H81" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J81" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K81" s="10">
+        <v>-64.928</v>
+      </c>
       <c r="M81" s="7" t="s">
         <v>158</v>
       </c>
@@ -7238,6 +7613,12 @@
       <c r="H82" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J82" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K82" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
@@ -7264,6 +7645,12 @@
       <c r="H83" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J83" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K83" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
@@ -7290,6 +7677,12 @@
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J84" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K84" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
@@ -7316,6 +7709,12 @@
       <c r="H85" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J85" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K85" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
@@ -7342,6 +7741,12 @@
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J86" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K86" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
@@ -7368,6 +7773,12 @@
       <c r="H87" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J87" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K87" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
@@ -7394,6 +7805,12 @@
       <c r="H88" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J88" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K88" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
@@ -7420,6 +7837,12 @@
       <c r="H89" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J89" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K89" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
@@ -7446,6 +7869,12 @@
       <c r="H90" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J90" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K90" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6">
@@ -7472,6 +7901,12 @@
       <c r="H91" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J91" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K91" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
@@ -7498,6 +7933,12 @@
       <c r="H92" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J92" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K92" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
@@ -7524,6 +7965,12 @@
       <c r="H93" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J93" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K93" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
@@ -7550,6 +7997,12 @@
       <c r="H94" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J94" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K94" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
@@ -7576,6 +8029,12 @@
       <c r="H95" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J95" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K95" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
@@ -7602,6 +8061,12 @@
       <c r="H96" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J96" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K96" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
@@ -7628,6 +8093,12 @@
       <c r="H97" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J97" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K97" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
@@ -7654,6 +8125,12 @@
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J98" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K98" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
@@ -7680,6 +8157,12 @@
       <c r="H99" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J99" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K99" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
@@ -7706,6 +8189,12 @@
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J100" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K100" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
@@ -7732,6 +8221,12 @@
       <c r="H101" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J101" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K101" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
@@ -7758,6 +8253,12 @@
       <c r="H102" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J102" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K102" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
@@ -7784,6 +8285,12 @@
       <c r="H103" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J103" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K103" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
@@ -7810,6 +8317,12 @@
       <c r="H104" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J104" s="10">
+        <v>18.3715499999999</v>
+      </c>
+      <c r="K104" s="10">
+        <v>-64.928</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
@@ -18459,8 +18972,12 @@
       <c r="H420" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J420" s="10"/>
-      <c r="K420" s="10"/>
+      <c r="J420" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K420" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M420" s="13" t="s">
         <v>584</v>
       </c>
@@ -18490,8 +19007,12 @@
       <c r="H421" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J421" s="10"/>
-      <c r="K421" s="10"/>
+      <c r="J421" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K421" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M421" s="13" t="s">
         <v>587</v>
       </c>
@@ -18521,8 +19042,12 @@
       <c r="H422" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J422" s="10"/>
-      <c r="K422" s="10"/>
+      <c r="J422" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K422" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M422" s="13" t="s">
         <v>590</v>
       </c>
@@ -18552,8 +19077,12 @@
       <c r="H423" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J423" s="10"/>
-      <c r="K423" s="10"/>
+      <c r="J423" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K423" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M423" s="13" t="s">
         <v>593</v>
       </c>
@@ -18583,8 +19112,12 @@
       <c r="H424" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J424" s="10"/>
-      <c r="K424" s="10"/>
+      <c r="J424" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K424" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M424" s="13" t="s">
         <v>596</v>
       </c>
@@ -18614,8 +19147,12 @@
       <c r="H425" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J425" s="10"/>
-      <c r="K425" s="10"/>
+      <c r="J425" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K425" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M425" s="13" t="s">
         <v>596</v>
       </c>
@@ -18645,8 +19182,12 @@
       <c r="H426" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J426" s="10"/>
-      <c r="K426" s="10"/>
+      <c r="J426" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K426" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M426" s="13" t="s">
         <v>601</v>
       </c>
@@ -18676,8 +19217,12 @@
       <c r="H427" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J427" s="10"/>
-      <c r="K427" s="10"/>
+      <c r="J427" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K427" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M427" s="13" t="s">
         <v>590</v>
       </c>
@@ -18707,8 +19252,12 @@
       <c r="H428" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J428" s="10"/>
-      <c r="K428" s="10"/>
+      <c r="J428" s="10">
+        <v>18.27861</v>
+      </c>
+      <c r="K428" s="10">
+        <v>-64.8988</v>
+      </c>
       <c r="M428" s="13" t="s">
         <v>584</v>
       </c>
@@ -20891,6 +21440,12 @@
       <c r="H496" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J496" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K496" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M496" s="14" t="s">
         <v>725</v>
       </c>
@@ -20920,6 +21475,12 @@
       <c r="H497" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J497" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K497" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M497" s="7" t="s">
         <v>728</v>
       </c>
@@ -20949,6 +21510,12 @@
       <c r="H498" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J498" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K498" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M498" s="7" t="s">
         <v>731</v>
       </c>
@@ -20978,6 +21545,12 @@
       <c r="H499" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J499" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K499" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M499" s="7" t="s">
         <v>734</v>
       </c>
@@ -21007,6 +21580,12 @@
       <c r="H500" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J500" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K500" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M500" s="7" t="s">
         <v>737</v>
       </c>
@@ -21036,6 +21615,12 @@
       <c r="H501" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J501" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K501" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M501" s="7" t="s">
         <v>740</v>
       </c>
@@ -21065,6 +21650,12 @@
       <c r="H502" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J502" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K502" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M502" s="7" t="s">
         <v>743</v>
       </c>
@@ -21094,6 +21685,12 @@
       <c r="H503" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J503" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K503" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M503" s="7" t="s">
         <v>746</v>
       </c>
@@ -21123,6 +21720,12 @@
       <c r="H504" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J504" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K504" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M504" s="7" t="s">
         <v>749</v>
       </c>
@@ -21152,6 +21755,12 @@
       <c r="H505" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J505" s="10">
+        <v>18.31834</v>
+      </c>
+      <c r="K505" s="10">
+        <v>-64.9906</v>
+      </c>
       <c r="M505" s="7" t="s">
         <v>752</v>
       </c>
@@ -22995,6 +23604,12 @@
       <c r="H562" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J562" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K562" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="6">
@@ -23012,6 +23627,12 @@
       <c r="H563" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J563" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K563" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="6">
@@ -23029,6 +23650,12 @@
       <c r="H564" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J564" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K564" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="6">
@@ -23046,6 +23673,12 @@
       <c r="H565" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J565" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K565" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="6">
@@ -23063,6 +23696,12 @@
       <c r="H566" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J566" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K566" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="6">
@@ -23080,6 +23719,12 @@
       <c r="H567" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J567" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K567" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="6">
@@ -23097,6 +23742,12 @@
       <c r="H568" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J568" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K568" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="6">
@@ -23114,6 +23765,12 @@
       <c r="H569" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J569" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K569" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="6">
@@ -23131,6 +23788,12 @@
       <c r="H570" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J570" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K570" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="6">
@@ -23148,6 +23811,12 @@
       <c r="H571" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J571" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K571" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="6">
@@ -23165,6 +23834,12 @@
       <c r="H572" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J572" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K572" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="6">
@@ -23182,6 +23857,12 @@
       <c r="H573" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J573" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K573" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="6">
@@ -23199,6 +23880,12 @@
       <c r="H574" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J574" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K574" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="6">
@@ -23216,6 +23903,12 @@
       <c r="H575" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J575" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K575" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="6">
@@ -23233,6 +23926,12 @@
       <c r="H576" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J576" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K576" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="6">
@@ -23250,6 +23949,12 @@
       <c r="H577" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="J577" s="17">
+        <v>18.34386</v>
+      </c>
+      <c r="K577" s="7">
+        <v>-64.98236</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="6">
@@ -27760,10 +28465,10 @@
       <c r="H719" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J719" s="17">
+      <c r="J719" s="18">
         <v>18.3522063</v>
       </c>
-      <c r="K719" s="17">
+      <c r="K719" s="18">
         <v>-65.042028</v>
       </c>
     </row>
@@ -27792,10 +28497,10 @@
       <c r="H720" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J720" s="17">
+      <c r="J720" s="18">
         <v>18.3526914</v>
       </c>
-      <c r="K720" s="17">
+      <c r="K720" s="18">
         <v>-65.042259</v>
       </c>
     </row>
@@ -27824,10 +28529,10 @@
       <c r="H721" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J721" s="17">
+      <c r="J721" s="18">
         <v>18.3529231</v>
       </c>
-      <c r="K721" s="17">
+      <c r="K721" s="18">
         <v>-65.042432</v>
       </c>
     </row>
@@ -27856,10 +28561,10 @@
       <c r="H722" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J722" s="17">
+      <c r="J722" s="18">
         <v>18.3529061</v>
       </c>
-      <c r="K722" s="17">
+      <c r="K722" s="18">
         <v>-65.042505</v>
       </c>
     </row>
@@ -27888,10 +28593,10 @@
       <c r="H723" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J723" s="17">
+      <c r="J723" s="18">
         <v>18.3530884</v>
       </c>
-      <c r="K723" s="17">
+      <c r="K723" s="18">
         <v>-65.042487</v>
       </c>
     </row>
@@ -27920,10 +28625,10 @@
       <c r="H724" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J724" s="17">
+      <c r="J724" s="18">
         <v>18.35356</v>
       </c>
-      <c r="K724" s="17">
+      <c r="K724" s="18">
         <v>-65.042302</v>
       </c>
     </row>
@@ -27952,10 +28657,10 @@
       <c r="H725" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J725" s="17">
+      <c r="J725" s="18">
         <v>18.3537583</v>
       </c>
-      <c r="K725" s="17">
+      <c r="K725" s="18">
         <v>-65.042196</v>
       </c>
     </row>
@@ -27984,10 +28689,10 @@
       <c r="H726" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J726" s="17">
+      <c r="J726" s="18">
         <v>18.3538438</v>
       </c>
-      <c r="K726" s="17">
+      <c r="K726" s="18">
         <v>-65.0424</v>
       </c>
     </row>
@@ -28016,10 +28721,10 @@
       <c r="H727" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J727" s="17">
+      <c r="J727" s="18">
         <v>18.3539058</v>
       </c>
-      <c r="K727" s="17">
+      <c r="K727" s="18">
         <v>-65.042347</v>
       </c>
     </row>
@@ -28048,10 +28753,10 @@
       <c r="H728" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J728" s="17">
+      <c r="J728" s="18">
         <v>18.3539965</v>
       </c>
-      <c r="K728" s="17">
+      <c r="K728" s="18">
         <v>-65.042418</v>
       </c>
     </row>
@@ -28080,10 +28785,10 @@
       <c r="H729" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J729" s="17">
+      <c r="J729" s="18">
         <v>18.3523561</v>
       </c>
-      <c r="K729" s="17">
+      <c r="K729" s="18">
         <v>-65.042925</v>
       </c>
     </row>
@@ -28112,10 +28817,10 @@
       <c r="H730" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J730" s="17">
+      <c r="J730" s="18">
         <v>18.3527909</v>
       </c>
-      <c r="K730" s="17">
+      <c r="K730" s="18">
         <v>-65.042421</v>
       </c>
     </row>
@@ -28144,10 +28849,10 @@
       <c r="H731" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J731" s="17">
+      <c r="J731" s="18">
         <v>18.3529199</v>
       </c>
-      <c r="K731" s="17">
+      <c r="K731" s="18">
         <v>-65.042439</v>
       </c>
     </row>
@@ -28176,10 +28881,10 @@
       <c r="H732" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J732" s="17">
+      <c r="J732" s="18">
         <v>18.3529164</v>
       </c>
-      <c r="K732" s="17">
+      <c r="K732" s="18">
         <v>-65.042488</v>
       </c>
     </row>
@@ -28208,10 +28913,10 @@
       <c r="H733" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J733" s="17">
+      <c r="J733" s="18">
         <v>18.3529163</v>
       </c>
-      <c r="K733" s="17">
+      <c r="K733" s="18">
         <v>-65.04251</v>
       </c>
     </row>
@@ -28240,10 +28945,10 @@
       <c r="H734" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J734" s="17">
+      <c r="J734" s="18">
         <v>18.3537583</v>
       </c>
-      <c r="K734" s="17">
+      <c r="K734" s="18">
         <v>-65.042196</v>
       </c>
     </row>
@@ -28272,10 +28977,10 @@
       <c r="H735" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J735" s="17">
+      <c r="J735" s="18">
         <v>18.3537734</v>
       </c>
-      <c r="K735" s="17">
+      <c r="K735" s="18">
         <v>-65.042196</v>
       </c>
     </row>
@@ -28304,10 +29009,10 @@
       <c r="H736" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J736" s="17">
+      <c r="J736" s="18">
         <v>18.3538672</v>
       </c>
-      <c r="K736" s="17">
+      <c r="K736" s="18">
         <v>-65.042345</v>
       </c>
     </row>
@@ -28336,10 +29041,10 @@
       <c r="H737" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J737" s="17">
+      <c r="J737" s="18">
         <v>18.3539864</v>
       </c>
-      <c r="K737" s="17">
+      <c r="K737" s="18">
         <v>-65.042357</v>
       </c>
     </row>
@@ -28368,10 +29073,10 @@
       <c r="H738" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J738" s="17">
+      <c r="J738" s="18">
         <v>18.3539965</v>
       </c>
-      <c r="K738" s="17">
+      <c r="K738" s="18">
         <v>-65.042418</v>
       </c>
     </row>
@@ -31709,457 +32414,1879 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="18"/>
+      <c r="A850" s="19">
+        <v>44718.0</v>
+      </c>
+      <c r="B850" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C850" s="20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D850" s="20">
+        <v>85.0</v>
+      </c>
+      <c r="E850" s="21">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="F850" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G850" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H850" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I850" s="22"/>
+      <c r="J850" s="23">
+        <v>17.7823203988373</v>
+      </c>
+      <c r="K850" s="23">
+        <v>-64.7571346722543</v>
+      </c>
+      <c r="L850" s="22"/>
+      <c r="M850" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N850" s="22"/>
+      <c r="O850" s="22"/>
+      <c r="P850" s="22"/>
+      <c r="Q850" s="22"/>
+      <c r="R850" s="22"/>
+      <c r="S850" s="22"/>
+      <c r="T850" s="22"/>
+      <c r="U850" s="22"/>
+      <c r="V850" s="22"/>
+      <c r="W850" s="22"/>
+      <c r="X850" s="22"/>
+      <c r="Y850" s="22"/>
+      <c r="Z850" s="22"/>
     </row>
     <row r="851">
-      <c r="A851" s="18"/>
+      <c r="A851" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B851" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C851" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D851" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E851" s="8">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="F851" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G851" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H851" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J851" s="11">
+        <v>17.7823203988373</v>
+      </c>
+      <c r="K851" s="11">
+        <v>-64.7571346722543</v>
+      </c>
+      <c r="M851" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="852">
-      <c r="A852" s="18"/>
+      <c r="A852" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B852" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C852" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D852" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E852" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F852" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G852" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H852" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J852" s="11">
+        <v>17.7821743860841</v>
+      </c>
+      <c r="K852" s="11">
+        <v>-64.7570098657161</v>
+      </c>
     </row>
     <row r="853">
-      <c r="A853" s="18"/>
+      <c r="A853" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B853" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C853" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D853" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E853" s="8">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="F853" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G853" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H853" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J853" s="11">
+        <v>17.782176733017</v>
+      </c>
+      <c r="K853" s="11">
+        <v>-64.7570193372667</v>
+      </c>
+      <c r="M853" s="7" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="854">
-      <c r="A854" s="18"/>
+      <c r="A854" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B854" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C854" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D854" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E854" s="8">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="F854" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G854" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H854" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J854" s="11">
+        <v>17.782176733017</v>
+      </c>
+      <c r="K854" s="11">
+        <v>-64.7570193372667</v>
+      </c>
+      <c r="M854" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="855">
-      <c r="A855" s="18"/>
+      <c r="A855" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B855" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C855" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D855" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E855" s="8">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="F855" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G855" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H855" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J855" s="11">
+        <v>17.7820246852934</v>
+      </c>
+      <c r="K855" s="11">
+        <v>-64.7568055149168</v>
+      </c>
+      <c r="M855" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="856">
-      <c r="A856" s="18"/>
+      <c r="A856" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B856" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C856" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D856" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E856" s="8">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="F856" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G856" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H856" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J856" s="11">
+        <v>17.7820246852934</v>
+      </c>
+      <c r="K856" s="11">
+        <v>-64.7568055149168</v>
+      </c>
+      <c r="M856" s="7" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="857">
-      <c r="A857" s="18"/>
+      <c r="A857" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B857" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C857" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D857" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E857" s="8">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F857" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G857" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H857" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J857" s="11">
+        <v>17.7819727174938</v>
+      </c>
+      <c r="K857" s="11">
+        <v>-64.7568044252694</v>
+      </c>
     </row>
     <row r="858">
-      <c r="A858" s="18"/>
+      <c r="A858" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B858" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C858" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D858" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E858" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F858" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G858" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H858" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J858" s="11">
+        <v>17.7819395251572</v>
+      </c>
+      <c r="K858" s="11">
+        <v>-64.7567446622998</v>
+      </c>
     </row>
     <row r="859">
-      <c r="A859" s="18"/>
+      <c r="A859" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B859" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C859" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D859" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E859" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F859" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G859" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H859" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J859" s="11">
+        <v>17.7819238509983</v>
+      </c>
+      <c r="K859" s="11">
+        <v>-64.7567414771765</v>
+      </c>
+      <c r="M859" s="7" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="860">
-      <c r="A860" s="18"/>
+      <c r="A860" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B860" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C860" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D860" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E860" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F860" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G860" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H860" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J860" s="11">
+        <v>17.781907338649</v>
+      </c>
+      <c r="K860" s="11">
+        <v>-64.7567040938884</v>
+      </c>
+      <c r="M860" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="861">
-      <c r="A861" s="18"/>
+      <c r="A861" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B861" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C861" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D861" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E861" s="8">
+        <v>0.5375</v>
+      </c>
+      <c r="F861" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G861" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H861" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J861" s="11">
+        <v>17.7818949334323</v>
+      </c>
+      <c r="K861" s="11">
+        <v>-64.7566292434931</v>
+      </c>
+      <c r="M861" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="862">
-      <c r="A862" s="18"/>
+      <c r="A862" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B862" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C862" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D862" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E862" s="8">
+        <v>0.5375</v>
+      </c>
+      <c r="F862" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G862" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H862" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J862" s="11">
+        <v>17.7818949334323</v>
+      </c>
+      <c r="K862" s="11">
+        <v>-64.7566292434931</v>
+      </c>
+      <c r="M862" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="863">
-      <c r="A863" s="18"/>
+      <c r="A863" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B863" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C863" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D863" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E863" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F863" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G863" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H863" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J863" s="11">
+        <v>17.7818977832794</v>
+      </c>
+      <c r="K863" s="11">
+        <v>-64.7565669659525</v>
+      </c>
+      <c r="M863" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="864">
-      <c r="A864" s="18"/>
+      <c r="A864" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B864" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C864" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D864" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E864" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F864" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G864" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H864" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J864" s="11">
+        <v>17.7818977832794</v>
+      </c>
+      <c r="K864" s="11">
+        <v>-64.7565669659525</v>
+      </c>
+      <c r="M864" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="865">
-      <c r="A865" s="18"/>
+      <c r="A865" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B865" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C865" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D865" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E865" s="8">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="F865" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G865" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H865" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J865" s="11">
+        <v>17.781835841015</v>
+      </c>
+      <c r="K865" s="11">
+        <v>-64.7565623559058</v>
+      </c>
+      <c r="M865" s="7" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="866">
-      <c r="A866" s="18"/>
+      <c r="A866" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B866" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C866" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D866" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E866" s="8">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="F866" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G866" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H866" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J866" s="11">
+        <v>17.781835841015</v>
+      </c>
+      <c r="K866" s="11">
+        <v>-64.7565623559058</v>
+      </c>
+      <c r="M866" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="867">
-      <c r="A867" s="18"/>
+      <c r="A867" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B867" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C867" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D867" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E867" s="8">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F867" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G867" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H867" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J867" s="11">
+        <v>17.7818096056581</v>
+      </c>
+      <c r="K867" s="11">
+        <v>-64.7565046045929</v>
+      </c>
+      <c r="M867" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="868">
-      <c r="A868" s="18"/>
+      <c r="A868" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B868" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C868" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D868" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E868" s="8">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F868" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G868" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H868" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J868" s="11">
+        <v>17.7818096056581</v>
+      </c>
+      <c r="K868" s="11">
+        <v>-64.7565046045929</v>
+      </c>
     </row>
     <row r="869">
-      <c r="A869" s="18"/>
+      <c r="A869" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B869" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C869" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D869" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E869" s="8">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="F869" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G869" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H869" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J869" s="11">
+        <v>17.7821908146143</v>
+      </c>
+      <c r="K869" s="11">
+        <v>-64.7570459917188</v>
+      </c>
     </row>
     <row r="870">
-      <c r="A870" s="18"/>
+      <c r="A870" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B870" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C870" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D870" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E870" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F870" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G870" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H870" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J870" s="11">
+        <v>17.7821743860841</v>
+      </c>
+      <c r="K870" s="11">
+        <v>-64.7570098657161</v>
+      </c>
+      <c r="M870" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="871">
-      <c r="A871" s="18"/>
+      <c r="A871" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B871" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C871" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D871" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E871" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F871" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G871" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H871" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J871" s="11">
+        <v>17.7821743860841</v>
+      </c>
+      <c r="K871" s="11">
+        <v>-64.7570098657161</v>
+      </c>
+      <c r="M871" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="872">
-      <c r="A872" s="18"/>
+      <c r="A872" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B872" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C872" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D872" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E872" s="8">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F872" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G872" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H872" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J872" s="11">
+        <v>17.7821390144527</v>
+      </c>
+      <c r="K872" s="11">
+        <v>-64.7569174971431</v>
+      </c>
+      <c r="M872" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="873">
-      <c r="A873" s="18"/>
+      <c r="A873" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B873" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C873" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D873" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E873" s="8">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F873" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G873" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H873" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J873" s="11">
+        <v>17.7821390144527</v>
+      </c>
+      <c r="K873" s="11">
+        <v>-64.7569174971431</v>
+      </c>
+      <c r="M873" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="874">
-      <c r="A874" s="18"/>
+      <c r="A874" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B874" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C874" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D874" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E874" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F874" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G874" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H874" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J874" s="11">
+        <v>17.7820531837642</v>
+      </c>
+      <c r="K874" s="11">
+        <v>-64.7567974682897</v>
+      </c>
     </row>
     <row r="875">
-      <c r="A875" s="18"/>
+      <c r="A875" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B875" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C875" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D875" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E875" s="8">
+        <v>0.5194444444444445</v>
+      </c>
+      <c r="F875" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G875" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H875" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J875" s="11">
+        <v>17.7820071671158</v>
+      </c>
+      <c r="K875" s="11">
+        <v>-64.7568123880774</v>
+      </c>
     </row>
     <row r="876">
-      <c r="A876" s="18"/>
+      <c r="A876" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B876" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C876" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D876" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="E876" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F876" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G876" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H876" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J876" s="11">
+        <v>17.7819896489382</v>
+      </c>
+      <c r="K876" s="11">
+        <v>-64.7567884158343</v>
+      </c>
     </row>
     <row r="877">
-      <c r="A877" s="18"/>
+      <c r="A877" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B877" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C877" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D877" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E877" s="8">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="F877" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G877" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H877" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J877" s="11">
+        <v>17.7819699514657</v>
+      </c>
+      <c r="K877" s="11">
+        <v>-64.7568075265735</v>
+      </c>
+      <c r="M877" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="878">
-      <c r="A878" s="18"/>
+      <c r="A878" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B878" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C878" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D878" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E878" s="8">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="F878" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G878" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H878" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J878" s="11">
+        <v>17.7819699514657</v>
+      </c>
+      <c r="K878" s="11">
+        <v>-64.7568075265735</v>
+      </c>
+      <c r="M878" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="879">
-      <c r="A879" s="18"/>
+      <c r="A879" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B879" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C879" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D879" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="E879" s="8">
+        <v>0.5270833333333333</v>
+      </c>
+      <c r="F879" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G879" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H879" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J879" s="11">
+        <v>17.7819555345923</v>
+      </c>
+      <c r="K879" s="11">
+        <v>-64.7567449975759</v>
+      </c>
     </row>
     <row r="880">
-      <c r="A880" s="18"/>
+      <c r="A880" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B880" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C880" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D880" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E880" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F880" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G880" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H880" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J880" s="11">
+        <v>17.7819238509983</v>
+      </c>
+      <c r="K880" s="11">
+        <v>-64.7567414771765</v>
+      </c>
+      <c r="M880" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="881">
-      <c r="A881" s="18"/>
+      <c r="A881" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B881" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C881" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D881" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E881" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F881" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G881" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H881" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J881" s="11">
+        <v>17.7819238509983</v>
+      </c>
+      <c r="K881" s="11">
+        <v>-64.7567414771765</v>
+      </c>
+      <c r="M881" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="882">
-      <c r="A882" s="18"/>
+      <c r="A882" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B882" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C882" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D882" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E882" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F882" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G882" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H882" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J882" s="11">
+        <v>17.781907338649</v>
+      </c>
+      <c r="K882" s="11">
+        <v>-64.7567040938884</v>
+      </c>
+      <c r="M882" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="883">
-      <c r="A883" s="18"/>
+      <c r="A883" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B883" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C883" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D883" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E883" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F883" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G883" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H883" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J883" s="11">
+        <v>17.781907338649</v>
+      </c>
+      <c r="K883" s="11">
+        <v>-64.7567040938884</v>
+      </c>
+      <c r="M883" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="884">
-      <c r="A884" s="18"/>
+      <c r="A884" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B884" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C884" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D884" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E884" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F884" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G884" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H884" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J884" s="11">
+        <v>17.7818978670985</v>
+      </c>
+      <c r="K884" s="11">
+        <v>-64.7566891741008</v>
+      </c>
+      <c r="M884" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="885">
-      <c r="A885" s="18"/>
+      <c r="A885" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B885" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C885" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D885" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="E885" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F885" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G885" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H885" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J885" s="11">
+        <v>17.7818978670985</v>
+      </c>
+      <c r="K885" s="11">
+        <v>-64.7566891741008</v>
+      </c>
+      <c r="M885" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="886">
-      <c r="A886" s="18"/>
+      <c r="A886" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B886" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C886" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D886" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E886" s="8">
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="F886" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G886" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H886" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J886" s="11">
+        <v>17.7818906586617</v>
+      </c>
+      <c r="K886" s="11">
+        <v>-64.756586663425</v>
+      </c>
+      <c r="M886" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="887">
-      <c r="A887" s="18"/>
+      <c r="A887" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B887" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C887" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D887" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E887" s="8">
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="F887" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G887" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H887" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J887" s="11">
+        <v>17.7818906586617</v>
+      </c>
+      <c r="K887" s="11">
+        <v>-64.756586663425</v>
+      </c>
+      <c r="M887" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="888">
-      <c r="A888" s="18"/>
+      <c r="A888" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B888" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C888" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D888" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E888" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F888" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G888" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H888" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J888" s="11">
+        <v>17.7818548679352</v>
+      </c>
+      <c r="K888" s="11">
+        <v>-64.7565941233188</v>
+      </c>
+      <c r="M888" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="889">
-      <c r="A889" s="18"/>
+      <c r="A889" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B889" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C889" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D889" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E889" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F889" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G889" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H889" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J889" s="11">
+        <v>17.7818548679352</v>
+      </c>
+      <c r="K889" s="11">
+        <v>-64.7565941233188</v>
+      </c>
+      <c r="M889" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="890">
-      <c r="A890" s="18"/>
+      <c r="A890" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B890" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C890" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D890" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="E890" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F890" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G890" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H890" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J890" s="11">
+        <v>17.7818548679352</v>
+      </c>
+      <c r="K890" s="11">
+        <v>-64.7565941233188</v>
+      </c>
+      <c r="M890" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="891">
-      <c r="A891" s="18"/>
+      <c r="A891" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B891" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C891" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D891" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E891" s="8">
+        <v>0.5479166666666667</v>
+      </c>
+      <c r="F891" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G891" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H891" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J891" s="11">
+        <v>17.781817317009</v>
+      </c>
+      <c r="K891" s="11">
+        <v>-64.7565543092787</v>
+      </c>
+      <c r="M891" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="892">
-      <c r="A892" s="18"/>
+      <c r="A892" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B892" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C892" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D892" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E892" s="8">
+        <v>0.5479166666666667</v>
+      </c>
+      <c r="F892" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G892" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H892" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J892" s="11">
+        <v>17.781817317009</v>
+      </c>
+      <c r="K892" s="11">
+        <v>-64.7565543092787</v>
+      </c>
+      <c r="M892" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="893">
-      <c r="A893" s="18"/>
+      <c r="A893" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B893" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C893" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D893" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E893" s="8">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="F893" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G893" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H893" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J893" s="11">
+        <v>17.7818123716861</v>
+      </c>
+      <c r="K893" s="11">
+        <v>-64.7565385513008</v>
+      </c>
     </row>
     <row r="894">
-      <c r="A894" s="18"/>
+      <c r="A894" s="6">
+        <v>44718.0</v>
+      </c>
+      <c r="B894" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C894" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D894" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E894" s="8">
+        <v>0.55625</v>
+      </c>
+      <c r="F894" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G894" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H894" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J894" s="11">
+        <v>17.7817712165415</v>
+      </c>
+      <c r="K894" s="11">
+        <v>-64.7564956359565</v>
+      </c>
     </row>
     <row r="895">
-      <c r="A895" s="18"/>
+      <c r="A895" s="24"/>
     </row>
     <row r="896">
-      <c r="A896" s="18"/>
+      <c r="A896" s="24"/>
     </row>
     <row r="897">
-      <c r="A897" s="18"/>
+      <c r="A897" s="24"/>
     </row>
     <row r="898">
-      <c r="A898" s="18"/>
+      <c r="A898" s="24"/>
     </row>
     <row r="899">
-      <c r="A899" s="18"/>
+      <c r="A899" s="24"/>
     </row>
     <row r="900">
-      <c r="A900" s="18"/>
+      <c r="A900" s="24"/>
     </row>
     <row r="901">
-      <c r="A901" s="18"/>
+      <c r="A901" s="24"/>
     </row>
     <row r="902">
-      <c r="A902" s="18"/>
+      <c r="A902" s="24"/>
     </row>
     <row r="903">
-      <c r="A903" s="18"/>
+      <c r="A903" s="24"/>
     </row>
     <row r="904">
-      <c r="A904" s="18"/>
+      <c r="A904" s="24"/>
     </row>
     <row r="905">
-      <c r="A905" s="18"/>
+      <c r="A905" s="24"/>
     </row>
     <row r="906">
-      <c r="A906" s="18"/>
+      <c r="A906" s="24"/>
     </row>
     <row r="907">
-      <c r="A907" s="18"/>
+      <c r="A907" s="24"/>
     </row>
     <row r="908">
-      <c r="A908" s="18"/>
+      <c r="A908" s="24"/>
     </row>
     <row r="909">
-      <c r="A909" s="18"/>
+      <c r="A909" s="24"/>
     </row>
     <row r="910">
-      <c r="A910" s="18"/>
+      <c r="A910" s="24"/>
     </row>
     <row r="911">
-      <c r="A911" s="18"/>
+      <c r="A911" s="24"/>
     </row>
     <row r="912">
-      <c r="A912" s="18"/>
+      <c r="A912" s="24"/>
     </row>
     <row r="913">
-      <c r="A913" s="18"/>
+      <c r="A913" s="24"/>
     </row>
     <row r="914">
-      <c r="A914" s="18"/>
+      <c r="A914" s="24"/>
     </row>
     <row r="915">
-      <c r="A915" s="18"/>
+      <c r="A915" s="24"/>
     </row>
     <row r="916">
-      <c r="A916" s="18"/>
+      <c r="A916" s="24"/>
     </row>
     <row r="917">
-      <c r="A917" s="18"/>
+      <c r="A917" s="24"/>
     </row>
     <row r="918">
-      <c r="A918" s="18"/>
+      <c r="A918" s="24"/>
     </row>
     <row r="919">
-      <c r="A919" s="18"/>
+      <c r="A919" s="24"/>
     </row>
     <row r="920">
-      <c r="A920" s="18"/>
+      <c r="A920" s="24"/>
     </row>
     <row r="921">
-      <c r="A921" s="18"/>
+      <c r="A921" s="24"/>
     </row>
     <row r="922">
-      <c r="A922" s="18"/>
+      <c r="A922" s="24"/>
     </row>
     <row r="923">
-      <c r="A923" s="18"/>
+      <c r="A923" s="24"/>
     </row>
     <row r="924">
-      <c r="A924" s="18"/>
+      <c r="A924" s="24"/>
     </row>
     <row r="925">
-      <c r="A925" s="18"/>
+      <c r="A925" s="24"/>
     </row>
     <row r="926">
-      <c r="A926" s="18"/>
+      <c r="A926" s="24"/>
     </row>
     <row r="927">
-      <c r="A927" s="18"/>
+      <c r="A927" s="24"/>
     </row>
     <row r="928">
-      <c r="A928" s="18"/>
+      <c r="A928" s="24"/>
     </row>
     <row r="929">
-      <c r="A929" s="18"/>
+      <c r="A929" s="24"/>
     </row>
     <row r="930">
-      <c r="A930" s="18"/>
+      <c r="A930" s="24"/>
     </row>
     <row r="931">
-      <c r="A931" s="18"/>
+      <c r="A931" s="24"/>
     </row>
     <row r="932">
-      <c r="A932" s="18"/>
+      <c r="A932" s="24"/>
     </row>
     <row r="933">
-      <c r="A933" s="18"/>
+      <c r="A933" s="24"/>
     </row>
     <row r="934">
-      <c r="A934" s="18"/>
+      <c r="A934" s="24"/>
     </row>
     <row r="935">
-      <c r="A935" s="18"/>
+      <c r="A935" s="24"/>
     </row>
     <row r="936">
-      <c r="A936" s="18"/>
+      <c r="A936" s="24"/>
     </row>
     <row r="937">
-      <c r="A937" s="18"/>
+      <c r="A937" s="24"/>
     </row>
     <row r="938">
-      <c r="A938" s="18"/>
+      <c r="A938" s="24"/>
     </row>
     <row r="939">
-      <c r="A939" s="18"/>
+      <c r="A939" s="24"/>
     </row>
     <row r="940">
-      <c r="A940" s="18"/>
+      <c r="A940" s="24"/>
     </row>
     <row r="941">
-      <c r="A941" s="18"/>
+      <c r="A941" s="24"/>
     </row>
     <row r="942">
-      <c r="A942" s="18"/>
+      <c r="A942" s="24"/>
     </row>
     <row r="943">
-      <c r="A943" s="18"/>
+      <c r="A943" s="24"/>
     </row>
     <row r="944">
-      <c r="A944" s="18"/>
+      <c r="A944" s="24"/>
     </row>
     <row r="945">
-      <c r="A945" s="18"/>
+      <c r="A945" s="24"/>
     </row>
     <row r="946">
-      <c r="A946" s="18"/>
+      <c r="A946" s="24"/>
     </row>
     <row r="947">
-      <c r="A947" s="18"/>
+      <c r="A947" s="24"/>
     </row>
     <row r="948">
-      <c r="A948" s="18"/>
+      <c r="A948" s="24"/>
     </row>
     <row r="949">
-      <c r="A949" s="18"/>
+      <c r="A949" s="24"/>
     </row>
     <row r="950">
-      <c r="A950" s="18"/>
+      <c r="A950" s="24"/>
     </row>
     <row r="951">
-      <c r="A951" s="18"/>
+      <c r="A951" s="24"/>
     </row>
     <row r="952">
-      <c r="A952" s="18"/>
+      <c r="A952" s="24"/>
     </row>
     <row r="953">
-      <c r="A953" s="18"/>
+      <c r="A953" s="24"/>
     </row>
     <row r="954">
-      <c r="A954" s="18"/>
+      <c r="A954" s="24"/>
     </row>
     <row r="955">
-      <c r="A955" s="18"/>
+      <c r="A955" s="24"/>
     </row>
     <row r="956">
-      <c r="A956" s="18"/>
+      <c r="A956" s="24"/>
     </row>
     <row r="957">
-      <c r="A957" s="18"/>
+      <c r="A957" s="24"/>
     </row>
     <row r="958">
-      <c r="A958" s="18"/>
+      <c r="A958" s="24"/>
     </row>
     <row r="959">
-      <c r="A959" s="18"/>
+      <c r="A959" s="24"/>
     </row>
     <row r="960">
-      <c r="A960" s="18"/>
+      <c r="A960" s="24"/>
     </row>
     <row r="961">
-      <c r="A961" s="18"/>
+      <c r="A961" s="24"/>
     </row>
     <row r="962">
-      <c r="A962" s="18"/>
+      <c r="A962" s="24"/>
     </row>
     <row r="963">
-      <c r="A963" s="18"/>
+      <c r="A963" s="24"/>
     </row>
     <row r="964">
-      <c r="A964" s="18"/>
+      <c r="A964" s="24"/>
     </row>
     <row r="965">
-      <c r="A965" s="18"/>
+      <c r="A965" s="24"/>
     </row>
     <row r="966">
-      <c r="A966" s="18"/>
+      <c r="A966" s="24"/>
     </row>
     <row r="967">
-      <c r="A967" s="18"/>
+      <c r="A967" s="24"/>
     </row>
     <row r="968">
-      <c r="A968" s="18"/>
+      <c r="A968" s="24"/>
     </row>
     <row r="969">
-      <c r="A969" s="18"/>
+      <c r="A969" s="24"/>
     </row>
     <row r="970">
-      <c r="A970" s="18"/>
+      <c r="A970" s="24"/>
     </row>
     <row r="971">
-      <c r="A971" s="18"/>
+      <c r="A971" s="24"/>
     </row>
     <row r="972">
-      <c r="A972" s="18"/>
+      <c r="A972" s="24"/>
     </row>
     <row r="973">
-      <c r="A973" s="18"/>
+      <c r="A973" s="24"/>
     </row>
     <row r="974">
-      <c r="A974" s="18"/>
+      <c r="A974" s="24"/>
     </row>
     <row r="975">
-      <c r="A975" s="18"/>
+      <c r="A975" s="24"/>
     </row>
     <row r="976">
-      <c r="A976" s="18"/>
+      <c r="A976" s="24"/>
     </row>
     <row r="977">
-      <c r="A977" s="18"/>
+      <c r="A977" s="24"/>
     </row>
     <row r="978">
-      <c r="A978" s="18"/>
+      <c r="A978" s="24"/>
     </row>
     <row r="979">
-      <c r="A979" s="18"/>
+      <c r="A979" s="24"/>
     </row>
     <row r="980">
-      <c r="A980" s="18"/>
+      <c r="A980" s="24"/>
     </row>
     <row r="981">
-      <c r="A981" s="18"/>
+      <c r="A981" s="24"/>
     </row>
     <row r="982">
-      <c r="A982" s="18"/>
+      <c r="A982" s="24"/>
     </row>
     <row r="983">
-      <c r="A983" s="18"/>
+      <c r="A983" s="24"/>
     </row>
     <row r="984">
-      <c r="A984" s="18"/>
+      <c r="A984" s="24"/>
     </row>
     <row r="985">
-      <c r="A985" s="18"/>
+      <c r="A985" s="24"/>
     </row>
     <row r="986">
-      <c r="A986" s="18"/>
+      <c r="A986" s="24"/>
     </row>
     <row r="987">
-      <c r="A987" s="18"/>
+      <c r="A987" s="24"/>
     </row>
     <row r="988">
-      <c r="A988" s="18"/>
+      <c r="A988" s="24"/>
     </row>
     <row r="989">
-      <c r="A989" s="18"/>
+      <c r="A989" s="24"/>
     </row>
     <row r="990">
-      <c r="A990" s="18"/>
+      <c r="A990" s="24"/>
     </row>
     <row r="991">
-      <c r="A991" s="18"/>
+      <c r="A991" s="24"/>
     </row>
     <row r="992">
-      <c r="A992" s="18"/>
+      <c r="A992" s="24"/>
     </row>
     <row r="993">
-      <c r="A993" s="18"/>
+      <c r="A993" s="24"/>
     </row>
     <row r="994">
-      <c r="A994" s="18"/>
+      <c r="A994" s="24"/>
     </row>
     <row r="995">
-      <c r="A995" s="18"/>
+      <c r="A995" s="24"/>
     </row>
     <row r="996">
-      <c r="A996" s="18"/>
+      <c r="A996" s="24"/>
     </row>
     <row r="997">
-      <c r="A997" s="18"/>
+      <c r="A997" s="24"/>
     </row>
     <row r="998">
-      <c r="A998" s="18"/>
+      <c r="A998" s="24"/>
     </row>
     <row r="999">
-      <c r="A999" s="18"/>
+      <c r="A999" s="24"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="18"/>
+      <c r="A1000" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -32178,19 +34305,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1352</v>
+        <v>1430</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1353</v>
+        <v>1431</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1354</v>
+        <v>1432</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1355</v>
+        <v>1433</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -32214,21 +34341,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>1356</v>
+        <v>1434</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1357</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1358</v>
+        <v>1436</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1359</v>
+        <v>1437</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -32240,33 +34367,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1361</v>
+        <v>1439</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1362</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1363</v>
+        <v>1441</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1364</v>
+        <v>1442</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -32277,10 +34404,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1365</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1366</v>
+        <v>1444</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -32288,22 +34415,22 @@
       <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="25">
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1367</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1368</v>
+        <v>1446</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1369</v>
+        <v>1447</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1370</v>
+        <v>1448</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -32311,10 +34438,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1371</v>
+        <v>1449</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1372</v>
+        <v>1450</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -32340,147 +34467,5161 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1373</v>
+        <v>1451</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C2" s="7">
         <v>2.0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>19.0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>5.0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>12.0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>0.0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>15.0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C3" s="7">
         <v>5.0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>34.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>8.0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>16.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>12.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>18.0</v>
       </c>
       <c r="I3" s="7">
         <v>18.0</v>
       </c>
+      <c r="J3" s="7">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E4" s="7">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F4" s="7">
         <v>17.0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>7.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>18.0</v>
       </c>
       <c r="H4" s="7">
         <v>18.0</v>
       </c>
       <c r="I4" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="J4" s="7">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F5" s="7">
         <v>6.0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>3.0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>14.0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>8.0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F6" s="7">
         <v>11.0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>2.0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>15.0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>20.0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>7.0</v>
       </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="10.5"/>
+    <col customWidth="1" min="4" max="4" width="11.0"/>
+    <col customWidth="1" min="5" max="5" width="32.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3378.0</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3380.0</v>
+      </c>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3383.0</v>
+      </c>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3370.0</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3362.0</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3373.0</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3358.0</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3355.0</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3381.0</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3382.0</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3374.0</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3379.0</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3385.0</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3376.0</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3365.0</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3367.0</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3372.0</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3364.0</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3371.0</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3361.0</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3356.0</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3359.0</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3351.0</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3352.0</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3350.0</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3275.0</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3384.0</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3377.0</v>
+      </c>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3369.0</v>
+      </c>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3368.0</v>
+      </c>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3366.0</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3353.0</v>
+      </c>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3360.0</v>
+      </c>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44690.0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3354.0</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3401.0</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3400.0</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="D38" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3404.0</v>
+      </c>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="D40" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3412.0</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3420.0</v>
+      </c>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3413.0</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D44" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3387.0</v>
+      </c>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3408.0</v>
+      </c>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3399.0</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3405.0</v>
+      </c>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3411.0</v>
+      </c>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4073.0</v>
+      </c>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3391.0</v>
+      </c>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3393.0</v>
+      </c>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3397.0</v>
+      </c>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D54" s="7">
+        <v>3390.0</v>
+      </c>
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3409.0</v>
+      </c>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3403.0</v>
+      </c>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3398.0</v>
+      </c>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D58" s="7">
+        <v>3406.0</v>
+      </c>
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3407.0</v>
+      </c>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3410.0</v>
+      </c>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3419.0</v>
+      </c>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3421.0</v>
+      </c>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3415.0</v>
+      </c>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3394.0</v>
+      </c>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3486.0</v>
+      </c>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3481.0</v>
+      </c>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3478.0</v>
+      </c>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3484.0</v>
+      </c>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3482.0</v>
+      </c>
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3489.0</v>
+      </c>
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3494.0</v>
+      </c>
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D72" s="7">
+        <v>3500.0</v>
+      </c>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3490.0</v>
+      </c>
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3492.0</v>
+      </c>
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3474.0</v>
+      </c>
+      <c r="E75" s="28"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D76" s="7">
+        <v>3480.0</v>
+      </c>
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D77" s="7">
+        <v>3483.0</v>
+      </c>
+      <c r="E77" s="28"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D78" s="7">
+        <v>3468.0</v>
+      </c>
+      <c r="E78" s="28"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D79" s="7">
+        <v>3473.0</v>
+      </c>
+      <c r="E79" s="28"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D80" s="7">
+        <v>3471.0</v>
+      </c>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D81" s="7">
+        <v>3469.0</v>
+      </c>
+      <c r="E81" s="28"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3470.0</v>
+      </c>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D83" s="7">
+        <v>3467.0</v>
+      </c>
+      <c r="E83" s="28"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D84" s="7">
+        <v>3479.0</v>
+      </c>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D85" s="7">
+        <v>3487.0</v>
+      </c>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D86" s="7">
+        <v>3493.0</v>
+      </c>
+      <c r="E86" s="28"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3491.0</v>
+      </c>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B88" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D88" s="7">
+        <v>3498.0</v>
+      </c>
+      <c r="E88" s="28"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D89" s="7">
+        <v>3499.0</v>
+      </c>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D90" s="7">
+        <v>3465.0</v>
+      </c>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B91" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D91" s="7">
+        <v>3472.0</v>
+      </c>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B92" s="6">
+        <v>44704.0</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D92" s="7">
+        <v>3466.0</v>
+      </c>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B93" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D93" s="7">
+        <v>3307.0</v>
+      </c>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B94" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D94" s="7">
+        <v>3303.0</v>
+      </c>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B95" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D95" s="7">
+        <v>3302.0</v>
+      </c>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B96" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D96" s="7">
+        <v>3306.0</v>
+      </c>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B97" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4040.0</v>
+      </c>
+      <c r="E97" s="28"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B98" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4038.0</v>
+      </c>
+      <c r="E98" s="28"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B99" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D99" s="7">
+        <v>3316.0</v>
+      </c>
+      <c r="E99" s="28"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B100" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D100" s="7">
+        <v>3318.0</v>
+      </c>
+      <c r="E100" s="28"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B101" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D101" s="7">
+        <v>3328.0</v>
+      </c>
+      <c r="E101" s="28"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B102" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D102" s="7">
+        <v>3330.0</v>
+      </c>
+      <c r="E102" s="28"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B103" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D103" s="7">
+        <v>3333.0</v>
+      </c>
+      <c r="E103" s="28"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B104" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D104" s="7">
+        <v>3331.0</v>
+      </c>
+      <c r="E104" s="28"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B105" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D105" s="7">
+        <v>3305.0</v>
+      </c>
+      <c r="E105" s="28"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B106" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D106" s="7">
+        <v>3304.0</v>
+      </c>
+      <c r="E106" s="28"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B107" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D107" s="7">
+        <v>3301.0</v>
+      </c>
+      <c r="E107" s="28"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B108" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D108" s="7">
+        <v>3312.0</v>
+      </c>
+      <c r="E108" s="28"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B109" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D109" s="7">
+        <v>3310.0</v>
+      </c>
+      <c r="E109" s="28"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B110" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D110" s="7">
+        <v>3320.0</v>
+      </c>
+      <c r="E110" s="28"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B111" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D111" s="7">
+        <v>3315.0</v>
+      </c>
+      <c r="E111" s="28"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B112" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3313.0</v>
+      </c>
+      <c r="E112" s="28"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B113" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D113" s="7">
+        <v>3326.0</v>
+      </c>
+      <c r="E113" s="28"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B114" s="6">
+        <v>44705.0</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D114" s="7">
+        <v>3325.0</v>
+      </c>
+      <c r="E114" s="28"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B115" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D115" s="7">
+        <v>2514.0</v>
+      </c>
+      <c r="E115" s="28"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B116" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2523.0</v>
+      </c>
+      <c r="E116" s="28"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B117" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D117" s="7">
+        <v>2518.0</v>
+      </c>
+      <c r="E117" s="28"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B118" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D118" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B119" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D119" s="7">
+        <v>2531.0</v>
+      </c>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B120" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D120" s="7">
+        <v>2526.0</v>
+      </c>
+      <c r="E120" s="28"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B121" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D121" s="7">
+        <v>2525.0</v>
+      </c>
+      <c r="E121" s="28"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B122" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D122" s="7">
+        <v>2502.0</v>
+      </c>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B123" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D123" s="7">
+        <v>2509.0</v>
+      </c>
+      <c r="E123" s="28"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B124" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D124" s="7">
+        <v>2512.0</v>
+      </c>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B125" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D125" s="7">
+        <v>2506.0</v>
+      </c>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B126" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D126" s="7">
+        <v>2524.0</v>
+      </c>
+      <c r="E126" s="28"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B127" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D127" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B128" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D128" s="7">
+        <v>2528.0</v>
+      </c>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B129" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D129" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B130" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2503.0</v>
+      </c>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B131" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D131" s="7">
+        <v>2504.0</v>
+      </c>
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B132" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D132" s="7">
+        <v>2508.0</v>
+      </c>
+      <c r="E132" s="28"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B133" s="6">
+        <v>44708.0</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D133" s="7">
+        <v>2507.0</v>
+      </c>
+      <c r="E133" s="28"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B134" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B135" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B136" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B137" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B138" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B139" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B140" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B141" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B142" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B143" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B144" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B145" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B146" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B147" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B148" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B149" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B150" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B151" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B152" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B153" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B154" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B155" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B156" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B157" s="6">
+        <v>44713.0</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" s="28"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="28"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="28"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="28"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="28"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="28"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="28"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="28"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="28"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="28"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="28"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="28"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="28"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="28"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="28"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="28"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="28"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="28"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="28"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="28"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="28"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="28"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="28"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="28"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="28"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="28"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="28"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="28"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="28"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="28"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="28"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="28"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="28"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="28"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="28"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="28"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="28"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="28"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="28"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="28"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="28"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="28"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="28"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="28"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="28"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="28"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="28"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="28"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="28"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="28"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="28"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="28"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="28"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="28"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="28"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="28"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="28"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="28"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="28"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="28"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="28"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="28"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="28"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="28"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="28"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="28"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="28"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="28"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="28"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="28"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="28"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="28"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="28"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="28"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="28"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="28"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="28"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="28"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="28"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="28"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="28"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="28"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="28"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="28"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="28"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="28"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="28"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="28"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="28"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="28"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="28"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="28"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="28"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="28"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="28"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="28"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="28"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="28"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="28"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="28"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="28"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="28"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="28"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="28"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="28"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="28"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="28"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="28"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="28"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="28"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="28"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="28"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="28"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="28"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="28"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="28"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="28"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="28"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="28"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="28"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="28"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="28"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="28"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="28"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="28"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="28"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="28"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="28"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="28"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="28"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="28"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="28"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="28"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="28"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="28"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="28"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="28"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="28"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="28"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="28"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="28"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="28"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="28"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="28"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="28"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="28"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="28"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="28"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="28"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="28"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="28"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="28"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="28"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="28"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="28"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="28"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="28"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="28"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="28"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="28"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="28"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="28"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="28"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="28"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="28"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="28"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="28"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="28"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="28"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="28"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="28"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="28"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="28"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="28"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="28"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="28"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="28"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="28"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="28"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="28"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="28"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="28"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="28"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="28"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="28"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="28"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="28"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="28"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="28"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="28"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="28"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="28"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="28"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="28"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="28"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="28"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="28"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="28"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="28"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="28"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="28"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="28"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="28"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="28"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="28"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="28"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="28"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="28"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="28"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="28"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="28"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="28"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="28"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="28"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="28"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="28"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="28"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="28"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="28"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="28"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="28"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="28"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="28"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="28"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="28"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="28"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="28"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="28"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="28"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="28"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="28"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="28"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="28"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="28"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="28"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="28"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="28"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="28"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="28"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="28"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="28"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="28"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="28"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="28"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="28"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="28"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="28"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="28"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="28"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="28"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="28"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="28"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="28"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="28"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="28"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="28"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="28"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="28"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="28"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="28"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="28"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="28"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="28"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="28"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="28"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="28"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="28"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="28"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="28"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="28"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="28"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="28"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="28"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="28"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="28"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="28"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="28"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="28"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="28"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="28"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="28"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="28"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="28"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="28"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="28"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="28"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="28"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="28"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="28"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="28"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="28"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="28"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="28"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="28"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="28"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="28"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="28"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="28"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="28"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="28"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="28"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="28"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="28"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="28"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="28"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="28"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="28"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="28"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="28"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="28"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="28"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="28"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="28"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="28"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="28"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="28"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="28"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="28"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="28"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="28"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="28"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="28"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="28"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="28"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="28"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="28"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="28"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="28"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="28"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="28"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="28"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="28"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="28"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="28"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="28"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="28"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="28"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="28"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="28"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="28"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="28"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="28"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="28"/>
+    </row>
+    <row r="501">
+      <c r="E501" s="28"/>
+    </row>
+    <row r="502">
+      <c r="E502" s="28"/>
+    </row>
+    <row r="503">
+      <c r="E503" s="28"/>
+    </row>
+    <row r="504">
+      <c r="E504" s="28"/>
+    </row>
+    <row r="505">
+      <c r="E505" s="28"/>
+    </row>
+    <row r="506">
+      <c r="E506" s="28"/>
+    </row>
+    <row r="507">
+      <c r="E507" s="28"/>
+    </row>
+    <row r="508">
+      <c r="E508" s="28"/>
+    </row>
+    <row r="509">
+      <c r="E509" s="28"/>
+    </row>
+    <row r="510">
+      <c r="E510" s="28"/>
+    </row>
+    <row r="511">
+      <c r="E511" s="28"/>
+    </row>
+    <row r="512">
+      <c r="E512" s="28"/>
+    </row>
+    <row r="513">
+      <c r="E513" s="28"/>
+    </row>
+    <row r="514">
+      <c r="E514" s="28"/>
+    </row>
+    <row r="515">
+      <c r="E515" s="28"/>
+    </row>
+    <row r="516">
+      <c r="E516" s="28"/>
+    </row>
+    <row r="517">
+      <c r="E517" s="28"/>
+    </row>
+    <row r="518">
+      <c r="E518" s="28"/>
+    </row>
+    <row r="519">
+      <c r="E519" s="28"/>
+    </row>
+    <row r="520">
+      <c r="E520" s="28"/>
+    </row>
+    <row r="521">
+      <c r="E521" s="28"/>
+    </row>
+    <row r="522">
+      <c r="E522" s="28"/>
+    </row>
+    <row r="523">
+      <c r="E523" s="28"/>
+    </row>
+    <row r="524">
+      <c r="E524" s="28"/>
+    </row>
+    <row r="525">
+      <c r="E525" s="28"/>
+    </row>
+    <row r="526">
+      <c r="E526" s="28"/>
+    </row>
+    <row r="527">
+      <c r="E527" s="28"/>
+    </row>
+    <row r="528">
+      <c r="E528" s="28"/>
+    </row>
+    <row r="529">
+      <c r="E529" s="28"/>
+    </row>
+    <row r="530">
+      <c r="E530" s="28"/>
+    </row>
+    <row r="531">
+      <c r="E531" s="28"/>
+    </row>
+    <row r="532">
+      <c r="E532" s="28"/>
+    </row>
+    <row r="533">
+      <c r="E533" s="28"/>
+    </row>
+    <row r="534">
+      <c r="E534" s="28"/>
+    </row>
+    <row r="535">
+      <c r="E535" s="28"/>
+    </row>
+    <row r="536">
+      <c r="E536" s="28"/>
+    </row>
+    <row r="537">
+      <c r="E537" s="28"/>
+    </row>
+    <row r="538">
+      <c r="E538" s="28"/>
+    </row>
+    <row r="539">
+      <c r="E539" s="28"/>
+    </row>
+    <row r="540">
+      <c r="E540" s="28"/>
+    </row>
+    <row r="541">
+      <c r="E541" s="28"/>
+    </row>
+    <row r="542">
+      <c r="E542" s="28"/>
+    </row>
+    <row r="543">
+      <c r="E543" s="28"/>
+    </row>
+    <row r="544">
+      <c r="E544" s="28"/>
+    </row>
+    <row r="545">
+      <c r="E545" s="28"/>
+    </row>
+    <row r="546">
+      <c r="E546" s="28"/>
+    </row>
+    <row r="547">
+      <c r="E547" s="28"/>
+    </row>
+    <row r="548">
+      <c r="E548" s="28"/>
+    </row>
+    <row r="549">
+      <c r="E549" s="28"/>
+    </row>
+    <row r="550">
+      <c r="E550" s="28"/>
+    </row>
+    <row r="551">
+      <c r="E551" s="28"/>
+    </row>
+    <row r="552">
+      <c r="E552" s="28"/>
+    </row>
+    <row r="553">
+      <c r="E553" s="28"/>
+    </row>
+    <row r="554">
+      <c r="E554" s="28"/>
+    </row>
+    <row r="555">
+      <c r="E555" s="28"/>
+    </row>
+    <row r="556">
+      <c r="E556" s="28"/>
+    </row>
+    <row r="557">
+      <c r="E557" s="28"/>
+    </row>
+    <row r="558">
+      <c r="E558" s="28"/>
+    </row>
+    <row r="559">
+      <c r="E559" s="28"/>
+    </row>
+    <row r="560">
+      <c r="E560" s="28"/>
+    </row>
+    <row r="561">
+      <c r="E561" s="28"/>
+    </row>
+    <row r="562">
+      <c r="E562" s="28"/>
+    </row>
+    <row r="563">
+      <c r="E563" s="28"/>
+    </row>
+    <row r="564">
+      <c r="E564" s="28"/>
+    </row>
+    <row r="565">
+      <c r="E565" s="28"/>
+    </row>
+    <row r="566">
+      <c r="E566" s="28"/>
+    </row>
+    <row r="567">
+      <c r="E567" s="28"/>
+    </row>
+    <row r="568">
+      <c r="E568" s="28"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="28"/>
+    </row>
+    <row r="570">
+      <c r="E570" s="28"/>
+    </row>
+    <row r="571">
+      <c r="E571" s="28"/>
+    </row>
+    <row r="572">
+      <c r="E572" s="28"/>
+    </row>
+    <row r="573">
+      <c r="E573" s="28"/>
+    </row>
+    <row r="574">
+      <c r="E574" s="28"/>
+    </row>
+    <row r="575">
+      <c r="E575" s="28"/>
+    </row>
+    <row r="576">
+      <c r="E576" s="28"/>
+    </row>
+    <row r="577">
+      <c r="E577" s="28"/>
+    </row>
+    <row r="578">
+      <c r="E578" s="28"/>
+    </row>
+    <row r="579">
+      <c r="E579" s="28"/>
+    </row>
+    <row r="580">
+      <c r="E580" s="28"/>
+    </row>
+    <row r="581">
+      <c r="E581" s="28"/>
+    </row>
+    <row r="582">
+      <c r="E582" s="28"/>
+    </row>
+    <row r="583">
+      <c r="E583" s="28"/>
+    </row>
+    <row r="584">
+      <c r="E584" s="28"/>
+    </row>
+    <row r="585">
+      <c r="E585" s="28"/>
+    </row>
+    <row r="586">
+      <c r="E586" s="28"/>
+    </row>
+    <row r="587">
+      <c r="E587" s="28"/>
+    </row>
+    <row r="588">
+      <c r="E588" s="28"/>
+    </row>
+    <row r="589">
+      <c r="E589" s="28"/>
+    </row>
+    <row r="590">
+      <c r="E590" s="28"/>
+    </row>
+    <row r="591">
+      <c r="E591" s="28"/>
+    </row>
+    <row r="592">
+      <c r="E592" s="28"/>
+    </row>
+    <row r="593">
+      <c r="E593" s="28"/>
+    </row>
+    <row r="594">
+      <c r="E594" s="28"/>
+    </row>
+    <row r="595">
+      <c r="E595" s="28"/>
+    </row>
+    <row r="596">
+      <c r="E596" s="28"/>
+    </row>
+    <row r="597">
+      <c r="E597" s="28"/>
+    </row>
+    <row r="598">
+      <c r="E598" s="28"/>
+    </row>
+    <row r="599">
+      <c r="E599" s="28"/>
+    </row>
+    <row r="600">
+      <c r="E600" s="28"/>
+    </row>
+    <row r="601">
+      <c r="E601" s="28"/>
+    </row>
+    <row r="602">
+      <c r="E602" s="28"/>
+    </row>
+    <row r="603">
+      <c r="E603" s="28"/>
+    </row>
+    <row r="604">
+      <c r="E604" s="28"/>
+    </row>
+    <row r="605">
+      <c r="E605" s="28"/>
+    </row>
+    <row r="606">
+      <c r="E606" s="28"/>
+    </row>
+    <row r="607">
+      <c r="E607" s="28"/>
+    </row>
+    <row r="608">
+      <c r="E608" s="28"/>
+    </row>
+    <row r="609">
+      <c r="E609" s="28"/>
+    </row>
+    <row r="610">
+      <c r="E610" s="28"/>
+    </row>
+    <row r="611">
+      <c r="E611" s="28"/>
+    </row>
+    <row r="612">
+      <c r="E612" s="28"/>
+    </row>
+    <row r="613">
+      <c r="E613" s="28"/>
+    </row>
+    <row r="614">
+      <c r="E614" s="28"/>
+    </row>
+    <row r="615">
+      <c r="E615" s="28"/>
+    </row>
+    <row r="616">
+      <c r="E616" s="28"/>
+    </row>
+    <row r="617">
+      <c r="E617" s="28"/>
+    </row>
+    <row r="618">
+      <c r="E618" s="28"/>
+    </row>
+    <row r="619">
+      <c r="E619" s="28"/>
+    </row>
+    <row r="620">
+      <c r="E620" s="28"/>
+    </row>
+    <row r="621">
+      <c r="E621" s="28"/>
+    </row>
+    <row r="622">
+      <c r="E622" s="28"/>
+    </row>
+    <row r="623">
+      <c r="E623" s="28"/>
+    </row>
+    <row r="624">
+      <c r="E624" s="28"/>
+    </row>
+    <row r="625">
+      <c r="E625" s="28"/>
+    </row>
+    <row r="626">
+      <c r="E626" s="28"/>
+    </row>
+    <row r="627">
+      <c r="E627" s="28"/>
+    </row>
+    <row r="628">
+      <c r="E628" s="28"/>
+    </row>
+    <row r="629">
+      <c r="E629" s="28"/>
+    </row>
+    <row r="630">
+      <c r="E630" s="28"/>
+    </row>
+    <row r="631">
+      <c r="E631" s="28"/>
+    </row>
+    <row r="632">
+      <c r="E632" s="28"/>
+    </row>
+    <row r="633">
+      <c r="E633" s="28"/>
+    </row>
+    <row r="634">
+      <c r="E634" s="28"/>
+    </row>
+    <row r="635">
+      <c r="E635" s="28"/>
+    </row>
+    <row r="636">
+      <c r="E636" s="28"/>
+    </row>
+    <row r="637">
+      <c r="E637" s="28"/>
+    </row>
+    <row r="638">
+      <c r="E638" s="28"/>
+    </row>
+    <row r="639">
+      <c r="E639" s="28"/>
+    </row>
+    <row r="640">
+      <c r="E640" s="28"/>
+    </row>
+    <row r="641">
+      <c r="E641" s="28"/>
+    </row>
+    <row r="642">
+      <c r="E642" s="28"/>
+    </row>
+    <row r="643">
+      <c r="E643" s="28"/>
+    </row>
+    <row r="644">
+      <c r="E644" s="28"/>
+    </row>
+    <row r="645">
+      <c r="E645" s="28"/>
+    </row>
+    <row r="646">
+      <c r="E646" s="28"/>
+    </row>
+    <row r="647">
+      <c r="E647" s="28"/>
+    </row>
+    <row r="648">
+      <c r="E648" s="28"/>
+    </row>
+    <row r="649">
+      <c r="E649" s="28"/>
+    </row>
+    <row r="650">
+      <c r="E650" s="28"/>
+    </row>
+    <row r="651">
+      <c r="E651" s="28"/>
+    </row>
+    <row r="652">
+      <c r="E652" s="28"/>
+    </row>
+    <row r="653">
+      <c r="E653" s="28"/>
+    </row>
+    <row r="654">
+      <c r="E654" s="28"/>
+    </row>
+    <row r="655">
+      <c r="E655" s="28"/>
+    </row>
+    <row r="656">
+      <c r="E656" s="28"/>
+    </row>
+    <row r="657">
+      <c r="E657" s="28"/>
+    </row>
+    <row r="658">
+      <c r="E658" s="28"/>
+    </row>
+    <row r="659">
+      <c r="E659" s="28"/>
+    </row>
+    <row r="660">
+      <c r="E660" s="28"/>
+    </row>
+    <row r="661">
+      <c r="E661" s="28"/>
+    </row>
+    <row r="662">
+      <c r="E662" s="28"/>
+    </row>
+    <row r="663">
+      <c r="E663" s="28"/>
+    </row>
+    <row r="664">
+      <c r="E664" s="28"/>
+    </row>
+    <row r="665">
+      <c r="E665" s="28"/>
+    </row>
+    <row r="666">
+      <c r="E666" s="28"/>
+    </row>
+    <row r="667">
+      <c r="E667" s="28"/>
+    </row>
+    <row r="668">
+      <c r="E668" s="28"/>
+    </row>
+    <row r="669">
+      <c r="E669" s="28"/>
+    </row>
+    <row r="670">
+      <c r="E670" s="28"/>
+    </row>
+    <row r="671">
+      <c r="E671" s="28"/>
+    </row>
+    <row r="672">
+      <c r="E672" s="28"/>
+    </row>
+    <row r="673">
+      <c r="E673" s="28"/>
+    </row>
+    <row r="674">
+      <c r="E674" s="28"/>
+    </row>
+    <row r="675">
+      <c r="E675" s="28"/>
+    </row>
+    <row r="676">
+      <c r="E676" s="28"/>
+    </row>
+    <row r="677">
+      <c r="E677" s="28"/>
+    </row>
+    <row r="678">
+      <c r="E678" s="28"/>
+    </row>
+    <row r="679">
+      <c r="E679" s="28"/>
+    </row>
+    <row r="680">
+      <c r="E680" s="28"/>
+    </row>
+    <row r="681">
+      <c r="E681" s="28"/>
+    </row>
+    <row r="682">
+      <c r="E682" s="28"/>
+    </row>
+    <row r="683">
+      <c r="E683" s="28"/>
+    </row>
+    <row r="684">
+      <c r="E684" s="28"/>
+    </row>
+    <row r="685">
+      <c r="E685" s="28"/>
+    </row>
+    <row r="686">
+      <c r="E686" s="28"/>
+    </row>
+    <row r="687">
+      <c r="E687" s="28"/>
+    </row>
+    <row r="688">
+      <c r="E688" s="28"/>
+    </row>
+    <row r="689">
+      <c r="E689" s="28"/>
+    </row>
+    <row r="690">
+      <c r="E690" s="28"/>
+    </row>
+    <row r="691">
+      <c r="E691" s="28"/>
+    </row>
+    <row r="692">
+      <c r="E692" s="28"/>
+    </row>
+    <row r="693">
+      <c r="E693" s="28"/>
+    </row>
+    <row r="694">
+      <c r="E694" s="28"/>
+    </row>
+    <row r="695">
+      <c r="E695" s="28"/>
+    </row>
+    <row r="696">
+      <c r="E696" s="28"/>
+    </row>
+    <row r="697">
+      <c r="E697" s="28"/>
+    </row>
+    <row r="698">
+      <c r="E698" s="28"/>
+    </row>
+    <row r="699">
+      <c r="E699" s="28"/>
+    </row>
+    <row r="700">
+      <c r="E700" s="28"/>
+    </row>
+    <row r="701">
+      <c r="E701" s="28"/>
+    </row>
+    <row r="702">
+      <c r="E702" s="28"/>
+    </row>
+    <row r="703">
+      <c r="E703" s="28"/>
+    </row>
+    <row r="704">
+      <c r="E704" s="28"/>
+    </row>
+    <row r="705">
+      <c r="E705" s="28"/>
+    </row>
+    <row r="706">
+      <c r="E706" s="28"/>
+    </row>
+    <row r="707">
+      <c r="E707" s="28"/>
+    </row>
+    <row r="708">
+      <c r="E708" s="28"/>
+    </row>
+    <row r="709">
+      <c r="E709" s="28"/>
+    </row>
+    <row r="710">
+      <c r="E710" s="28"/>
+    </row>
+    <row r="711">
+      <c r="E711" s="28"/>
+    </row>
+    <row r="712">
+      <c r="E712" s="28"/>
+    </row>
+    <row r="713">
+      <c r="E713" s="28"/>
+    </row>
+    <row r="714">
+      <c r="E714" s="28"/>
+    </row>
+    <row r="715">
+      <c r="E715" s="28"/>
+    </row>
+    <row r="716">
+      <c r="E716" s="28"/>
+    </row>
+    <row r="717">
+      <c r="E717" s="28"/>
+    </row>
+    <row r="718">
+      <c r="E718" s="28"/>
+    </row>
+    <row r="719">
+      <c r="E719" s="28"/>
+    </row>
+    <row r="720">
+      <c r="E720" s="28"/>
+    </row>
+    <row r="721">
+      <c r="E721" s="28"/>
+    </row>
+    <row r="722">
+      <c r="E722" s="28"/>
+    </row>
+    <row r="723">
+      <c r="E723" s="28"/>
+    </row>
+    <row r="724">
+      <c r="E724" s="28"/>
+    </row>
+    <row r="725">
+      <c r="E725" s="28"/>
+    </row>
+    <row r="726">
+      <c r="E726" s="28"/>
+    </row>
+    <row r="727">
+      <c r="E727" s="28"/>
+    </row>
+    <row r="728">
+      <c r="E728" s="28"/>
+    </row>
+    <row r="729">
+      <c r="E729" s="28"/>
+    </row>
+    <row r="730">
+      <c r="E730" s="28"/>
+    </row>
+    <row r="731">
+      <c r="E731" s="28"/>
+    </row>
+    <row r="732">
+      <c r="E732" s="28"/>
+    </row>
+    <row r="733">
+      <c r="E733" s="28"/>
+    </row>
+    <row r="734">
+      <c r="E734" s="28"/>
+    </row>
+    <row r="735">
+      <c r="E735" s="28"/>
+    </row>
+    <row r="736">
+      <c r="E736" s="28"/>
+    </row>
+    <row r="737">
+      <c r="E737" s="28"/>
+    </row>
+    <row r="738">
+      <c r="E738" s="28"/>
+    </row>
+    <row r="739">
+      <c r="E739" s="28"/>
+    </row>
+    <row r="740">
+      <c r="E740" s="28"/>
+    </row>
+    <row r="741">
+      <c r="E741" s="28"/>
+    </row>
+    <row r="742">
+      <c r="E742" s="28"/>
+    </row>
+    <row r="743">
+      <c r="E743" s="28"/>
+    </row>
+    <row r="744">
+      <c r="E744" s="28"/>
+    </row>
+    <row r="745">
+      <c r="E745" s="28"/>
+    </row>
+    <row r="746">
+      <c r="E746" s="28"/>
+    </row>
+    <row r="747">
+      <c r="E747" s="28"/>
+    </row>
+    <row r="748">
+      <c r="E748" s="28"/>
+    </row>
+    <row r="749">
+      <c r="E749" s="28"/>
+    </row>
+    <row r="750">
+      <c r="E750" s="28"/>
+    </row>
+    <row r="751">
+      <c r="E751" s="28"/>
+    </row>
+    <row r="752">
+      <c r="E752" s="28"/>
+    </row>
+    <row r="753">
+      <c r="E753" s="28"/>
+    </row>
+    <row r="754">
+      <c r="E754" s="28"/>
+    </row>
+    <row r="755">
+      <c r="E755" s="28"/>
+    </row>
+    <row r="756">
+      <c r="E756" s="28"/>
+    </row>
+    <row r="757">
+      <c r="E757" s="28"/>
+    </row>
+    <row r="758">
+      <c r="E758" s="28"/>
+    </row>
+    <row r="759">
+      <c r="E759" s="28"/>
+    </row>
+    <row r="760">
+      <c r="E760" s="28"/>
+    </row>
+    <row r="761">
+      <c r="E761" s="28"/>
+    </row>
+    <row r="762">
+      <c r="E762" s="28"/>
+    </row>
+    <row r="763">
+      <c r="E763" s="28"/>
+    </row>
+    <row r="764">
+      <c r="E764" s="28"/>
+    </row>
+    <row r="765">
+      <c r="E765" s="28"/>
+    </row>
+    <row r="766">
+      <c r="E766" s="28"/>
+    </row>
+    <row r="767">
+      <c r="E767" s="28"/>
+    </row>
+    <row r="768">
+      <c r="E768" s="28"/>
+    </row>
+    <row r="769">
+      <c r="E769" s="28"/>
+    </row>
+    <row r="770">
+      <c r="E770" s="28"/>
+    </row>
+    <row r="771">
+      <c r="E771" s="28"/>
+    </row>
+    <row r="772">
+      <c r="E772" s="28"/>
+    </row>
+    <row r="773">
+      <c r="E773" s="28"/>
+    </row>
+    <row r="774">
+      <c r="E774" s="28"/>
+    </row>
+    <row r="775">
+      <c r="E775" s="28"/>
+    </row>
+    <row r="776">
+      <c r="E776" s="28"/>
+    </row>
+    <row r="777">
+      <c r="E777" s="28"/>
+    </row>
+    <row r="778">
+      <c r="E778" s="28"/>
+    </row>
+    <row r="779">
+      <c r="E779" s="28"/>
+    </row>
+    <row r="780">
+      <c r="E780" s="28"/>
+    </row>
+    <row r="781">
+      <c r="E781" s="28"/>
+    </row>
+    <row r="782">
+      <c r="E782" s="28"/>
+    </row>
+    <row r="783">
+      <c r="E783" s="28"/>
+    </row>
+    <row r="784">
+      <c r="E784" s="28"/>
+    </row>
+    <row r="785">
+      <c r="E785" s="28"/>
+    </row>
+    <row r="786">
+      <c r="E786" s="28"/>
+    </row>
+    <row r="787">
+      <c r="E787" s="28"/>
+    </row>
+    <row r="788">
+      <c r="E788" s="28"/>
+    </row>
+    <row r="789">
+      <c r="E789" s="28"/>
+    </row>
+    <row r="790">
+      <c r="E790" s="28"/>
+    </row>
+    <row r="791">
+      <c r="E791" s="28"/>
+    </row>
+    <row r="792">
+      <c r="E792" s="28"/>
+    </row>
+    <row r="793">
+      <c r="E793" s="28"/>
+    </row>
+    <row r="794">
+      <c r="E794" s="28"/>
+    </row>
+    <row r="795">
+      <c r="E795" s="28"/>
+    </row>
+    <row r="796">
+      <c r="E796" s="28"/>
+    </row>
+    <row r="797">
+      <c r="E797" s="28"/>
+    </row>
+    <row r="798">
+      <c r="E798" s="28"/>
+    </row>
+    <row r="799">
+      <c r="E799" s="28"/>
+    </row>
+    <row r="800">
+      <c r="E800" s="28"/>
+    </row>
+    <row r="801">
+      <c r="E801" s="28"/>
+    </row>
+    <row r="802">
+      <c r="E802" s="28"/>
+    </row>
+    <row r="803">
+      <c r="E803" s="28"/>
+    </row>
+    <row r="804">
+      <c r="E804" s="28"/>
+    </row>
+    <row r="805">
+      <c r="E805" s="28"/>
+    </row>
+    <row r="806">
+      <c r="E806" s="28"/>
+    </row>
+    <row r="807">
+      <c r="E807" s="28"/>
+    </row>
+    <row r="808">
+      <c r="E808" s="28"/>
+    </row>
+    <row r="809">
+      <c r="E809" s="28"/>
+    </row>
+    <row r="810">
+      <c r="E810" s="28"/>
+    </row>
+    <row r="811">
+      <c r="E811" s="28"/>
+    </row>
+    <row r="812">
+      <c r="E812" s="28"/>
+    </row>
+    <row r="813">
+      <c r="E813" s="28"/>
+    </row>
+    <row r="814">
+      <c r="E814" s="28"/>
+    </row>
+    <row r="815">
+      <c r="E815" s="28"/>
+    </row>
+    <row r="816">
+      <c r="E816" s="28"/>
+    </row>
+    <row r="817">
+      <c r="E817" s="28"/>
+    </row>
+    <row r="818">
+      <c r="E818" s="28"/>
+    </row>
+    <row r="819">
+      <c r="E819" s="28"/>
+    </row>
+    <row r="820">
+      <c r="E820" s="28"/>
+    </row>
+    <row r="821">
+      <c r="E821" s="28"/>
+    </row>
+    <row r="822">
+      <c r="E822" s="28"/>
+    </row>
+    <row r="823">
+      <c r="E823" s="28"/>
+    </row>
+    <row r="824">
+      <c r="E824" s="28"/>
+    </row>
+    <row r="825">
+      <c r="E825" s="28"/>
+    </row>
+    <row r="826">
+      <c r="E826" s="28"/>
+    </row>
+    <row r="827">
+      <c r="E827" s="28"/>
+    </row>
+    <row r="828">
+      <c r="E828" s="28"/>
+    </row>
+    <row r="829">
+      <c r="E829" s="28"/>
+    </row>
+    <row r="830">
+      <c r="E830" s="28"/>
+    </row>
+    <row r="831">
+      <c r="E831" s="28"/>
+    </row>
+    <row r="832">
+      <c r="E832" s="28"/>
+    </row>
+    <row r="833">
+      <c r="E833" s="28"/>
+    </row>
+    <row r="834">
+      <c r="E834" s="28"/>
+    </row>
+    <row r="835">
+      <c r="E835" s="28"/>
+    </row>
+    <row r="836">
+      <c r="E836" s="28"/>
+    </row>
+    <row r="837">
+      <c r="E837" s="28"/>
+    </row>
+    <row r="838">
+      <c r="E838" s="28"/>
+    </row>
+    <row r="839">
+      <c r="E839" s="28"/>
+    </row>
+    <row r="840">
+      <c r="E840" s="28"/>
+    </row>
+    <row r="841">
+      <c r="E841" s="28"/>
+    </row>
+    <row r="842">
+      <c r="E842" s="28"/>
+    </row>
+    <row r="843">
+      <c r="E843" s="28"/>
+    </row>
+    <row r="844">
+      <c r="E844" s="28"/>
+    </row>
+    <row r="845">
+      <c r="E845" s="28"/>
+    </row>
+    <row r="846">
+      <c r="E846" s="28"/>
+    </row>
+    <row r="847">
+      <c r="E847" s="28"/>
+    </row>
+    <row r="848">
+      <c r="E848" s="28"/>
+    </row>
+    <row r="849">
+      <c r="E849" s="28"/>
+    </row>
+    <row r="850">
+      <c r="E850" s="28"/>
+    </row>
+    <row r="851">
+      <c r="E851" s="28"/>
+    </row>
+    <row r="852">
+      <c r="E852" s="28"/>
+    </row>
+    <row r="853">
+      <c r="E853" s="28"/>
+    </row>
+    <row r="854">
+      <c r="E854" s="28"/>
+    </row>
+    <row r="855">
+      <c r="E855" s="28"/>
+    </row>
+    <row r="856">
+      <c r="E856" s="28"/>
+    </row>
+    <row r="857">
+      <c r="E857" s="28"/>
+    </row>
+    <row r="858">
+      <c r="E858" s="28"/>
+    </row>
+    <row r="859">
+      <c r="E859" s="28"/>
+    </row>
+    <row r="860">
+      <c r="E860" s="28"/>
+    </row>
+    <row r="861">
+      <c r="E861" s="28"/>
+    </row>
+    <row r="862">
+      <c r="E862" s="28"/>
+    </row>
+    <row r="863">
+      <c r="E863" s="28"/>
+    </row>
+    <row r="864">
+      <c r="E864" s="28"/>
+    </row>
+    <row r="865">
+      <c r="E865" s="28"/>
+    </row>
+    <row r="866">
+      <c r="E866" s="28"/>
+    </row>
+    <row r="867">
+      <c r="E867" s="28"/>
+    </row>
+    <row r="868">
+      <c r="E868" s="28"/>
+    </row>
+    <row r="869">
+      <c r="E869" s="28"/>
+    </row>
+    <row r="870">
+      <c r="E870" s="28"/>
+    </row>
+    <row r="871">
+      <c r="E871" s="28"/>
+    </row>
+    <row r="872">
+      <c r="E872" s="28"/>
+    </row>
+    <row r="873">
+      <c r="E873" s="28"/>
+    </row>
+    <row r="874">
+      <c r="E874" s="28"/>
+    </row>
+    <row r="875">
+      <c r="E875" s="28"/>
+    </row>
+    <row r="876">
+      <c r="E876" s="28"/>
+    </row>
+    <row r="877">
+      <c r="E877" s="28"/>
+    </row>
+    <row r="878">
+      <c r="E878" s="28"/>
+    </row>
+    <row r="879">
+      <c r="E879" s="28"/>
+    </row>
+    <row r="880">
+      <c r="E880" s="28"/>
+    </row>
+    <row r="881">
+      <c r="E881" s="28"/>
+    </row>
+    <row r="882">
+      <c r="E882" s="28"/>
+    </row>
+    <row r="883">
+      <c r="E883" s="28"/>
+    </row>
+    <row r="884">
+      <c r="E884" s="28"/>
+    </row>
+    <row r="885">
+      <c r="E885" s="28"/>
+    </row>
+    <row r="886">
+      <c r="E886" s="28"/>
+    </row>
+    <row r="887">
+      <c r="E887" s="28"/>
+    </row>
+    <row r="888">
+      <c r="E888" s="28"/>
+    </row>
+    <row r="889">
+      <c r="E889" s="28"/>
+    </row>
+    <row r="890">
+      <c r="E890" s="28"/>
+    </row>
+    <row r="891">
+      <c r="E891" s="28"/>
+    </row>
+    <row r="892">
+      <c r="E892" s="28"/>
+    </row>
+    <row r="893">
+      <c r="E893" s="28"/>
+    </row>
+    <row r="894">
+      <c r="E894" s="28"/>
+    </row>
+    <row r="895">
+      <c r="E895" s="28"/>
+    </row>
+    <row r="896">
+      <c r="E896" s="28"/>
+    </row>
+    <row r="897">
+      <c r="E897" s="28"/>
+    </row>
+    <row r="898">
+      <c r="E898" s="28"/>
+    </row>
+    <row r="899">
+      <c r="E899" s="28"/>
+    </row>
+    <row r="900">
+      <c r="E900" s="28"/>
+    </row>
+    <row r="901">
+      <c r="E901" s="28"/>
+    </row>
+    <row r="902">
+      <c r="E902" s="28"/>
+    </row>
+    <row r="903">
+      <c r="E903" s="28"/>
+    </row>
+    <row r="904">
+      <c r="E904" s="28"/>
+    </row>
+    <row r="905">
+      <c r="E905" s="28"/>
+    </row>
+    <row r="906">
+      <c r="E906" s="28"/>
+    </row>
+    <row r="907">
+      <c r="E907" s="28"/>
+    </row>
+    <row r="908">
+      <c r="E908" s="28"/>
+    </row>
+    <row r="909">
+      <c r="E909" s="28"/>
+    </row>
+    <row r="910">
+      <c r="E910" s="28"/>
+    </row>
+    <row r="911">
+      <c r="E911" s="28"/>
+    </row>
+    <row r="912">
+      <c r="E912" s="28"/>
+    </row>
+    <row r="913">
+      <c r="E913" s="28"/>
+    </row>
+    <row r="914">
+      <c r="E914" s="28"/>
+    </row>
+    <row r="915">
+      <c r="E915" s="28"/>
+    </row>
+    <row r="916">
+      <c r="E916" s="28"/>
+    </row>
+    <row r="917">
+      <c r="E917" s="28"/>
+    </row>
+    <row r="918">
+      <c r="E918" s="28"/>
+    </row>
+    <row r="919">
+      <c r="E919" s="28"/>
+    </row>
+    <row r="920">
+      <c r="E920" s="28"/>
+    </row>
+    <row r="921">
+      <c r="E921" s="28"/>
+    </row>
+    <row r="922">
+      <c r="E922" s="28"/>
+    </row>
+    <row r="923">
+      <c r="E923" s="28"/>
+    </row>
+    <row r="924">
+      <c r="E924" s="28"/>
+    </row>
+    <row r="925">
+      <c r="E925" s="28"/>
+    </row>
+    <row r="926">
+      <c r="E926" s="28"/>
+    </row>
+    <row r="927">
+      <c r="E927" s="28"/>
+    </row>
+    <row r="928">
+      <c r="E928" s="28"/>
+    </row>
+    <row r="929">
+      <c r="E929" s="28"/>
+    </row>
+    <row r="930">
+      <c r="E930" s="28"/>
+    </row>
+    <row r="931">
+      <c r="E931" s="28"/>
+    </row>
+    <row r="932">
+      <c r="E932" s="28"/>
+    </row>
+    <row r="933">
+      <c r="E933" s="28"/>
+    </row>
+    <row r="934">
+      <c r="E934" s="28"/>
+    </row>
+    <row r="935">
+      <c r="E935" s="28"/>
+    </row>
+    <row r="936">
+      <c r="E936" s="28"/>
+    </row>
+    <row r="937">
+      <c r="E937" s="28"/>
+    </row>
+    <row r="938">
+      <c r="E938" s="28"/>
+    </row>
+    <row r="939">
+      <c r="E939" s="28"/>
+    </row>
+    <row r="940">
+      <c r="E940" s="28"/>
+    </row>
+    <row r="941">
+      <c r="E941" s="28"/>
+    </row>
+    <row r="942">
+      <c r="E942" s="28"/>
+    </row>
+    <row r="943">
+      <c r="E943" s="28"/>
+    </row>
+    <row r="944">
+      <c r="E944" s="28"/>
+    </row>
+    <row r="945">
+      <c r="E945" s="28"/>
+    </row>
+    <row r="946">
+      <c r="E946" s="28"/>
+    </row>
+    <row r="947">
+      <c r="E947" s="28"/>
+    </row>
+    <row r="948">
+      <c r="E948" s="28"/>
+    </row>
+    <row r="949">
+      <c r="E949" s="28"/>
+    </row>
+    <row r="950">
+      <c r="E950" s="28"/>
+    </row>
+    <row r="951">
+      <c r="E951" s="28"/>
+    </row>
+    <row r="952">
+      <c r="E952" s="28"/>
+    </row>
+    <row r="953">
+      <c r="E953" s="28"/>
+    </row>
+    <row r="954">
+      <c r="E954" s="28"/>
+    </row>
+    <row r="955">
+      <c r="E955" s="28"/>
+    </row>
+    <row r="956">
+      <c r="E956" s="28"/>
+    </row>
+    <row r="957">
+      <c r="E957" s="28"/>
+    </row>
+    <row r="958">
+      <c r="E958" s="28"/>
+    </row>
+    <row r="959">
+      <c r="E959" s="28"/>
+    </row>
+    <row r="960">
+      <c r="E960" s="28"/>
+    </row>
+    <row r="961">
+      <c r="E961" s="28"/>
+    </row>
+    <row r="962">
+      <c r="E962" s="28"/>
+    </row>
+    <row r="963">
+      <c r="E963" s="28"/>
+    </row>
+    <row r="964">
+      <c r="E964" s="28"/>
+    </row>
+    <row r="965">
+      <c r="E965" s="28"/>
+    </row>
+    <row r="966">
+      <c r="E966" s="28"/>
+    </row>
+    <row r="967">
+      <c r="E967" s="28"/>
+    </row>
+    <row r="968">
+      <c r="E968" s="28"/>
+    </row>
+    <row r="969">
+      <c r="E969" s="28"/>
+    </row>
+    <row r="970">
+      <c r="E970" s="28"/>
+    </row>
+    <row r="971">
+      <c r="E971" s="28"/>
+    </row>
+    <row r="972">
+      <c r="E972" s="28"/>
+    </row>
+    <row r="973">
+      <c r="E973" s="28"/>
+    </row>
+    <row r="974">
+      <c r="E974" s="28"/>
+    </row>
+    <row r="975">
+      <c r="E975" s="28"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="28"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="28"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="28"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="28"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="28"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="28"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="28"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="28"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="28"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="28"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="28"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="28"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="28"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="28"/>
+    </row>
+    <row r="990">
+      <c r="E990" s="28"/>
+    </row>
+    <row r="991">
+      <c r="E991" s="28"/>
+    </row>
+    <row r="992">
+      <c r="E992" s="28"/>
+    </row>
+    <row r="993">
+      <c r="E993" s="28"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="28"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="28"/>
+    </row>
+    <row r="996">
+      <c r="E996" s="28"/>
+    </row>
+    <row r="997">
+      <c r="E997" s="28"/>
+    </row>
+    <row r="998">
+      <c r="E998" s="28"/>
+    </row>
+    <row r="999">
+      <c r="E999" s="28"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="28"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="1597">
   <si>
     <t>Date</t>
   </si>
@@ -4301,6 +4301,405 @@
   </si>
   <si>
     <t>G1678</t>
+  </si>
+  <si>
+    <t>SRA_046</t>
+  </si>
+  <si>
+    <t>G1606</t>
+  </si>
+  <si>
+    <t>SRA_047</t>
+  </si>
+  <si>
+    <t>SRA_048</t>
+  </si>
+  <si>
+    <t>G1607</t>
+  </si>
+  <si>
+    <t>SRA_049</t>
+  </si>
+  <si>
+    <t>G1608</t>
+  </si>
+  <si>
+    <t>SRA_050</t>
+  </si>
+  <si>
+    <t>G1616</t>
+  </si>
+  <si>
+    <t>SRA_051</t>
+  </si>
+  <si>
+    <t>G1609</t>
+  </si>
+  <si>
+    <t>Disease; sampled from non diseased side</t>
+  </si>
+  <si>
+    <t>SRA_052</t>
+  </si>
+  <si>
+    <t>G1610</t>
+  </si>
+  <si>
+    <t>SRA_053</t>
+  </si>
+  <si>
+    <t>G1617</t>
+  </si>
+  <si>
+    <t>SRA_054</t>
+  </si>
+  <si>
+    <t>G1626</t>
+  </si>
+  <si>
+    <t>SRA_055</t>
+  </si>
+  <si>
+    <t>SRA_056</t>
+  </si>
+  <si>
+    <t>G1618</t>
+  </si>
+  <si>
+    <t>SRA_057</t>
+  </si>
+  <si>
+    <t>G1636</t>
+  </si>
+  <si>
+    <t>SRA_058</t>
+  </si>
+  <si>
+    <t>SRA_059</t>
+  </si>
+  <si>
+    <t>G1619</t>
+  </si>
+  <si>
+    <t>SRA_060</t>
+  </si>
+  <si>
+    <t>G1620</t>
+  </si>
+  <si>
+    <t>SRA_061</t>
+  </si>
+  <si>
+    <t>G1627</t>
+  </si>
+  <si>
+    <t>SRA_062</t>
+  </si>
+  <si>
+    <t>SRA_063</t>
+  </si>
+  <si>
+    <t>G1628</t>
+  </si>
+  <si>
+    <t>SRA_064</t>
+  </si>
+  <si>
+    <t>SRA_065</t>
+  </si>
+  <si>
+    <t>G1637</t>
+  </si>
+  <si>
+    <t>SRA_066</t>
+  </si>
+  <si>
+    <t>SRA_067</t>
+  </si>
+  <si>
+    <t>G1022</t>
+  </si>
+  <si>
+    <t>SRA_068</t>
+  </si>
+  <si>
+    <t>SRA_069</t>
+  </si>
+  <si>
+    <t>G1023</t>
+  </si>
+  <si>
+    <t>SRA_070</t>
+  </si>
+  <si>
+    <t>SRA_071</t>
+  </si>
+  <si>
+    <t>G1208</t>
+  </si>
+  <si>
+    <t>SRA_072</t>
+  </si>
+  <si>
+    <t>G1209</t>
+  </si>
+  <si>
+    <t>SRA_073</t>
+  </si>
+  <si>
+    <t>G1216</t>
+  </si>
+  <si>
+    <t>SRA_074</t>
+  </si>
+  <si>
+    <t>G1210</t>
+  </si>
+  <si>
+    <t>SRA_075</t>
+  </si>
+  <si>
+    <t>G1217</t>
+  </si>
+  <si>
+    <t>SRA_076</t>
+  </si>
+  <si>
+    <t>G1218</t>
+  </si>
+  <si>
+    <t>SRA_077</t>
+  </si>
+  <si>
+    <t>G1226</t>
+  </si>
+  <si>
+    <t>SRA_078</t>
+  </si>
+  <si>
+    <t>SRA_079</t>
+  </si>
+  <si>
+    <t>G1219</t>
+  </si>
+  <si>
+    <t>SRA_080</t>
+  </si>
+  <si>
+    <t>G1220</t>
+  </si>
+  <si>
+    <t>SRA_081</t>
+  </si>
+  <si>
+    <t>G1227</t>
+  </si>
+  <si>
+    <t>SRA_082</t>
+  </si>
+  <si>
+    <t>G1228</t>
+  </si>
+  <si>
+    <t>SRA_083</t>
+  </si>
+  <si>
+    <t>G1236</t>
+  </si>
+  <si>
+    <t>SRA_084</t>
+  </si>
+  <si>
+    <t>G1229</t>
+  </si>
+  <si>
+    <t>SRA_085</t>
+  </si>
+  <si>
+    <t>G1230</t>
+  </si>
+  <si>
+    <t>SRA_086</t>
+  </si>
+  <si>
+    <t>G1237</t>
+  </si>
+  <si>
+    <t>SRA_087</t>
+  </si>
+  <si>
+    <t>G1238</t>
+  </si>
+  <si>
+    <t>SRA_088</t>
+  </si>
+  <si>
+    <t>G1239</t>
+  </si>
+  <si>
+    <t>SRA_089</t>
+  </si>
+  <si>
+    <t>G1240</t>
+  </si>
+  <si>
+    <t>SRA_090</t>
+  </si>
+  <si>
+    <t>G1246</t>
+  </si>
+  <si>
+    <t>SRA_091</t>
+  </si>
+  <si>
+    <t>G1247</t>
+  </si>
+  <si>
+    <t>BIA_001</t>
+  </si>
+  <si>
+    <t>G1856</t>
+  </si>
+  <si>
+    <t>BIA_002</t>
+  </si>
+  <si>
+    <t>G1857</t>
+  </si>
+  <si>
+    <t>BIA_003</t>
+  </si>
+  <si>
+    <t>BIA_004</t>
+  </si>
+  <si>
+    <t>G1866</t>
+  </si>
+  <si>
+    <t>BIA_005</t>
+  </si>
+  <si>
+    <t>BIA_006</t>
+  </si>
+  <si>
+    <t>G1858</t>
+  </si>
+  <si>
+    <t>BIA_007</t>
+  </si>
+  <si>
+    <t>BIA_008</t>
+  </si>
+  <si>
+    <t>G1859</t>
+  </si>
+  <si>
+    <t>BIA_009</t>
+  </si>
+  <si>
+    <t>BIA_010</t>
+  </si>
+  <si>
+    <t>G1867</t>
+  </si>
+  <si>
+    <t>BIA_011</t>
+  </si>
+  <si>
+    <t>G1868</t>
+  </si>
+  <si>
+    <t>BIA_012</t>
+  </si>
+  <si>
+    <t>BIA_013</t>
+  </si>
+  <si>
+    <t>G1860</t>
+  </si>
+  <si>
+    <t>BIA_014</t>
+  </si>
+  <si>
+    <t>BIA_015</t>
+  </si>
+  <si>
+    <t>G1851</t>
+  </si>
+  <si>
+    <t>BIA_016</t>
+  </si>
+  <si>
+    <t>BIA_017</t>
+  </si>
+  <si>
+    <t>G1852</t>
+  </si>
+  <si>
+    <t>BIA_018</t>
+  </si>
+  <si>
+    <t>BIA_019</t>
+  </si>
+  <si>
+    <t>G1853</t>
+  </si>
+  <si>
+    <t>BIA_020</t>
+  </si>
+  <si>
+    <t>BIA_021</t>
+  </si>
+  <si>
+    <t>G1854</t>
+  </si>
+  <si>
+    <t>BIA_022</t>
+  </si>
+  <si>
+    <t>BIA_023</t>
+  </si>
+  <si>
+    <t>G1855</t>
+  </si>
+  <si>
+    <t>BIA_024</t>
+  </si>
+  <si>
+    <t>BIA_025</t>
+  </si>
+  <si>
+    <t>G1863</t>
+  </si>
+  <si>
+    <t>BIA_026</t>
+  </si>
+  <si>
+    <t>BIA_027</t>
+  </si>
+  <si>
+    <t>G1864</t>
+  </si>
+  <si>
+    <t>BIA_028</t>
+  </si>
+  <si>
+    <t>BIA_029</t>
+  </si>
+  <si>
+    <t>G1865</t>
+  </si>
+  <si>
+    <t>BIA_030</t>
+  </si>
+  <si>
+    <t>BIA_031</t>
+  </si>
+  <si>
+    <t>G1861</t>
+  </si>
+  <si>
+    <t>BIA_032</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -4819,9 +5218,8 @@
     <col customWidth="1" min="6" max="6" width="10.38"/>
     <col customWidth="1" min="7" max="7" width="7.88"/>
     <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="9" width="22.25"/>
-    <col customWidth="1" min="10" max="10" width="19.63"/>
-    <col customWidth="1" min="11" max="11" width="19.13"/>
+    <col customWidth="1" min="9" max="9" width="12.88"/>
+    <col customWidth="1" min="10" max="11" width="12.38"/>
     <col customWidth="1" min="12" max="12" width="12.0"/>
     <col customWidth="1" min="13" max="13" width="29.88"/>
     <col customWidth="1" min="14" max="14" width="19.25"/>
@@ -33971,238 +34369,2647 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="24"/>
+      <c r="A895" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B895" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C895" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D895" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E895" s="8">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="F895" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G895" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H895" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J895" s="11">
+        <v>17.7819174807519</v>
+      </c>
+      <c r="K895" s="11">
+        <v>-64.7565879207104</v>
+      </c>
+      <c r="M895" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="896">
-      <c r="A896" s="24"/>
+      <c r="A896" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B896" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C896" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D896" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E896" s="8">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="F896" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G896" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H896" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J896" s="11">
+        <v>17.7819174807519</v>
+      </c>
+      <c r="K896" s="11">
+        <v>-64.7565879207104</v>
+      </c>
+      <c r="M896" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="897">
-      <c r="A897" s="24"/>
+      <c r="A897" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B897" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C897" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D897" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E897" s="8">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F897" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G897" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H897" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J897" s="11">
+        <v>17.7817620802671</v>
+      </c>
+      <c r="K897" s="11">
+        <v>-64.7563694883138</v>
+      </c>
     </row>
     <row r="898">
-      <c r="A898" s="24"/>
+      <c r="A898" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B898" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C898" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D898" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E898" s="8">
+        <v>0.3590277777777778</v>
+      </c>
+      <c r="F898" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G898" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H898" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J898" s="11">
+        <v>17.7817265409976</v>
+      </c>
+      <c r="K898" s="11">
+        <v>-64.7562093939632</v>
+      </c>
     </row>
     <row r="899">
-      <c r="A899" s="24"/>
+      <c r="A899" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B899" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C899" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D899" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E899" s="8">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="F899" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G899" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H899" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J899" s="11">
+        <v>17.7817099448293</v>
+      </c>
+      <c r="K899" s="11">
+        <v>-64.7562126629055</v>
+      </c>
     </row>
     <row r="900">
-      <c r="A900" s="24"/>
+      <c r="A900" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B900" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C900" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D900" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E900" s="8">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="F900" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G900" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H900" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J900" s="11">
+        <v>17.7816565521061</v>
+      </c>
+      <c r="K900" s="11">
+        <v>-64.7561439312994</v>
+      </c>
+      <c r="M900" s="7" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="901">
-      <c r="A901" s="24"/>
+      <c r="A901" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B901" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C901" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D901" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E901" s="8">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="F901" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G901" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H901" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J901" s="11">
+        <v>17.7815993037075</v>
+      </c>
+      <c r="K901" s="11">
+        <v>-64.7560552507639</v>
+      </c>
     </row>
     <row r="902">
-      <c r="A902" s="24"/>
+      <c r="A902" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B902" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C902" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D902" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E902" s="8">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="F902" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G902" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H902" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J902" s="11">
+        <v>17.7815461624414</v>
+      </c>
+      <c r="K902" s="11">
+        <v>-64.7560591902584</v>
+      </c>
     </row>
     <row r="903">
-      <c r="A903" s="24"/>
+      <c r="A903" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B903" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C903" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D903" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E903" s="8">
+        <v>0.3763888888888889</v>
+      </c>
+      <c r="F903" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G903" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H903" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J903" s="11">
+        <v>17.7814851421863</v>
+      </c>
+      <c r="K903" s="11">
+        <v>-64.7560161910951</v>
+      </c>
     </row>
     <row r="904">
-      <c r="A904" s="24"/>
+      <c r="A904" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B904" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C904" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D904" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E904" s="8">
+        <v>0.3763888888888889</v>
+      </c>
+      <c r="F904" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G904" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H904" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J904" s="11">
+        <v>17.7814851421863</v>
+      </c>
+      <c r="K904" s="11">
+        <v>-64.7560161910951</v>
+      </c>
+      <c r="M904" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="905">
-      <c r="A905" s="24"/>
+      <c r="A905" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B905" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C905" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D905" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E905" s="8">
+        <v>0.38125</v>
+      </c>
+      <c r="F905" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G905" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H905" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J905" s="11">
+        <v>17.7814946975559</v>
+      </c>
+      <c r="K905" s="11">
+        <v>-64.756076624617</v>
+      </c>
+      <c r="M905" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="906">
-      <c r="A906" s="24"/>
+      <c r="A906" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B906" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C906" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D906" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E906" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="F906" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G906" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H906" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J906" s="11">
+        <v>17.7814807835966</v>
+      </c>
+      <c r="K906" s="11">
+        <v>-64.7561170253903</v>
+      </c>
+      <c r="M906" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="907">
-      <c r="A907" s="24"/>
+      <c r="A907" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B907" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C907" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D907" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E907" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="F907" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G907" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H907" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J907" s="11">
+        <v>17.7814807835966</v>
+      </c>
+      <c r="K907" s="11">
+        <v>-64.7561170253903</v>
+      </c>
+      <c r="M907" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="908">
-      <c r="A908" s="24"/>
+      <c r="A908" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B908" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C908" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D908" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E908" s="8">
+        <v>0.3875</v>
+      </c>
+      <c r="F908" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G908" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H908" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J908" s="11">
+        <v>17.7815262973309</v>
+      </c>
+      <c r="K908" s="11">
+        <v>-64.7561557497829</v>
+      </c>
     </row>
     <row r="909">
-      <c r="A909" s="24"/>
+      <c r="A909" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B909" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C909" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D909" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E909" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F909" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G909" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H909" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J909" s="11">
+        <v>17.7815222740173</v>
+      </c>
+      <c r="K909" s="11">
+        <v>-64.7562963981181</v>
+      </c>
     </row>
     <row r="910">
-      <c r="A910" s="24"/>
+      <c r="A910" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B910" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C910" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D910" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E910" s="8">
+        <v>0.3951388888888889</v>
+      </c>
+      <c r="F910" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G910" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H910" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J910" s="11">
+        <v>17.7815523650497</v>
+      </c>
+      <c r="K910" s="11">
+        <v>-64.7562997508794</v>
+      </c>
+      <c r="M910" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="911">
-      <c r="A911" s="24"/>
+      <c r="A911" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B911" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C911" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D911" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E911" s="8">
+        <v>0.3951388888888889</v>
+      </c>
+      <c r="F911" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G911" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H911" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J911" s="11">
+        <v>17.7815523650497</v>
+      </c>
+      <c r="K911" s="11">
+        <v>-64.7562997508794</v>
+      </c>
+      <c r="M911" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="912">
-      <c r="A912" s="24"/>
+      <c r="A912" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B912" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C912" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D912" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E912" s="8">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="F912" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G912" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H912" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J912" s="11">
+        <v>17.7816207613796</v>
+      </c>
+      <c r="K912" s="11">
+        <v>-64.756335625425</v>
+      </c>
+      <c r="M912" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="913">
-      <c r="A913" s="24"/>
+      <c r="A913" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B913" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C913" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D913" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E913" s="8">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="F913" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G913" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H913" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J913" s="11">
+        <v>17.7816207613796</v>
+      </c>
+      <c r="K913" s="11">
+        <v>-64.756335625425</v>
+      </c>
+      <c r="M913" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="914">
-      <c r="A914" s="24"/>
+      <c r="A914" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B914" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C914" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D914" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E914" s="8">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="F914" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G914" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H914" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J914" s="11">
+        <v>17.7816595695913</v>
+      </c>
+      <c r="K914" s="11">
+        <v>-64.7564747650176</v>
+      </c>
+      <c r="M914" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="915">
-      <c r="A915" s="24"/>
+      <c r="A915" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B915" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C915" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D915" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="E915" s="8">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="F915" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G915" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H915" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J915" s="11">
+        <v>17.7816595695913</v>
+      </c>
+      <c r="K915" s="11">
+        <v>-64.7564747650176</v>
+      </c>
+      <c r="M915" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="916">
-      <c r="A916" s="24"/>
+      <c r="A916" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B916" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C916" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D916" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E916" s="8">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="F916" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G916" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H916" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J916" s="11">
+        <v>17.7817656006664</v>
+      </c>
+      <c r="K916" s="11">
+        <v>-64.7563759423792</v>
+      </c>
+      <c r="M916" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="917">
-      <c r="A917" s="24"/>
+      <c r="A917" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B917" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C917" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D917" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E917" s="8">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="F917" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G917" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H917" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J917" s="11">
+        <v>17.7817656006664</v>
+      </c>
+      <c r="K917" s="11">
+        <v>-64.7563759423792</v>
+      </c>
+      <c r="M917" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="918">
-      <c r="A918" s="24"/>
+      <c r="A918" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B918" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C918" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D918" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E918" s="8">
+        <v>0.35625</v>
+      </c>
+      <c r="F918" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G918" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H918" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J918" s="11">
+        <v>17.7817426342517</v>
+      </c>
+      <c r="K918" s="11">
+        <v>-64.7563581727445</v>
+      </c>
+      <c r="M918" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="919">
-      <c r="A919" s="24"/>
+      <c r="A919" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B919" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C919" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D919" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E919" s="8">
+        <v>0.35625</v>
+      </c>
+      <c r="F919" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G919" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H919" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J919" s="11">
+        <v>17.7817426342517</v>
+      </c>
+      <c r="K919" s="11">
+        <v>-64.7563581727445</v>
+      </c>
+      <c r="M919" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="920">
-      <c r="A920" s="24"/>
+      <c r="A920" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B920" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C920" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D920" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E920" s="8">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="F920" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G920" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H920" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J920" s="11">
+        <v>17.7817099448293</v>
+      </c>
+      <c r="K920" s="11">
+        <v>-64.7562126629055</v>
+      </c>
     </row>
     <row r="921">
-      <c r="A921" s="24"/>
+      <c r="A921" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B921" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C921" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D921" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E921" s="8">
+        <v>0.36736111111111114</v>
+      </c>
+      <c r="F921" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G921" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H921" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J921" s="11">
+        <v>17.7816565521061</v>
+      </c>
+      <c r="K921" s="11">
+        <v>-64.7561439312994</v>
+      </c>
     </row>
     <row r="922">
-      <c r="A922" s="24"/>
+      <c r="A922" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B922" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D922" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E922" s="8">
+        <v>0.3701388888888889</v>
+      </c>
+      <c r="F922" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G922" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H922" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J922" s="11">
+        <v>17.7816057577729</v>
+      </c>
+      <c r="K922" s="11">
+        <v>-64.7560409177095</v>
+      </c>
     </row>
     <row r="923">
-      <c r="A923" s="24"/>
+      <c r="A923" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B923" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C923" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D923" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E923" s="8">
+        <v>0.3729166666666667</v>
+      </c>
+      <c r="F923" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G923" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H923" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J923" s="11">
+        <v>17.7815495990217</v>
+      </c>
+      <c r="K923" s="11">
+        <v>-64.7560643032193</v>
+      </c>
     </row>
     <row r="924">
-      <c r="A924" s="24"/>
+      <c r="A924" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B924" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C924" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D924" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E924" s="8">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="F924" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G924" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H924" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J924" s="11">
+        <v>17.7815461624414</v>
+      </c>
+      <c r="K924" s="11">
+        <v>-64.7560591902584</v>
+      </c>
     </row>
     <row r="925">
-      <c r="A925" s="24"/>
+      <c r="A925" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B925" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C925" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D925" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E925" s="8">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="F925" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G925" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H925" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J925" s="11">
+        <v>17.7815184183419</v>
+      </c>
+      <c r="K925" s="11">
+        <v>-64.7560270037502</v>
+      </c>
     </row>
     <row r="926">
-      <c r="A926" s="24"/>
+      <c r="A926" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B926" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C926" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D926" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E926" s="8">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="F926" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G926" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H926" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J926" s="11">
+        <v>17.7814824599773</v>
+      </c>
+      <c r="K926" s="11">
+        <v>-64.7560669854283</v>
+      </c>
+      <c r="M926" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="927">
-      <c r="A927" s="24"/>
+      <c r="A927" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B927" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C927" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D927" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="E927" s="8">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="F927" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G927" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H927" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J927" s="11">
+        <v>17.7814824599773</v>
+      </c>
+      <c r="K927" s="11">
+        <v>-64.7560669854283</v>
+      </c>
+      <c r="M927" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="928">
-      <c r="A928" s="24"/>
+      <c r="A928" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B928" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C928" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D928" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="E928" s="8">
+        <v>0.38125</v>
+      </c>
+      <c r="F928" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G928" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H928" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J928" s="11">
+        <v>17.7814946975559</v>
+      </c>
+      <c r="K928" s="11">
+        <v>-64.756076624617</v>
+      </c>
     </row>
     <row r="929">
-      <c r="A929" s="24"/>
+      <c r="A929" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B929" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C929" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D929" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E929" s="8">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="F929" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G929" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H929" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J929" s="11">
+        <v>17.7814743295312</v>
+      </c>
+      <c r="K929" s="11">
+        <v>-64.7561107389629</v>
+      </c>
     </row>
     <row r="930">
-      <c r="A930" s="24"/>
+      <c r="A930" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B930" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C930" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D930" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E930" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="F930" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G930" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H930" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J930" s="11">
+        <v>17.7814807835966</v>
+      </c>
+      <c r="K930" s="11">
+        <v>-64.7561170253903</v>
+      </c>
     </row>
     <row r="931">
-      <c r="A931" s="24"/>
+      <c r="A931" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B931" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C931" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D931" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E931" s="8">
+        <v>0.3875</v>
+      </c>
+      <c r="F931" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G931" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H931" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J931" s="11">
+        <v>17.7815262973309</v>
+      </c>
+      <c r="K931" s="11">
+        <v>-64.7561557497829</v>
+      </c>
     </row>
     <row r="932">
-      <c r="A932" s="24"/>
+      <c r="A932" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B932" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C932" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D932" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E932" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="F932" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G932" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H932" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J932" s="11">
+        <v>17.7815435640514</v>
+      </c>
+      <c r="K932" s="11">
+        <v>-64.7561756987125</v>
+      </c>
     </row>
     <row r="933">
-      <c r="A933" s="24"/>
+      <c r="A933" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B933" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C933" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D933" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E933" s="8">
+        <v>0.3909722222222222</v>
+      </c>
+      <c r="F933" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G933" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H933" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J933" s="11">
+        <v>17.7814968768507</v>
+      </c>
+      <c r="K933" s="11">
+        <v>-64.7562160156667</v>
+      </c>
     </row>
     <row r="934">
-      <c r="A934" s="24"/>
+      <c r="A934" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B934" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C934" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D934" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E934" s="8">
+        <v>0.39375</v>
+      </c>
+      <c r="F934" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G934" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H934" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J934" s="11">
+        <v>17.781553119421</v>
+      </c>
+      <c r="K934" s="11">
+        <v>-64.7563174366951</v>
+      </c>
     </row>
     <row r="935">
-      <c r="A935" s="24"/>
+      <c r="A935" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B935" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C935" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D935" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E935" s="8">
+        <v>0.3951388888888889</v>
+      </c>
+      <c r="F935" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G935" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H935" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J935" s="11">
+        <v>17.7815523650497</v>
+      </c>
+      <c r="K935" s="11">
+        <v>-64.7562997508794</v>
+      </c>
     </row>
     <row r="936">
-      <c r="A936" s="24"/>
+      <c r="A936" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B936" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C936" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D936" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E936" s="8">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="F936" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G936" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H936" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J936" s="11">
+        <v>17.7816149778664</v>
+      </c>
+      <c r="K936" s="11">
+        <v>-64.7563520539552</v>
+      </c>
     </row>
     <row r="937">
-      <c r="A937" s="24"/>
+      <c r="A937" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B937" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C937" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D937" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E937" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F937" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G937" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H937" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J937" s="11">
+        <v>17.7816146425903</v>
+      </c>
+      <c r="K937" s="11">
+        <v>-64.7563414089382</v>
+      </c>
     </row>
     <row r="938">
-      <c r="A938" s="24"/>
+      <c r="A938" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B938" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C938" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D938" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E938" s="8">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="F938" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G938" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H938" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J938" s="11">
+        <v>17.7816606592387</v>
+      </c>
+      <c r="K938" s="11">
+        <v>-64.7564590070397</v>
+      </c>
     </row>
     <row r="939">
-      <c r="A939" s="24"/>
+      <c r="A939" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B939" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C939" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D939" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E939" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="F939" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G939" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H939" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J939" s="11">
+        <v>17.7816710527986</v>
+      </c>
+      <c r="K939" s="11">
+        <v>-64.7565150819719</v>
+      </c>
     </row>
     <row r="940">
-      <c r="A940" s="24"/>
+      <c r="A940" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B940" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C940" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D940" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E940" s="8">
+        <v>0.4083333333333333</v>
+      </c>
+      <c r="F940" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G940" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H940" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J940" s="11">
+        <v>17.7817664388567</v>
+      </c>
+      <c r="K940" s="11">
+        <v>-64.7566398046911</v>
+      </c>
     </row>
     <row r="941">
-      <c r="A941" s="24"/>
+      <c r="A941" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B941" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C941" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D941" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E941" s="8">
+        <v>0.63125</v>
+      </c>
+      <c r="F941" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G941" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H941" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J941" s="11">
+        <v>17.7872969862074</v>
+      </c>
+      <c r="K941" s="11">
+        <v>-64.6095775533468</v>
+      </c>
     </row>
     <row r="942">
-      <c r="A942" s="24"/>
+      <c r="A942" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B942" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C942" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D942" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E942" s="8">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F942" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G942" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H942" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J942" s="11">
+        <v>17.7872059587389</v>
+      </c>
+      <c r="K942" s="11">
+        <v>-64.6095987595618</v>
+      </c>
+      <c r="M942" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="943">
-      <c r="A943" s="24"/>
+      <c r="A943" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B943" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C943" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D943" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E943" s="8">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F943" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G943" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H943" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J943" s="11">
+        <v>17.7872059587389</v>
+      </c>
+      <c r="K943" s="11">
+        <v>-64.6095987595618</v>
+      </c>
+      <c r="M943" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="944">
-      <c r="A944" s="24"/>
+      <c r="A944" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B944" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C944" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D944" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E944" s="8">
+        <v>0.6375</v>
+      </c>
+      <c r="F944" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G944" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H944" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J944" s="11">
+        <v>17.7871865127236</v>
+      </c>
+      <c r="K944" s="11">
+        <v>-64.6095527429134</v>
+      </c>
+      <c r="M944" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="945">
-      <c r="A945" s="24"/>
+      <c r="A945" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B945" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C945" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D945" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E945" s="8">
+        <v>0.6375</v>
+      </c>
+      <c r="F945" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G945" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H945" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J945" s="11">
+        <v>17.7871865127236</v>
+      </c>
+      <c r="K945" s="11">
+        <v>-64.6095527429134</v>
+      </c>
+      <c r="M945" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="946">
-      <c r="A946" s="24"/>
+      <c r="A946" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B946" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C946" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D946" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E946" s="8">
+        <v>0.6423611111111112</v>
+      </c>
+      <c r="F946" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G946" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H946" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J946" s="11">
+        <v>17.7870855946094</v>
+      </c>
+      <c r="K946" s="11">
+        <v>-64.6095788944513</v>
+      </c>
+      <c r="M946" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="947">
-      <c r="A947" s="24"/>
+      <c r="A947" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B947" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C947" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D947" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E947" s="8">
+        <v>0.6423611111111112</v>
+      </c>
+      <c r="F947" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G947" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H947" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J947" s="11">
+        <v>17.7870855946094</v>
+      </c>
+      <c r="K947" s="11">
+        <v>-64.6095788944513</v>
+      </c>
+      <c r="M947" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="948">
-      <c r="A948" s="24"/>
+      <c r="A948" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B948" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C948" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D948" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E948" s="8">
+        <v>0.6465277777777778</v>
+      </c>
+      <c r="F948" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G948" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H948" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J948" s="11">
+        <v>17.7869964111596</v>
+      </c>
+      <c r="K948" s="11">
+        <v>-64.6094797365367</v>
+      </c>
+      <c r="M948" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="949">
-      <c r="A949" s="24"/>
+      <c r="A949" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B949" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C949" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D949" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E949" s="8">
+        <v>0.6465277777777778</v>
+      </c>
+      <c r="F949" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G949" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H949" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J949" s="11">
+        <v>17.7869964111596</v>
+      </c>
+      <c r="K949" s="11">
+        <v>-64.6094797365367</v>
+      </c>
+      <c r="M949" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="950">
-      <c r="A950" s="24"/>
+      <c r="A950" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B950" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C950" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D950" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E950" s="8">
+        <v>0.6513888888888889</v>
+      </c>
+      <c r="F950" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G950" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H950" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J950" s="11">
+        <v>17.7869213093072</v>
+      </c>
+      <c r="K950" s="11">
+        <v>-64.6095244958997</v>
+      </c>
     </row>
     <row r="951">
-      <c r="A951" s="24"/>
+      <c r="A951" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B951" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C951" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D951" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E951" s="8">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="F951" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G951" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H951" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J951" s="11">
+        <v>17.7868501469493</v>
+      </c>
+      <c r="K951" s="11">
+        <v>-64.6096182055771</v>
+      </c>
+      <c r="M951" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="952">
-      <c r="A952" s="24"/>
+      <c r="A952" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B952" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C952" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D952" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E952" s="8">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="F952" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G952" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H952" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J952" s="11">
+        <v>17.7868501469493</v>
+      </c>
+      <c r="K952" s="11">
+        <v>-64.6096182055771</v>
+      </c>
+      <c r="M952" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="953">
-      <c r="A953" s="24"/>
+      <c r="A953" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B953" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C953" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D953" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E953" s="8">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="F953" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G953" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H953" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J953" s="11">
+        <v>17.7867736201733</v>
+      </c>
+      <c r="K953" s="11">
+        <v>-64.6096846740693</v>
+      </c>
+      <c r="M953" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="954">
-      <c r="A954" s="24"/>
+      <c r="A954" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B954" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C954" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D954" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E954" s="8">
+        <v>0.6604166666666667</v>
+      </c>
+      <c r="F954" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G954" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H954" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J954" s="11">
+        <v>17.7867736201733</v>
+      </c>
+      <c r="K954" s="11">
+        <v>-64.6096846740693</v>
+      </c>
+      <c r="M954" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="955">
-      <c r="A955" s="24"/>
+      <c r="A955" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B955" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C955" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D955" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E955" s="8">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="F955" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G955" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H955" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J955" s="11">
+        <v>17.787216771394</v>
+      </c>
+      <c r="K955" s="11">
+        <v>-64.609633795917</v>
+      </c>
+      <c r="M955" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="956">
-      <c r="A956" s="24"/>
+      <c r="A956" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B956" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C956" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D956" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E956" s="8">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="F956" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G956" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H956" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J956" s="11">
+        <v>17.787216771394</v>
+      </c>
+      <c r="K956" s="11">
+        <v>-64.609633795917</v>
+      </c>
+      <c r="M956" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="957">
-      <c r="A957" s="24"/>
+      <c r="A957" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B957" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C957" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D957" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E957" s="8">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F957" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G957" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H957" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J957" s="11">
+        <v>17.7871963195503</v>
+      </c>
+      <c r="K957" s="11">
+        <v>-64.6096187923104</v>
+      </c>
+      <c r="M957" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="958">
-      <c r="A958" s="24"/>
+      <c r="A958" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B958" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C958" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D958" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E958" s="8">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F958" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G958" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H958" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J958" s="11">
+        <v>17.7871963195503</v>
+      </c>
+      <c r="K958" s="11">
+        <v>-64.6096187923104</v>
+      </c>
+      <c r="M958" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" s="24"/>
+      <c r="A959" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B959" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C959" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D959" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E959" s="8">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="F959" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G959" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H959" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J959" s="11">
+        <v>17.7870947308838</v>
+      </c>
+      <c r="K959" s="11">
+        <v>-64.6096144337207</v>
+      </c>
+      <c r="M959" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="960">
-      <c r="A960" s="24"/>
+      <c r="A960" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B960" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C960" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D960" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E960" s="8">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="F960" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G960" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H960" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J960" s="11">
+        <v>17.7870947308838</v>
+      </c>
+      <c r="K960" s="11">
+        <v>-64.6096144337207</v>
+      </c>
+      <c r="M960" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="961">
-      <c r="A961" s="24"/>
+      <c r="A961" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B961" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C961" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D961" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E961" s="8">
+        <v>0.6465277777777778</v>
+      </c>
+      <c r="F961" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G961" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H961" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J961" s="11">
+        <v>17.7869964111596</v>
+      </c>
+      <c r="K961" s="11">
+        <v>-64.6094797365367</v>
+      </c>
+      <c r="M961" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="962">
-      <c r="A962" s="24"/>
+      <c r="A962" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B962" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C962" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D962" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E962" s="8">
+        <v>0.6465277777777778</v>
+      </c>
+      <c r="F962" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G962" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H962" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J962" s="11">
+        <v>17.7869964111596</v>
+      </c>
+      <c r="K962" s="11">
+        <v>-64.6094797365367</v>
+      </c>
+      <c r="M962" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="963">
-      <c r="A963" s="24"/>
+      <c r="A963" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B963" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C963" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D963" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E963" s="8">
+        <v>0.6493055555555556</v>
+      </c>
+      <c r="F963" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G963" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H963" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J963" s="11">
+        <v>17.786920806393</v>
+      </c>
+      <c r="K963" s="11">
+        <v>-64.6095093246549</v>
+      </c>
+      <c r="M963" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="964">
-      <c r="A964" s="24"/>
+      <c r="A964" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B964" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C964" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D964" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E964" s="8">
+        <v>0.6493055555555556</v>
+      </c>
+      <c r="F964" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G964" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H964" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J964" s="11">
+        <v>17.786920806393</v>
+      </c>
+      <c r="K964" s="11">
+        <v>-64.6095093246549</v>
+      </c>
+      <c r="M964" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="965">
-      <c r="A965" s="24"/>
+      <c r="A965" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C965" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D965" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="E965" s="8">
+        <v>0.6520833333333333</v>
+      </c>
+      <c r="F965" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G965" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H965" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J965" s="11">
+        <v>17.7869192138314</v>
+      </c>
+      <c r="K965" s="11">
+        <v>-64.609570261091</v>
+      </c>
+      <c r="M965" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="966">
-      <c r="A966" s="24"/>
+      <c r="A966" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B966" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C966" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D966" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E966" s="8">
+        <v>0.6520833333333333</v>
+      </c>
+      <c r="F966" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G966" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H966" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J966" s="11">
+        <v>17.7869192138314</v>
+      </c>
+      <c r="K966" s="11">
+        <v>-64.609570261091</v>
+      </c>
+      <c r="M966" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="967">
-      <c r="A967" s="24"/>
+      <c r="A967" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B967" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C967" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D967" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="E967" s="8">
+        <v>0.6541666666666667</v>
+      </c>
+      <c r="F967" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G967" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H967" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J967" s="11">
+        <v>17.786907395348</v>
+      </c>
+      <c r="K967" s="11">
+        <v>-64.6095876954496</v>
+      </c>
+      <c r="M967" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="968">
-      <c r="A968" s="24"/>
+      <c r="A968" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B968" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C968" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D968" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E968" s="8">
+        <v>0.6541666666666667</v>
+      </c>
+      <c r="F968" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G968" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H968" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J968" s="11">
+        <v>17.786907395348</v>
+      </c>
+      <c r="K968" s="11">
+        <v>-64.6095876954496</v>
+      </c>
+      <c r="M968" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="969">
-      <c r="A969" s="24"/>
+      <c r="A969" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B969" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C969" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D969" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E969" s="8">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="F969" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G969" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H969" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J969" s="11">
+        <v>17.7867669984698</v>
+      </c>
+      <c r="K969" s="11">
+        <v>-64.6096779685467</v>
+      </c>
+      <c r="M969" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="970">
-      <c r="A970" s="24"/>
+      <c r="A970" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B970" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C970" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D970" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E970" s="8">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="F970" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G970" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H970" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J970" s="11">
+        <v>17.7867669984698</v>
+      </c>
+      <c r="K970" s="11">
+        <v>-64.6096779685467</v>
+      </c>
+      <c r="M970" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="971">
-      <c r="A971" s="24"/>
+      <c r="A971" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B971" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C971" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D971" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E971" s="8">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="F971" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G971" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H971" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J971" s="11">
+        <v>17.7867658250034</v>
+      </c>
+      <c r="K971" s="11">
+        <v>-64.6096836682409</v>
+      </c>
+      <c r="M971" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="972">
-      <c r="A972" s="24"/>
+      <c r="A972" s="6">
+        <v>44719.0</v>
+      </c>
+      <c r="B972" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C972" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D972" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E972" s="8">
+        <v>0.6611111111111111</v>
+      </c>
+      <c r="F972" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G972" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H972" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J972" s="11">
+        <v>17.7867658250034</v>
+      </c>
+      <c r="K972" s="11">
+        <v>-64.6096836682409</v>
+      </c>
+      <c r="M972" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="24"/>
@@ -34305,19 +37112,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1429</v>
+        <v>1562</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1430</v>
+        <v>1563</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1431</v>
+        <v>1564</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1432</v>
+        <v>1565</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1433</v>
+        <v>1566</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -34341,21 +37148,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>1434</v>
+        <v>1567</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1435</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1436</v>
+        <v>1569</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1437</v>
+        <v>1570</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -34367,33 +37174,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1438</v>
+        <v>1571</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1438</v>
+        <v>1571</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1438</v>
+        <v>1571</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1438</v>
+        <v>1571</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1438</v>
+        <v>1571</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1439</v>
+        <v>1572</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1440</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1441</v>
+        <v>1574</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1442</v>
+        <v>1575</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -34404,10 +37211,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1443</v>
+        <v>1576</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -34419,18 +37226,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1445</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1446</v>
+        <v>1579</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1447</v>
+        <v>1580</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1448</v>
+        <v>1581</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -34438,10 +37245,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1449</v>
+        <v>1582</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1450</v>
+        <v>1583</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -34473,10 +37280,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1451</v>
+        <v>1584</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -34508,7 +37315,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1436</v>
+        <v>1569</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -34537,7 +37344,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1443</v>
+        <v>1576</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -34566,7 +37373,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1441</v>
+        <v>1574</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -34589,7 +37396,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1449</v>
+        <v>1582</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -34612,7 +37419,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1453</v>
+        <v>1586</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -34655,16 +37462,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>1454</v>
+        <v>1587</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>1455</v>
+        <v>1588</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>1456</v>
+        <v>1589</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -34694,7 +37501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -34709,7 +37516,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -34724,7 +37531,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -34739,7 +37546,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -34754,7 +37561,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -34769,7 +37576,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -34784,7 +37591,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -34799,7 +37606,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -34814,7 +37621,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -34829,7 +37636,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -34844,7 +37651,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -34859,7 +37666,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -34874,7 +37681,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -34889,7 +37696,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -34904,7 +37711,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -34919,7 +37726,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -34935,7 +37742,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -34951,7 +37758,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -34966,7 +37773,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -34981,7 +37788,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -34996,7 +37803,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -35011,7 +37818,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -35026,7 +37833,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -35041,7 +37848,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -35056,7 +37863,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -35071,7 +37878,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -35086,7 +37893,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -35101,7 +37908,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -35116,7 +37923,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -35131,7 +37938,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -35146,7 +37953,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -35161,7 +37968,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -35176,7 +37983,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -35191,7 +37998,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>1444</v>
+        <v>1577</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -35206,7 +38013,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -35221,7 +38028,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -35236,7 +38043,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -35248,12 +38055,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -35268,7 +38075,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -35280,12 +38087,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -35300,7 +38107,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -35315,7 +38122,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -35330,7 +38137,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -35342,12 +38149,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -35362,7 +38169,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -35377,7 +38184,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -35392,7 +38199,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -35407,7 +38214,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -35422,7 +38229,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -35437,7 +38244,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -35452,7 +38259,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -35467,7 +38274,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -35482,7 +38289,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -35497,7 +38304,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -35512,7 +38319,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -35527,7 +38334,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -35542,7 +38349,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -35557,7 +38364,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -35572,7 +38379,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -35587,7 +38394,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -35602,7 +38409,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -35617,7 +38424,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -35632,7 +38439,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>1457</v>
+        <v>1590</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -35647,7 +38454,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -35662,7 +38469,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -35677,7 +38484,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -35692,7 +38499,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -35707,7 +38514,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -35722,7 +38529,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -35737,7 +38544,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -35752,7 +38559,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -35767,7 +38574,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -35782,7 +38589,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -35797,7 +38604,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -35812,7 +38619,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -35827,7 +38634,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -35842,7 +38649,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -35857,7 +38664,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -35872,7 +38679,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -35887,7 +38694,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -35902,7 +38709,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -35917,7 +38724,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -35932,7 +38739,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -35947,7 +38754,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -35962,7 +38769,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -35977,7 +38784,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -35992,7 +38799,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -36007,7 +38814,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -36022,7 +38829,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -36037,7 +38844,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -36052,7 +38859,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>1459</v>
+        <v>1592</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -36067,7 +38874,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -36082,7 +38889,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -36097,7 +38904,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -36112,7 +38919,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -36127,7 +38934,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -36142,7 +38949,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -36157,7 +38964,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -36172,7 +38979,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -36187,7 +38994,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -36202,7 +39009,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -36217,7 +39024,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -36232,7 +39039,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -36247,7 +39054,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -36262,7 +39069,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -36277,7 +39084,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -36292,7 +39099,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -36307,7 +39114,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -36322,7 +39129,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -36337,7 +39144,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -36352,7 +39159,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -36367,7 +39174,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -36382,7 +39189,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -36397,7 +39204,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -36412,7 +39219,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -36427,7 +39234,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -36442,7 +39249,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -36454,12 +39261,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -36474,7 +39281,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -36489,7 +39296,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -36504,7 +39311,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -36519,7 +39326,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -36534,7 +39341,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -36549,7 +39356,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -36564,7 +39371,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -36579,7 +39386,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -36591,12 +39398,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -36611,7 +39418,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -36623,12 +39430,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>1458</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -36643,7 +39450,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -36658,7 +39465,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -36673,7 +39480,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>1461</v>
+        <v>1594</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -36688,7 +39495,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -36700,12 +39507,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -36717,12 +39524,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -36734,12 +39541,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -36751,12 +39558,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -36768,12 +39575,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -36785,12 +39592,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -36802,12 +39609,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -36819,12 +39626,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -36836,12 +39643,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -36853,12 +39660,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -36870,12 +39677,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -36887,12 +39694,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -36904,12 +39711,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -36921,12 +39728,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -36938,12 +39745,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -36955,12 +39762,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -36972,12 +39779,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -36989,12 +39796,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -37006,12 +39813,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -37023,12 +39830,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -37040,12 +39847,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -37057,12 +39864,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -37074,12 +39881,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>1462</v>
+        <v>1595</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -37091,7 +39898,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>1463</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="158">

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Locations" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Counts" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="APALs" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="eDNA" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="2103">
   <si>
     <t>Date</t>
   </si>
@@ -5668,6 +5669,507 @@
     <t>G1398</t>
   </si>
   <si>
+    <t>BID_026</t>
+  </si>
+  <si>
+    <t>G1553</t>
+  </si>
+  <si>
+    <t>BID_027</t>
+  </si>
+  <si>
+    <t>BID_028</t>
+  </si>
+  <si>
+    <t>G1551</t>
+  </si>
+  <si>
+    <t>BID_029</t>
+  </si>
+  <si>
+    <t>G1552</t>
+  </si>
+  <si>
+    <t>BID_030</t>
+  </si>
+  <si>
+    <t>G1554</t>
+  </si>
+  <si>
+    <t>BID_031</t>
+  </si>
+  <si>
+    <t>BID_032</t>
+  </si>
+  <si>
+    <t>G1562</t>
+  </si>
+  <si>
+    <t>BID_033</t>
+  </si>
+  <si>
+    <t>BID_034</t>
+  </si>
+  <si>
+    <t>G1563</t>
+  </si>
+  <si>
+    <t>BID_035</t>
+  </si>
+  <si>
+    <t>G1555</t>
+  </si>
+  <si>
+    <t>BID_036</t>
+  </si>
+  <si>
+    <t>G1571</t>
+  </si>
+  <si>
+    <t>BID_037</t>
+  </si>
+  <si>
+    <t>G1572</t>
+  </si>
+  <si>
+    <t>BID_038</t>
+  </si>
+  <si>
+    <t>G1564</t>
+  </si>
+  <si>
+    <t>GPS died, point repeated from BID_037</t>
+  </si>
+  <si>
+    <t>BID_039</t>
+  </si>
+  <si>
+    <t>G1580</t>
+  </si>
+  <si>
+    <t>BID_040</t>
+  </si>
+  <si>
+    <t>G1573</t>
+  </si>
+  <si>
+    <t>BID_041</t>
+  </si>
+  <si>
+    <t>G1565</t>
+  </si>
+  <si>
+    <t>BID_042</t>
+  </si>
+  <si>
+    <t>G1581</t>
+  </si>
+  <si>
+    <t>BID_043</t>
+  </si>
+  <si>
+    <t>G1574</t>
+  </si>
+  <si>
+    <t>diseased; GPS died, point repeated from BID_037</t>
+  </si>
+  <si>
+    <t>BID_044</t>
+  </si>
+  <si>
+    <t>G1575</t>
+  </si>
+  <si>
+    <t>BID_045</t>
+  </si>
+  <si>
+    <t>G1582</t>
+  </si>
+  <si>
+    <t>paling; GPS died, point repeated from BID_037</t>
+  </si>
+  <si>
+    <t>BID_046</t>
+  </si>
+  <si>
+    <t>G1583</t>
+  </si>
+  <si>
+    <t>BID_047</t>
+  </si>
+  <si>
+    <t>G1584</t>
+  </si>
+  <si>
+    <t>GPS died, point repeated from BID_038</t>
+  </si>
+  <si>
+    <t>BID_048</t>
+  </si>
+  <si>
+    <t>G1585</t>
+  </si>
+  <si>
+    <t>GPS died, point repeated from BID_039</t>
+  </si>
+  <si>
+    <t>BID_049</t>
+  </si>
+  <si>
+    <t>G1559</t>
+  </si>
+  <si>
+    <t>BID_050</t>
+  </si>
+  <si>
+    <t>G1558</t>
+  </si>
+  <si>
+    <t>BID_051</t>
+  </si>
+  <si>
+    <t>BID_052</t>
+  </si>
+  <si>
+    <t>G1560</t>
+  </si>
+  <si>
+    <t>BID_053</t>
+  </si>
+  <si>
+    <t>G1556</t>
+  </si>
+  <si>
+    <t>BID_054</t>
+  </si>
+  <si>
+    <t>BID_055</t>
+  </si>
+  <si>
+    <t>G1557</t>
+  </si>
+  <si>
+    <t>BID_056</t>
+  </si>
+  <si>
+    <t>G1566</t>
+  </si>
+  <si>
+    <t>BID_057</t>
+  </si>
+  <si>
+    <t>BID_058</t>
+  </si>
+  <si>
+    <t>G1567</t>
+  </si>
+  <si>
+    <t>BID_059</t>
+  </si>
+  <si>
+    <t>G1568</t>
+  </si>
+  <si>
+    <t>BID_060</t>
+  </si>
+  <si>
+    <t>G1569</t>
+  </si>
+  <si>
+    <t>BID_061</t>
+  </si>
+  <si>
+    <t>G1570</t>
+  </si>
+  <si>
+    <t>GPS died, this point repeated from BID_060</t>
+  </si>
+  <si>
+    <t>BID_062</t>
+  </si>
+  <si>
+    <t>G1578</t>
+  </si>
+  <si>
+    <t>BID_063</t>
+  </si>
+  <si>
+    <t>G1579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS died, this point repeated from BID_060 </t>
+  </si>
+  <si>
+    <t>BID_064</t>
+  </si>
+  <si>
+    <t>G1588</t>
+  </si>
+  <si>
+    <t>BID_065</t>
+  </si>
+  <si>
+    <t>G1589</t>
+  </si>
+  <si>
+    <t>BID_066</t>
+  </si>
+  <si>
+    <t>G1590</t>
+  </si>
+  <si>
+    <t>BID_067</t>
+  </si>
+  <si>
+    <t>G1576</t>
+  </si>
+  <si>
+    <t>BID_068</t>
+  </si>
+  <si>
+    <t>G1577</t>
+  </si>
+  <si>
+    <t>BID_069</t>
+  </si>
+  <si>
+    <t>G1587</t>
+  </si>
+  <si>
+    <t>BID_070</t>
+  </si>
+  <si>
+    <t>G1586</t>
+  </si>
+  <si>
+    <t>BID_071</t>
+  </si>
+  <si>
+    <t>G1596</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals, GPS died, this point repeated from BID_060</t>
+  </si>
+  <si>
+    <t>BID_072</t>
+  </si>
+  <si>
+    <t>BID_073</t>
+  </si>
+  <si>
+    <t>G1597</t>
+  </si>
+  <si>
+    <t>BID_074</t>
+  </si>
+  <si>
+    <t>G1598</t>
+  </si>
+  <si>
+    <t>BID_075</t>
+  </si>
+  <si>
+    <t>G1599</t>
+  </si>
+  <si>
+    <t>BID_076</t>
+  </si>
+  <si>
+    <t>G1600</t>
+  </si>
+  <si>
+    <t>BIA_050</t>
+  </si>
+  <si>
+    <t>G1887</t>
+  </si>
+  <si>
+    <t>BIA_051</t>
+  </si>
+  <si>
+    <t>G1886</t>
+  </si>
+  <si>
+    <t>BIA_052</t>
+  </si>
+  <si>
+    <t>BIA_053</t>
+  </si>
+  <si>
+    <t>G1876</t>
+  </si>
+  <si>
+    <t>BIA_054</t>
+  </si>
+  <si>
+    <t>G1648</t>
+  </si>
+  <si>
+    <t>BIA_055</t>
+  </si>
+  <si>
+    <t>G1381</t>
+  </si>
+  <si>
+    <t>BIA_056</t>
+  </si>
+  <si>
+    <t>G1382</t>
+  </si>
+  <si>
+    <t>BIA_057</t>
+  </si>
+  <si>
+    <t>G1383</t>
+  </si>
+  <si>
+    <t>BIA_058</t>
+  </si>
+  <si>
+    <t>G1374</t>
+  </si>
+  <si>
+    <t>BIA_059</t>
+  </si>
+  <si>
+    <t>G1372</t>
+  </si>
+  <si>
+    <t>BIA_060</t>
+  </si>
+  <si>
+    <t>G1371</t>
+  </si>
+  <si>
+    <t>BIA_061</t>
+  </si>
+  <si>
+    <t>G1375</t>
+  </si>
+  <si>
+    <t>BIA_062</t>
+  </si>
+  <si>
+    <t>G1373</t>
+  </si>
+  <si>
+    <t>BIA_063</t>
+  </si>
+  <si>
+    <t>G1877</t>
+  </si>
+  <si>
+    <t>BIA_064</t>
+  </si>
+  <si>
+    <t>G1501</t>
+  </si>
+  <si>
+    <t>BIA_065</t>
+  </si>
+  <si>
+    <t>BIA_066</t>
+  </si>
+  <si>
+    <t>G1502</t>
+  </si>
+  <si>
+    <t>BIA_067</t>
+  </si>
+  <si>
+    <t>G1503</t>
+  </si>
+  <si>
+    <t>BIA_068</t>
+  </si>
+  <si>
+    <t>G1504</t>
+  </si>
+  <si>
+    <t>BIA_069</t>
+  </si>
+  <si>
+    <t>G1511</t>
+  </si>
+  <si>
+    <t>BIA_070</t>
+  </si>
+  <si>
+    <t>G1505</t>
+  </si>
+  <si>
+    <t>BIA_071</t>
+  </si>
+  <si>
+    <t>BIA_072</t>
+  </si>
+  <si>
+    <t>G1512</t>
+  </si>
+  <si>
+    <t>BIA_073</t>
+  </si>
+  <si>
+    <t>G1513</t>
+  </si>
+  <si>
+    <t>BIA_074</t>
+  </si>
+  <si>
+    <t>G1514</t>
+  </si>
+  <si>
+    <t>BIA_075</t>
+  </si>
+  <si>
+    <t>G1515</t>
+  </si>
+  <si>
+    <t>BIA_076</t>
+  </si>
+  <si>
+    <t>G1521</t>
+  </si>
+  <si>
+    <t>BIA_077</t>
+  </si>
+  <si>
+    <t>G1523</t>
+  </si>
+  <si>
+    <t>BIA_078</t>
+  </si>
+  <si>
+    <t>G1522</t>
+  </si>
+  <si>
+    <t>BIA_079</t>
+  </si>
+  <si>
+    <t>G1524</t>
+  </si>
+  <si>
+    <t>BIA_080</t>
+  </si>
+  <si>
+    <t>BIA_081</t>
+  </si>
+  <si>
+    <t>G1525</t>
+  </si>
+  <si>
+    <t>BIA_082</t>
+  </si>
+  <si>
+    <t>G1531</t>
+  </si>
+  <si>
+    <t>BIA_083</t>
+  </si>
+  <si>
+    <t>G1532</t>
+  </si>
+  <si>
     <t>Site_ID</t>
   </si>
   <si>
@@ -5771,6 +6273,57 @@
   </si>
   <si>
     <t>ACERs</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island </t>
+  </si>
+  <si>
+    <t>Time In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time out </t>
+  </si>
+  <si>
+    <t>Total Hours Submerged</t>
+  </si>
+  <si>
+    <t>Inner brass</t>
+  </si>
+  <si>
+    <t>?? ask Erik if vials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVI Dock </t>
+  </si>
+  <si>
+    <t>Coral World Dock</t>
+  </si>
+  <si>
+    <t>Lots of Tarpen; tourist spot for snuba</t>
+  </si>
+  <si>
+    <t>Black Point</t>
+  </si>
+  <si>
+    <t>Buck Island</t>
+  </si>
+  <si>
+    <t>BUK</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>Salt River B</t>
+  </si>
+  <si>
+    <t>SRB</t>
   </si>
 </sst>
 </file>
@@ -5859,7 +6412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5946,6 +6499,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5967,6 +6523,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6187,7 +6747,7 @@
     <col customWidth="1" min="9" max="9" width="14.38"/>
     <col customWidth="1" min="10" max="11" width="12.38"/>
     <col customWidth="1" min="12" max="12" width="12.0"/>
-    <col customWidth="1" min="13" max="13" width="29.88"/>
+    <col customWidth="1" min="13" max="13" width="41.0"/>
     <col customWidth="1" min="14" max="14" width="19.25"/>
     <col customWidth="1" min="15" max="15" width="12.75"/>
     <col customWidth="1" min="16" max="16" width="15.88"/>
@@ -41525,12 +42085,6 @@
       <c r="H1077" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1077" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1077" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1077" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41560,12 +42114,6 @@
       <c r="H1078" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1078" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1078" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1078" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41595,12 +42143,6 @@
       <c r="H1079" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1079" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1079" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1079" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41630,12 +42172,6 @@
       <c r="H1080" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1080" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1080" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1080" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41665,12 +42201,6 @@
       <c r="H1081" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1081" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1081" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1081" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41700,12 +42230,6 @@
       <c r="H1082" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1082" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1082" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1082" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41735,12 +42259,6 @@
       <c r="H1083" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1083" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1083" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1083" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41770,12 +42288,6 @@
       <c r="H1084" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1084" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1084" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1084" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41805,12 +42317,6 @@
       <c r="H1085" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1085" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1085" s="11">
-        <v>-64.8907726351172</v>
-      </c>
       <c r="M1085" s="7" t="s">
         <v>1734</v>
       </c>
@@ -41840,12 +42346,6 @@
       <c r="H1086" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1086" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1086" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="6">
@@ -41872,12 +42372,6 @@
       <c r="H1087" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1087" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1087" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="6">
@@ -41904,12 +42398,6 @@
       <c r="H1088" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1088" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1088" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="6">
@@ -41936,12 +42424,6 @@
       <c r="H1089" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1089" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1089" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="6">
@@ -41968,12 +42450,6 @@
       <c r="H1090" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1090" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1090" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="6">
@@ -42000,12 +42476,6 @@
       <c r="H1091" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1091" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1091" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="6">
@@ -42032,12 +42502,6 @@
       <c r="H1092" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1092" s="11">
-        <v>17.750034565106</v>
-      </c>
-      <c r="K1092" s="11">
-        <v>-64.8907726351172</v>
-      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="6">
@@ -42064,12 +42528,6 @@
       <c r="H1093" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1093" s="11">
-        <v>17.7502338867635</v>
-      </c>
-      <c r="K1093" s="11">
-        <v>-64.8915722686797</v>
-      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="6">
@@ -42096,12 +42554,6 @@
       <c r="H1094" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1094" s="11">
-        <v>17.7508841548115</v>
-      </c>
-      <c r="K1094" s="11">
-        <v>-64.8917252384126</v>
-      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="6">
@@ -42128,12 +42580,6 @@
       <c r="H1095" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1095" s="11">
-        <v>17.7508719172329</v>
-      </c>
-      <c r="K1095" s="11">
-        <v>-64.8917181137949</v>
-      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="6">
@@ -42160,12 +42606,6 @@
       <c r="H1096" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1096" s="11">
-        <v>17.7508489508182</v>
-      </c>
-      <c r="K1096" s="11">
-        <v>-64.8916928842664</v>
-      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="6">
@@ -42192,12 +42632,6 @@
       <c r="H1097" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1097" s="11">
-        <v>17.7507514692843</v>
-      </c>
-      <c r="K1097" s="11">
-        <v>-64.8915746156126</v>
-      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="6">
@@ -42224,12 +42658,6 @@
       <c r="H1098" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1098" s="11">
-        <v>17.7508739288896</v>
-      </c>
-      <c r="K1098" s="11">
-        <v>-64.8915868531913</v>
-      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="6">
@@ -42256,12 +42684,6 @@
       <c r="H1099" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1099" s="11">
-        <v>17.7516589779407</v>
-      </c>
-      <c r="K1099" s="11">
-        <v>-64.8916455265135</v>
-      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="6">
@@ -42288,12 +42710,6 @@
       <c r="H1100" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1100" s="11">
-        <v>17.7518096845597</v>
-      </c>
-      <c r="K1100" s="11">
-        <v>-64.8917062953115</v>
-      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="6">
@@ -42320,12 +42736,6 @@
       <c r="H1101" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="J1101" s="11">
-        <v>17.7518734708428</v>
-      </c>
-      <c r="K1101" s="11">
-        <v>-64.8917252384126</v>
-      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="6">
@@ -44938,381 +45348,2889 @@
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" s="24"/>
+      <c r="A1177" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1177" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1177" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1177" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1177" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F1177" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1177" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1177" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1177" s="11">
+        <v>17.8028746694326</v>
+      </c>
+      <c r="K1177" s="11">
+        <v>-64.6263043116778</v>
+      </c>
+      <c r="M1177" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1178">
-      <c r="A1178" s="24"/>
+      <c r="A1178" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1178" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1178" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1178" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1178" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F1178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1178" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1178" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1178" s="11">
+        <v>17.8028746694326</v>
+      </c>
+      <c r="K1178" s="11">
+        <v>-64.6263043116778</v>
+      </c>
+      <c r="M1178" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1179">
-      <c r="A1179" s="24"/>
-      <c r="B1179" s="7"/>
+      <c r="A1179" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1179" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1179" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D1179" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E1179" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F1179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1179" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1179" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1179" s="11">
+        <v>17.8029922675341</v>
+      </c>
+      <c r="K1179" s="11">
+        <v>-64.6266493108124</v>
+      </c>
     </row>
     <row r="1180">
-      <c r="A1180" s="24"/>
+      <c r="A1180" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1180" s="7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1180" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1180" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1180" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1180" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1180" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1180" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1180" s="11">
+        <v>17.802994614467</v>
+      </c>
+      <c r="K1180" s="11">
+        <v>-64.6266443654895</v>
+      </c>
     </row>
     <row r="1181">
-      <c r="A1181" s="24"/>
-      <c r="B1181" s="7"/>
+      <c r="A1181" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1181" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1181" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1181" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1181" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F1181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1181" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1181" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1181" s="11">
+        <v>17.8029656130821</v>
+      </c>
+      <c r="K1181" s="11">
+        <v>-64.6266368217766</v>
+      </c>
+      <c r="M1181" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1182">
-      <c r="A1182" s="24"/>
-      <c r="B1182" s="7"/>
+      <c r="A1182" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1182" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1182" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1182" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1182" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F1182" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1182" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1182" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1182" s="11">
+        <v>17.8029656130821</v>
+      </c>
+      <c r="K1182" s="11">
+        <v>-64.6266368217766</v>
+      </c>
+      <c r="M1182" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1183">
-      <c r="A1183" s="24"/>
-      <c r="B1183" s="7"/>
+      <c r="A1183" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1183" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1183" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1183" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1183" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F1183" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1183" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1183" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1183" s="11">
+        <v>17.802962930873</v>
+      </c>
+      <c r="K1183" s="11">
+        <v>-64.6267545036972</v>
+      </c>
+      <c r="M1183" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1184">
-      <c r="A1184" s="24"/>
-      <c r="B1184" s="7"/>
+      <c r="A1184" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1184" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1184" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1184" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1184" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1184" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1184" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1184" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1184" s="11">
+        <v>17.8029595781118</v>
+      </c>
+      <c r="K1184" s="11">
+        <v>-64.6267502289265</v>
+      </c>
+      <c r="M1184" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1185">
-      <c r="A1185" s="24"/>
-      <c r="B1185" s="7"/>
+      <c r="A1185" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1185" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1185" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1185" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1185" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F1185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1185" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1185" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1185" s="11">
+        <v>17.8028563130647</v>
+      </c>
+      <c r="K1185" s="11">
+        <v>-64.6268601156771</v>
+      </c>
     </row>
     <row r="1186">
-      <c r="A1186" s="24"/>
-      <c r="B1186" s="7"/>
+      <c r="A1186" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1186" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1186" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D1186" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1186" s="8">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="F1186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1186" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1186" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1186" s="11">
+        <v>17.8028408903629</v>
+      </c>
+      <c r="K1186" s="11">
+        <v>-64.6268609538674</v>
+      </c>
     </row>
     <row r="1187">
-      <c r="A1187" s="24"/>
-      <c r="B1187" s="7"/>
+      <c r="A1187" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1187" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1187" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D1187" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1187" s="8">
+        <v>0.5256944444444445</v>
+      </c>
+      <c r="F1187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1187" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1187" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1187" s="11">
+        <v>17.8027522936463</v>
+      </c>
+      <c r="K1187" s="11">
+        <v>-64.6268565952778</v>
+      </c>
     </row>
     <row r="1188">
-      <c r="A1188" s="24"/>
-      <c r="B1188" s="7"/>
+      <c r="A1188" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1188" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1188" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1188" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1188" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F1188" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1188" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1188" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1188" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1188" s="11">
+        <v>-64.6268137637526</v>
+      </c>
     </row>
     <row r="1189">
-      <c r="A1189" s="24"/>
-      <c r="B1189" s="7"/>
+      <c r="A1189" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1189" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1189" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1189" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1189" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F1189" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1189" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1189" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1189" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1189" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1189" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1190">
-      <c r="A1190" s="24"/>
-      <c r="B1190" s="7"/>
+      <c r="A1190" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1190" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C1190" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1190" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1190" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F1190" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1190" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1190" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1190" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1190" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1190" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1191">
-      <c r="A1191" s="24"/>
-      <c r="B1191" s="7"/>
+      <c r="A1191" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1191" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1191" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D1191" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1191" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1191" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1191" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1191" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1191" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1191" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1191" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1192">
-      <c r="A1192" s="24"/>
-      <c r="B1192" s="7"/>
+      <c r="A1192" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1192" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1192" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D1192" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1192" s="8">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F1192" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1192" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1192" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1192" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1192" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1192" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1193">
-      <c r="A1193" s="24"/>
-      <c r="B1193" s="7"/>
+      <c r="A1193" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1193" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1193" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1193" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1193" s="8">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F1193" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1193" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1193" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1193" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1193" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1193" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1194">
-      <c r="A1194" s="24"/>
-      <c r="B1194" s="7"/>
+      <c r="A1194" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1194" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1194" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1194" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1194" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F1194" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1194" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1194" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1194" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1194" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1194" s="7" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="1195">
-      <c r="A1195" s="24"/>
-      <c r="B1195" s="7"/>
+      <c r="A1195" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1195" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1195" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1195" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1195" s="8">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="F1195" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1195" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1195" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1195" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1195" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1195" s="7" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="1196">
-      <c r="A1196" s="24"/>
-      <c r="B1196" s="7"/>
+      <c r="A1196" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1196" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1196" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D1196" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1196" s="8">
+        <v>0.55</v>
+      </c>
+      <c r="F1196" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1196" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1196" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1196" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1196" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1196" s="7" t="s">
+        <v>1923</v>
+      </c>
     </row>
     <row r="1197">
-      <c r="A1197" s="24"/>
-      <c r="B1197" s="7"/>
+      <c r="A1197" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1197" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1197" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1197" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1197" s="8">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="F1197" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1197" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1197" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1197" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1197" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1197" s="7" t="s">
+        <v>1907</v>
+      </c>
     </row>
     <row r="1198">
-      <c r="A1198" s="24"/>
-      <c r="B1198" s="7"/>
+      <c r="A1198" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1198" s="7" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1198" s="7" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D1198" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1198" s="8">
+        <v>0.5583333333333333</v>
+      </c>
+      <c r="F1198" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1198" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1198" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1198" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1198" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1198" s="7" t="s">
+        <v>1928</v>
+      </c>
     </row>
     <row r="1199">
-      <c r="A1199" s="24"/>
-      <c r="B1199" s="7"/>
+      <c r="A1199" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1199" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1199" s="7" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1199" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1199" s="8">
+        <v>0.5611111111111111</v>
+      </c>
+      <c r="F1199" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1199" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1199" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1199" s="11">
+        <v>17.8027292434126</v>
+      </c>
+      <c r="K1199" s="11">
+        <v>-64.6268137637526</v>
+      </c>
+      <c r="M1199" s="7" t="s">
+        <v>1931</v>
+      </c>
     </row>
     <row r="1200">
-      <c r="A1200" s="24"/>
-      <c r="B1200" s="7"/>
+      <c r="A1200" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1200" s="7" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1200" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1200" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E1200" s="8">
+        <v>0.5020833333333333</v>
+      </c>
+      <c r="F1200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1200" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1200" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1200" s="11">
+        <v>17.8030851390213</v>
+      </c>
+      <c r="K1200" s="11">
+        <v>-64.6266000252217</v>
+      </c>
     </row>
     <row r="1201">
-      <c r="A1201" s="24"/>
-      <c r="B1201" s="7"/>
+      <c r="A1201" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1201" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1201" s="7" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D1201" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E1201" s="8">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="F1201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1201" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1201" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1201" s="11">
+        <v>17.8030426427722</v>
+      </c>
+      <c r="K1201" s="11">
+        <v>-64.626624668017</v>
+      </c>
     </row>
     <row r="1202">
-      <c r="A1202" s="24"/>
-      <c r="B1202" s="7"/>
+      <c r="A1202" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1202" s="7" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1202" s="7" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D1202" s="7">
+        <v>207.0</v>
+      </c>
+      <c r="E1202" s="8">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="F1202" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1202" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1202" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1202" s="11">
+        <v>17.8030426427722</v>
+      </c>
+      <c r="K1202" s="11">
+        <v>-64.626624668017</v>
+      </c>
     </row>
     <row r="1203">
-      <c r="A1203" s="24"/>
-      <c r="B1203" s="7"/>
+      <c r="A1203" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1203" s="7" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1203" s="7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D1203" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E1203" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1203" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1203" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1203" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1203" s="11">
+        <v>17.8029545489699</v>
+      </c>
+      <c r="K1203" s="11">
+        <v>-64.6266280207783</v>
+      </c>
     </row>
     <row r="1204">
-      <c r="A1204" s="24"/>
-      <c r="B1204" s="7"/>
+      <c r="A1204" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1204" s="7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1204" s="7" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1204" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E1204" s="8">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F1204" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1204" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1204" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1204" s="11">
+        <v>17.8029370307922</v>
+      </c>
+      <c r="K1204" s="11">
+        <v>-64.6266492269933</v>
+      </c>
+      <c r="M1204" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1205">
-      <c r="A1205" s="24"/>
-      <c r="B1205" s="7"/>
+      <c r="A1205" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1205" s="7" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1205" s="7" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1205" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="E1205" s="8">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F1205" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1205" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1205" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1205" s="11">
+        <v>17.8029370307922</v>
+      </c>
+      <c r="K1205" s="11">
+        <v>-64.6266492269933</v>
+      </c>
+      <c r="M1205" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1206">
-      <c r="A1206" s="24"/>
-      <c r="B1206" s="7"/>
+      <c r="A1206" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1206" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1206" s="7" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D1206" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E1206" s="8">
+        <v>0.5125</v>
+      </c>
+      <c r="F1206" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1206" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1206" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1206" s="11">
+        <v>17.8029499389231</v>
+      </c>
+      <c r="K1206" s="11">
+        <v>-64.6267584431916</v>
+      </c>
     </row>
     <row r="1207">
-      <c r="A1207" s="24"/>
-      <c r="B1207" s="7"/>
+      <c r="A1207" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1207" s="7" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1207" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1207" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1207" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1207" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1207" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1207" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1207" s="11">
+        <v>17.8029595781118</v>
+      </c>
+      <c r="K1207" s="11">
+        <v>-64.6267502289265</v>
+      </c>
+      <c r="M1207" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1208">
-      <c r="A1208" s="24"/>
-      <c r="B1208" s="7"/>
+      <c r="A1208" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1208" s="7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1208" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1208" s="7">
+        <v>212.0</v>
+      </c>
+      <c r="E1208" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1208" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1208" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1208" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1208" s="11">
+        <v>17.8029595781118</v>
+      </c>
+      <c r="K1208" s="11">
+        <v>-64.6267502289265</v>
+      </c>
+      <c r="M1208" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1209">
-      <c r="A1209" s="24"/>
-      <c r="B1209" s="7"/>
+      <c r="A1209" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1209" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1209" s="7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D1209" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1209" s="8">
+        <v>0.5194444444444445</v>
+      </c>
+      <c r="F1209" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1209" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1209" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1209" s="11">
+        <v>17.8029214404523</v>
+      </c>
+      <c r="K1209" s="11">
+        <v>-64.6268199663609</v>
+      </c>
     </row>
     <row r="1210">
-      <c r="A1210" s="24"/>
-      <c r="B1210" s="7"/>
+      <c r="A1210" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1210" s="7" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1210" s="7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D1210" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E1210" s="8">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="F1210" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1210" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1210" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1210" s="11">
+        <v>17.8028408903629</v>
+      </c>
+      <c r="K1210" s="11">
+        <v>-64.6268609538674</v>
+      </c>
     </row>
     <row r="1211">
-      <c r="A1211" s="24"/>
-      <c r="B1211" s="7"/>
+      <c r="A1211" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1211" s="7" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1211" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D1211" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E1211" s="8">
+        <v>0.5256944444444445</v>
+      </c>
+      <c r="F1211" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1211" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1211" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1211" s="11">
+        <v>17.8027522936463</v>
+      </c>
+      <c r="K1211" s="11">
+        <v>-64.6268565952778</v>
+      </c>
     </row>
     <row r="1212">
-      <c r="A1212" s="24"/>
-      <c r="B1212" s="7"/>
+      <c r="A1212" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1212" s="7" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1212" s="7" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1212" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="E1212" s="8">
+        <v>0.5270833333333333</v>
+      </c>
+      <c r="F1212" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1212" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1212" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1212" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1212" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1212" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1213">
-      <c r="A1213" s="24"/>
-      <c r="B1213" s="7"/>
+      <c r="A1213" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1213" s="7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1213" s="7" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D1213" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E1213" s="8">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="F1213" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1213" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1213" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1213" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1213" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1213" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1214">
-      <c r="A1214" s="24"/>
-      <c r="B1214" s="7"/>
+      <c r="A1214" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1214" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1214" s="7" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D1214" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E1214" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F1214" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1214" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1214" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1214" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1214" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1214" s="7" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="1215">
-      <c r="A1215" s="24"/>
-      <c r="B1215" s="7"/>
+      <c r="A1215" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1215" s="7" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1215" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D1215" s="7">
+        <v>218.0</v>
+      </c>
+      <c r="E1215" s="8">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F1215" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1215" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1215" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1215" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1215" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1215" s="7" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="1216">
-      <c r="A1216" s="24"/>
-      <c r="B1216" s="7"/>
+      <c r="A1216" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1216" s="7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1216" s="7" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1216" s="7">
+        <v>219.0</v>
+      </c>
+      <c r="E1216" s="8">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="F1216" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1216" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1216" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1216" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1216" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1216" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1217">
-      <c r="A1217" s="24"/>
-      <c r="B1217" s="7"/>
+      <c r="A1217" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1217" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1217" s="7" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D1217" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E1217" s="8">
+        <v>0.5423611111111111</v>
+      </c>
+      <c r="F1217" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1217" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1217" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1217" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1217" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1217" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1218">
-      <c r="A1218" s="24"/>
-      <c r="B1218" s="7"/>
+      <c r="A1218" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1218" s="7" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1218" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1218" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1218" s="8">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F1218" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1218" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1218" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1218" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1218" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1218" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1219">
-      <c r="A1219" s="24"/>
-      <c r="B1219" s="7"/>
+      <c r="A1219" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1219" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1219" s="7" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D1219" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E1219" s="8">
+        <v>0.5458333333333333</v>
+      </c>
+      <c r="F1219" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1219" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1219" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1219" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1219" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1219" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1220">
-      <c r="A1220" s="24"/>
-      <c r="B1220" s="7"/>
+      <c r="A1220" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1220" s="7" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1220" s="7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D1220" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E1220" s="8">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="F1220" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1220" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1220" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1220" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1220" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1220" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1221">
-      <c r="A1221" s="24"/>
-      <c r="B1221" s="7"/>
+      <c r="A1221" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1221" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1221" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D1221" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E1221" s="8">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="F1221" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1221" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1221" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1221" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1221" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1221" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1222">
-      <c r="A1222" s="24"/>
-      <c r="B1222" s="7"/>
+      <c r="A1222" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1222" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1222" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D1222" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1222" s="8">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F1222" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1222" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1222" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1222" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1222" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1222" s="7" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="1223">
-      <c r="A1223" s="24"/>
-      <c r="B1223" s="7"/>
+      <c r="A1223" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1223" s="7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1223" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D1223" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1223" s="8">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F1223" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1223" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1223" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1223" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1223" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1223" s="7" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="1224">
-      <c r="A1224" s="24"/>
-      <c r="B1224" s="7"/>
+      <c r="A1224" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1224" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1224" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D1224" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E1224" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F1224" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1224" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1224" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1224" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1224" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1224" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1225">
-      <c r="A1225" s="24"/>
-      <c r="B1225" s="7"/>
+      <c r="A1225" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1225" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1225" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D1225" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1225" s="8">
+        <v>0.5583333333333333</v>
+      </c>
+      <c r="F1225" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1225" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1225" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1225" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1225" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1225" s="7" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="1226">
-      <c r="A1226" s="24"/>
-      <c r="B1226" s="7"/>
+      <c r="A1226" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1226" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1226" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1226" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E1226" s="8">
+        <v>0.5604166666666667</v>
+      </c>
+      <c r="F1226" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1226" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1226" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1226" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1226" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1226" s="7" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="1227">
-      <c r="A1227" s="24"/>
-      <c r="B1227" s="7"/>
+      <c r="A1227" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1227" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1227" s="7" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D1227" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E1227" s="8">
+        <v>0.5631944444444444</v>
+      </c>
+      <c r="F1227" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1227" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1227" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1227" s="11">
+        <v>17.80273033306</v>
+      </c>
+      <c r="K1227" s="11">
+        <v>-64.6268166135997</v>
+      </c>
+      <c r="M1227" s="7" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="1228">
-      <c r="A1228" s="24"/>
-      <c r="B1228" s="7"/>
+      <c r="A1228" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1228" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1228" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D1228" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E1228" s="8">
+        <v>0.5986111111111111</v>
+      </c>
+      <c r="F1228" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1228" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1228" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1228" s="11">
+        <v>17.7865335624665</v>
+      </c>
+      <c r="K1228" s="11">
+        <v>-64.6095329616219</v>
+      </c>
     </row>
     <row r="1229">
-      <c r="A1229" s="24"/>
-      <c r="B1229" s="7"/>
+      <c r="A1229" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1229" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1229" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D1229" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E1229" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1229" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1229" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1229" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1229" s="11">
+        <v>17.7864111866802</v>
+      </c>
+      <c r="K1229" s="11">
+        <v>-64.6092388406396</v>
+      </c>
+      <c r="M1229" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1230">
-      <c r="A1230" s="24"/>
-      <c r="B1230" s="7"/>
+      <c r="A1230" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1230" s="7" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1230" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D1230" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E1230" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1230" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1230" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1230" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1230" s="11">
+        <v>17.7864111866802</v>
+      </c>
+      <c r="K1230" s="11">
+        <v>-64.6092388406396</v>
+      </c>
+      <c r="M1230" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="24"/>
-      <c r="B1231" s="7"/>
+      <c r="A1231" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1231" s="7" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1231" s="7" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1231" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E1231" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1231" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1231" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1231" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1231" s="11">
+        <v>17.7864157967269</v>
+      </c>
+      <c r="K1231" s="11">
+        <v>-64.6092042233795</v>
+      </c>
     </row>
     <row r="1232">
-      <c r="A1232" s="24"/>
-      <c r="B1232" s="7"/>
+      <c r="A1232" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1232" s="7" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1232" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D1232" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E1232" s="8">
+        <v>0.6125</v>
+      </c>
+      <c r="F1232" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1232" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1232" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1232" s="11">
+        <v>17.7865193970501</v>
+      </c>
+      <c r="K1232" s="11">
+        <v>-64.6090375911444</v>
+      </c>
     </row>
     <row r="1233">
-      <c r="A1233" s="24"/>
-      <c r="B1233" s="7"/>
+      <c r="A1233" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1233" s="7" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1233" s="7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D1233" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E1233" s="8">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="F1233" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1233" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1233" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1233" s="11">
+        <v>17.7865838538855</v>
+      </c>
+      <c r="K1233" s="11">
+        <v>-64.6090052369982</v>
+      </c>
     </row>
     <row r="1234">
-      <c r="A1234" s="24"/>
-      <c r="B1234" s="7"/>
+      <c r="A1234" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1234" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1234" s="7" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D1234" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1234" s="8">
+        <v>0.61875</v>
+      </c>
+      <c r="F1234" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1234" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1234" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1234" s="11">
+        <v>17.7865740470588</v>
+      </c>
+      <c r="K1234" s="11">
+        <v>-64.6089986152947</v>
+      </c>
     </row>
     <row r="1235">
-      <c r="A1235" s="24"/>
-      <c r="B1235" s="7"/>
+      <c r="A1235" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1235" s="7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1235" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D1235" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E1235" s="8">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="F1235" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1235" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1235" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1235" s="11">
+        <v>17.786645963788</v>
+      </c>
+      <c r="K1235" s="11">
+        <v>-64.6089081745595</v>
+      </c>
     </row>
     <row r="1236">
-      <c r="A1236" s="24"/>
-      <c r="B1236" s="7"/>
+      <c r="A1236" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1236" s="7" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1236" s="7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D1236" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E1236" s="8">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="F1236" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1236" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1236" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1236" s="11">
+        <v>17.7866826765239</v>
+      </c>
+      <c r="K1236" s="11">
+        <v>-64.6088841184974</v>
+      </c>
     </row>
     <row r="1237">
-      <c r="A1237" s="24"/>
-      <c r="B1237" s="7"/>
+      <c r="A1237" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1237" s="7" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1237" s="7" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D1237" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E1237" s="8">
+        <v>0.6291666666666667</v>
+      </c>
+      <c r="F1237" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1237" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1237" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1237" s="11">
+        <v>17.7867299504578</v>
+      </c>
+      <c r="K1237" s="11">
+        <v>-64.6088184043765</v>
+      </c>
     </row>
     <row r="1238">
-      <c r="A1238" s="24"/>
-      <c r="B1238" s="7"/>
+      <c r="A1238" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1238" s="7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1238" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D1238" s="7">
+        <v>211.0</v>
+      </c>
+      <c r="E1238" s="8">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="F1238" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1238" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1238" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1238" s="11">
+        <v>17.7867664117366</v>
+      </c>
+      <c r="K1238" s="11">
+        <v>-64.6087753213942</v>
+      </c>
     </row>
     <row r="1239">
-      <c r="A1239" s="24"/>
-      <c r="B1239" s="7"/>
+      <c r="A1239" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1239" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1239" s="7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D1239" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E1239" s="8">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="F1239" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1239" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1239" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1239" s="11">
+        <v>17.786777978763</v>
+      </c>
+      <c r="K1239" s="11">
+        <v>-64.6087367646396</v>
+      </c>
     </row>
     <row r="1240">
-      <c r="A1240" s="24"/>
-      <c r="B1240" s="7"/>
+      <c r="A1240" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1240" s="7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1240" s="7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D1240" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E1240" s="8">
+        <v>0.6402777777777777</v>
+      </c>
+      <c r="F1240" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1240" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1240" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1240" s="11">
+        <v>17.7868569362909</v>
+      </c>
+      <c r="K1240" s="11">
+        <v>-64.6086869761348</v>
+      </c>
     </row>
     <row r="1241">
-      <c r="A1241" s="24"/>
-      <c r="B1241" s="7"/>
+      <c r="A1241" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1241" s="7" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1241" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D1241" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E1241" s="8">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="F1241" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1241" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1241" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1241" s="11">
+        <v>17.7868756279349</v>
+      </c>
+      <c r="K1241" s="11">
+        <v>-64.6087380219251</v>
+      </c>
     </row>
     <row r="1242">
-      <c r="A1242" s="24"/>
-      <c r="B1242" s="7"/>
+      <c r="A1242" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1242" s="7" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1242" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D1242" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E1242" s="8">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="F1242" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1242" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1242" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1242" s="11">
+        <v>17.7863882202655</v>
+      </c>
+      <c r="K1242" s="11">
+        <v>-64.6092934068292</v>
+      </c>
+      <c r="M1242" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1243">
-      <c r="A1243" s="24"/>
-      <c r="B1243" s="7"/>
+      <c r="A1243" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1243" s="7" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1243" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D1243" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="E1243" s="8">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="F1243" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1243" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1243" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1243" s="11">
+        <v>17.7863882202655</v>
+      </c>
+      <c r="K1243" s="11">
+        <v>-64.6092934068292</v>
+      </c>
+      <c r="M1243" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1244">
-      <c r="A1244" s="24"/>
-      <c r="B1244" s="7"/>
+      <c r="A1244" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1244" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C1244" s="7" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D1244" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="E1244" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1244" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1244" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1244" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1244" s="11">
+        <v>17.7864111866802</v>
+      </c>
+      <c r="K1244" s="11">
+        <v>-64.6092388406396</v>
+      </c>
     </row>
     <row r="1245">
-      <c r="A1245" s="24"/>
-      <c r="B1245" s="7"/>
+      <c r="A1245" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1245" s="7" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1245" s="7" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D1245" s="7">
+        <v>106.0</v>
+      </c>
+      <c r="E1245" s="8">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="F1245" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1245" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1245" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1245" s="11">
+        <v>17.7864251844585</v>
+      </c>
+      <c r="K1245" s="11">
+        <v>-64.6092129405588</v>
+      </c>
     </row>
     <row r="1246">
-      <c r="A1246" s="24"/>
-      <c r="B1246" s="7"/>
+      <c r="A1246" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1246" s="7" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1246" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D1246" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E1246" s="8">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="F1246" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1246" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1246" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1246" s="11">
+        <v>17.7864222507924</v>
+      </c>
+      <c r="K1246" s="11">
+        <v>-64.6092139463872</v>
+      </c>
     </row>
     <row r="1247">
-      <c r="A1247" s="24"/>
-      <c r="B1247" s="7"/>
+      <c r="A1247" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1247" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1247" s="7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1247" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E1247" s="8">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="F1247" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1247" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1247" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1247" s="11">
+        <v>17.786497855559</v>
+      </c>
+      <c r="K1247" s="11">
+        <v>-64.6090719569474</v>
+      </c>
     </row>
     <row r="1248">
-      <c r="A1248" s="24"/>
-      <c r="B1248" s="7"/>
+      <c r="A1248" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1248" s="7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1248" s="7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D1248" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E1248" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F1248" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1248" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1248" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1248" s="11">
+        <v>17.7865680120885</v>
+      </c>
+      <c r="K1248" s="11">
+        <v>-64.6089892275631</v>
+      </c>
+      <c r="M1248" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1249">
-      <c r="A1249" s="24"/>
-      <c r="B1249" s="7"/>
+      <c r="A1249" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1249" s="7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1249" s="7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D1249" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E1249" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F1249" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1249" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1249" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1249" s="11">
+        <v>17.7865680120885</v>
+      </c>
+      <c r="K1249" s="11">
+        <v>-64.6089892275631</v>
+      </c>
+      <c r="M1249" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1250">
-      <c r="A1250" s="24"/>
-      <c r="B1250" s="7"/>
+      <c r="A1250" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1250" s="7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1250" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D1250" s="7">
+        <v>206.0</v>
+      </c>
+      <c r="E1250" s="8">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="F1250" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1250" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1250" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1250" s="11">
+        <v>17.7865838538855</v>
+      </c>
+      <c r="K1250" s="11">
+        <v>-64.6090052369982</v>
+      </c>
     </row>
     <row r="1251">
-      <c r="A1251" s="24"/>
-      <c r="B1251" s="7"/>
+      <c r="A1251" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1251" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1251" s="7" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D1251" s="7">
+        <v>213.0</v>
+      </c>
+      <c r="E1251" s="8">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="F1251" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1251" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1251" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1251" s="11">
+        <v>17.7865799982101</v>
+      </c>
+      <c r="K1251" s="11">
+        <v>-64.6090038958937</v>
+      </c>
     </row>
     <row r="1252">
-      <c r="A1252" s="24"/>
-      <c r="B1252" s="7"/>
+      <c r="A1252" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1252" s="7" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C1252" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D1252" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E1252" s="8">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F1252" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1252" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1252" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1252" s="11">
+        <v>17.7866475563496</v>
+      </c>
+      <c r="K1252" s="11">
+        <v>-64.6089097671211</v>
+      </c>
     </row>
     <row r="1253">
-      <c r="A1253" s="24"/>
-      <c r="B1253" s="7"/>
+      <c r="A1253" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1253" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1253" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1253" s="7">
+        <v>209.0</v>
+      </c>
+      <c r="E1253" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="F1253" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1253" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1253" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1253" s="11">
+        <v>17.7866814192384</v>
+      </c>
+      <c r="K1253" s="11">
+        <v>-64.608891159296</v>
+      </c>
     </row>
     <row r="1254">
-      <c r="A1254" s="24"/>
-      <c r="B1254" s="7"/>
+      <c r="A1254" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1254" s="7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C1254" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D1254" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="E1254" s="8">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="F1254" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1254" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1254" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1254" s="11">
+        <v>17.7867353986949</v>
+      </c>
+      <c r="K1254" s="11">
+        <v>-64.6088234335184</v>
+      </c>
     </row>
     <row r="1255">
-      <c r="A1255" s="24"/>
-      <c r="B1255" s="7"/>
+      <c r="A1255" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1255" s="7" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1255" s="7" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1255" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E1255" s="8">
+        <v>0.63125</v>
+      </c>
+      <c r="F1255" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1255" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1255" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1255" s="11">
+        <v>17.7867749612778</v>
+      </c>
+      <c r="K1255" s="11">
+        <v>-64.608774902299</v>
+      </c>
     </row>
     <row r="1256">
-      <c r="A1256" s="24"/>
-      <c r="B1256" s="7"/>
+      <c r="A1256" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1256" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1256" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D1256" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E1256" s="8">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="F1256" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1256" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1256" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1256" s="11">
+        <v>17.7867731172591</v>
+      </c>
+      <c r="K1256" s="11">
+        <v>-64.6087728068233</v>
+      </c>
     </row>
     <row r="1257">
-      <c r="A1257" s="24"/>
-      <c r="B1257" s="7"/>
+      <c r="A1257" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1257" s="7" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1257" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1257" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1257" s="8">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="F1257" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1257" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1257" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1257" s="11">
+        <v>17.7868019510061</v>
+      </c>
+      <c r="K1257" s="11">
+        <v>-64.6087713818997</v>
+      </c>
+      <c r="M1257" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1258">
-      <c r="A1258" s="24"/>
-      <c r="B1258" s="7"/>
+      <c r="A1258" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1258" s="7" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1258" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1258" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="E1258" s="8">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="F1258" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1258" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1258" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1258" s="11">
+        <v>17.7868019510061</v>
+      </c>
+      <c r="K1258" s="11">
+        <v>-64.6087713818997</v>
+      </c>
+      <c r="M1258" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1259">
-      <c r="A1259" s="24"/>
-      <c r="B1259" s="7"/>
+      <c r="A1259" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1259" s="7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1259" s="7" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D1259" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="E1259" s="8">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="F1259" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1259" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1259" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1259" s="11">
+        <v>17.7866846881807</v>
+      </c>
+      <c r="K1259" s="11">
+        <v>-64.6089285425842</v>
+      </c>
     </row>
     <row r="1260">
-      <c r="A1260" s="24"/>
-      <c r="B1260" s="7"/>
+      <c r="A1260" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1260" s="7" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1260" s="7" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D1260" s="7">
+        <v>216.0</v>
+      </c>
+      <c r="E1260" s="8">
+        <v>0.6472222222222223</v>
+      </c>
+      <c r="F1260" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1260" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1260" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1260" s="11">
+        <v>17.7865122724324</v>
+      </c>
+      <c r="K1260" s="11">
+        <v>-64.6090604737401</v>
+      </c>
     </row>
     <row r="1261">
-      <c r="A1261" s="24"/>
-      <c r="B1261" s="7"/>
+      <c r="A1261" s="6">
+        <v>44727.0</v>
+      </c>
+      <c r="B1261" s="7" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C1261" s="7" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D1261" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="E1261" s="8">
+        <v>0.6486111111111111</v>
+      </c>
+      <c r="F1261" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1261" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1261" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1261" s="11">
+        <v>17.786492491141</v>
+      </c>
+      <c r="K1261" s="11">
+        <v>-64.6091049816459</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="24"/>
-      <c r="B1262" s="7"/>
     </row>
     <row r="1263">
       <c r="A1263" s="24"/>
-      <c r="B1263" s="7"/>
     </row>
     <row r="1264">
       <c r="A1264" s="24"/>
-      <c r="B1264" s="7"/>
     </row>
     <row r="1265">
       <c r="A1265" s="24"/>
-      <c r="B1265" s="7"/>
     </row>
     <row r="1266">
       <c r="A1266" s="24"/>
-      <c r="B1266" s="7"/>
     </row>
     <row r="1267">
       <c r="A1267" s="24"/>
-      <c r="B1267" s="7"/>
     </row>
     <row r="1268">
       <c r="A1268" s="24"/>
-      <c r="B1268" s="7"/>
     </row>
     <row r="1269">
       <c r="A1269" s="24"/>
-      <c r="B1269" s="7"/>
     </row>
     <row r="1270">
       <c r="A1270" s="24"/>
-      <c r="B1270" s="7"/>
     </row>
     <row r="1271">
       <c r="A1271" s="24"/>
-      <c r="B1271" s="7"/>
     </row>
     <row r="1272">
       <c r="A1272" s="24"/>
@@ -48225,10 +51143,6 @@
     <row r="1999">
       <c r="A1999" s="24"/>
       <c r="B1999" s="7"/>
-    </row>
-    <row r="2000">
-      <c r="A2000" s="24"/>
-      <c r="B2000" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -48247,19 +51161,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1884</v>
+        <v>2051</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1885</v>
+        <v>2052</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1886</v>
+        <v>2053</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1887</v>
+        <v>2054</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1888</v>
+        <v>2055</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -48283,21 +51197,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1890</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1891</v>
+        <v>2058</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1892</v>
+        <v>2059</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -48309,33 +51223,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1893</v>
+        <v>2060</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1893</v>
+        <v>2060</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1893</v>
+        <v>2060</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1893</v>
+        <v>2060</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1893</v>
+        <v>2060</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1894</v>
+        <v>2061</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1895</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1896</v>
+        <v>2063</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1897</v>
+        <v>2064</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -48346,10 +51260,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1898</v>
+        <v>2065</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -48361,18 +51275,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1900</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1901</v>
+        <v>2068</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1902</v>
+        <v>2069</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1903</v>
+        <v>2070</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -48380,10 +51294,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1904</v>
+        <v>2071</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1905</v>
+        <v>2072</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -48415,10 +51329,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1906</v>
+        <v>2073</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1907</v>
+        <v>2074</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -48450,7 +51364,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1891</v>
+        <v>2058</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -48479,7 +51393,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1898</v>
+        <v>2065</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -48508,7 +51422,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1896</v>
+        <v>2063</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -48531,7 +51445,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1904</v>
+        <v>2071</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -48554,7 +51468,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1908</v>
+        <v>2075</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -48597,16 +51511,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>1909</v>
+        <v>2076</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>1910</v>
+        <v>2077</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>1911</v>
+        <v>2078</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -48636,7 +51550,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -48651,7 +51565,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -48666,7 +51580,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -48681,7 +51595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -48696,7 +51610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -48711,7 +51625,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -48726,7 +51640,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -48741,7 +51655,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -48756,7 +51670,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -48771,7 +51685,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -48786,7 +51700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -48801,7 +51715,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -48816,7 +51730,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -48831,7 +51745,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -48846,7 +51760,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -48861,7 +51775,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -48877,7 +51791,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -48893,7 +51807,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -48908,7 +51822,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -48923,7 +51837,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -48938,7 +51852,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -48953,7 +51867,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -48968,7 +51882,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -48983,7 +51897,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -48998,7 +51912,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -49013,7 +51927,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -49028,7 +51942,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -49043,7 +51957,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -49058,7 +51972,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -49073,7 +51987,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -49088,7 +52002,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -49103,7 +52017,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -49118,7 +52032,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -49133,7 +52047,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>1899</v>
+        <v>2066</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -49148,7 +52062,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -49163,7 +52077,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -49178,7 +52092,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -49190,12 +52104,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -49210,7 +52124,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -49222,12 +52136,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -49242,7 +52156,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -49257,7 +52171,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -49272,7 +52186,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -49284,12 +52198,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -49304,7 +52218,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -49319,7 +52233,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -49334,7 +52248,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -49349,7 +52263,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -49364,7 +52278,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -49379,7 +52293,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -49394,7 +52308,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -49409,7 +52323,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -49424,7 +52338,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -49439,7 +52353,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -49454,7 +52368,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -49469,7 +52383,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -49484,7 +52398,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -49499,7 +52413,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -49514,7 +52428,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -49529,7 +52443,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -49544,7 +52458,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -49559,7 +52473,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -49574,7 +52488,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>1912</v>
+        <v>2079</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -49589,7 +52503,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -49604,7 +52518,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -49619,7 +52533,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -49634,7 +52548,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -49649,7 +52563,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -49664,7 +52578,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -49679,7 +52593,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -49694,7 +52608,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -49709,7 +52623,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -49724,7 +52638,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -49739,7 +52653,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -49754,7 +52668,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -49769,7 +52683,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -49784,7 +52698,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -49799,7 +52713,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -49814,7 +52728,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -49829,7 +52743,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -49844,7 +52758,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -49859,7 +52773,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -49874,7 +52788,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -49889,7 +52803,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -49904,7 +52818,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -49919,7 +52833,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -49934,7 +52848,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -49949,7 +52863,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -49964,7 +52878,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -49979,7 +52893,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -49994,7 +52908,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>1914</v>
+        <v>2081</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -50009,7 +52923,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -50024,7 +52938,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -50039,7 +52953,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -50054,7 +52968,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -50069,7 +52983,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -50084,7 +52998,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -50099,7 +53013,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -50114,7 +53028,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -50129,7 +53043,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -50144,7 +53058,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -50159,7 +53073,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -50174,7 +53088,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -50189,7 +53103,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -50204,7 +53118,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -50219,7 +53133,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -50234,7 +53148,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -50249,7 +53163,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -50264,7 +53178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -50279,7 +53193,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -50294,7 +53208,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -50309,7 +53223,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -50324,7 +53238,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>1915</v>
+        <v>2082</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -50339,7 +53253,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -50354,7 +53268,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -50369,7 +53283,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -50384,7 +53298,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -50396,12 +53310,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -50416,7 +53330,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -50431,7 +53345,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -50446,7 +53360,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -50461,7 +53375,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -50476,7 +53390,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -50491,7 +53405,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -50506,7 +53420,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -50521,7 +53435,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -50533,12 +53447,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -50553,7 +53467,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -50565,12 +53479,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>1913</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -50585,7 +53499,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -50600,7 +53514,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -50615,7 +53529,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>1916</v>
+        <v>2083</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -50630,7 +53544,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -50642,12 +53556,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -50659,12 +53573,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -50676,12 +53590,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -50693,12 +53607,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -50710,12 +53624,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -50727,12 +53641,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -50744,12 +53658,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -50761,12 +53675,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -50778,12 +53692,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -50795,12 +53709,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -50812,12 +53726,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -50829,12 +53743,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -50846,12 +53760,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -50863,12 +53777,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -50880,12 +53794,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -50897,12 +53811,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -50914,12 +53828,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -50931,12 +53845,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -50948,12 +53862,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -50965,12 +53879,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -50982,12 +53896,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -50999,12 +53913,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -51016,12 +53930,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>1917</v>
+        <v>2084</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -51033,7 +53947,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>1918</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="158">
@@ -53564,6 +56478,227 @@
     </row>
     <row r="1000">
       <c r="E1000" s="28"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16">
+        <v>44690.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16">
+        <v>44694.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16">
+        <v>44695.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16">
+        <v>44697.0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16">
+        <v>44698.0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30">
+        <v>44726.0</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G8" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="2139">
   <si>
     <t>Date</t>
   </si>
@@ -6168,6 +6168,114 @@
   </si>
   <si>
     <t>G1532</t>
+  </si>
+  <si>
+    <t>BUT_026</t>
+  </si>
+  <si>
+    <t>G1890</t>
+  </si>
+  <si>
+    <t>BUT_027</t>
+  </si>
+  <si>
+    <t>BUT_028</t>
+  </si>
+  <si>
+    <t>G1897</t>
+  </si>
+  <si>
+    <t>BUT_029</t>
+  </si>
+  <si>
+    <t>BUT_030</t>
+  </si>
+  <si>
+    <t>G1896</t>
+  </si>
+  <si>
+    <t>BUT_031</t>
+  </si>
+  <si>
+    <t>BUT_032</t>
+  </si>
+  <si>
+    <t>G1898</t>
+  </si>
+  <si>
+    <t>BUT_033</t>
+  </si>
+  <si>
+    <t>BUT_034</t>
+  </si>
+  <si>
+    <t>G1899</t>
+  </si>
+  <si>
+    <t>BUT_035</t>
+  </si>
+  <si>
+    <t>BUT_036</t>
+  </si>
+  <si>
+    <t>BUT_037</t>
+  </si>
+  <si>
+    <t>BUT_038</t>
+  </si>
+  <si>
+    <t>G1889</t>
+  </si>
+  <si>
+    <t>BUT_039</t>
+  </si>
+  <si>
+    <t>BUT_040</t>
+  </si>
+  <si>
+    <t>BUT_041</t>
+  </si>
+  <si>
+    <t>G1888</t>
+  </si>
+  <si>
+    <t>BUT_042</t>
+  </si>
+  <si>
+    <t>BUT_043</t>
+  </si>
+  <si>
+    <t>G1880</t>
+  </si>
+  <si>
+    <t>BUT_044</t>
+  </si>
+  <si>
+    <t>BUT_045</t>
+  </si>
+  <si>
+    <t>BUT_046</t>
+  </si>
+  <si>
+    <t>G1592</t>
+  </si>
+  <si>
+    <t>BUT_047</t>
+  </si>
+  <si>
+    <t>BUT_048</t>
+  </si>
+  <si>
+    <t>BUT_049</t>
+  </si>
+  <si>
+    <t>G1879</t>
+  </si>
+  <si>
+    <t>BUT_050</t>
+  </si>
+  <si>
+    <t>G1370</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -48203,94 +48311,870 @@
       </c>
     </row>
     <row r="1262">
-      <c r="A1262" s="24"/>
+      <c r="A1262" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1262" s="7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C1262" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D1262" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1262" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="F1262" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1262" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1262" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1262" s="11">
+        <v>17.7481494750828</v>
+      </c>
+      <c r="K1262" s="11">
+        <v>-64.8955184686929</v>
+      </c>
+      <c r="M1262" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1263">
-      <c r="A1263" s="24"/>
+      <c r="A1263" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1263" s="7" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C1263" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D1263" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1263" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="F1263" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1263" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1263" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1263" s="11">
+        <v>17.7481494750828</v>
+      </c>
+      <c r="K1263" s="11">
+        <v>-64.8955184686929</v>
+      </c>
+      <c r="M1263" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1264">
-      <c r="A1264" s="24"/>
+      <c r="A1264" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1264" s="7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1264" s="7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1264" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1264" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F1264" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1264" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1264" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1264" s="11">
+        <v>17.7480897121131</v>
+      </c>
+      <c r="K1264" s="11">
+        <v>-64.8955574445426</v>
+      </c>
+      <c r="M1264" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1265">
-      <c r="A1265" s="24"/>
+      <c r="A1265" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1265" s="7" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1265" s="7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1265" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1265" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F1265" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1265" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1265" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1265" s="11">
+        <v>17.7480897121131</v>
+      </c>
+      <c r="K1265" s="11">
+        <v>-64.8955574445426</v>
+      </c>
+      <c r="M1265" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1266">
-      <c r="A1266" s="24"/>
+      <c r="A1266" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1266" s="7" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1266" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1266" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1266" s="8">
+        <v>0.4527777777777778</v>
+      </c>
+      <c r="F1266" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1266" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1266" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1266" s="11">
+        <v>17.7480458747596</v>
+      </c>
+      <c r="K1266" s="11">
+        <v>-64.8954984359443</v>
+      </c>
+      <c r="M1266" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1267">
-      <c r="A1267" s="24"/>
+      <c r="A1267" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1267" s="7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1267" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1267" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1267" s="8">
+        <v>0.4527777777777778</v>
+      </c>
+      <c r="F1267" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1267" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1267" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1267" s="11">
+        <v>17.7480458747596</v>
+      </c>
+      <c r="K1267" s="11">
+        <v>-64.8954984359443</v>
+      </c>
+      <c r="M1267" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1268">
-      <c r="A1268" s="24"/>
+      <c r="A1268" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1268" s="7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1268" s="7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D1268" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1268" s="8">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F1268" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1268" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1268" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1268" s="11">
+        <v>17.7481688372791</v>
+      </c>
+      <c r="K1268" s="11">
+        <v>-64.8954471386969</v>
+      </c>
+      <c r="M1268" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1269">
-      <c r="A1269" s="24"/>
+      <c r="A1269" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1269" s="7" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1269" s="7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D1269" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1269" s="8">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F1269" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1269" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1269" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1269" s="11">
+        <v>17.7481688372791</v>
+      </c>
+      <c r="K1269" s="11">
+        <v>-64.8954471386969</v>
+      </c>
+      <c r="M1269" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1270">
-      <c r="A1270" s="24"/>
+      <c r="A1270" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1270" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1270" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D1270" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1270" s="8">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F1270" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1270" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1270" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1270" s="11">
+        <v>17.7481514029205</v>
+      </c>
+      <c r="K1270" s="11">
+        <v>-64.895434230566</v>
+      </c>
+      <c r="M1270" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1271">
-      <c r="A1271" s="24"/>
+      <c r="A1271" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1271" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1271" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D1271" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1271" s="8">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F1271" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1271" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1271" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1271" s="11">
+        <v>17.7481514029205</v>
+      </c>
+      <c r="K1271" s="11">
+        <v>-64.895434230566</v>
+      </c>
+      <c r="M1271" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1272">
-      <c r="A1272" s="24"/>
-      <c r="B1272" s="7"/>
+      <c r="A1272" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1272" s="7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1272" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D1272" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1272" s="8">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F1272" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1272" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1272" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1272" s="11">
+        <v>17.7481514029205</v>
+      </c>
+      <c r="K1272" s="11">
+        <v>-64.895434230566</v>
+      </c>
+      <c r="M1272" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1273">
-      <c r="A1273" s="24"/>
-      <c r="B1273" s="7"/>
+      <c r="A1273" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1273" s="7" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C1273" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D1273" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1273" s="8">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F1273" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1273" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1273" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1273" s="11">
+        <v>17.7481514029205</v>
+      </c>
+      <c r="K1273" s="11">
+        <v>-64.895434230566</v>
+      </c>
+      <c r="M1273" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1274">
-      <c r="A1274" s="24"/>
-      <c r="B1274" s="7"/>
+      <c r="A1274" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1274" s="7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1274" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D1274" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1274" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F1274" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1274" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1274" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1274" s="11">
+        <v>17.7483710087836</v>
+      </c>
+      <c r="K1274" s="11">
+        <v>-64.8953836038709</v>
+      </c>
+      <c r="M1274" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1275">
-      <c r="A1275" s="24"/>
-      <c r="B1275" s="7"/>
+      <c r="A1275" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1275" s="7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1275" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D1275" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1275" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F1275" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1275" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1275" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1275" s="11">
+        <v>17.7483710087836</v>
+      </c>
+      <c r="K1275" s="11">
+        <v>-64.8953836038709</v>
+      </c>
+      <c r="M1275" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1276">
-      <c r="A1276" s="24"/>
-      <c r="B1276" s="7"/>
+      <c r="A1276" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1276" s="7" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1276" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D1276" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1276" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F1276" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1276" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1276" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1276" s="11">
+        <v>17.7483710087836</v>
+      </c>
+      <c r="K1276" s="11">
+        <v>-64.8953836038709</v>
+      </c>
+      <c r="M1276" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1277">
-      <c r="A1277" s="24"/>
-      <c r="B1277" s="7"/>
+      <c r="A1277" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1277" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1277" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1277" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1277" s="8">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="F1277" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1277" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1277" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1277" s="11">
+        <v>17.7483722660691</v>
+      </c>
+      <c r="K1277" s="11">
+        <v>-64.895315207541</v>
+      </c>
+      <c r="M1277" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1278">
-      <c r="A1278" s="24"/>
-      <c r="B1278" s="7"/>
+      <c r="A1278" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1278" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1278" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1278" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1278" s="8">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="F1278" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1278" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1278" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1278" s="11">
+        <v>17.7483722660691</v>
+      </c>
+      <c r="K1278" s="11">
+        <v>-64.895315207541</v>
+      </c>
+      <c r="M1278" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1279">
-      <c r="A1279" s="24"/>
-      <c r="B1279" s="7"/>
+      <c r="A1279" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1279" s="7" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1279" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1279" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1279" s="8">
+        <v>0.4701388888888889</v>
+      </c>
+      <c r="F1279" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1279" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1279" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1279" s="11">
+        <v>17.7483629621565</v>
+      </c>
+      <c r="K1279" s="11">
+        <v>-64.8953643254936</v>
+      </c>
+      <c r="M1279" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1280">
-      <c r="A1280" s="24"/>
-      <c r="B1280" s="7"/>
+      <c r="A1280" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1280" s="7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1280" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1280" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1280" s="8">
+        <v>0.4701388888888889</v>
+      </c>
+      <c r="F1280" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1280" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1280" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1280" s="11">
+        <v>17.7483629621565</v>
+      </c>
+      <c r="K1280" s="11">
+        <v>-64.8953643254936</v>
+      </c>
+      <c r="M1280" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1281">
-      <c r="A1281" s="24"/>
-      <c r="B1281" s="7"/>
+      <c r="A1281" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1281" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1281" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1281" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1281" s="8">
+        <v>0.4701388888888889</v>
+      </c>
+      <c r="F1281" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1281" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1281" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1281" s="11">
+        <v>17.7483629621565</v>
+      </c>
+      <c r="K1281" s="11">
+        <v>-64.8953643254936</v>
+      </c>
+      <c r="M1281" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1282">
-      <c r="A1282" s="24"/>
-      <c r="B1282" s="7"/>
+      <c r="A1282" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1282" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1282" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1282" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1282" s="8">
+        <v>0.4736111111111111</v>
+      </c>
+      <c r="F1282" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1282" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1282" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1282" s="11">
+        <v>17.7483405824751</v>
+      </c>
+      <c r="K1282" s="11">
+        <v>-64.8953629843891</v>
+      </c>
+      <c r="M1282" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1283">
-      <c r="A1283" s="24"/>
-      <c r="B1283" s="7"/>
+      <c r="A1283" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1283" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1283" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1283" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E1283" s="8">
+        <v>0.4736111111111111</v>
+      </c>
+      <c r="F1283" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1283" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1283" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1283" s="11">
+        <v>17.7483405824751</v>
+      </c>
+      <c r="K1283" s="11">
+        <v>-64.8953629843891</v>
+      </c>
+      <c r="M1283" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1284">
-      <c r="A1284" s="24"/>
-      <c r="B1284" s="7"/>
+      <c r="A1284" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1284" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1284" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E1284" s="8">
+        <v>0.4736111111111111</v>
+      </c>
+      <c r="F1284" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1284" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1284" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1284" s="11">
+        <v>17.7483405824751</v>
+      </c>
+      <c r="K1284" s="11">
+        <v>-64.8953629843891</v>
+      </c>
+      <c r="M1284" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1285">
-      <c r="A1285" s="24"/>
-      <c r="B1285" s="7"/>
+      <c r="A1285" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1285" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1285" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1285" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1285" s="8">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="F1285" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1285" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1285" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1285" s="11">
+        <v>17.7483918797225</v>
+      </c>
+      <c r="K1285" s="11">
+        <v>-64.8954082466662</v>
+      </c>
     </row>
     <row r="1286">
-      <c r="A1286" s="24"/>
-      <c r="B1286" s="7"/>
+      <c r="A1286" s="6">
+        <v>44730.0</v>
+      </c>
+      <c r="B1286" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1286" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1286" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1286" s="8">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="F1286" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1286" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1286" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1286" s="11">
+        <v>17.748340498656</v>
+      </c>
+      <c r="K1286" s="11">
+        <v>-64.8953986912966</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="24"/>
@@ -51139,10 +52023,6 @@
     <row r="1998">
       <c r="A1998" s="24"/>
       <c r="B1998" s="7"/>
-    </row>
-    <row r="1999">
-      <c r="A1999" s="24"/>
-      <c r="B1999" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -51161,19 +52041,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2052</v>
+        <v>2088</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2053</v>
+        <v>2089</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2054</v>
+        <v>2090</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2055</v>
+        <v>2091</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -51197,21 +52077,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2056</v>
+        <v>2092</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2057</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2058</v>
+        <v>2094</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2059</v>
+        <v>2095</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -51223,33 +52103,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2061</v>
+        <v>2097</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2062</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2063</v>
+        <v>2099</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2064</v>
+        <v>2100</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -51260,10 +52140,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2065</v>
+        <v>2101</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -51275,18 +52155,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2067</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2068</v>
+        <v>2104</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2069</v>
+        <v>2105</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2070</v>
+        <v>2106</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -51294,10 +52174,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2072</v>
+        <v>2108</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -51329,10 +52209,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2073</v>
+        <v>2109</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2074</v>
+        <v>2110</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -51364,7 +52244,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2058</v>
+        <v>2094</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -51393,7 +52273,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2065</v>
+        <v>2101</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -51422,7 +52302,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2063</v>
+        <v>2099</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -51445,7 +52325,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -51468,7 +52348,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2075</v>
+        <v>2111</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -51511,16 +52391,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2076</v>
+        <v>2112</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2077</v>
+        <v>2113</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2078</v>
+        <v>2114</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -51550,7 +52430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -51565,7 +52445,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -51580,7 +52460,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -51595,7 +52475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -51610,7 +52490,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -51625,7 +52505,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -51640,7 +52520,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -51655,7 +52535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -51670,7 +52550,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -51685,7 +52565,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -51700,7 +52580,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -51715,7 +52595,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -51730,7 +52610,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -51745,7 +52625,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -51760,7 +52640,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -51775,7 +52655,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -51791,7 +52671,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -51807,7 +52687,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -51822,7 +52702,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -51837,7 +52717,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -51852,7 +52732,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -51867,7 +52747,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -51882,7 +52762,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -51897,7 +52777,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -51912,7 +52792,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -51927,7 +52807,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -51942,7 +52822,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -51957,7 +52837,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -51972,7 +52852,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -51987,7 +52867,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -52002,7 +52882,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -52017,7 +52897,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -52032,7 +52912,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -52047,7 +52927,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2066</v>
+        <v>2102</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -52062,7 +52942,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -52077,7 +52957,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -52092,7 +52972,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -52104,12 +52984,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -52124,7 +53004,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -52136,12 +53016,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -52156,7 +53036,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -52171,7 +53051,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -52186,7 +53066,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -52198,12 +53078,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -52218,7 +53098,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -52233,7 +53113,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -52248,7 +53128,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -52263,7 +53143,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -52278,7 +53158,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -52293,7 +53173,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -52308,7 +53188,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -52323,7 +53203,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -52338,7 +53218,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -52353,7 +53233,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -52368,7 +53248,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -52383,7 +53263,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -52398,7 +53278,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -52413,7 +53293,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -52428,7 +53308,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -52443,7 +53323,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -52458,7 +53338,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -52473,7 +53353,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -52488,7 +53368,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2079</v>
+        <v>2115</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -52503,7 +53383,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -52518,7 +53398,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -52533,7 +53413,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -52548,7 +53428,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -52563,7 +53443,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -52578,7 +53458,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -52593,7 +53473,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -52608,7 +53488,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -52623,7 +53503,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -52638,7 +53518,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -52653,7 +53533,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -52668,7 +53548,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -52683,7 +53563,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -52698,7 +53578,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -52713,7 +53593,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -52728,7 +53608,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -52743,7 +53623,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -52758,7 +53638,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -52773,7 +53653,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -52788,7 +53668,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -52803,7 +53683,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -52818,7 +53698,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -52833,7 +53713,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -52848,7 +53728,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -52863,7 +53743,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -52878,7 +53758,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -52893,7 +53773,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -52908,7 +53788,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2081</v>
+        <v>2117</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -52923,7 +53803,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -52938,7 +53818,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -52953,7 +53833,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -52968,7 +53848,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -52983,7 +53863,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -52998,7 +53878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -53013,7 +53893,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -53028,7 +53908,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -53043,7 +53923,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -53058,7 +53938,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -53073,7 +53953,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -53088,7 +53968,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -53103,7 +53983,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -53118,7 +53998,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -53133,7 +54013,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -53148,7 +54028,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -53163,7 +54043,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -53178,7 +54058,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -53193,7 +54073,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -53208,7 +54088,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -53223,7 +54103,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -53238,7 +54118,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2082</v>
+        <v>2118</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -53253,7 +54133,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -53268,7 +54148,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -53283,7 +54163,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -53298,7 +54178,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -53310,12 +54190,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -53330,7 +54210,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -53345,7 +54225,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -53360,7 +54240,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -53375,7 +54255,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -53390,7 +54270,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -53405,7 +54285,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -53420,7 +54300,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -53435,7 +54315,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -53447,12 +54327,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -53467,7 +54347,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -53479,12 +54359,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2080</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -53499,7 +54379,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -53514,7 +54394,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -53529,7 +54409,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -53544,7 +54424,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -53556,12 +54436,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -53573,12 +54453,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -53590,12 +54470,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -53607,12 +54487,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -53624,12 +54504,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -53641,12 +54521,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -53658,12 +54538,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -53675,12 +54555,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -53692,12 +54572,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -53709,12 +54589,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -53726,12 +54606,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -53743,12 +54623,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -53760,12 +54640,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -53777,12 +54657,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -53794,12 +54674,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -53811,12 +54691,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -53828,12 +54708,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -53845,12 +54725,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -53862,12 +54742,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -53879,12 +54759,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -53896,12 +54776,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -53913,12 +54793,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -53930,12 +54810,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2084</v>
+        <v>2120</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -53947,7 +54827,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2085</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="158">
@@ -56499,22 +57379,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2086</v>
+        <v>2122</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2087</v>
+        <v>2123</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2088</v>
+        <v>2124</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2089</v>
+        <v>2125</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2090</v>
+        <v>2126</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2091</v>
+        <v>2127</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -56525,17 +57405,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2092</v>
+        <v>2128</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2065</v>
+        <v>2101</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2093</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="3">
@@ -56543,7 +57423,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2094</v>
+        <v>2130</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -56564,10 +57444,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2095</v>
+        <v>2131</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -56582,7 +57462,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2096</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="5">
@@ -56590,10 +57470,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2097</v>
+        <v>2133</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2075</v>
+        <v>2111</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -56613,10 +57493,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2098</v>
+        <v>2134</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2099</v>
+        <v>2135</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -56636,10 +57516,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2083</v>
+        <v>2119</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2100</v>
+        <v>2136</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -56659,10 +57539,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2101</v>
+        <v>2137</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2102</v>
+        <v>2138</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="2139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7535" uniqueCount="2224">
   <si>
     <t>Date</t>
   </si>
@@ -6276,6 +6276,261 @@
   </si>
   <si>
     <t>G1370</t>
+  </si>
+  <si>
+    <t>CBE_001</t>
+  </si>
+  <si>
+    <t>G1392</t>
+  </si>
+  <si>
+    <t>CBE_002</t>
+  </si>
+  <si>
+    <t>CBE_003</t>
+  </si>
+  <si>
+    <t>G2343</t>
+  </si>
+  <si>
+    <t>CBE_004</t>
+  </si>
+  <si>
+    <t>CBE_005</t>
+  </si>
+  <si>
+    <t>CBE_006</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals; maybe ofra?</t>
+  </si>
+  <si>
+    <t>CBE_007</t>
+  </si>
+  <si>
+    <t>G2344</t>
+  </si>
+  <si>
+    <t>CBE_008</t>
+  </si>
+  <si>
+    <t>CBE_009</t>
+  </si>
+  <si>
+    <t>G2345</t>
+  </si>
+  <si>
+    <t>CBE_010</t>
+  </si>
+  <si>
+    <t>CBE_011</t>
+  </si>
+  <si>
+    <t>CBE_012</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals; 4-5ft from tag</t>
+  </si>
+  <si>
+    <t>CBE_013</t>
+  </si>
+  <si>
+    <t>G1092</t>
+  </si>
+  <si>
+    <t>CBE_014</t>
+  </si>
+  <si>
+    <t>CBE_015</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals; maybe ofav?</t>
+  </si>
+  <si>
+    <t>CBE_016</t>
+  </si>
+  <si>
+    <t>G1094</t>
+  </si>
+  <si>
+    <t>CBE_017</t>
+  </si>
+  <si>
+    <t>CBE_018</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals; disease</t>
+  </si>
+  <si>
+    <t>CBE_019</t>
+  </si>
+  <si>
+    <t>G2342</t>
+  </si>
+  <si>
+    <t>CBE_020</t>
+  </si>
+  <si>
+    <t>CBE_021</t>
+  </si>
+  <si>
+    <t>CBE_022</t>
+  </si>
+  <si>
+    <t>CBE_023</t>
+  </si>
+  <si>
+    <t>CBE_024</t>
+  </si>
+  <si>
+    <t>G2400</t>
+  </si>
+  <si>
+    <t>CBE_025</t>
+  </si>
+  <si>
+    <t>CBE_026</t>
+  </si>
+  <si>
+    <t>CBE_027</t>
+  </si>
+  <si>
+    <t>G1095</t>
+  </si>
+  <si>
+    <t>CBE_028</t>
+  </si>
+  <si>
+    <t>CBE_029</t>
+  </si>
+  <si>
+    <t>CBE_030</t>
+  </si>
+  <si>
+    <t>G2334</t>
+  </si>
+  <si>
+    <t>CBE_031</t>
+  </si>
+  <si>
+    <t>CBE_032</t>
+  </si>
+  <si>
+    <t>G1248</t>
+  </si>
+  <si>
+    <t>CBE_033</t>
+  </si>
+  <si>
+    <t>CBE_034</t>
+  </si>
+  <si>
+    <t>G1249</t>
+  </si>
+  <si>
+    <t>CBE_035</t>
+  </si>
+  <si>
+    <t>CBE_036</t>
+  </si>
+  <si>
+    <t>CBE_037</t>
+  </si>
+  <si>
+    <t>G1250</t>
+  </si>
+  <si>
+    <t>CBE_038</t>
+  </si>
+  <si>
+    <t>CBE_039</t>
+  </si>
+  <si>
+    <t>G1687</t>
+  </si>
+  <si>
+    <t>CBE_040</t>
+  </si>
+  <si>
+    <t>CBE_041</t>
+  </si>
+  <si>
+    <t>G1688</t>
+  </si>
+  <si>
+    <t>CBE_042</t>
+  </si>
+  <si>
+    <t>CBE_043</t>
+  </si>
+  <si>
+    <t>G1680</t>
+  </si>
+  <si>
+    <t>*Tag used for multiple corals; MAYBE OFRA?</t>
+  </si>
+  <si>
+    <t>CBE_044</t>
+  </si>
+  <si>
+    <t>CBE_045</t>
+  </si>
+  <si>
+    <t>CBE_046</t>
+  </si>
+  <si>
+    <t>G1673</t>
+  </si>
+  <si>
+    <t>CBE_047</t>
+  </si>
+  <si>
+    <t>CBE_048</t>
+  </si>
+  <si>
+    <t>CBE_049</t>
+  </si>
+  <si>
+    <t>G1813</t>
+  </si>
+  <si>
+    <t>CBE_050</t>
+  </si>
+  <si>
+    <t>CBE_051</t>
+  </si>
+  <si>
+    <t>G1814</t>
+  </si>
+  <si>
+    <t>CBE_052</t>
+  </si>
+  <si>
+    <t>CBE_053</t>
+  </si>
+  <si>
+    <t>G1815</t>
+  </si>
+  <si>
+    <t>CBE_054</t>
+  </si>
+  <si>
+    <t>CBE_055</t>
+  </si>
+  <si>
+    <t>CBE_056</t>
+  </si>
+  <si>
+    <t>G1821</t>
+  </si>
+  <si>
+    <t>CBE_057</t>
+  </si>
+  <si>
+    <t>CBE_058</t>
+  </si>
+  <si>
+    <t>CBE_059</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -49090,6 +49345,9 @@
       <c r="C1284" s="7" t="s">
         <v>2080</v>
       </c>
+      <c r="D1284" s="7">
+        <v>113.0</v>
+      </c>
       <c r="E1284" s="8">
         <v>0.4736111111111111</v>
       </c>
@@ -49177,240 +49435,2069 @@
       </c>
     </row>
     <row r="1287">
-      <c r="A1287" s="24"/>
-      <c r="B1287" s="7"/>
+      <c r="A1287" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1287" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1287" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1287" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1287" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F1287" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1287" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1287" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1287" s="11">
+        <v>17.7741564251482</v>
+      </c>
+      <c r="K1287" s="11">
+        <v>-64.8125196900219</v>
+      </c>
+      <c r="M1287" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1288">
-      <c r="A1288" s="24"/>
-      <c r="B1288" s="7"/>
+      <c r="A1288" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1288" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1288" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1288" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1288" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F1288" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1288" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1288" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1288" s="11">
+        <v>17.7741564251482</v>
+      </c>
+      <c r="K1288" s="11">
+        <v>-64.8125196900219</v>
+      </c>
+      <c r="M1288" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1289">
-      <c r="A1289" s="24"/>
-      <c r="B1289" s="7"/>
+      <c r="A1289" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1289" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1289" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1289" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1289" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F1289" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1289" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1289" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1289" s="11">
+        <v>17.7740425989032</v>
+      </c>
+      <c r="K1289" s="11">
+        <v>-64.8125653713942</v>
+      </c>
+      <c r="M1289" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1290">
-      <c r="A1290" s="24"/>
-      <c r="B1290" s="7"/>
+      <c r="A1290" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1290" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1290" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1290" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1290" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F1290" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1290" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1290" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1290" s="11">
+        <v>17.7740425989032</v>
+      </c>
+      <c r="K1290" s="11">
+        <v>-64.8125653713942</v>
+      </c>
+      <c r="M1290" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1291">
-      <c r="A1291" s="24"/>
-      <c r="B1291" s="7"/>
+      <c r="A1291" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1291" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1291" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1291" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1291" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F1291" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1291" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1291" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1291" s="11">
+        <v>17.7740425989032</v>
+      </c>
+      <c r="K1291" s="11">
+        <v>-64.8125653713942</v>
+      </c>
+      <c r="M1291" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1292">
-      <c r="A1292" s="24"/>
-      <c r="B1292" s="7"/>
+      <c r="A1292" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1292" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1292" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1292" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1292" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1292" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1292" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1292" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1292" s="11">
+        <v>17.7740533277392</v>
+      </c>
+      <c r="K1292" s="11">
+        <v>-64.8126666247845</v>
+      </c>
+      <c r="M1292" s="7" t="s">
+        <v>2095</v>
+      </c>
     </row>
     <row r="1293">
-      <c r="A1293" s="24"/>
-      <c r="B1293" s="7"/>
+      <c r="A1293" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1293" s="7" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1293" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1293" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1293" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1293" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1293" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1293" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1293" s="11">
+        <v>17.7740533277392</v>
+      </c>
+      <c r="K1293" s="11">
+        <v>-64.8126666247845</v>
+      </c>
+      <c r="M1293" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1294">
-      <c r="A1294" s="24"/>
-      <c r="B1294" s="7"/>
+      <c r="A1294" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1294" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C1294" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1294" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1294" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1294" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1294" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1294" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1294" s="11">
+        <v>17.7740533277392</v>
+      </c>
+      <c r="K1294" s="11">
+        <v>-64.8126666247845</v>
+      </c>
+      <c r="M1294" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1295">
-      <c r="A1295" s="24"/>
-      <c r="B1295" s="7"/>
+      <c r="A1295" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1295" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1295" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D1295" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1295" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1295" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1295" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1295" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1295" s="11">
+        <v>17.7740880288184</v>
+      </c>
+      <c r="K1295" s="11">
+        <v>-64.8127294052392</v>
+      </c>
+      <c r="M1295" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1296">
-      <c r="A1296" s="24"/>
-      <c r="B1296" s="7"/>
+      <c r="A1296" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1296" s="7" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1296" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D1296" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1296" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1296" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1296" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1296" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1296" s="11">
+        <v>17.7740880288184</v>
+      </c>
+      <c r="K1296" s="11">
+        <v>-64.8127294052392</v>
+      </c>
+      <c r="M1296" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1297">
-      <c r="A1297" s="24"/>
-      <c r="B1297" s="7"/>
+      <c r="A1297" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1297" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1297" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D1297" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1297" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1297" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1297" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1297" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1297" s="11">
+        <v>17.7740880288184</v>
+      </c>
+      <c r="K1297" s="11">
+        <v>-64.8127294052392</v>
+      </c>
+      <c r="M1297" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1298">
-      <c r="A1298" s="24"/>
-      <c r="B1298" s="7"/>
+      <c r="A1298" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1298" s="7" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1298" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D1298" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1298" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1298" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1298" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1298" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1298" s="11">
+        <v>17.7740880288184</v>
+      </c>
+      <c r="K1298" s="11">
+        <v>-64.8127294052392</v>
+      </c>
+      <c r="M1298" s="7" t="s">
+        <v>2104</v>
+      </c>
     </row>
     <row r="1299">
-      <c r="A1299" s="24"/>
-      <c r="B1299" s="7"/>
+      <c r="A1299" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1299" s="7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1299" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D1299" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1299" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1299" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1299" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1299" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1299" s="11">
+        <v>17.773931119591</v>
+      </c>
+      <c r="K1299" s="11">
+        <v>-64.8127095401287</v>
+      </c>
+      <c r="M1299" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1300">
-      <c r="A1300" s="24"/>
-      <c r="B1300" s="7"/>
+      <c r="A1300" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1300" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1300" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D1300" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1300" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1300" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1300" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1300" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1300" s="11">
+        <v>17.773931119591</v>
+      </c>
+      <c r="K1300" s="11">
+        <v>-64.8127095401287</v>
+      </c>
+      <c r="M1300" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1301">
-      <c r="A1301" s="24"/>
-      <c r="B1301" s="7"/>
+      <c r="A1301" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1301" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1301" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D1301" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E1301" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1301" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1301" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1301" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1301" s="11">
+        <v>17.773931119591</v>
+      </c>
+      <c r="K1301" s="11">
+        <v>-64.8127095401287</v>
+      </c>
+      <c r="M1301" s="7" t="s">
+        <v>2109</v>
+      </c>
     </row>
     <row r="1302">
-      <c r="A1302" s="24"/>
-      <c r="B1302" s="7"/>
+      <c r="A1302" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1302" s="7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1302" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D1302" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1302" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F1302" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1302" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1302" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1302" s="11">
+        <v>17.7739307004958</v>
+      </c>
+      <c r="K1302" s="11">
+        <v>-64.8127145692706</v>
+      </c>
+      <c r="M1302" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1303">
-      <c r="A1303" s="24"/>
-      <c r="B1303" s="7"/>
+      <c r="A1303" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1303" s="7" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C1303" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D1303" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1303" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F1303" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1303" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1303" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1303" s="11">
+        <v>17.7739307004958</v>
+      </c>
+      <c r="K1303" s="11">
+        <v>-64.8127145692706</v>
+      </c>
+      <c r="M1303" s="7" t="s">
+        <v>2095</v>
+      </c>
     </row>
     <row r="1304">
-      <c r="A1304" s="24"/>
-      <c r="B1304" s="7"/>
+      <c r="A1304" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1304" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1304" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D1304" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1304" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F1304" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1304" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1304" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1304" s="11">
+        <v>17.7739307004958</v>
+      </c>
+      <c r="K1304" s="11">
+        <v>-64.8127145692706</v>
+      </c>
+      <c r="M1304" s="7" t="s">
+        <v>2114</v>
+      </c>
     </row>
     <row r="1305">
-      <c r="A1305" s="24"/>
-      <c r="B1305" s="7"/>
+      <c r="A1305" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1305" s="7" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C1305" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1305" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1305" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1305" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1305" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1305" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1305" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1305" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1305" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1306">
-      <c r="A1306" s="24"/>
-      <c r="B1306" s="7"/>
+      <c r="A1306" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1306" s="7" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1306" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1306" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1306" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1306" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1306" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1306" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1306" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1306" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1306" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1307">
-      <c r="A1307" s="24"/>
-      <c r="B1307" s="7"/>
+      <c r="A1307" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1307" s="7" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1307" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1307" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1307" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1307" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1307" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1307" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1307" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1307" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1307" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1308">
-      <c r="A1308" s="24"/>
-      <c r="B1308" s="7"/>
+      <c r="A1308" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1308" s="7" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1308" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1308" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1308" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1308" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1308" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1308" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1308" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1308" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1308" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1309">
-      <c r="A1309" s="24"/>
-      <c r="B1309" s="7"/>
+      <c r="A1309" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1309" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C1309" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1309" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1309" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1309" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1309" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1309" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1309" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1309" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1309" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1310">
-      <c r="A1310" s="24"/>
-      <c r="B1310" s="7"/>
+      <c r="A1310" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1310" s="7" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C1310" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D1310" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1310" s="8">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="F1310" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1310" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1310" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1310" s="11">
+        <v>17.7738169580698</v>
+      </c>
+      <c r="K1310" s="11">
+        <v>-64.8127914313227</v>
+      </c>
+      <c r="M1310" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1311">
-      <c r="A1311" s="24"/>
-      <c r="B1311" s="7"/>
+      <c r="A1311" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1311" s="7" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C1311" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D1311" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1311" s="8">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="F1311" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1311" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1311" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1311" s="11">
+        <v>17.7738169580698</v>
+      </c>
+      <c r="K1311" s="11">
+        <v>-64.8127914313227</v>
+      </c>
+      <c r="M1311" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1312">
-      <c r="A1312" s="24"/>
-      <c r="B1312" s="7"/>
+      <c r="A1312" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1312" s="7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1312" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D1312" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E1312" s="8">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="F1312" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1312" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1312" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1312" s="11">
+        <v>17.7738169580698</v>
+      </c>
+      <c r="K1312" s="11">
+        <v>-64.8127914313227</v>
+      </c>
+      <c r="M1312" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1313">
-      <c r="A1313" s="24"/>
-      <c r="B1313" s="7"/>
+      <c r="A1313" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1313" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1313" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1313" s="7">
+        <v>218.0</v>
+      </c>
+      <c r="E1313" s="8">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="F1313" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1313" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1313" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1313" s="11">
+        <v>17.7737949974835</v>
+      </c>
+      <c r="K1313" s="11">
+        <v>-64.8128112126142</v>
+      </c>
+      <c r="M1313" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1314">
-      <c r="A1314" s="24"/>
-      <c r="B1314" s="7"/>
+      <c r="A1314" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1314" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1314" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1314" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E1314" s="8">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="F1314" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1314" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1314" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1314" s="11">
+        <v>17.7737949974835</v>
+      </c>
+      <c r="K1314" s="11">
+        <v>-64.8128112126142</v>
+      </c>
+      <c r="M1314" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1315">
-      <c r="A1315" s="24"/>
-      <c r="B1315" s="7"/>
+      <c r="A1315" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1315" s="7" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1315" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D1315" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1315" s="8">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="F1315" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1315" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1315" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1315" s="11">
+        <v>17.7737949974835</v>
+      </c>
+      <c r="K1315" s="11">
+        <v>-64.8128112126142</v>
+      </c>
+      <c r="M1315" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1316">
-      <c r="A1316" s="24"/>
-      <c r="B1316" s="7"/>
+      <c r="A1316" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1316" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1316" s="7" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D1316" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1316" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F1316" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1316" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1316" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1316" s="11">
+        <v>17.7738100849092</v>
+      </c>
+      <c r="K1316" s="11">
+        <v>-64.8128307424486</v>
+      </c>
+      <c r="M1316" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1317">
-      <c r="A1317" s="24"/>
-      <c r="B1317" s="7"/>
+      <c r="A1317" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1317" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1317" s="7" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D1317" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E1317" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F1317" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1317" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1317" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1317" s="11">
+        <v>17.7738100849092</v>
+      </c>
+      <c r="K1317" s="11">
+        <v>-64.8128307424486</v>
+      </c>
+      <c r="M1317" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1318">
-      <c r="A1318" s="24"/>
-      <c r="B1318" s="7"/>
+      <c r="A1318" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1318" s="7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C1318" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D1318" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="E1318" s="8">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F1318" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1318" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1318" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1318" s="11">
+        <v>17.7740512322634</v>
+      </c>
+      <c r="K1318" s="11">
+        <v>-64.8126670438796</v>
+      </c>
+      <c r="M1318" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1319">
-      <c r="A1319" s="24"/>
-      <c r="B1319" s="7"/>
+      <c r="A1319" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1319" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C1319" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D1319" s="7">
+        <v>53.0</v>
+      </c>
+      <c r="E1319" s="8">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F1319" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1319" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1319" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1319" s="11">
+        <v>17.7740512322634</v>
+      </c>
+      <c r="K1319" s="11">
+        <v>-64.8126670438796</v>
+      </c>
+      <c r="M1319" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1320">
-      <c r="A1320" s="24"/>
-      <c r="B1320" s="7"/>
+      <c r="A1320" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1320" s="7" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1320" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D1320" s="7">
+        <v>59.0</v>
+      </c>
+      <c r="E1320" s="8">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="F1320" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1320" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1320" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1320" s="11">
+        <v>17.7740921359509</v>
+      </c>
+      <c r="K1320" s="11">
+        <v>-64.8127265553921</v>
+      </c>
+      <c r="M1320" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1321">
-      <c r="A1321" s="24"/>
-      <c r="B1321" s="7"/>
+      <c r="A1321" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1321" s="7" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1321" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D1321" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E1321" s="8">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="F1321" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1321" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1321" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1321" s="11">
+        <v>17.7740921359509</v>
+      </c>
+      <c r="K1321" s="11">
+        <v>-64.8127265553921</v>
+      </c>
+      <c r="M1321" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1322">
-      <c r="A1322" s="24"/>
-      <c r="B1322" s="7"/>
+      <c r="A1322" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1322" s="7" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1322" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D1322" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="E1322" s="8">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="F1322" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1322" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1322" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1322" s="11">
+        <v>17.7740921359509</v>
+      </c>
+      <c r="K1322" s="11">
+        <v>-64.8127265553921</v>
+      </c>
+      <c r="M1322" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1323">
-      <c r="A1323" s="24"/>
-      <c r="B1323" s="7"/>
+      <c r="A1323" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1323" s="7" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1323" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D1323" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E1323" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F1323" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1323" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1323" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1323" s="11">
+        <v>17.7739343885332</v>
+      </c>
+      <c r="K1323" s="11">
+        <v>-64.8127095401287</v>
+      </c>
+      <c r="M1323" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1324">
-      <c r="A1324" s="24"/>
-      <c r="B1324" s="7"/>
+      <c r="A1324" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1324" s="7" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1324" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D1324" s="7">
+        <v>56.0</v>
+      </c>
+      <c r="E1324" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F1324" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1324" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1324" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1324" s="11">
+        <v>17.7739343885332</v>
+      </c>
+      <c r="K1324" s="11">
+        <v>-64.8127095401287</v>
+      </c>
+      <c r="M1324" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1325">
-      <c r="A1325" s="24"/>
-      <c r="B1325" s="7"/>
+      <c r="A1325" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1325" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C1325" s="7" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D1325" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="E1325" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1325" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1325" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1325" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1325" s="11">
+        <v>17.7739305328578</v>
+      </c>
+      <c r="K1325" s="11">
+        <v>-64.8127094563097</v>
+      </c>
+      <c r="M1325" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1326">
-      <c r="A1326" s="24"/>
-      <c r="B1326" s="7"/>
+      <c r="A1326" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1326" s="7" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C1326" s="7" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D1326" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="E1326" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1326" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1326" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1326" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1326" s="11">
+        <v>17.7739305328578</v>
+      </c>
+      <c r="K1326" s="11">
+        <v>-64.8127094563097</v>
+      </c>
+      <c r="M1326" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1327">
-      <c r="A1327" s="24"/>
-      <c r="B1327" s="7"/>
+      <c r="A1327" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1327" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1327" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1327" s="7">
+        <v>61.0</v>
+      </c>
+      <c r="E1327" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F1327" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1327" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1327" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1327" s="11">
+        <v>17.7738779783249</v>
+      </c>
+      <c r="K1327" s="11">
+        <v>-64.81276310049</v>
+      </c>
+      <c r="M1327" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1328">
-      <c r="A1328" s="24"/>
-      <c r="B1328" s="7"/>
+      <c r="A1328" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1328" s="7" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1328" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1328" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E1328" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F1328" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1328" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1328" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1328" s="11">
+        <v>17.7738779783249</v>
+      </c>
+      <c r="K1328" s="11">
+        <v>-64.81276310049</v>
+      </c>
+      <c r="M1328" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1329">
-      <c r="A1329" s="24"/>
-      <c r="B1329" s="7"/>
+      <c r="A1329" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1329" s="7" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1329" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1329" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="E1329" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1329" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1329" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1329" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1329" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1329" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1329" s="7" t="s">
+        <v>2150</v>
+      </c>
     </row>
     <row r="1330">
-      <c r="A1330" s="24"/>
-      <c r="B1330" s="7"/>
+      <c r="A1330" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1330" s="7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1330" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1330" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E1330" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1330" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1330" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1330" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1330" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1330" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1330" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1331">
-      <c r="A1331" s="24"/>
-      <c r="B1331" s="7"/>
+      <c r="A1331" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1331" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1331" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1331" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E1331" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1331" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1331" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1331" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1331" s="11">
+        <v>17.7738813310862</v>
+      </c>
+      <c r="K1331" s="11">
+        <v>-64.812773829326</v>
+      </c>
+      <c r="M1331" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1332">
-      <c r="A1332" s="24"/>
-      <c r="B1332" s="7"/>
+      <c r="A1332" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1332" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1332" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1332" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="E1332" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F1332" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1332" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1332" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1332" s="11">
+        <v>17.7738768886775</v>
+      </c>
+      <c r="K1332" s="11">
+        <v>-64.8127766791731</v>
+      </c>
+      <c r="M1332" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1333">
-      <c r="A1333" s="24"/>
-      <c r="B1333" s="7"/>
+      <c r="A1333" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1333" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1333" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1333" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E1333" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F1333" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1333" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1333" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1333" s="11">
+        <v>17.7738768886775</v>
+      </c>
+      <c r="K1333" s="11">
+        <v>-64.8127766791731</v>
+      </c>
+      <c r="M1333" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1334">
-      <c r="A1334" s="24"/>
-      <c r="B1334" s="7"/>
+      <c r="A1334" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1334" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1334" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1334" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E1334" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F1334" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1334" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1334" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1334" s="11">
+        <v>17.7738768886775</v>
+      </c>
+      <c r="K1334" s="11">
+        <v>-64.8127766791731</v>
+      </c>
+      <c r="M1334" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1335">
-      <c r="A1335" s="24"/>
-      <c r="B1335" s="7"/>
+      <c r="A1335" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1335" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1335" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1335" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="E1335" s="8">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="F1335" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1335" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1335" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1335" s="11">
+        <v>17.7738104201853</v>
+      </c>
+      <c r="K1335" s="11">
+        <v>-64.8127903416753</v>
+      </c>
+      <c r="M1335" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1336">
-      <c r="A1336" s="24"/>
-      <c r="B1336" s="7"/>
+      <c r="A1336" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1336" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1336" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1336" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E1336" s="8">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="F1336" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1336" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1336" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1336" s="11">
+        <v>17.7738104201853</v>
+      </c>
+      <c r="K1336" s="11">
+        <v>-64.8127903416753</v>
+      </c>
+      <c r="M1336" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1337">
-      <c r="A1337" s="24"/>
-      <c r="B1337" s="7"/>
+      <c r="A1337" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1337" s="7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1337" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1337" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E1337" s="8">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="F1337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1337" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1337" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1337" s="11">
+        <v>17.7738205622882</v>
+      </c>
+      <c r="K1337" s="11">
+        <v>-64.8127822112292</v>
+      </c>
+      <c r="M1337" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1338">
-      <c r="A1338" s="24"/>
-      <c r="B1338" s="7"/>
+      <c r="A1338" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1338" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1338" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1338" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="E1338" s="8">
+        <v>0.5513888888888889</v>
+      </c>
+      <c r="F1338" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1338" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1338" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1338" s="11">
+        <v>17.7738205622882</v>
+      </c>
+      <c r="K1338" s="11">
+        <v>-64.8127822112292</v>
+      </c>
+      <c r="M1338" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1339">
-      <c r="A1339" s="24"/>
-      <c r="B1339" s="7"/>
+      <c r="A1339" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1339" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1339" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1339" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="E1339" s="8">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="F1339" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1339" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1339" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1339" s="11">
+        <v>17.7738102525473</v>
+      </c>
+      <c r="K1339" s="11">
+        <v>-64.812824036926</v>
+      </c>
+      <c r="M1339" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1340">
-      <c r="A1340" s="24"/>
-      <c r="B1340" s="7"/>
+      <c r="A1340" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1340" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1340" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1340" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E1340" s="8">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="F1340" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1340" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1340" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1340" s="11">
+        <v>17.7738102525473</v>
+      </c>
+      <c r="K1340" s="11">
+        <v>-64.812824036926</v>
+      </c>
+      <c r="M1340" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1341">
-      <c r="A1341" s="24"/>
-      <c r="B1341" s="7"/>
+      <c r="A1341" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1341" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1341" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1341" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E1341" s="8">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="F1341" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1341" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1341" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1341" s="11">
+        <v>17.7738102525473</v>
+      </c>
+      <c r="K1341" s="11">
+        <v>-64.812824036926</v>
+      </c>
+      <c r="M1341" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1342">
-      <c r="A1342" s="24"/>
-      <c r="B1342" s="7"/>
+      <c r="A1342" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1342" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1342" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1342" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E1342" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F1342" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1342" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1342" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1342" s="11">
+        <v>17.7737263496965</v>
+      </c>
+      <c r="K1342" s="11">
+        <v>-64.8128720652312</v>
+      </c>
+      <c r="M1342" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1343">
-      <c r="A1343" s="24"/>
-      <c r="B1343" s="7"/>
+      <c r="A1343" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1343" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1343" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1343" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E1343" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F1343" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1343" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1343" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1343" s="11">
+        <v>17.7737263496965</v>
+      </c>
+      <c r="K1343" s="11">
+        <v>-64.8128720652312</v>
+      </c>
+      <c r="M1343" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1344">
-      <c r="A1344" s="24"/>
-      <c r="B1344" s="7"/>
+      <c r="A1344" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1344" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1344" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1344" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="E1344" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F1344" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1344" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1344" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1344" s="11">
+        <v>17.7737263496965</v>
+      </c>
+      <c r="K1344" s="11">
+        <v>-64.8128720652312</v>
+      </c>
+      <c r="M1344" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1345">
-      <c r="A1345" s="24"/>
-      <c r="B1345" s="7"/>
+      <c r="A1345" s="6">
+        <v>44731.0</v>
+      </c>
+      <c r="B1345" s="7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C1345" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1345" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E1345" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F1345" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1345" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1345" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1345" s="11">
+        <v>17.7737263496965</v>
+      </c>
+      <c r="K1345" s="11">
+        <v>-64.8128720652312</v>
+      </c>
+      <c r="M1345" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="24"/>
@@ -52041,19 +54128,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2087</v>
+        <v>2172</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2088</v>
+        <v>2173</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2089</v>
+        <v>2174</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2090</v>
+        <v>2175</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2091</v>
+        <v>2176</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -52077,21 +54164,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2092</v>
+        <v>2177</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2093</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2094</v>
+        <v>2179</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2095</v>
+        <v>2180</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -52103,33 +54190,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2096</v>
+        <v>2181</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2096</v>
+        <v>2181</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2096</v>
+        <v>2181</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2096</v>
+        <v>2181</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2096</v>
+        <v>2181</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2097</v>
+        <v>2182</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2098</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2099</v>
+        <v>2184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2100</v>
+        <v>2185</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -52140,10 +54227,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2101</v>
+        <v>2186</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -52155,18 +54242,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2103</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2104</v>
+        <v>2189</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2105</v>
+        <v>2190</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2106</v>
+        <v>2191</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -52174,10 +54261,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2107</v>
+        <v>2192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2108</v>
+        <v>2193</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -52209,10 +54296,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2109</v>
+        <v>2194</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2110</v>
+        <v>2195</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -52244,7 +54331,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2094</v>
+        <v>2179</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -52273,7 +54360,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2101</v>
+        <v>2186</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -52302,7 +54389,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2099</v>
+        <v>2184</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -52325,7 +54412,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2107</v>
+        <v>2192</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -52348,7 +54435,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2111</v>
+        <v>2196</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -52391,16 +54478,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2112</v>
+        <v>2197</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2113</v>
+        <v>2198</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2114</v>
+        <v>2199</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -52430,7 +54517,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -52445,7 +54532,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -52460,7 +54547,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -52475,7 +54562,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -52490,7 +54577,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -52505,7 +54592,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -52520,7 +54607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -52535,7 +54622,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -52550,7 +54637,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -52565,7 +54652,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -52580,7 +54667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -52595,7 +54682,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -52610,7 +54697,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -52625,7 +54712,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -52640,7 +54727,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -52655,7 +54742,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -52671,7 +54758,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -52687,7 +54774,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -52702,7 +54789,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -52717,7 +54804,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -52732,7 +54819,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -52747,7 +54834,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -52762,7 +54849,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -52777,7 +54864,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -52792,7 +54879,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -52807,7 +54894,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -52822,7 +54909,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -52837,7 +54924,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -52852,7 +54939,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -52867,7 +54954,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -52882,7 +54969,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -52897,7 +54984,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -52912,7 +54999,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -52927,7 +55014,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -52942,7 +55029,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -52957,7 +55044,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -52972,7 +55059,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -52984,12 +55071,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -53004,7 +55091,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -53016,12 +55103,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -53036,7 +55123,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -53051,7 +55138,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -53066,7 +55153,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -53078,12 +55165,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -53098,7 +55185,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -53113,7 +55200,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -53128,7 +55215,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -53143,7 +55230,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -53158,7 +55245,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -53173,7 +55260,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -53188,7 +55275,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -53203,7 +55290,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -53218,7 +55305,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -53233,7 +55320,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -53248,7 +55335,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -53263,7 +55350,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -53278,7 +55365,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -53293,7 +55380,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -53308,7 +55395,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -53323,7 +55410,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -53338,7 +55425,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -53353,7 +55440,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -53368,7 +55455,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2115</v>
+        <v>2200</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -53383,7 +55470,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -53398,7 +55485,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -53413,7 +55500,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -53428,7 +55515,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -53443,7 +55530,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -53458,7 +55545,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -53473,7 +55560,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -53488,7 +55575,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -53503,7 +55590,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -53518,7 +55605,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -53533,7 +55620,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -53548,7 +55635,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -53563,7 +55650,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -53578,7 +55665,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -53593,7 +55680,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -53608,7 +55695,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -53623,7 +55710,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -53638,7 +55725,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -53653,7 +55740,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -53668,7 +55755,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -53683,7 +55770,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -53698,7 +55785,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -53713,7 +55800,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -53728,7 +55815,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -53743,7 +55830,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -53758,7 +55845,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -53773,7 +55860,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -53788,7 +55875,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2117</v>
+        <v>2202</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -53803,7 +55890,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -53818,7 +55905,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -53833,7 +55920,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -53848,7 +55935,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -53863,7 +55950,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -53878,7 +55965,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -53893,7 +55980,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -53908,7 +55995,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -53923,7 +56010,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -53938,7 +56025,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -53953,7 +56040,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -53968,7 +56055,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -53983,7 +56070,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -53998,7 +56085,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -54013,7 +56100,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -54028,7 +56115,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -54043,7 +56130,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -54058,7 +56145,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -54073,7 +56160,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -54088,7 +56175,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -54103,7 +56190,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -54118,7 +56205,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2118</v>
+        <v>2203</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -54133,7 +56220,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -54148,7 +56235,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -54163,7 +56250,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -54178,7 +56265,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -54190,12 +56277,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -54210,7 +56297,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -54225,7 +56312,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -54240,7 +56327,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -54255,7 +56342,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -54270,7 +56357,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -54285,7 +56372,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -54300,7 +56387,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -54315,7 +56402,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -54327,12 +56414,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -54347,7 +56434,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -54359,12 +56446,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2116</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -54379,7 +56466,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -54394,7 +56481,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -54409,7 +56496,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -54424,7 +56511,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -54436,12 +56523,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -54453,12 +56540,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -54470,12 +56557,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -54487,12 +56574,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -54504,12 +56591,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -54521,12 +56608,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -54538,12 +56625,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -54555,12 +56642,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -54572,12 +56659,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -54589,12 +56676,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -54606,12 +56693,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -54623,12 +56710,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -54640,12 +56727,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -54657,12 +56744,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -54674,12 +56761,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -54691,12 +56778,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -54708,12 +56795,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -54725,12 +56812,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -54742,12 +56829,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -54759,12 +56846,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -54776,12 +56863,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -54793,12 +56880,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -54810,12 +56897,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2120</v>
+        <v>2205</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -54827,7 +56914,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2121</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="158">
@@ -57379,22 +59466,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2122</v>
+        <v>2207</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2123</v>
+        <v>2208</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2124</v>
+        <v>2209</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2125</v>
+        <v>2210</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2126</v>
+        <v>2211</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2127</v>
+        <v>2212</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -57405,17 +59492,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2128</v>
+        <v>2213</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2101</v>
+        <v>2186</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2129</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="3">
@@ -57423,7 +59510,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2130</v>
+        <v>2215</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -57444,10 +59531,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2131</v>
+        <v>2216</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2107</v>
+        <v>2192</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -57462,7 +59549,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2132</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="5">
@@ -57470,10 +59557,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2133</v>
+        <v>2218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2111</v>
+        <v>2196</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -57493,10 +59580,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2134</v>
+        <v>2219</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2135</v>
+        <v>2220</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -57516,10 +59603,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2119</v>
+        <v>2204</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2136</v>
+        <v>2221</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -57539,10 +59626,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2137</v>
+        <v>2222</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2138</v>
+        <v>2223</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7535" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8089" uniqueCount="2412">
   <si>
     <t>Date</t>
   </si>
@@ -6467,7 +6467,7 @@
     <t>G1680</t>
   </si>
   <si>
-    <t>*Tag used for multiple corals; MAYBE OFRA?</t>
+    <t>*Tag used for multiple corals; MAYBE OFAV?</t>
   </si>
   <si>
     <t>CBE_044</t>
@@ -6531,6 +6531,570 @@
   </si>
   <si>
     <t>CBE_059</t>
+  </si>
+  <si>
+    <t>SRB_076</t>
+  </si>
+  <si>
+    <t>G1878</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>SRB_077</t>
+  </si>
+  <si>
+    <t>G1591</t>
+  </si>
+  <si>
+    <t>SRB_078</t>
+  </si>
+  <si>
+    <t>G1379</t>
+  </si>
+  <si>
+    <t>SRB_079</t>
+  </si>
+  <si>
+    <t>G1364</t>
+  </si>
+  <si>
+    <t>SRB_080</t>
+  </si>
+  <si>
+    <t>G1093</t>
+  </si>
+  <si>
+    <t>SRB_081</t>
+  </si>
+  <si>
+    <t>G1995</t>
+  </si>
+  <si>
+    <t>SRB_082</t>
+  </si>
+  <si>
+    <t>G1621</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>SCTLD</t>
+  </si>
+  <si>
+    <t>SRB_083</t>
+  </si>
+  <si>
+    <t>G1622</t>
+  </si>
+  <si>
+    <t>SRB_084</t>
+  </si>
+  <si>
+    <t>G1625</t>
+  </si>
+  <si>
+    <t>SRB_085</t>
+  </si>
+  <si>
+    <t>G1623</t>
+  </si>
+  <si>
+    <t>SRB_086</t>
+  </si>
+  <si>
+    <t>G1631</t>
+  </si>
+  <si>
+    <t>SRB_087</t>
+  </si>
+  <si>
+    <t>G1977</t>
+  </si>
+  <si>
+    <t>SRB_088</t>
+  </si>
+  <si>
+    <t>SRB_089</t>
+  </si>
+  <si>
+    <t>G2000</t>
+  </si>
+  <si>
+    <t>SRB_090</t>
+  </si>
+  <si>
+    <t>G1978</t>
+  </si>
+  <si>
+    <t>SRB_091</t>
+  </si>
+  <si>
+    <t>SRB_092</t>
+  </si>
+  <si>
+    <t>G1986</t>
+  </si>
+  <si>
+    <t>SRB_093</t>
+  </si>
+  <si>
+    <t>G1999</t>
+  </si>
+  <si>
+    <t>SRB_094</t>
+  </si>
+  <si>
+    <t>G1989</t>
+  </si>
+  <si>
+    <t>SRB_095</t>
+  </si>
+  <si>
+    <t>G1987</t>
+  </si>
+  <si>
+    <t>SRB_096</t>
+  </si>
+  <si>
+    <t>G1980</t>
+  </si>
+  <si>
+    <t>SRB_097</t>
+  </si>
+  <si>
+    <t>G1990</t>
+  </si>
+  <si>
+    <t>SRB_098</t>
+  </si>
+  <si>
+    <t>G1997</t>
+  </si>
+  <si>
+    <t>SRB_099</t>
+  </si>
+  <si>
+    <t>G1998</t>
+  </si>
+  <si>
+    <t>SRB_100</t>
+  </si>
+  <si>
+    <t>G1996</t>
+  </si>
+  <si>
+    <t>SRC_001</t>
+  </si>
+  <si>
+    <t>G1601</t>
+  </si>
+  <si>
+    <t>SRC_002</t>
+  </si>
+  <si>
+    <t>G1602</t>
+  </si>
+  <si>
+    <t>SRC_003</t>
+  </si>
+  <si>
+    <t>G1603</t>
+  </si>
+  <si>
+    <t>SRC_004</t>
+  </si>
+  <si>
+    <t>G1604</t>
+  </si>
+  <si>
+    <t>SRC_005</t>
+  </si>
+  <si>
+    <t>G1605</t>
+  </si>
+  <si>
+    <t>SCLTD</t>
+  </si>
+  <si>
+    <t>SRC_006</t>
+  </si>
+  <si>
+    <t>G1611</t>
+  </si>
+  <si>
+    <t>SRC_007</t>
+  </si>
+  <si>
+    <t>G1612</t>
+  </si>
+  <si>
+    <t>SRC_008</t>
+  </si>
+  <si>
+    <t>G1613</t>
+  </si>
+  <si>
+    <t>SRC_009</t>
+  </si>
+  <si>
+    <t>G1614</t>
+  </si>
+  <si>
+    <t>SRC_010</t>
+  </si>
+  <si>
+    <t>G1615</t>
+  </si>
+  <si>
+    <t>SRC_011</t>
+  </si>
+  <si>
+    <t>G1384</t>
+  </si>
+  <si>
+    <t>SRC_012</t>
+  </si>
+  <si>
+    <t>G1363</t>
+  </si>
+  <si>
+    <t>SRC_013</t>
+  </si>
+  <si>
+    <t>SRC_014</t>
+  </si>
+  <si>
+    <t>G1826</t>
+  </si>
+  <si>
+    <t>SRC_015</t>
+  </si>
+  <si>
+    <t>G1365</t>
+  </si>
+  <si>
+    <t>SRC_016</t>
+  </si>
+  <si>
+    <t>G1820</t>
+  </si>
+  <si>
+    <t>SRC_017</t>
+  </si>
+  <si>
+    <t>G1306</t>
+  </si>
+  <si>
+    <t>SRC_018</t>
+  </si>
+  <si>
+    <t>SRC_019</t>
+  </si>
+  <si>
+    <t>SRC_020</t>
+  </si>
+  <si>
+    <t>G1827</t>
+  </si>
+  <si>
+    <t>SRC_021</t>
+  </si>
+  <si>
+    <t>G1979</t>
+  </si>
+  <si>
+    <t>SRC_022</t>
+  </si>
+  <si>
+    <t>SRC_023</t>
+  </si>
+  <si>
+    <t>G1847</t>
+  </si>
+  <si>
+    <t>SRC_024</t>
+  </si>
+  <si>
+    <t>G1828</t>
+  </si>
+  <si>
+    <t>SRC_025</t>
+  </si>
+  <si>
+    <t>SRC_026</t>
+  </si>
+  <si>
+    <t>SRC_027</t>
+  </si>
+  <si>
+    <t>SRC_028</t>
+  </si>
+  <si>
+    <t>G1976</t>
+  </si>
+  <si>
+    <t>SRC_029</t>
+  </si>
+  <si>
+    <t>G1900</t>
+  </si>
+  <si>
+    <t>SRC_030</t>
+  </si>
+  <si>
+    <t>G1390</t>
+  </si>
+  <si>
+    <t>SRC_031</t>
+  </si>
+  <si>
+    <t>G1595</t>
+  </si>
+  <si>
+    <t>SRC_032</t>
+  </si>
+  <si>
+    <t>G1389</t>
+  </si>
+  <si>
+    <t>SRC_033</t>
+  </si>
+  <si>
+    <t>G1869</t>
+  </si>
+  <si>
+    <t>SRC_034</t>
+  </si>
+  <si>
+    <t>G1242</t>
+  </si>
+  <si>
+    <t>SRC_035</t>
+  </si>
+  <si>
+    <t>G1385</t>
+  </si>
+  <si>
+    <t>SRC_036</t>
+  </si>
+  <si>
+    <t>G1594</t>
+  </si>
+  <si>
+    <t>TBW_001</t>
+  </si>
+  <si>
+    <t>KAC/Sesno</t>
+  </si>
+  <si>
+    <t>TBW_002</t>
+  </si>
+  <si>
+    <t>TBW_003</t>
+  </si>
+  <si>
+    <t>TBW_004</t>
+  </si>
+  <si>
+    <t>TBW_005</t>
+  </si>
+  <si>
+    <t>TBW_006</t>
+  </si>
+  <si>
+    <t>TBW_007</t>
+  </si>
+  <si>
+    <t>TBW_008</t>
+  </si>
+  <si>
+    <t>TBW_009</t>
+  </si>
+  <si>
+    <t>TBW_010</t>
+  </si>
+  <si>
+    <t>TBW_011</t>
+  </si>
+  <si>
+    <t>tag too faded east of 3797</t>
+  </si>
+  <si>
+    <t>TBW_012</t>
+  </si>
+  <si>
+    <t>TBW_013</t>
+  </si>
+  <si>
+    <t>TBW_014</t>
+  </si>
+  <si>
+    <t>TBW_015</t>
+  </si>
+  <si>
+    <t>TBW_016</t>
+  </si>
+  <si>
+    <t>TBW_017</t>
+  </si>
+  <si>
+    <t>TBW_018</t>
+  </si>
+  <si>
+    <t>TBW_019</t>
+  </si>
+  <si>
+    <t>TBW_020</t>
+  </si>
+  <si>
+    <t>TBW_021</t>
+  </si>
+  <si>
+    <t>TBW_022</t>
+  </si>
+  <si>
+    <t>TBW_023</t>
+  </si>
+  <si>
+    <t>TBW_024</t>
+  </si>
+  <si>
+    <t>TBW_025</t>
+  </si>
+  <si>
+    <t>BIZ_001</t>
+  </si>
+  <si>
+    <t>G1406</t>
+  </si>
+  <si>
+    <t>BIZ_002</t>
+  </si>
+  <si>
+    <t>G1407</t>
+  </si>
+  <si>
+    <t>BIZ_003</t>
+  </si>
+  <si>
+    <t>G1408</t>
+  </si>
+  <si>
+    <t>BIZ_004</t>
+  </si>
+  <si>
+    <t>G1416</t>
+  </si>
+  <si>
+    <t>BIZ_005</t>
+  </si>
+  <si>
+    <t>G1417</t>
+  </si>
+  <si>
+    <t>BIZ_006</t>
+  </si>
+  <si>
+    <t>G1450</t>
+  </si>
+  <si>
+    <t>BIZ_007</t>
+  </si>
+  <si>
+    <t>G1409</t>
+  </si>
+  <si>
+    <t>BIZ_008</t>
+  </si>
+  <si>
+    <t>G1410</t>
+  </si>
+  <si>
+    <t>BIZ_009</t>
+  </si>
+  <si>
+    <t>G1418</t>
+  </si>
+  <si>
+    <t>BIZ_010</t>
+  </si>
+  <si>
+    <t>G1426</t>
+  </si>
+  <si>
+    <t>BIZ_011</t>
+  </si>
+  <si>
+    <t>G1419</t>
+  </si>
+  <si>
+    <t>NOT AN APAL WROTE PSTR</t>
+  </si>
+  <si>
+    <t>BIZ_012</t>
+  </si>
+  <si>
+    <t>G1420</t>
+  </si>
+  <si>
+    <t>BIZ_013</t>
+  </si>
+  <si>
+    <t>G1401</t>
+  </si>
+  <si>
+    <t>NOT A PSTR</t>
+  </si>
+  <si>
+    <t>BIZ_014</t>
+  </si>
+  <si>
+    <t>G1402</t>
+  </si>
+  <si>
+    <t>BIZ_015</t>
+  </si>
+  <si>
+    <t>G1403</t>
+  </si>
+  <si>
+    <t>NOT A PAST... SOME KIND OF ORBI</t>
+  </si>
+  <si>
+    <t>BIZ_016</t>
+  </si>
+  <si>
+    <t>G1404</t>
+  </si>
+  <si>
+    <t>BIZ_017</t>
+  </si>
+  <si>
+    <t>G1405</t>
+  </si>
+  <si>
+    <t>BIZ_018</t>
+  </si>
+  <si>
+    <t>G1411</t>
+  </si>
+  <si>
+    <t>SPECIES UNSURE... SCLTD</t>
+  </si>
+  <si>
+    <t>BIZ_019</t>
+  </si>
+  <si>
+    <t>G1412</t>
+  </si>
+  <si>
+    <t>BIZ_020</t>
+  </si>
+  <si>
+    <t>G1413</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -50921,7 +51485,7 @@
         <v>0.5361111111111111</v>
       </c>
       <c r="F1329" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="G1329" s="7" t="s">
         <v>66</v>
@@ -51500,452 +52064,3444 @@
       </c>
     </row>
     <row r="1346">
-      <c r="A1346" s="24"/>
-      <c r="B1346" s="7"/>
+      <c r="A1346" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1346" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C1346" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D1346" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E1346" s="8">
+        <v>0.5916666666666667</v>
+      </c>
+      <c r="F1346" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1346" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1346" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1346" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1346" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1347">
-      <c r="A1347" s="24"/>
-      <c r="B1347" s="7"/>
+      <c r="A1347" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1347" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1347" s="7" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D1347" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1347" s="8">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="F1347" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1347" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1347" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1347" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1347" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1348">
-      <c r="A1348" s="24"/>
-      <c r="B1348" s="7"/>
+      <c r="A1348" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1348" s="7" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C1348" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D1348" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E1348" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1348" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1348" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1348" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1348" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1348" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1349">
-      <c r="A1349" s="24"/>
-      <c r="B1349" s="7"/>
+      <c r="A1349" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1349" s="7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1349" s="7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D1349" s="7">
+        <v>212.0</v>
+      </c>
+      <c r="E1349" s="8">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="F1349" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1349" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1349" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1349" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1349" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1350">
-      <c r="A1350" s="24"/>
-      <c r="B1350" s="7"/>
+      <c r="A1350" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1350" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1350" s="7" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D1350" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E1350" s="8">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F1350" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1350" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1350" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1350" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1350" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1351">
-      <c r="A1351" s="24"/>
-      <c r="B1351" s="7"/>
+      <c r="A1351" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1351" s="7" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1351" s="7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D1351" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1351" s="8">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="F1351" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1351" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1351" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1351" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1351" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1352">
-      <c r="A1352" s="24"/>
-      <c r="B1352" s="7"/>
+      <c r="A1352" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1352" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1352" s="7" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D1352" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E1352" s="8">
+        <v>0.5888888888888889</v>
+      </c>
+      <c r="F1352" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1352" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1352" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1352" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1352" s="11">
+        <v>-64.7607061173767</v>
+      </c>
+      <c r="M1352" s="7" t="s">
+        <v>2188</v>
+      </c>
     </row>
     <row r="1353">
-      <c r="A1353" s="24"/>
-      <c r="B1353" s="7"/>
+      <c r="A1353" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1353" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C1353" s="7" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1353" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E1353" s="8">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="F1353" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1353" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1353" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1353" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1353" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1354">
-      <c r="A1354" s="24"/>
-      <c r="B1354" s="7"/>
+      <c r="A1354" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1354" s="7" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C1354" s="7" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D1354" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E1354" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1354" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1354" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1354" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1354" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1354" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1355">
-      <c r="A1355" s="24"/>
-      <c r="B1355" s="7"/>
+      <c r="A1355" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1355" s="7" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C1355" s="7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D1355" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E1355" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F1355" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1355" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1355" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1355" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1355" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1356">
-      <c r="A1356" s="24"/>
-      <c r="B1356" s="7"/>
+      <c r="A1356" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1356" s="7" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1356" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D1356" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1356" s="8">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="F1356" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1356" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1356" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1356" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1356" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1357">
-      <c r="A1357" s="24"/>
-      <c r="B1357" s="7"/>
+      <c r="A1357" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1357" s="7" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1357" s="7" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D1357" s="7">
+        <v>211.0</v>
+      </c>
+      <c r="F1357" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1357" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1357" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1357" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1357" s="11">
+        <v>-64.7607061173767</v>
+      </c>
+      <c r="M1357" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1358">
-      <c r="A1358" s="24"/>
-      <c r="B1358" s="7"/>
+      <c r="A1358" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1358" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1358" s="7" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D1358" s="7">
+        <v>217.0</v>
+      </c>
+      <c r="F1358" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1358" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1358" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1358" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1358" s="11">
+        <v>-64.7607061173767</v>
+      </c>
+      <c r="M1358" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1359">
-      <c r="A1359" s="24"/>
-      <c r="B1359" s="7"/>
+      <c r="A1359" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1359" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1359" s="7" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D1359" s="7">
+        <v>214.0</v>
+      </c>
+      <c r="F1359" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1359" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1359" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1359" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1359" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1360">
-      <c r="A1360" s="24"/>
-      <c r="B1360" s="7"/>
+      <c r="A1360" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1360" s="7" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1360" s="7" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1360" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F1360" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1360" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1360" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1360" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1360" s="11">
+        <v>-64.7607061173767</v>
+      </c>
+      <c r="M1360" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1361">
-      <c r="A1361" s="24"/>
-      <c r="B1361" s="7"/>
+      <c r="A1361" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1361" s="7" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1361" s="7" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1361" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="F1361" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1361" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1361" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1361" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1361" s="11">
+        <v>-64.7607061173767</v>
+      </c>
+      <c r="M1361" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1362">
-      <c r="A1362" s="24"/>
-      <c r="B1362" s="7"/>
+      <c r="A1362" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1362" s="7" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1362" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D1362" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="F1362" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1362" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1362" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1362" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1362" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1363">
-      <c r="A1363" s="24"/>
-      <c r="B1363" s="7"/>
+      <c r="A1363" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1363" s="7" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1363" s="7" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D1363" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="F1363" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1363" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1363" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1363" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1363" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1364">
-      <c r="A1364" s="24"/>
-      <c r="B1364" s="7"/>
+      <c r="A1364" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1364" s="7" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1364" s="7" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D1364" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="F1364" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1364" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1364" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1364" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1364" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1365">
-      <c r="A1365" s="24"/>
-      <c r="B1365" s="7"/>
+      <c r="A1365" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1365" s="7" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1365" s="7" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D1365" s="7">
+        <v>204.0</v>
+      </c>
+      <c r="F1365" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1365" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1365" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1365" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1365" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1366">
-      <c r="A1366" s="24"/>
-      <c r="B1366" s="7"/>
+      <c r="A1366" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1366" s="7" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1366" s="7" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D1366" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="F1366" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1366" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1366" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1366" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1366" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1367">
-      <c r="A1367" s="24"/>
-      <c r="B1367" s="7"/>
+      <c r="A1367" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1367" s="7" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1367" s="7" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D1367" s="7">
+        <v>205.0</v>
+      </c>
+      <c r="F1367" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1367" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1367" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1367" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1367" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1368">
-      <c r="A1368" s="24"/>
-      <c r="B1368" s="7"/>
+      <c r="A1368" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1368" s="7" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1368" s="7" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D1368" s="7">
+        <v>203.0</v>
+      </c>
+      <c r="F1368" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1368" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1368" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1368" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1368" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1369">
-      <c r="A1369" s="24"/>
-      <c r="B1369" s="7"/>
+      <c r="A1369" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1369" s="7" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1369" s="7" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D1369" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="F1369" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1369" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1369" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1369" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1369" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1370">
-      <c r="A1370" s="24"/>
-      <c r="B1370" s="7"/>
+      <c r="A1370" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1370" s="7" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1370" s="7" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D1370" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="F1370" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1370" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1370" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1370" s="11">
+        <v>17.7852243091911</v>
+      </c>
+      <c r="K1370" s="11">
+        <v>-64.7607061173767</v>
+      </c>
     </row>
     <row r="1371">
-      <c r="A1371" s="24"/>
-      <c r="B1371" s="7"/>
+      <c r="A1371" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1371" s="7" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1371" s="7" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D1371" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E1371" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F1371" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1371" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1371" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1371" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1371" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1372">
-      <c r="A1372" s="24"/>
-      <c r="B1372" s="7"/>
+      <c r="A1372" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1372" s="7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1372" s="7" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D1372" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1372" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1372" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1372" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1372" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1372" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1372" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1373">
-      <c r="A1373" s="24"/>
-      <c r="B1373" s="7"/>
+      <c r="A1373" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1373" s="7" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1373" s="7" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D1373" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1373" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1373" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1373" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1373" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1373" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1373" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1374">
-      <c r="A1374" s="24"/>
-      <c r="B1374" s="7"/>
+      <c r="A1374" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1374" s="7" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1374" s="7" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D1374" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1374" s="8">
+        <v>0.5159722222222223</v>
+      </c>
+      <c r="F1374" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1374" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1374" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1374" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1374" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1375">
-      <c r="A1375" s="24"/>
-      <c r="B1375" s="7"/>
+      <c r="A1375" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1375" s="7" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1375" s="7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D1375" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E1375" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F1375" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1375" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1375" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1375" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1375" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1375" s="7" t="s">
+        <v>2233</v>
+      </c>
     </row>
     <row r="1376">
-      <c r="A1376" s="24"/>
-      <c r="B1376" s="7"/>
+      <c r="A1376" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1376" s="7" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1376" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D1376" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1376" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F1376" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1376" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1376" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1376" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1376" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1377">
-      <c r="A1377" s="24"/>
-      <c r="B1377" s="7"/>
+      <c r="A1377" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1377" s="7" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1377" s="7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D1377" s="7">
+        <v>213.0</v>
+      </c>
+      <c r="E1377" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1377" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1377" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1377" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1377" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1377" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1378">
-      <c r="A1378" s="24"/>
-      <c r="B1378" s="7"/>
+      <c r="A1378" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1378" s="7" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1378" s="7" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D1378" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="E1378" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F1378" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1378" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1378" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1378" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1378" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1378" s="7" t="s">
+        <v>2188</v>
+      </c>
     </row>
     <row r="1379">
-      <c r="A1379" s="24"/>
-      <c r="B1379" s="7"/>
+      <c r="A1379" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1379" s="7" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1379" s="7" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D1379" s="7">
+        <v>206.0</v>
+      </c>
+      <c r="E1379" s="8">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F1379" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1379" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1379" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1379" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1379" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1380">
-      <c r="A1380" s="24"/>
-      <c r="B1380" s="7"/>
+      <c r="A1380" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1380" s="7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1380" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D1380" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1380" s="8">
+        <v>0.5506944444444445</v>
+      </c>
+      <c r="F1380" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1380" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1380" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1380" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1380" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1381">
-      <c r="A1381" s="24"/>
-      <c r="B1381" s="7"/>
+      <c r="A1381" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1381" s="7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1381" s="7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D1381" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1381" s="8">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="F1381" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1381" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1381" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1381" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1381" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1382">
-      <c r="A1382" s="24"/>
-      <c r="B1382" s="7"/>
+      <c r="A1382" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1382" s="7" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1382" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1382" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E1382" s="8">
+        <v>0.50625</v>
+      </c>
+      <c r="F1382" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1382" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1382" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1382" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1382" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1382" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1383">
-      <c r="A1383" s="24"/>
-      <c r="B1383" s="7"/>
+      <c r="A1383" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1383" s="7" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1383" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1383" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1383" s="8">
+        <v>0.50625</v>
+      </c>
+      <c r="F1383" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1383" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1383" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1383" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1383" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1383" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1384">
-      <c r="A1384" s="24"/>
-      <c r="B1384" s="7"/>
+      <c r="A1384" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1384" s="7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1384" s="7" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D1384" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1384" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1384" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1384" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1384" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1384" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1384" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1385">
-      <c r="A1385" s="24"/>
-      <c r="B1385" s="7"/>
+      <c r="A1385" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1385" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1385" s="7" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D1385" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1385" s="8">
+        <v>0.5097222222222222</v>
+      </c>
+      <c r="F1385" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1385" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1385" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1385" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1385" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1386">
-      <c r="A1386" s="24"/>
-      <c r="B1386" s="7"/>
+      <c r="A1386" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1386" s="7" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1386" s="7" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D1386" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E1386" s="8">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="F1386" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1386" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1386" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1386" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1386" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1387">
-      <c r="A1387" s="24"/>
-      <c r="B1387" s="7"/>
+      <c r="A1387" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1387" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1387" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1387" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E1387" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1387" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1387" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1387" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1387" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1387" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1387" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1388">
-      <c r="A1388" s="24"/>
-      <c r="B1388" s="7"/>
+      <c r="A1388" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1388" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1388" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1388" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E1388" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1388" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1388" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1388" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1388" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1388" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1388" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1389">
-      <c r="A1389" s="24"/>
-      <c r="B1389" s="7"/>
+      <c r="A1389" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1389" s="7" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1389" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1389" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E1389" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F1389" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1389" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1389" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1389" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1389" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1389" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1390">
-      <c r="A1390" s="24"/>
-      <c r="B1390" s="7"/>
+      <c r="A1390" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1390" s="7" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1390" s="7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D1390" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E1390" s="8">
+        <v>0.5194444444444445</v>
+      </c>
+      <c r="F1390" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1390" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1390" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1390" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1390" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1391">
-      <c r="A1391" s="24"/>
-      <c r="B1391" s="7"/>
+      <c r="A1391" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1391" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1391" s="7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1391" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E1391" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F1391" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1391" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1391" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1391" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1391" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1391" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1392">
-      <c r="A1392" s="24"/>
-      <c r="B1392" s="7"/>
+      <c r="A1392" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1392" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1392" s="7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D1392" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="E1392" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F1392" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1392" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1392" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1392" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1392" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1392" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1393">
-      <c r="A1393" s="24"/>
-      <c r="B1393" s="7"/>
+      <c r="A1393" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1393" s="7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1393" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1393" s="7">
+        <v>216.0</v>
+      </c>
+      <c r="E1393" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1393" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1393" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1393" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1393" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1393" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1394">
-      <c r="A1394" s="24"/>
-      <c r="B1394" s="7"/>
+      <c r="A1394" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1394" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1394" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D1394" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E1394" s="8">
+        <v>0.5256944444444445</v>
+      </c>
+      <c r="F1394" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1394" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1394" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1394" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1394" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1395">
-      <c r="A1395" s="24"/>
-      <c r="B1395" s="7"/>
+      <c r="A1395" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1395" s="7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1395" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1395" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="E1395" s="8">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="F1395" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1395" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1395" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1395" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1395" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1395" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1396">
-      <c r="A1396" s="24"/>
-      <c r="B1396" s="7"/>
+      <c r="A1396" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1396" s="7" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1396" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1396" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E1396" s="8">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="F1396" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1396" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1396" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1396" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1396" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1396" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1397">
-      <c r="A1397" s="24"/>
-      <c r="B1397" s="7"/>
+      <c r="A1397" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1397" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1397" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1397" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E1397" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F1397" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1397" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1397" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1397" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1397" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1398">
-      <c r="A1398" s="24"/>
-      <c r="B1398" s="7"/>
+      <c r="A1398" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1398" s="7" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1398" s="7" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D1398" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E1398" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F1398" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1398" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1398" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1398" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1398" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1399">
-      <c r="A1399" s="24"/>
-      <c r="B1399" s="7"/>
+      <c r="A1399" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1399" s="7" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1399" s="7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1399" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E1399" s="8">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="F1399" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1399" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1399" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1399" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1399" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1399" s="7" t="s">
+        <v>2188</v>
+      </c>
     </row>
     <row r="1400">
-      <c r="A1400" s="24"/>
-      <c r="B1400" s="7"/>
+      <c r="A1400" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1400" s="7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1400" s="7" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1400" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E1400" s="8">
+        <v>0.5097222222222222</v>
+      </c>
+      <c r="F1400" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1400" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1400" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1400" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1400" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1401">
-      <c r="A1401" s="24"/>
-      <c r="B1401" s="7"/>
+      <c r="A1401" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1401" s="7" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1401" s="7" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1401" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="E1401" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1401" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1401" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1401" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1401" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1401" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1401" s="7" t="s">
+        <v>2188</v>
+      </c>
     </row>
     <row r="1402">
-      <c r="A1402" s="24"/>
-      <c r="B1402" s="7"/>
+      <c r="A1402" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1402" s="7" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1402" s="7" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1402" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E1402" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1402" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1402" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1402" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1402" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1402" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1403">
-      <c r="A1403" s="24"/>
-      <c r="B1403" s="7"/>
+      <c r="A1403" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1403" s="7" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1403" s="7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D1403" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="E1403" s="8">
+        <v>0.5270833333333333</v>
+      </c>
+      <c r="F1403" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1403" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1403" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1403" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1403" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1404">
-      <c r="A1404" s="24"/>
-      <c r="B1404" s="7"/>
+      <c r="A1404" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1404" s="7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1404" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D1404" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E1404" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F1404" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1404" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1404" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1404" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1404" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1405">
-      <c r="A1405" s="24"/>
-      <c r="B1405" s="7"/>
+      <c r="A1405" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1405" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C1405" s="7" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1405" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="E1405" s="8">
+        <v>0.54375</v>
+      </c>
+      <c r="F1405" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1405" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1405" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1405" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1405" s="7">
+        <v>-64.75767</v>
+      </c>
+      <c r="M1405" s="7" t="s">
+        <v>2188</v>
+      </c>
     </row>
     <row r="1406">
-      <c r="A1406" s="24"/>
-      <c r="B1406" s="7"/>
+      <c r="A1406" s="6">
+        <v>44734.0</v>
+      </c>
+      <c r="B1406" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C1406" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D1406" s="7">
+        <v>208.0</v>
+      </c>
+      <c r="E1406" s="8">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="F1406" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1406" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1406" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1406" s="7">
+        <v>17.78715</v>
+      </c>
+      <c r="K1406" s="7">
+        <v>-64.75767</v>
+      </c>
     </row>
     <row r="1407">
-      <c r="A1407" s="24"/>
-      <c r="B1407" s="7"/>
+      <c r="A1407" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1407" s="7" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1407" s="7">
+        <v>4089.0</v>
+      </c>
+      <c r="D1407" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E1407" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1407" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1407" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1407" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1407" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1407" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1408">
-      <c r="A1408" s="24"/>
-      <c r="B1408" s="7"/>
+      <c r="A1408" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1408" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C1408" s="7">
+        <v>3788.0</v>
+      </c>
+      <c r="D1408" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E1408" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1408" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1408" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1408" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1408" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1408" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1409">
-      <c r="A1409" s="24"/>
-      <c r="B1409" s="7"/>
+      <c r="A1409" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1409" s="7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1409" s="7">
+        <v>3786.0</v>
+      </c>
+      <c r="D1409" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E1409" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1409" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1409" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1409" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1409" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1409" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1410">
-      <c r="A1410" s="24"/>
-      <c r="B1410" s="7"/>
+      <c r="A1410" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1410" s="7" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1410" s="7">
+        <v>3787.0</v>
+      </c>
+      <c r="D1410" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E1410" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1410" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1410" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1410" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1410" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1410" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1411">
-      <c r="A1411" s="24"/>
-      <c r="B1411" s="7"/>
+      <c r="A1411" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1411" s="7" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1411" s="7">
+        <v>3794.0</v>
+      </c>
+      <c r="D1411" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E1411" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1411" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1411" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1411" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1411" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1411" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1412">
-      <c r="A1412" s="24"/>
-      <c r="B1412" s="7"/>
+      <c r="A1412" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1412" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1412" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="D1412" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E1412" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1412" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1412" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1412" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1412" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1412" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1413">
-      <c r="A1413" s="24"/>
-      <c r="B1413" s="7"/>
+      <c r="A1413" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1413" s="7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C1413" s="7">
+        <v>3792.0</v>
+      </c>
+      <c r="D1413" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E1413" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1413" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1413" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1413" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1413" s="7">
+        <v>17.76488</v>
+      </c>
+      <c r="K1413" s="7">
+        <v>-64.61597</v>
+      </c>
     </row>
     <row r="1414">
-      <c r="A1414" s="24"/>
-      <c r="B1414" s="7"/>
+      <c r="A1414" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1414" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1414" s="7">
+        <v>3797.0</v>
+      </c>
+      <c r="D1414" s="7">
+        <v>53.0</v>
+      </c>
+      <c r="E1414" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1414" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1414" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1414" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1414" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1415">
-      <c r="A1415" s="24"/>
-      <c r="B1415" s="7"/>
+      <c r="A1415" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1415" s="7" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C1415" s="7">
+        <v>3799.0</v>
+      </c>
+      <c r="D1415" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="E1415" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1415" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1415" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1415" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1415" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1415" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1416">
-      <c r="A1416" s="24"/>
-      <c r="B1416" s="7"/>
+      <c r="A1416" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1416" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1416" s="7">
+        <v>3807.0</v>
+      </c>
+      <c r="D1416" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="E1416" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1416" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1416" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1416" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1416" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1416" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1417">
-      <c r="A1417" s="24"/>
-      <c r="B1417" s="7"/>
+      <c r="A1417" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1417" s="7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1417" s="7">
+        <v>3801.0</v>
+      </c>
+      <c r="D1417" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E1417" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1417" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1417" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1417" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1417" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1417" s="7">
+        <v>-64.61617</v>
+      </c>
+      <c r="M1417" s="7" t="s">
+        <v>2301</v>
+      </c>
     </row>
     <row r="1418">
-      <c r="A1418" s="24"/>
-      <c r="B1418" s="7"/>
+      <c r="A1418" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1418" s="7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1418" s="7">
+        <v>3800.0</v>
+      </c>
+      <c r="D1418" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="E1418" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1418" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1418" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1418" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1418" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1418" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1419">
-      <c r="A1419" s="24"/>
-      <c r="B1419" s="7"/>
+      <c r="A1419" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1419" s="7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1419" s="7">
+        <v>3808.0</v>
+      </c>
+      <c r="D1419" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="E1419" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1419" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1419" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1419" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1419" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1420">
-      <c r="A1420" s="24"/>
-      <c r="B1420" s="7"/>
+      <c r="A1420" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1420" s="7" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1420" s="7">
+        <v>3805.0</v>
+      </c>
+      <c r="D1420" s="7">
+        <v>61.0</v>
+      </c>
+      <c r="E1420" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1420" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1420" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1420" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1420" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1420" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1421">
-      <c r="A1421" s="24"/>
-      <c r="B1421" s="7"/>
+      <c r="A1421" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1421" s="7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1421" s="7">
+        <v>3798.0</v>
+      </c>
+      <c r="D1421" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="E1421" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1421" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1421" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1421" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1421" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1421" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1422">
-      <c r="A1422" s="24"/>
-      <c r="B1422" s="7"/>
+      <c r="A1422" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1422" s="7" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1422" s="7">
+        <v>3802.0</v>
+      </c>
+      <c r="D1422" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E1422" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1422" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1422" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1422" s="7">
+        <v>17.76501</v>
+      </c>
+      <c r="K1422" s="7">
+        <v>-64.61617</v>
+      </c>
     </row>
     <row r="1423">
-      <c r="A1423" s="24"/>
-      <c r="B1423" s="7"/>
+      <c r="A1423" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1423" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1423" s="7">
+        <v>3778.0</v>
+      </c>
+      <c r="D1423" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1423" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1423" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1423" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1423" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1423" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1423" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1424">
-      <c r="A1424" s="24"/>
-      <c r="B1424" s="7"/>
+      <c r="A1424" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1424" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1424" s="7">
+        <v>3777.0</v>
+      </c>
+      <c r="D1424" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E1424" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1424" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1424" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1424" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1424" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1424" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1425">
-      <c r="A1425" s="24"/>
-      <c r="B1425" s="7"/>
+      <c r="A1425" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1425" s="7" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1425" s="7">
+        <v>3774.0</v>
+      </c>
+      <c r="D1425" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1425" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1425" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1425" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1425" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1425" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1425" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1426">
-      <c r="A1426" s="24"/>
-      <c r="B1426" s="7"/>
+      <c r="A1426" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1426" s="7" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1426" s="7">
+        <v>3780.0</v>
+      </c>
+      <c r="D1426" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="E1426" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1426" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1426" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1426" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1426" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1427">
-      <c r="A1427" s="24"/>
-      <c r="B1427" s="7"/>
+      <c r="A1427" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1427" s="7" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1427" s="7">
+        <v>3776.0</v>
+      </c>
+      <c r="D1427" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="E1427" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1427" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1427" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1427" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1427" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1427" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1428">
-      <c r="A1428" s="24"/>
-      <c r="B1428" s="7"/>
+      <c r="A1428" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1428" s="7" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C1428" s="7">
+        <v>3775.0</v>
+      </c>
+      <c r="D1428" s="7">
+        <v>56.0</v>
+      </c>
+      <c r="E1428" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1428" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1428" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1428" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1428" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1428" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1429">
-      <c r="A1429" s="24"/>
-      <c r="B1429" s="7"/>
+      <c r="A1429" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1429" s="7" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1429" s="7">
+        <v>3782.0</v>
+      </c>
+      <c r="D1429" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="E1429" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1429" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1429" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1429" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1429" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1429" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1430">
-      <c r="A1430" s="24"/>
-      <c r="B1430" s="7"/>
+      <c r="A1430" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1430" s="7" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1430" s="7">
+        <v>3781.0</v>
+      </c>
+      <c r="D1430" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E1430" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1430" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1430" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1430" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1430" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1430" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1431">
-      <c r="A1431" s="24"/>
-      <c r="B1431" s="7"/>
+      <c r="A1431" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1431" s="7" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1431" s="7">
+        <v>3773.0</v>
+      </c>
+      <c r="D1431" s="7">
+        <v>59.0</v>
+      </c>
+      <c r="E1431" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1431" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1431" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H1431" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1431" s="7">
+        <v>17.76483</v>
+      </c>
+      <c r="K1431" s="7">
+        <v>-64.61577</v>
+      </c>
     </row>
     <row r="1432">
-      <c r="A1432" s="24"/>
-      <c r="B1432" s="7"/>
+      <c r="A1432" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1432" s="7" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1432" s="7" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1432" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E1432" s="8">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="F1432" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1432" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1432" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1432" s="11">
+        <v>17.7929165493697</v>
+      </c>
+      <c r="K1432" s="11">
+        <v>-64.610341899097</v>
+      </c>
     </row>
     <row r="1433">
-      <c r="A1433" s="24"/>
-      <c r="B1433" s="7"/>
+      <c r="A1433" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1433" s="7" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1433" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1433" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1433" s="8">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F1433" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1433" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1433" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1433" s="11">
+        <v>17.7928976062685</v>
+      </c>
+      <c r="K1433" s="11">
+        <v>-64.6105060167611</v>
+      </c>
     </row>
     <row r="1434">
-      <c r="A1434" s="24"/>
-      <c r="B1434" s="7"/>
+      <c r="A1434" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1434" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1434" s="7" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1434" s="7">
+        <v>214.0</v>
+      </c>
+      <c r="E1434" s="8">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="F1434" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1434" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1434" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1434" s="11">
+        <v>17.7930551860482</v>
+      </c>
+      <c r="K1434" s="11">
+        <v>-64.6105611696839</v>
+      </c>
     </row>
     <row r="1435">
-      <c r="A1435" s="24"/>
-      <c r="B1435" s="7"/>
+      <c r="A1435" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1435" s="7" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1435" s="7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1435" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E1435" s="8">
+        <v>0.4979166666666667</v>
+      </c>
+      <c r="F1435" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1435" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1435" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1435" s="11">
+        <v>17.793123498559</v>
+      </c>
+      <c r="K1435" s="11">
+        <v>-64.6106085274369</v>
+      </c>
     </row>
     <row r="1436">
-      <c r="A1436" s="24"/>
-      <c r="B1436" s="7"/>
+      <c r="A1436" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1436" s="7" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1436" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1436" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1436" s="8">
+        <v>0.4986111111111111</v>
+      </c>
+      <c r="F1436" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1436" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1436" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1436" s="11">
+        <v>17.7931346464902</v>
+      </c>
+      <c r="K1436" s="11">
+        <v>-64.6106138080359</v>
+      </c>
     </row>
     <row r="1437">
-      <c r="A1437" s="24"/>
-      <c r="B1437" s="7"/>
+      <c r="A1437" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1437" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1437" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D1437" s="7">
+        <v>203.0</v>
+      </c>
+      <c r="E1437" s="8">
+        <v>0.5020833333333333</v>
+      </c>
+      <c r="F1437" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1437" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1437" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1437" s="11">
+        <v>17.7932248357683</v>
+      </c>
+      <c r="K1437" s="11">
+        <v>-64.610688323155</v>
+      </c>
     </row>
     <row r="1438">
-      <c r="A1438" s="24"/>
-      <c r="B1438" s="7"/>
+      <c r="A1438" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1438" s="7" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C1438" s="7" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D1438" s="7">
+        <v>213.0</v>
+      </c>
+      <c r="E1438" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F1438" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1438" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1438" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1438" s="11">
+        <v>17.7933247480541</v>
+      </c>
+      <c r="K1438" s="11">
+        <v>-64.6107169892639</v>
+      </c>
     </row>
     <row r="1439">
-      <c r="A1439" s="24"/>
-      <c r="B1439" s="7"/>
+      <c r="A1439" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1439" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1439" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D1439" s="7">
+        <v>217.0</v>
+      </c>
+      <c r="E1439" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F1439" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1439" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1439" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1439" s="11">
+        <v>17.793194744736</v>
+      </c>
+      <c r="K1439" s="11">
+        <v>-64.6107759140432</v>
+      </c>
     </row>
     <row r="1440">
-      <c r="A1440" s="24"/>
-      <c r="B1440" s="7"/>
+      <c r="A1440" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1440" s="7" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1440" s="7" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D1440" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="E1440" s="8">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="F1440" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1440" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1440" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1440" s="11">
+        <v>17.7931794896722</v>
+      </c>
+      <c r="K1440" s="11">
+        <v>-64.6108772512525</v>
+      </c>
     </row>
     <row r="1441">
-      <c r="A1441" s="24"/>
-      <c r="B1441" s="7"/>
+      <c r="A1441" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1441" s="7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1441" s="7" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D1441" s="7">
+        <v>206.0</v>
+      </c>
+      <c r="E1441" s="8">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="F1441" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1441" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1441" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1441" s="11">
+        <v>17.7932579442859</v>
+      </c>
+      <c r="K1441" s="11">
+        <v>-64.6109747327864</v>
+      </c>
     </row>
     <row r="1442">
-      <c r="A1442" s="24"/>
-      <c r="B1442" s="7"/>
+      <c r="A1442" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1442" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1442" s="7" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1442" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1442" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F1442" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1442" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1442" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1442" s="11">
+        <v>17.7933644782752</v>
+      </c>
+      <c r="K1442" s="11">
+        <v>-64.611039776355</v>
+      </c>
+      <c r="M1442" s="7" t="s">
+        <v>2338</v>
+      </c>
     </row>
     <row r="1443">
-      <c r="A1443" s="24"/>
-      <c r="B1443" s="7"/>
+      <c r="A1443" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1443" s="7" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1443" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1443" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E1443" s="8">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F1443" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1443" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1443" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1443" s="11">
+        <v>17.7936557494104</v>
+      </c>
+      <c r="K1443" s="11">
+        <v>-64.611023850739</v>
+      </c>
     </row>
     <row r="1444">
-      <c r="A1444" s="24"/>
-      <c r="B1444" s="7"/>
+      <c r="A1444" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1444" s="7" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1444" s="7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1444" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="E1444" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="F1444" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1444" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1444" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1444" s="11">
+        <v>17.7931115124375</v>
+      </c>
+      <c r="K1444" s="11">
+        <v>-64.6106559690088</v>
+      </c>
+      <c r="M1444" s="7" t="s">
+        <v>2343</v>
+      </c>
     </row>
     <row r="1445">
-      <c r="A1445" s="24"/>
-      <c r="B1445" s="7"/>
+      <c r="A1445" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1445" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1445" s="7" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D1445" s="7">
+        <v>212.0</v>
+      </c>
+      <c r="E1445" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F1445" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1445" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1445" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1445" s="11">
+        <v>17.7931418549269</v>
+      </c>
+      <c r="K1445" s="11">
+        <v>-64.610714558512</v>
+      </c>
     </row>
     <row r="1446">
-      <c r="A1446" s="24"/>
-      <c r="B1446" s="7"/>
+      <c r="A1446" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1446" s="7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1446" s="7" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D1446" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1446" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F1446" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1446" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1446" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1446" s="11">
+        <v>17.7932691760361</v>
+      </c>
+      <c r="K1446" s="11">
+        <v>-64.6107008960098</v>
+      </c>
+      <c r="M1446" s="7" t="s">
+        <v>2348</v>
+      </c>
     </row>
     <row r="1447">
-      <c r="A1447" s="24"/>
-      <c r="B1447" s="7"/>
+      <c r="A1447" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1447" s="7" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1447" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D1447" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E1447" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1447" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1447" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1447" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1447" s="11">
+        <v>17.7933130972087</v>
+      </c>
+      <c r="K1447" s="11">
+        <v>-64.6108376048505</v>
+      </c>
     </row>
     <row r="1448">
-      <c r="A1448" s="24"/>
-      <c r="B1448" s="7"/>
+      <c r="A1448" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1448" s="7" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1448" s="7" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D1448" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E1448" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1448" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1448" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1448" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1448" s="11">
+        <v>17.7931960020214</v>
+      </c>
+      <c r="K1448" s="11">
+        <v>-64.61086275056</v>
+      </c>
     </row>
     <row r="1449">
-      <c r="A1449" s="24"/>
-      <c r="B1449" s="7"/>
+      <c r="A1449" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1449" s="7" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1449" s="7" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D1449" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1449" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1449" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1449" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1449" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1449" s="11">
+        <v>17.7932628057897</v>
+      </c>
+      <c r="K1449" s="11">
+        <v>-64.61097355932</v>
+      </c>
+      <c r="M1449" s="7" t="s">
+        <v>2355</v>
+      </c>
     </row>
     <row r="1450">
-      <c r="A1450" s="24"/>
-      <c r="B1450" s="7"/>
+      <c r="A1450" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1450" s="7" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1450" s="7" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D1450" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E1450" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F1450" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1450" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1450" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1450" s="11">
+        <v>17.7933644782752</v>
+      </c>
+      <c r="K1450" s="11">
+        <v>-64.611039776355</v>
+      </c>
     </row>
     <row r="1451">
-      <c r="A1451" s="24"/>
-      <c r="B1451" s="7"/>
+      <c r="A1451" s="6">
+        <v>44735.0</v>
+      </c>
+      <c r="B1451" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1451" s="7" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1451" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E1451" s="8">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="F1451" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1451" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H1451" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1451" s="11">
+        <v>17.7933432720602</v>
+      </c>
+      <c r="K1451" s="11">
+        <v>-64.6109143830836</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="24"/>
-      <c r="B1452" s="7"/>
     </row>
     <row r="1453">
       <c r="A1453" s="24"/>
-      <c r="B1453" s="7"/>
     </row>
     <row r="1454">
       <c r="A1454" s="24"/>
-      <c r="B1454" s="7"/>
     </row>
     <row r="1455">
       <c r="A1455" s="24"/>
-      <c r="B1455" s="7"/>
     </row>
     <row r="1456">
       <c r="A1456" s="24"/>
-      <c r="B1456" s="7"/>
     </row>
     <row r="1457">
       <c r="A1457" s="24"/>
-      <c r="B1457" s="7"/>
     </row>
     <row r="1458">
       <c r="A1458" s="24"/>
@@ -54128,19 +57684,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2172</v>
+        <v>2360</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2173</v>
+        <v>2361</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2174</v>
+        <v>2362</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2175</v>
+        <v>2363</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2176</v>
+        <v>2364</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -54164,21 +57720,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2177</v>
+        <v>2365</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2178</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2179</v>
+        <v>2367</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2180</v>
+        <v>2368</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -54190,33 +57746,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2181</v>
+        <v>2369</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2181</v>
+        <v>2369</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2181</v>
+        <v>2369</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2181</v>
+        <v>2369</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2181</v>
+        <v>2369</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2182</v>
+        <v>2370</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2183</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2184</v>
+        <v>2372</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2185</v>
+        <v>2373</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -54227,10 +57783,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2186</v>
+        <v>2374</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -54242,18 +57798,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2188</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2189</v>
+        <v>2377</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2190</v>
+        <v>2378</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2191</v>
+        <v>2379</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -54261,10 +57817,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2192</v>
+        <v>2380</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2193</v>
+        <v>2381</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -54296,10 +57852,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2194</v>
+        <v>2382</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2195</v>
+        <v>2383</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -54331,7 +57887,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2179</v>
+        <v>2367</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -54360,7 +57916,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2186</v>
+        <v>2374</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -54389,7 +57945,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2184</v>
+        <v>2372</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -54412,7 +57968,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2192</v>
+        <v>2380</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -54435,7 +57991,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2196</v>
+        <v>2384</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -54478,16 +58034,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2197</v>
+        <v>2385</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2198</v>
+        <v>2386</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2199</v>
+        <v>2387</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -54517,7 +58073,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -54532,7 +58088,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -54547,7 +58103,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -54562,7 +58118,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -54577,7 +58133,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -54592,7 +58148,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -54607,7 +58163,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -54622,7 +58178,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -54637,7 +58193,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -54652,7 +58208,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -54667,7 +58223,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -54682,7 +58238,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -54697,7 +58253,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -54712,7 +58268,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -54727,7 +58283,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -54742,7 +58298,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -54758,7 +58314,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -54774,7 +58330,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -54789,7 +58345,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -54804,7 +58360,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -54819,7 +58375,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -54834,7 +58390,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -54849,7 +58405,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -54864,7 +58420,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -54879,7 +58435,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -54894,7 +58450,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -54909,7 +58465,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -54924,7 +58480,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -54939,7 +58495,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -54954,7 +58510,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -54969,7 +58525,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -54984,7 +58540,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -54999,7 +58555,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -55014,7 +58570,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2187</v>
+        <v>2375</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -55029,7 +58585,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -55044,7 +58600,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -55059,7 +58615,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -55071,12 +58627,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -55091,7 +58647,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -55103,12 +58659,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -55123,7 +58679,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -55138,7 +58694,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -55153,7 +58709,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -55165,12 +58721,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -55185,7 +58741,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -55200,7 +58756,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -55215,7 +58771,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -55230,7 +58786,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -55245,7 +58801,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -55260,7 +58816,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -55275,7 +58831,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -55290,7 +58846,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -55305,7 +58861,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -55320,7 +58876,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -55335,7 +58891,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -55350,7 +58906,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -55365,7 +58921,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -55380,7 +58936,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -55395,7 +58951,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -55410,7 +58966,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -55425,7 +58981,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -55440,7 +58996,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -55455,7 +59011,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2200</v>
+        <v>2388</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -55470,7 +59026,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -55485,7 +59041,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -55500,7 +59056,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -55515,7 +59071,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -55530,7 +59086,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -55545,7 +59101,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -55560,7 +59116,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -55575,7 +59131,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -55590,7 +59146,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -55605,7 +59161,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -55620,7 +59176,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -55635,7 +59191,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -55650,7 +59206,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -55665,7 +59221,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -55680,7 +59236,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -55695,7 +59251,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -55710,7 +59266,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -55725,7 +59281,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -55740,7 +59296,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -55755,7 +59311,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -55770,7 +59326,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -55785,7 +59341,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -55800,7 +59356,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -55815,7 +59371,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -55830,7 +59386,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -55845,7 +59401,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -55860,7 +59416,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -55875,7 +59431,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2202</v>
+        <v>2390</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -55890,7 +59446,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -55905,7 +59461,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -55920,7 +59476,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -55935,7 +59491,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -55950,7 +59506,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -55965,7 +59521,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -55980,7 +59536,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -55995,7 +59551,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -56010,7 +59566,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -56025,7 +59581,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -56040,7 +59596,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -56055,7 +59611,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -56070,7 +59626,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -56085,7 +59641,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -56100,7 +59656,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -56115,7 +59671,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -56130,7 +59686,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -56145,7 +59701,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -56160,7 +59716,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -56175,7 +59731,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -56190,7 +59746,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -56205,7 +59761,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2203</v>
+        <v>2391</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -56220,7 +59776,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -56235,7 +59791,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -56250,7 +59806,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -56265,7 +59821,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -56277,12 +59833,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -56297,7 +59853,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -56312,7 +59868,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -56327,7 +59883,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -56342,7 +59898,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -56357,7 +59913,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -56372,7 +59928,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -56387,7 +59943,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -56402,7 +59958,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -56414,12 +59970,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -56434,7 +59990,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -56446,12 +60002,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2201</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -56466,7 +60022,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -56481,7 +60037,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -56496,7 +60052,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -56511,7 +60067,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -56523,12 +60079,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -56540,12 +60096,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -56557,12 +60113,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -56574,12 +60130,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -56591,12 +60147,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -56608,12 +60164,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -56625,12 +60181,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -56642,12 +60198,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -56659,12 +60215,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -56676,12 +60232,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -56693,12 +60249,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -56710,12 +60266,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -56727,12 +60283,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -56744,12 +60300,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -56761,12 +60317,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -56778,12 +60334,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -56795,12 +60351,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -56812,12 +60368,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -56829,12 +60385,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -56846,12 +60402,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -56863,12 +60419,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -56880,12 +60436,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -56897,12 +60453,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2205</v>
+        <v>2393</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -56914,7 +60470,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2206</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="158">
@@ -59466,22 +63022,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2207</v>
+        <v>2395</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2208</v>
+        <v>2396</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2209</v>
+        <v>2397</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2210</v>
+        <v>2398</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2211</v>
+        <v>2399</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2212</v>
+        <v>2400</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -59492,17 +63048,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2213</v>
+        <v>2401</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2186</v>
+        <v>2374</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2214</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="3">
@@ -59510,7 +63066,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2215</v>
+        <v>2403</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -59531,10 +63087,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2216</v>
+        <v>2404</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2192</v>
+        <v>2380</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -59549,7 +63105,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2217</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="5">
@@ -59557,10 +63113,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2218</v>
+        <v>2406</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2196</v>
+        <v>2384</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -59580,10 +63136,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2219</v>
+        <v>2407</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2220</v>
+        <v>2408</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -59603,10 +63159,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2204</v>
+        <v>2392</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2221</v>
+        <v>2409</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -59626,10 +63182,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2222</v>
+        <v>2410</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2223</v>
+        <v>2411</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8089" uniqueCount="2412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8349" uniqueCount="2484">
   <si>
     <t>Date</t>
   </si>
@@ -7095,6 +7095,222 @@
   </si>
   <si>
     <t>G1413</t>
+  </si>
+  <si>
+    <t>THO_001</t>
+  </si>
+  <si>
+    <t>G1651</t>
+  </si>
+  <si>
+    <t>THO_002</t>
+  </si>
+  <si>
+    <t>THO_003</t>
+  </si>
+  <si>
+    <t>G1654</t>
+  </si>
+  <si>
+    <t>THO_004</t>
+  </si>
+  <si>
+    <t>THO_005</t>
+  </si>
+  <si>
+    <t>THO_006</t>
+  </si>
+  <si>
+    <t>G1652</t>
+  </si>
+  <si>
+    <t>THO_007</t>
+  </si>
+  <si>
+    <t>THO_008</t>
+  </si>
+  <si>
+    <t>THO_009</t>
+  </si>
+  <si>
+    <t>G1653</t>
+  </si>
+  <si>
+    <t>THO_010</t>
+  </si>
+  <si>
+    <t>THO_011</t>
+  </si>
+  <si>
+    <t>THO_012</t>
+  </si>
+  <si>
+    <t>G1655</t>
+  </si>
+  <si>
+    <t>THO_013</t>
+  </si>
+  <si>
+    <t>THO_014</t>
+  </si>
+  <si>
+    <t>THO_015</t>
+  </si>
+  <si>
+    <t>G1661</t>
+  </si>
+  <si>
+    <t>THO_016</t>
+  </si>
+  <si>
+    <t>THO_017</t>
+  </si>
+  <si>
+    <t>THO_018</t>
+  </si>
+  <si>
+    <t>G1662</t>
+  </si>
+  <si>
+    <t>THO_019</t>
+  </si>
+  <si>
+    <t>THO_020</t>
+  </si>
+  <si>
+    <t>THO_021</t>
+  </si>
+  <si>
+    <t>G1663</t>
+  </si>
+  <si>
+    <t>THO_022</t>
+  </si>
+  <si>
+    <t>THO_023</t>
+  </si>
+  <si>
+    <t>THO_024</t>
+  </si>
+  <si>
+    <t>G1945</t>
+  </si>
+  <si>
+    <t>THO_025</t>
+  </si>
+  <si>
+    <t>THO_026</t>
+  </si>
+  <si>
+    <t>THO_027</t>
+  </si>
+  <si>
+    <t>G1944</t>
+  </si>
+  <si>
+    <t>THO_028</t>
+  </si>
+  <si>
+    <t>THO_029</t>
+  </si>
+  <si>
+    <t>THO_030</t>
+  </si>
+  <si>
+    <t>G1942</t>
+  </si>
+  <si>
+    <t>THO_031</t>
+  </si>
+  <si>
+    <t>THO_032</t>
+  </si>
+  <si>
+    <t>THO_033</t>
+  </si>
+  <si>
+    <t>G1941</t>
+  </si>
+  <si>
+    <t>THO_034</t>
+  </si>
+  <si>
+    <t>THO_035</t>
+  </si>
+  <si>
+    <t>THO_036</t>
+  </si>
+  <si>
+    <t>G1664</t>
+  </si>
+  <si>
+    <t>THO_037</t>
+  </si>
+  <si>
+    <t>THO_038</t>
+  </si>
+  <si>
+    <t>THO_039</t>
+  </si>
+  <si>
+    <t>G1665</t>
+  </si>
+  <si>
+    <t>THO_040</t>
+  </si>
+  <si>
+    <t>THO_041</t>
+  </si>
+  <si>
+    <t>THO_042</t>
+  </si>
+  <si>
+    <t>G1943</t>
+  </si>
+  <si>
+    <t>THO_043</t>
+  </si>
+  <si>
+    <t>THO_044</t>
+  </si>
+  <si>
+    <t>THO_045</t>
+  </si>
+  <si>
+    <t>G1671</t>
+  </si>
+  <si>
+    <t>THO_046</t>
+  </si>
+  <si>
+    <t>G1672</t>
+  </si>
+  <si>
+    <t>THO_047</t>
+  </si>
+  <si>
+    <t>G1935</t>
+  </si>
+  <si>
+    <t>THO_048</t>
+  </si>
+  <si>
+    <t>THO_049</t>
+  </si>
+  <si>
+    <t>G1934</t>
+  </si>
+  <si>
+    <t>THO_050</t>
+  </si>
+  <si>
+    <t>THO_051</t>
+  </si>
+  <si>
+    <t>THO_052</t>
+  </si>
+  <si>
+    <t>G1674</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -55486,206 +55702,1668 @@
       </c>
     </row>
     <row r="1452">
-      <c r="A1452" s="24"/>
+      <c r="A1452" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1452" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C1452" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D1452" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E1452" s="8">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="F1452" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1452" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1452" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1452" s="11">
+        <v>17.737940736115</v>
+      </c>
+      <c r="K1452" s="11">
+        <v>-64.6041779313236</v>
+      </c>
     </row>
     <row r="1453">
-      <c r="A1453" s="24"/>
+      <c r="A1453" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1453" s="7" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C1453" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D1453" s="7">
+        <v>207.0</v>
+      </c>
+      <c r="E1453" s="8">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="F1453" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1453" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1453" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1453" s="11">
+        <v>17.737940736115</v>
+      </c>
+      <c r="K1453" s="11">
+        <v>-64.6041779313236</v>
+      </c>
     </row>
     <row r="1454">
-      <c r="A1454" s="24"/>
+      <c r="A1454" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1454" s="7" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1454" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D1454" s="7">
+        <v>204.0</v>
+      </c>
+      <c r="E1454" s="8">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F1454" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1454" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1454" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1454" s="11">
+        <v>17.7378968987614</v>
+      </c>
+      <c r="K1454" s="11">
+        <v>-64.6040979679674</v>
+      </c>
     </row>
     <row r="1455">
-      <c r="A1455" s="24"/>
+      <c r="A1455" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1455" s="7" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1455" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D1455" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E1455" s="8">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F1455" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1455" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1455" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1455" s="11">
+        <v>17.7378968987614</v>
+      </c>
+      <c r="K1455" s="11">
+        <v>-64.6040979679674</v>
+      </c>
     </row>
     <row r="1456">
-      <c r="A1456" s="24"/>
+      <c r="A1456" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1456" s="7" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C1456" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D1456" s="7">
+        <v>219.0</v>
+      </c>
+      <c r="E1456" s="8">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F1456" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1456" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1456" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1456" s="11">
+        <v>17.7378968987614</v>
+      </c>
+      <c r="K1456" s="11">
+        <v>-64.6040979679674</v>
+      </c>
     </row>
     <row r="1457">
-      <c r="A1457" s="24"/>
+      <c r="A1457" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1457" s="7" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1457" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D1457" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E1457" s="8">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="F1457" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1457" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1457" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1457" s="11">
+        <v>17.7378632873297</v>
+      </c>
+      <c r="K1457" s="11">
+        <v>-64.6040884964168</v>
+      </c>
     </row>
     <row r="1458">
-      <c r="A1458" s="24"/>
-      <c r="B1458" s="7"/>
+      <c r="A1458" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1458" s="7" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C1458" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D1458" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E1458" s="8">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="F1458" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1458" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1458" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1458" s="11">
+        <v>17.7378632873297</v>
+      </c>
+      <c r="K1458" s="11">
+        <v>-64.6040884964168</v>
+      </c>
     </row>
     <row r="1459">
-      <c r="A1459" s="24"/>
-      <c r="B1459" s="7"/>
+      <c r="A1459" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1459" s="7" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1459" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D1459" s="7">
+        <v>106.0</v>
+      </c>
+      <c r="E1459" s="8">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="F1459" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1459" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1459" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1459" s="11">
+        <v>17.7378632873297</v>
+      </c>
+      <c r="K1459" s="11">
+        <v>-64.6040884964168</v>
+      </c>
     </row>
     <row r="1460">
-      <c r="A1460" s="24"/>
-      <c r="B1460" s="7"/>
+      <c r="A1460" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1460" s="7" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C1460" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1460" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="E1460" s="8">
+        <v>0.48125</v>
+      </c>
+      <c r="F1460" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1460" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1460" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1460" s="11">
+        <v>17.7378211263567</v>
+      </c>
+      <c r="K1460" s="11">
+        <v>-64.6040576510131</v>
+      </c>
     </row>
     <row r="1461">
-      <c r="A1461" s="24"/>
-      <c r="B1461" s="7"/>
+      <c r="A1461" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1461" s="7" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1461" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1461" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E1461" s="8">
+        <v>0.48125</v>
+      </c>
+      <c r="F1461" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1461" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1461" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1461" s="11">
+        <v>17.7378211263567</v>
+      </c>
+      <c r="K1461" s="11">
+        <v>-64.6040576510131</v>
+      </c>
     </row>
     <row r="1462">
-      <c r="A1462" s="24"/>
-      <c r="B1462" s="7"/>
+      <c r="A1462" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1462" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1462" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D1462" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1462" s="8">
+        <v>0.48125</v>
+      </c>
+      <c r="F1462" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1462" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1462" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1462" s="11">
+        <v>17.7378211263567</v>
+      </c>
+      <c r="K1462" s="11">
+        <v>-64.6040576510131</v>
+      </c>
     </row>
     <row r="1463">
-      <c r="A1463" s="24"/>
-      <c r="B1463" s="7"/>
+      <c r="A1463" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1463" s="7" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1463" s="7" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1463" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1463" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F1463" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1463" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1463" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1463" s="11">
+        <v>17.7377644646913</v>
+      </c>
+      <c r="K1463" s="11">
+        <v>-64.6040355227888</v>
+      </c>
     </row>
     <row r="1464">
-      <c r="A1464" s="24"/>
-      <c r="B1464" s="7"/>
+      <c r="A1464" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1464" s="7" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1464" s="7" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1464" s="7">
+        <v>209.0</v>
+      </c>
+      <c r="E1464" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F1464" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1464" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1464" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1464" s="11">
+        <v>17.7377644646913</v>
+      </c>
+      <c r="K1464" s="11">
+        <v>-64.6040355227888</v>
+      </c>
     </row>
     <row r="1465">
-      <c r="A1465" s="24"/>
-      <c r="B1465" s="7"/>
+      <c r="A1465" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1465" s="7" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C1465" s="7" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1465" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E1465" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F1465" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1465" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1465" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1465" s="11">
+        <v>17.7377644646913</v>
+      </c>
+      <c r="K1465" s="11">
+        <v>-64.6040355227888</v>
+      </c>
     </row>
     <row r="1466">
-      <c r="A1466" s="24"/>
-      <c r="B1466" s="7"/>
+      <c r="A1466" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1466" s="7" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1466" s="7" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1466" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E1466" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F1466" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1466" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1466" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1466" s="11">
+        <v>17.7377297636122</v>
+      </c>
+      <c r="K1466" s="11">
+        <v>-64.6040692180395</v>
+      </c>
     </row>
     <row r="1467">
-      <c r="A1467" s="24"/>
-      <c r="B1467" s="7"/>
+      <c r="A1467" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1467" s="7" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1467" s="7" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1467" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E1467" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F1467" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1467" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1467" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1467" s="11">
+        <v>17.7377297636122</v>
+      </c>
+      <c r="K1467" s="11">
+        <v>-64.6040692180395</v>
+      </c>
     </row>
     <row r="1468">
-      <c r="A1468" s="24"/>
-      <c r="B1468" s="7"/>
+      <c r="A1468" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1468" s="7" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1468" s="7" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1468" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="E1468" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F1468" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1468" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1468" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1468" s="11">
+        <v>17.7377297636122</v>
+      </c>
+      <c r="K1468" s="11">
+        <v>-64.6040692180395</v>
+      </c>
     </row>
     <row r="1469">
-      <c r="A1469" s="24"/>
-      <c r="B1469" s="7"/>
+      <c r="A1469" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1469" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1469" s="7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1469" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E1469" s="8">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F1469" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1469" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1469" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1469" s="11">
+        <v>17.7377620339394</v>
+      </c>
+      <c r="K1469" s="11">
+        <v>-64.6040841378272</v>
+      </c>
     </row>
     <row r="1470">
-      <c r="A1470" s="24"/>
-      <c r="B1470" s="7"/>
+      <c r="A1470" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1470" s="7" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C1470" s="7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1470" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E1470" s="8">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F1470" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1470" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1470" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1470" s="11">
+        <v>17.7377620339394</v>
+      </c>
+      <c r="K1470" s="11">
+        <v>-64.6040841378272</v>
+      </c>
     </row>
     <row r="1471">
-      <c r="A1471" s="24"/>
-      <c r="B1471" s="7"/>
+      <c r="A1471" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1471" s="7" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C1471" s="7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1471" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1471" s="8">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F1471" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1471" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1471" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1471" s="11">
+        <v>17.7377620339394</v>
+      </c>
+      <c r="K1471" s="11">
+        <v>-64.6040841378272</v>
+      </c>
     </row>
     <row r="1472">
-      <c r="A1472" s="24"/>
-      <c r="B1472" s="7"/>
+      <c r="A1472" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1472" s="7" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C1472" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D1472" s="7">
+        <v>208.0</v>
+      </c>
+      <c r="E1472" s="8">
+        <v>0.49375</v>
+      </c>
+      <c r="F1472" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1472" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1472" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1472" s="11">
+        <v>17.7377782110125</v>
+      </c>
+      <c r="K1472" s="11">
+        <v>-64.6041248738766</v>
+      </c>
     </row>
     <row r="1473">
-      <c r="A1473" s="24"/>
-      <c r="B1473" s="7"/>
+      <c r="A1473" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1473" s="7" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1473" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D1473" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="E1473" s="8">
+        <v>0.49375</v>
+      </c>
+      <c r="F1473" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1473" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1473" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1473" s="11">
+        <v>17.7377782110125</v>
+      </c>
+      <c r="K1473" s="11">
+        <v>-64.6041248738766</v>
+      </c>
     </row>
     <row r="1474">
-      <c r="A1474" s="24"/>
-      <c r="B1474" s="7"/>
+      <c r="A1474" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1474" s="7" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1474" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D1474" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E1474" s="8">
+        <v>0.49375</v>
+      </c>
+      <c r="F1474" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1474" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1474" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1474" s="11">
+        <v>17.7377782110125</v>
+      </c>
+      <c r="K1474" s="11">
+        <v>-64.6041248738766</v>
+      </c>
     </row>
     <row r="1475">
-      <c r="A1475" s="24"/>
-      <c r="B1475" s="7"/>
+      <c r="A1475" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1475" s="7" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1475" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1475" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="E1475" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="F1475" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1475" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1475" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1475" s="11">
+        <v>17.7377729304135</v>
+      </c>
+      <c r="K1475" s="11">
+        <v>-64.6041493490338</v>
+      </c>
     </row>
     <row r="1476">
-      <c r="A1476" s="24"/>
-      <c r="B1476" s="7"/>
+      <c r="A1476" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1476" s="7" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1476" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1476" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="E1476" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="F1476" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1476" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1476" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1476" s="11">
+        <v>17.7377729304135</v>
+      </c>
+      <c r="K1476" s="11">
+        <v>-64.6041493490338</v>
+      </c>
     </row>
     <row r="1477">
-      <c r="A1477" s="24"/>
-      <c r="B1477" s="7"/>
+      <c r="A1477" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1477" s="7" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C1477" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1477" s="7">
+        <v>205.0</v>
+      </c>
+      <c r="E1477" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="F1477" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1477" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1477" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1477" s="11">
+        <v>17.7377729304135</v>
+      </c>
+      <c r="K1477" s="11">
+        <v>-64.6041493490338</v>
+      </c>
     </row>
     <row r="1478">
-      <c r="A1478" s="24"/>
-      <c r="B1478" s="7"/>
+      <c r="A1478" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1478" s="7" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1478" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D1478" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="E1478" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F1478" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1478" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1478" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1478" s="11">
+        <v>17.7378396503627</v>
+      </c>
+      <c r="K1478" s="11">
+        <v>-64.6041179168969</v>
+      </c>
     </row>
     <row r="1479">
-      <c r="A1479" s="24"/>
-      <c r="B1479" s="7"/>
+      <c r="A1479" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1479" s="7" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1479" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D1479" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E1479" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F1479" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1479" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1479" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1479" s="11">
+        <v>17.7378396503627</v>
+      </c>
+      <c r="K1479" s="11">
+        <v>-64.6041179168969</v>
+      </c>
     </row>
     <row r="1480">
-      <c r="A1480" s="24"/>
-      <c r="B1480" s="7"/>
+      <c r="A1480" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1480" s="7" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1480" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D1480" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1480" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F1480" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1480" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1480" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1480" s="11">
+        <v>17.7378396503627</v>
+      </c>
+      <c r="K1480" s="11">
+        <v>-64.6041179168969</v>
+      </c>
     </row>
     <row r="1481">
-      <c r="A1481" s="24"/>
-      <c r="B1481" s="7"/>
+      <c r="A1481" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1481" s="7" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1481" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1481" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E1481" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1481" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1481" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1481" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1481" s="11">
+        <v>17.7377805579454</v>
+      </c>
+      <c r="K1481" s="11">
+        <v>-64.6042035799474</v>
+      </c>
     </row>
     <row r="1482">
-      <c r="A1482" s="24"/>
-      <c r="B1482" s="7"/>
+      <c r="A1482" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1482" s="7" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1482" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1482" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1482" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1482" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1482" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1482" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1482" s="11">
+        <v>17.7377805579454</v>
+      </c>
+      <c r="K1482" s="11">
+        <v>-64.6042035799474</v>
+      </c>
     </row>
     <row r="1483">
-      <c r="A1483" s="24"/>
-      <c r="B1483" s="7"/>
+      <c r="A1483" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1483" s="7" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C1483" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1483" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1483" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1483" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1483" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1483" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1483" s="11">
+        <v>17.7377805579454</v>
+      </c>
+      <c r="K1483" s="11">
+        <v>-64.6042035799474</v>
+      </c>
     </row>
     <row r="1484">
-      <c r="A1484" s="24"/>
-      <c r="B1484" s="7"/>
+      <c r="A1484" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1484" s="7" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1484" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1484" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E1484" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1484" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1484" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1484" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1484" s="11">
+        <v>17.7377038635314</v>
+      </c>
+      <c r="K1484" s="11">
+        <v>-64.6043516043574</v>
+      </c>
     </row>
     <row r="1485">
-      <c r="A1485" s="24"/>
-      <c r="B1485" s="7"/>
+      <c r="A1485" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1485" s="7" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C1485" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1485" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1485" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1485" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1485" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1485" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1485" s="11">
+        <v>17.7377038635314</v>
+      </c>
+      <c r="K1485" s="11">
+        <v>-64.6043516043574</v>
+      </c>
     </row>
     <row r="1486">
-      <c r="A1486" s="24"/>
-      <c r="B1486" s="7"/>
+      <c r="A1486" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1486" s="7" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1486" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1486" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1486" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1486" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1486" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1486" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1486" s="11">
+        <v>17.7377038635314</v>
+      </c>
+      <c r="K1486" s="11">
+        <v>-64.6043516043574</v>
+      </c>
     </row>
     <row r="1487">
-      <c r="A1487" s="24"/>
-      <c r="B1487" s="7"/>
+      <c r="A1487" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1487" s="7" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C1487" s="7" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1487" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E1487" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1487" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1487" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1487" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1487" s="11">
+        <v>17.7376589365304</v>
+      </c>
+      <c r="K1487" s="11">
+        <v>-64.6043306495994</v>
+      </c>
     </row>
     <row r="1488">
-      <c r="A1488" s="24"/>
-      <c r="B1488" s="7"/>
+      <c r="A1488" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1488" s="7" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1488" s="7" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1488" s="7">
+        <v>218.0</v>
+      </c>
+      <c r="E1488" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1488" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1488" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1488" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1488" s="11">
+        <v>17.7376589365304</v>
+      </c>
+      <c r="K1488" s="11">
+        <v>-64.6043306495994</v>
+      </c>
     </row>
     <row r="1489">
-      <c r="A1489" s="24"/>
-      <c r="B1489" s="7"/>
+      <c r="A1489" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1489" s="7" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C1489" s="7" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1489" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1489" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1489" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1489" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1489" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1489" s="11">
+        <v>17.7376589365304</v>
+      </c>
+      <c r="K1489" s="11">
+        <v>-64.6043306495994</v>
+      </c>
     </row>
     <row r="1490">
-      <c r="A1490" s="24"/>
-      <c r="B1490" s="7"/>
+      <c r="A1490" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1490" s="7" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1490" s="7" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D1490" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1490" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F1490" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1490" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1490" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1490" s="11">
+        <v>17.7376535721123</v>
+      </c>
+      <c r="K1490" s="11">
+        <v>-64.6044316515327</v>
+      </c>
     </row>
     <row r="1491">
-      <c r="A1491" s="24"/>
-      <c r="B1491" s="7"/>
+      <c r="A1491" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1491" s="7" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1491" s="7" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D1491" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1491" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F1491" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1491" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1491" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1491" s="11">
+        <v>17.7376535721123</v>
+      </c>
+      <c r="K1491" s="11">
+        <v>-64.6044316515327</v>
+      </c>
     </row>
     <row r="1492">
-      <c r="A1492" s="24"/>
-      <c r="B1492" s="7"/>
+      <c r="A1492" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1492" s="7" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C1492" s="7" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D1492" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1492" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F1492" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1492" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1492" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1492" s="11">
+        <v>17.7376535721123</v>
+      </c>
+      <c r="K1492" s="11">
+        <v>-64.6044316515327</v>
+      </c>
     </row>
     <row r="1493">
-      <c r="A1493" s="24"/>
-      <c r="B1493" s="7"/>
+      <c r="A1493" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1493" s="7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1493" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D1493" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1493" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1493" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1493" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1493" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1493" s="11">
+        <v>17.7376163564622</v>
+      </c>
+      <c r="K1493" s="11">
+        <v>-64.6044947672635</v>
+      </c>
     </row>
     <row r="1494">
-      <c r="A1494" s="24"/>
-      <c r="B1494" s="7"/>
+      <c r="A1494" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1494" s="7" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1494" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D1494" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1494" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1494" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1494" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1494" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1494" s="11">
+        <v>17.7376163564622</v>
+      </c>
+      <c r="K1494" s="11">
+        <v>-64.6044947672635</v>
+      </c>
     </row>
     <row r="1495">
-      <c r="A1495" s="24"/>
-      <c r="B1495" s="7"/>
+      <c r="A1495" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1495" s="7" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C1495" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D1495" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E1495" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1495" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1495" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1495" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1495" s="11">
+        <v>17.7376163564622</v>
+      </c>
+      <c r="K1495" s="11">
+        <v>-64.6044947672635</v>
+      </c>
     </row>
     <row r="1496">
-      <c r="A1496" s="24"/>
-      <c r="B1496" s="7"/>
+      <c r="A1496" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1496" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1496" s="7" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D1496" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1496" s="8">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="F1496" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1496" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1496" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1496" s="11">
+        <v>17.7376375626773</v>
+      </c>
+      <c r="K1496" s="11">
+        <v>-64.6045222599059</v>
+      </c>
     </row>
     <row r="1497">
-      <c r="A1497" s="24"/>
-      <c r="B1497" s="7"/>
+      <c r="A1497" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1497" s="7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1497" s="7" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D1497" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1497" s="8">
+        <v>0.5298611111111111</v>
+      </c>
+      <c r="F1497" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1497" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1497" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1497" s="11">
+        <v>17.7375903725624</v>
+      </c>
+      <c r="K1497" s="11">
+        <v>-64.6045558713377</v>
+      </c>
     </row>
     <row r="1498">
-      <c r="A1498" s="24"/>
-      <c r="B1498" s="7"/>
+      <c r="A1498" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1498" s="7" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C1498" s="7" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D1498" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1498" s="8">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="F1498" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1498" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1498" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1498" s="11">
+        <v>17.7375637181103</v>
+      </c>
+      <c r="K1498" s="11">
+        <v>-64.604570120573</v>
+      </c>
     </row>
     <row r="1499">
-      <c r="A1499" s="24"/>
-      <c r="B1499" s="7"/>
+      <c r="A1499" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1499" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1499" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1499" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1499" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F1499" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1499" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1499" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1499" s="11">
+        <v>17.7375161089003</v>
+      </c>
+      <c r="K1499" s="11">
+        <v>-64.6045708749443</v>
+      </c>
     </row>
     <row r="1500">
-      <c r="A1500" s="24"/>
-      <c r="B1500" s="7"/>
+      <c r="A1500" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1500" s="7" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C1500" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D1500" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1500" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F1500" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1500" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1500" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1500" s="11">
+        <v>17.7375410869718</v>
+      </c>
+      <c r="K1500" s="11">
+        <v>-64.6046808455139</v>
+      </c>
     </row>
     <row r="1501">
-      <c r="A1501" s="24"/>
-      <c r="B1501" s="7"/>
+      <c r="A1501" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1501" s="7" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C1501" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D1501" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E1501" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F1501" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1501" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1501" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1501" s="11">
+        <v>17.7375410869718</v>
+      </c>
+      <c r="K1501" s="11">
+        <v>-64.6046808455139</v>
+      </c>
     </row>
     <row r="1502">
-      <c r="A1502" s="24"/>
-      <c r="B1502" s="7"/>
+      <c r="A1502" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1502" s="7" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1502" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D1502" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E1502" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F1502" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1502" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1502" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1502" s="11">
+        <v>17.7375410869718</v>
+      </c>
+      <c r="K1502" s="11">
+        <v>-64.6046808455139</v>
+      </c>
     </row>
     <row r="1503">
-      <c r="A1503" s="24"/>
-      <c r="B1503" s="7"/>
+      <c r="A1503" s="6">
+        <v>44737.0</v>
+      </c>
+      <c r="B1503" s="7" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C1503" s="7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D1503" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E1503" s="8">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="F1503" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1503" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1503" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1503" s="11">
+        <v>17.7375373989344</v>
+      </c>
+      <c r="K1503" s="11">
+        <v>-64.6047618146986</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="24"/>
@@ -57684,19 +59362,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2360</v>
+        <v>2432</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2361</v>
+        <v>2433</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2362</v>
+        <v>2434</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2363</v>
+        <v>2435</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2364</v>
+        <v>2436</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -57720,21 +59398,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2365</v>
+        <v>2437</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2366</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2367</v>
+        <v>2439</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2368</v>
+        <v>2440</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -57746,33 +59424,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2369</v>
+        <v>2441</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2369</v>
+        <v>2441</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2369</v>
+        <v>2441</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2369</v>
+        <v>2441</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2369</v>
+        <v>2441</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2370</v>
+        <v>2442</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2371</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2372</v>
+        <v>2444</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2373</v>
+        <v>2445</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -57783,10 +59461,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2374</v>
+        <v>2446</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -57798,18 +59476,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2376</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2377</v>
+        <v>2449</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2378</v>
+        <v>2450</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2379</v>
+        <v>2451</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -57817,10 +59495,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2380</v>
+        <v>2452</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2381</v>
+        <v>2453</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -57852,10 +59530,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2382</v>
+        <v>2454</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2383</v>
+        <v>2455</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -57887,7 +59565,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2367</v>
+        <v>2439</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -57916,7 +59594,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2374</v>
+        <v>2446</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -57945,7 +59623,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2372</v>
+        <v>2444</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -57968,7 +59646,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2380</v>
+        <v>2452</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -57991,7 +59669,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2384</v>
+        <v>2456</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -58034,16 +59712,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2385</v>
+        <v>2457</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2386</v>
+        <v>2458</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2387</v>
+        <v>2459</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -58073,7 +59751,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -58088,7 +59766,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -58103,7 +59781,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -58118,7 +59796,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -58133,7 +59811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -58148,7 +59826,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -58163,7 +59841,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -58178,7 +59856,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -58193,7 +59871,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -58208,7 +59886,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -58223,7 +59901,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -58238,7 +59916,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -58253,7 +59931,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -58268,7 +59946,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -58283,7 +59961,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -58298,7 +59976,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -58314,7 +59992,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -58330,7 +60008,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -58345,7 +60023,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -58360,7 +60038,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -58375,7 +60053,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -58390,7 +60068,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -58405,7 +60083,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -58420,7 +60098,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -58435,7 +60113,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -58450,7 +60128,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -58465,7 +60143,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -58480,7 +60158,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -58495,7 +60173,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -58510,7 +60188,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -58525,7 +60203,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -58540,7 +60218,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -58555,7 +60233,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -58570,7 +60248,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2375</v>
+        <v>2447</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -58585,7 +60263,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -58600,7 +60278,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -58615,7 +60293,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -58627,12 +60305,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -58647,7 +60325,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -58659,12 +60337,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -58679,7 +60357,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -58694,7 +60372,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -58709,7 +60387,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -58721,12 +60399,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -58741,7 +60419,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -58756,7 +60434,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -58771,7 +60449,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -58786,7 +60464,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -58801,7 +60479,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -58816,7 +60494,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -58831,7 +60509,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -58846,7 +60524,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -58861,7 +60539,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -58876,7 +60554,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -58891,7 +60569,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -58906,7 +60584,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -58921,7 +60599,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -58936,7 +60614,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -58951,7 +60629,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -58966,7 +60644,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -58981,7 +60659,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -58996,7 +60674,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -59011,7 +60689,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2388</v>
+        <v>2460</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -59026,7 +60704,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -59041,7 +60719,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -59056,7 +60734,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -59071,7 +60749,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -59086,7 +60764,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -59101,7 +60779,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -59116,7 +60794,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -59131,7 +60809,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -59146,7 +60824,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -59161,7 +60839,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -59176,7 +60854,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -59191,7 +60869,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -59206,7 +60884,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -59221,7 +60899,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -59236,7 +60914,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -59251,7 +60929,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -59266,7 +60944,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -59281,7 +60959,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -59296,7 +60974,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -59311,7 +60989,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -59326,7 +61004,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -59341,7 +61019,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -59356,7 +61034,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -59371,7 +61049,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -59386,7 +61064,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -59401,7 +61079,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -59416,7 +61094,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -59431,7 +61109,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2390</v>
+        <v>2462</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -59446,7 +61124,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -59461,7 +61139,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -59476,7 +61154,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -59491,7 +61169,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -59506,7 +61184,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -59521,7 +61199,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -59536,7 +61214,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -59551,7 +61229,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -59566,7 +61244,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -59581,7 +61259,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -59596,7 +61274,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -59611,7 +61289,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -59626,7 +61304,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -59641,7 +61319,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -59656,7 +61334,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -59671,7 +61349,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -59686,7 +61364,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -59701,7 +61379,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -59716,7 +61394,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -59731,7 +61409,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -59746,7 +61424,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -59761,7 +61439,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2391</v>
+        <v>2463</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -59776,7 +61454,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -59791,7 +61469,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -59806,7 +61484,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -59821,7 +61499,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -59833,12 +61511,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -59853,7 +61531,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -59868,7 +61546,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -59883,7 +61561,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -59898,7 +61576,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -59913,7 +61591,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -59928,7 +61606,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -59943,7 +61621,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -59958,7 +61636,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -59970,12 +61648,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -59990,7 +61668,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -60002,12 +61680,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2389</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -60022,7 +61700,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -60037,7 +61715,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -60052,7 +61730,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -60067,7 +61745,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -60079,12 +61757,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -60096,12 +61774,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -60113,12 +61791,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -60130,12 +61808,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -60147,12 +61825,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -60164,12 +61842,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -60181,12 +61859,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -60198,12 +61876,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -60215,12 +61893,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -60232,12 +61910,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -60249,12 +61927,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -60266,12 +61944,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -60283,12 +61961,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -60300,12 +61978,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -60317,12 +61995,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -60334,12 +62012,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -60351,12 +62029,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -60368,12 +62046,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -60385,12 +62063,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -60402,12 +62080,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -60419,12 +62097,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -60436,12 +62114,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -60453,12 +62131,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2393</v>
+        <v>2465</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -60470,7 +62148,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2394</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="158">
@@ -63022,22 +64700,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2395</v>
+        <v>2467</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2396</v>
+        <v>2468</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2397</v>
+        <v>2469</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2398</v>
+        <v>2470</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2399</v>
+        <v>2471</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2400</v>
+        <v>2472</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -63048,17 +64726,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2401</v>
+        <v>2473</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2374</v>
+        <v>2446</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2402</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="3">
@@ -63066,7 +64744,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2403</v>
+        <v>2475</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -63087,10 +64765,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2404</v>
+        <v>2476</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2380</v>
+        <v>2452</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -63105,7 +64783,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2405</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="5">
@@ -63113,10 +64791,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2406</v>
+        <v>2478</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2384</v>
+        <v>2456</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -63136,10 +64814,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2407</v>
+        <v>2479</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2408</v>
+        <v>2480</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -63159,10 +64837,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2392</v>
+        <v>2464</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2409</v>
+        <v>2481</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -63182,10 +64860,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2410</v>
+        <v>2482</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2411</v>
+        <v>2483</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8349" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8606" uniqueCount="2584">
   <si>
     <t>Date</t>
   </si>
@@ -7311,6 +7311,306 @@
   </si>
   <si>
     <t>G1674</t>
+  </si>
+  <si>
+    <t>CBE_060</t>
+  </si>
+  <si>
+    <t>G1506</t>
+  </si>
+  <si>
+    <t>Erin/Sesno</t>
+  </si>
+  <si>
+    <t>CBE_061</t>
+  </si>
+  <si>
+    <t>G1507</t>
+  </si>
+  <si>
+    <t>CBE_062</t>
+  </si>
+  <si>
+    <t>G1508</t>
+  </si>
+  <si>
+    <t>CBE_063</t>
+  </si>
+  <si>
+    <t>G1516</t>
+  </si>
+  <si>
+    <t>CBE_064</t>
+  </si>
+  <si>
+    <t>G1509</t>
+  </si>
+  <si>
+    <t>CBE_065</t>
+  </si>
+  <si>
+    <t>G1510</t>
+  </si>
+  <si>
+    <t>Lone lobe (large)</t>
+  </si>
+  <si>
+    <t>CBE_066</t>
+  </si>
+  <si>
+    <t>G1517</t>
+  </si>
+  <si>
+    <t>CBE_067</t>
+  </si>
+  <si>
+    <t>G1519</t>
+  </si>
+  <si>
+    <t>CBE_068</t>
+  </si>
+  <si>
+    <t>G1518</t>
+  </si>
+  <si>
+    <t>CBE_069</t>
+  </si>
+  <si>
+    <t>G1526</t>
+  </si>
+  <si>
+    <t>CBE_070</t>
+  </si>
+  <si>
+    <t>CBE_071</t>
+  </si>
+  <si>
+    <t>G1520</t>
+  </si>
+  <si>
+    <t>CBE_072</t>
+  </si>
+  <si>
+    <t>G1527</t>
+  </si>
+  <si>
+    <t>CBE_073</t>
+  </si>
+  <si>
+    <t>G1528</t>
+  </si>
+  <si>
+    <t>CBE_074</t>
+  </si>
+  <si>
+    <t>G1536</t>
+  </si>
+  <si>
+    <t>CBE_075</t>
+  </si>
+  <si>
+    <t>G1529</t>
+  </si>
+  <si>
+    <t>CBE_076</t>
+  </si>
+  <si>
+    <t>G1537</t>
+  </si>
+  <si>
+    <t>CBE_077</t>
+  </si>
+  <si>
+    <t>G1530</t>
+  </si>
+  <si>
+    <t>CBE_078</t>
+  </si>
+  <si>
+    <t>G1546</t>
+  </si>
+  <si>
+    <t>CBE_079</t>
+  </si>
+  <si>
+    <t>G1538</t>
+  </si>
+  <si>
+    <t>CBE_080</t>
+  </si>
+  <si>
+    <t>G1539</t>
+  </si>
+  <si>
+    <t>CBE_081</t>
+  </si>
+  <si>
+    <t>G1547</t>
+  </si>
+  <si>
+    <t>CBE_082</t>
+  </si>
+  <si>
+    <t>G1540</t>
+  </si>
+  <si>
+    <t>CBE_083</t>
+  </si>
+  <si>
+    <t>G1548</t>
+  </si>
+  <si>
+    <t>CBE_084</t>
+  </si>
+  <si>
+    <t>G1445</t>
+  </si>
+  <si>
+    <t>CBE_085</t>
+  </si>
+  <si>
+    <t>G1444</t>
+  </si>
+  <si>
+    <t>CBE_086</t>
+  </si>
+  <si>
+    <t>G1443</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>CBE_087</t>
+  </si>
+  <si>
+    <t>G1442</t>
+  </si>
+  <si>
+    <t>CBE_088</t>
+  </si>
+  <si>
+    <t>G1431</t>
+  </si>
+  <si>
+    <t>CBE_089</t>
+  </si>
+  <si>
+    <t>G1441</t>
+  </si>
+  <si>
+    <t>CBE_090</t>
+  </si>
+  <si>
+    <t>G1422</t>
+  </si>
+  <si>
+    <t>CBE_091</t>
+  </si>
+  <si>
+    <t>G1435</t>
+  </si>
+  <si>
+    <t>CBE_092</t>
+  </si>
+  <si>
+    <t>G1434</t>
+  </si>
+  <si>
+    <t>CBE_093</t>
+  </si>
+  <si>
+    <t>G1421</t>
+  </si>
+  <si>
+    <t>CBE_094</t>
+  </si>
+  <si>
+    <t>CBE_095</t>
+  </si>
+  <si>
+    <t>G1432</t>
+  </si>
+  <si>
+    <t>CBE_096</t>
+  </si>
+  <si>
+    <t>G1429</t>
+  </si>
+  <si>
+    <t>CBE_097</t>
+  </si>
+  <si>
+    <t>G1439</t>
+  </si>
+  <si>
+    <t>CBE_098</t>
+  </si>
+  <si>
+    <t>G1438</t>
+  </si>
+  <si>
+    <t>CBE_099</t>
+  </si>
+  <si>
+    <t>G1436</t>
+  </si>
+  <si>
+    <t>CBE_100</t>
+  </si>
+  <si>
+    <t>G1437</t>
+  </si>
+  <si>
+    <t>CBE_101</t>
+  </si>
+  <si>
+    <t>CBE_102</t>
+  </si>
+  <si>
+    <t>G1415</t>
+  </si>
+  <si>
+    <t>CBE_103</t>
+  </si>
+  <si>
+    <t>G1414</t>
+  </si>
+  <si>
+    <t>CBE_104</t>
+  </si>
+  <si>
+    <t>G1430</t>
+  </si>
+  <si>
+    <t>CBE_105</t>
+  </si>
+  <si>
+    <t>G1428</t>
+  </si>
+  <si>
+    <t>CBE_106</t>
+  </si>
+  <si>
+    <t>G1427</t>
+  </si>
+  <si>
+    <t>CBE_107</t>
+  </si>
+  <si>
+    <t>G1423</t>
+  </si>
+  <si>
+    <t>CBE_108</t>
+  </si>
+  <si>
+    <t>G1424</t>
+  </si>
+  <si>
+    <t>CBE_109</t>
+  </si>
+  <si>
+    <t>G1425</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -57366,204 +57666,1625 @@
       </c>
     </row>
     <row r="1504">
-      <c r="A1504" s="24"/>
-      <c r="B1504" s="7"/>
+      <c r="A1504" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1504" s="7" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C1504" s="7" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D1504" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="E1504" s="8">
+        <v>0.6506944444444445</v>
+      </c>
+      <c r="F1504" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1504" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1504" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1504" s="11">
+        <v>17.7741150185466</v>
+      </c>
+      <c r="K1504" s="11">
+        <v>-64.8114669229835</v>
+      </c>
     </row>
     <row r="1505">
-      <c r="A1505" s="24"/>
-      <c r="B1505" s="7"/>
+      <c r="A1505" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1505" s="7" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C1505" s="7" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D1505" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E1505" s="8">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="F1505" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1505" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1505" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1505" s="11">
+        <v>17.7741808164865</v>
+      </c>
+      <c r="K1505" s="11">
+        <v>-64.8114428669214</v>
+      </c>
     </row>
     <row r="1506">
-      <c r="A1506" s="24"/>
-      <c r="B1506" s="7"/>
+      <c r="A1506" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1506" s="7" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C1506" s="7" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D1506" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="E1506" s="8">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="F1506" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1506" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1506" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1506" s="11">
+        <v>17.7742346283048</v>
+      </c>
+      <c r="K1506" s="11">
+        <v>-64.8114955052733</v>
+      </c>
     </row>
     <row r="1507">
-      <c r="A1507" s="24"/>
-      <c r="B1507" s="7"/>
+      <c r="A1507" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1507" s="7" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C1507" s="7" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D1507" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1507" s="8">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="F1507" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1507" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1507" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1507" s="11">
+        <v>17.7742358855903</v>
+      </c>
+      <c r="K1507" s="11">
+        <v>-64.8114695213735</v>
+      </c>
     </row>
     <row r="1508">
-      <c r="A1508" s="24"/>
-      <c r="B1508" s="7"/>
+      <c r="A1508" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1508" s="7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C1508" s="7" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D1508" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1508" s="8">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="F1508" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1508" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1508" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1508" s="11">
+        <v>17.7742948103696</v>
+      </c>
+      <c r="K1508" s="11">
+        <v>-64.8114882130176</v>
+      </c>
     </row>
     <row r="1509">
-      <c r="A1509" s="24"/>
-      <c r="B1509" s="7"/>
+      <c r="A1509" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1509" s="7" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1509" s="7" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D1509" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E1509" s="8">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="F1509" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1509" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1509" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1509" s="11">
+        <v>17.774288021028</v>
+      </c>
+      <c r="K1509" s="11">
+        <v>-64.8115694336593</v>
+      </c>
+      <c r="M1509" s="7" t="s">
+        <v>2445</v>
+      </c>
     </row>
     <row r="1510">
-      <c r="A1510" s="24"/>
-      <c r="B1510" s="7"/>
+      <c r="A1510" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1510" s="7" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1510" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D1510" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E1510" s="8">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="F1510" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1510" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1510" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1510" s="11">
+        <v>17.7742544934154</v>
+      </c>
+      <c r="K1510" s="11">
+        <v>-64.811592483893</v>
+      </c>
     </row>
     <row r="1511">
-      <c r="A1511" s="24"/>
-      <c r="B1511" s="7"/>
+      <c r="A1511" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1511" s="7" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C1511" s="7" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D1511" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E1511" s="8">
+        <v>0.6673611111111111</v>
+      </c>
+      <c r="F1511" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1511" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1511" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1511" s="11">
+        <v>17.7742600254714</v>
+      </c>
+      <c r="K1511" s="11">
+        <v>-64.8116624727845</v>
+      </c>
     </row>
     <row r="1512">
-      <c r="A1512" s="24"/>
-      <c r="B1512" s="7"/>
+      <c r="A1512" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1512" s="7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1512" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D1512" s="7">
+        <v>216.0</v>
+      </c>
+      <c r="E1512" s="8">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F1512" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1512" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1512" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1512" s="11">
+        <v>17.7742316946387</v>
+      </c>
+      <c r="K1512" s="11">
+        <v>-64.8116837628186</v>
+      </c>
     </row>
     <row r="1513">
-      <c r="A1513" s="24"/>
-      <c r="B1513" s="7"/>
+      <c r="A1513" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1513" s="7" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C1513" s="7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D1513" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E1513" s="8">
+        <v>0.675</v>
+      </c>
+      <c r="F1513" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1513" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1513" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1513" s="11">
+        <v>17.7743574231863</v>
+      </c>
+      <c r="K1513" s="11">
+        <v>-64.8118025343865</v>
+      </c>
+      <c r="M1513" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1514">
-      <c r="A1514" s="24"/>
-      <c r="B1514" s="7"/>
+      <c r="A1514" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1514" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C1514" s="7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D1514" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="E1514" s="8">
+        <v>0.6756944444444445</v>
+      </c>
+      <c r="F1514" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1514" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1514" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1514" s="11">
+        <v>17.7743057068437</v>
+      </c>
+      <c r="K1514" s="11">
+        <v>-64.8118135984987</v>
+      </c>
+      <c r="M1514" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1515">
-      <c r="A1515" s="24"/>
-      <c r="B1515" s="7"/>
+      <c r="A1515" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1515" s="7" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C1515" s="7" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D1515" s="7">
+        <v>211.0</v>
+      </c>
+      <c r="E1515" s="8">
+        <v>0.6777777777777778</v>
+      </c>
+      <c r="F1515" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1515" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1515" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1515" s="11">
+        <v>17.7743260748684</v>
+      </c>
+      <c r="K1515" s="11">
+        <v>-64.8118099942803</v>
+      </c>
     </row>
     <row r="1516">
-      <c r="A1516" s="24"/>
-      <c r="B1516" s="7"/>
+      <c r="A1516" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1516" s="7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C1516" s="7" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D1516" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E1516" s="8">
+        <v>0.6819444444444445</v>
+      </c>
+      <c r="F1516" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1516" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1516" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1516" s="11">
+        <v>17.7744952216744</v>
+      </c>
+      <c r="K1516" s="11">
+        <v>-64.8116724472493</v>
+      </c>
     </row>
     <row r="1517">
-      <c r="A1517" s="24"/>
-      <c r="B1517" s="7"/>
+      <c r="A1517" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1517" s="7" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C1517" s="7" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D1517" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="E1517" s="8">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="F1517" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1517" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1517" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1517" s="11">
+        <v>17.7745740115643</v>
+      </c>
+      <c r="K1517" s="11">
+        <v>-64.8116115946323</v>
+      </c>
     </row>
     <row r="1518">
-      <c r="A1518" s="24"/>
-      <c r="B1518" s="7"/>
+      <c r="A1518" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1518" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C1518" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1518" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1518" s="8">
+        <v>0.6868055555555556</v>
+      </c>
+      <c r="F1518" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1518" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1518" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1518" s="11">
+        <v>17.7746434975415</v>
+      </c>
+      <c r="K1518" s="11">
+        <v>-64.8115561064333</v>
+      </c>
     </row>
     <row r="1519">
-      <c r="A1519" s="24"/>
-      <c r="B1519" s="7"/>
+      <c r="A1519" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1519" s="7" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C1519" s="7" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D1519" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E1519" s="8">
+        <v>0.6895833333333333</v>
+      </c>
+      <c r="F1519" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1519" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1519" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1519" s="11">
+        <v>17.7747575752437</v>
+      </c>
+      <c r="K1519" s="11">
+        <v>-64.8114904761314</v>
+      </c>
     </row>
     <row r="1520">
-      <c r="A1520" s="24"/>
-      <c r="B1520" s="7"/>
+      <c r="A1520" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1520" s="7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C1520" s="7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D1520" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1520" s="8">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="F1520" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1520" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1520" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1520" s="11">
+        <v>17.7747127320617</v>
+      </c>
+      <c r="K1520" s="11">
+        <v>-64.8114499077201</v>
+      </c>
     </row>
     <row r="1521">
-      <c r="A1521" s="24"/>
-      <c r="B1521" s="7"/>
+      <c r="A1521" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1521" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C1521" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D1521" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="E1521" s="8">
+        <v>0.6951388888888889</v>
+      </c>
+      <c r="F1521" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1521" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1521" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1521" s="11">
+        <v>17.7746916934848</v>
+      </c>
+      <c r="K1521" s="11">
+        <v>-64.8114053998142</v>
+      </c>
     </row>
     <row r="1522">
-      <c r="A1522" s="24"/>
-      <c r="B1522" s="7"/>
+      <c r="A1522" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1522" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1522" s="7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1522" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E1522" s="8">
+        <v>0.6972222222222222</v>
+      </c>
+      <c r="F1522" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1522" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1522" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1522" s="11">
+        <v>17.7747521270067</v>
+      </c>
+      <c r="K1522" s="11">
+        <v>-64.8114374186844</v>
+      </c>
     </row>
     <row r="1523">
-      <c r="A1523" s="24"/>
-      <c r="B1523" s="7"/>
+      <c r="A1523" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1523" s="7" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1523" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D1523" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1523" s="8">
+        <v>0.6993055555555555</v>
+      </c>
+      <c r="F1523" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1523" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1523" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1523" s="11">
+        <v>17.7747517079115</v>
+      </c>
+      <c r="K1523" s="11">
+        <v>-64.8114345688373</v>
+      </c>
     </row>
     <row r="1524">
-      <c r="A1524" s="24"/>
-      <c r="B1524" s="7"/>
+      <c r="A1524" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1524" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1524" s="7" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D1524" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E1524" s="8">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="F1524" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1524" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1524" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1524" s="11">
+        <v>17.7748670428991</v>
+      </c>
+      <c r="K1524" s="11">
+        <v>-64.8113789968193</v>
+      </c>
     </row>
     <row r="1525">
-      <c r="A1525" s="24"/>
-      <c r="B1525" s="7"/>
+      <c r="A1525" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1525" s="7" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1525" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1525" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E1525" s="8">
+        <v>0.7034722222222223</v>
+      </c>
+      <c r="F1525" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1525" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1525" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1525" s="11">
+        <v>17.7747859898955</v>
+      </c>
+      <c r="K1525" s="11">
+        <v>-64.8113153781742</v>
+      </c>
     </row>
     <row r="1526">
-      <c r="A1526" s="24"/>
-      <c r="B1526" s="7"/>
+      <c r="A1526" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1526" s="7" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1526" s="7" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1526" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E1526" s="8">
+        <v>0.7076388888888889</v>
+      </c>
+      <c r="F1526" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1526" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1526" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1526" s="11">
+        <v>17.7748868241906</v>
+      </c>
+      <c r="K1526" s="11">
+        <v>-64.8111893981695</v>
+      </c>
     </row>
     <row r="1527">
-      <c r="A1527" s="24"/>
-      <c r="B1527" s="7"/>
+      <c r="A1527" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1527" s="7" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1527" s="7" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1527" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E1527" s="8">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="F1527" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1527" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H1527" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1527" s="11">
+        <v>17.7749977167696</v>
+      </c>
+      <c r="K1527" s="11">
+        <v>-64.8111036513001</v>
+      </c>
     </row>
     <row r="1528">
-      <c r="A1528" s="24"/>
-      <c r="B1528" s="7"/>
+      <c r="A1528" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1528" s="7" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1528" s="7" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1528" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1528" s="8">
+        <v>0.6506944444444445</v>
+      </c>
+      <c r="F1528" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1528" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1528" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1528" s="11">
+        <v>17.7741150185466</v>
+      </c>
+      <c r="K1528" s="11">
+        <v>-64.8114669229835</v>
+      </c>
     </row>
     <row r="1529">
-      <c r="A1529" s="24"/>
-      <c r="B1529" s="7"/>
+      <c r="A1529" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1529" s="7" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C1529" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1529" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E1529" s="8">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="F1529" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1529" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1529" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1529" s="11">
+        <v>17.7741808164865</v>
+      </c>
+      <c r="K1529" s="11">
+        <v>-64.8114428669214</v>
+      </c>
     </row>
     <row r="1530">
-      <c r="A1530" s="24"/>
-      <c r="B1530" s="7"/>
+      <c r="A1530" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1530" s="7" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1530" s="7" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1530" s="7">
+        <v>209.0</v>
+      </c>
+      <c r="E1530" s="8">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="F1530" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1530" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1530" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1530" s="11">
+        <v>17.7742346283048</v>
+      </c>
+      <c r="K1530" s="11">
+        <v>-64.8114955052733</v>
+      </c>
+      <c r="M1530" s="7" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="1531">
-      <c r="A1531" s="24"/>
-      <c r="B1531" s="7"/>
+      <c r="A1531" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1531" s="7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C1531" s="7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D1531" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E1531" s="8">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="F1531" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1531" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1531" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1531" s="11">
+        <v>17.7742358855903</v>
+      </c>
+      <c r="K1531" s="11">
+        <v>-64.8114695213735</v>
+      </c>
     </row>
     <row r="1532">
-      <c r="A1532" s="24"/>
-      <c r="B1532" s="7"/>
+      <c r="A1532" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1532" s="7" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C1532" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D1532" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1532" s="8">
+        <v>0.6597222222222222</v>
+      </c>
+      <c r="F1532" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1532" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1532" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1532" s="11">
+        <v>17.7742948103696</v>
+      </c>
+      <c r="K1532" s="11">
+        <v>-64.8114882130176</v>
+      </c>
     </row>
     <row r="1533">
-      <c r="A1533" s="24"/>
-      <c r="B1533" s="7"/>
+      <c r="A1533" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1533" s="7" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C1533" s="7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D1533" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1533" s="8">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="F1533" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1533" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1533" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1533" s="11">
+        <v>17.774288021028</v>
+      </c>
+      <c r="K1533" s="11">
+        <v>-64.8115694336593</v>
+      </c>
     </row>
     <row r="1534">
-      <c r="A1534" s="24"/>
-      <c r="B1534" s="7"/>
+      <c r="A1534" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1534" s="7" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C1534" s="7" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D1534" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="E1534" s="8">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="F1534" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1534" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1534" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1534" s="11">
+        <v>17.7742934692651</v>
+      </c>
+      <c r="K1534" s="11">
+        <v>-64.8116089962423</v>
+      </c>
     </row>
     <row r="1535">
-      <c r="A1535" s="24"/>
-      <c r="B1535" s="7"/>
+      <c r="A1535" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1535" s="7" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D1535" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1535" s="8">
+        <v>0.6659722222222222</v>
+      </c>
+      <c r="F1535" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1535" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1535" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1535" s="11">
+        <v>17.7742081414908</v>
+      </c>
+      <c r="K1535" s="11">
+        <v>-64.811650570482</v>
+      </c>
     </row>
     <row r="1536">
-      <c r="A1536" s="24"/>
-      <c r="B1536" s="7"/>
+      <c r="A1536" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1536" s="7" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C1536" s="7" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D1536" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1536" s="8">
+        <v>0.66875</v>
+      </c>
+      <c r="F1536" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1536" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1536" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1536" s="11">
+        <v>17.7742355503142</v>
+      </c>
+      <c r="K1536" s="11">
+        <v>-64.8116674181074</v>
+      </c>
+      <c r="M1536" s="7" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="1537">
-      <c r="A1537" s="24"/>
-      <c r="B1537" s="7"/>
+      <c r="A1537" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1537" s="7" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C1537" s="7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D1537" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1537" s="8">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="F1537" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1537" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1537" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1537" s="11">
+        <v>17.7742580138147</v>
+      </c>
+      <c r="K1537" s="11">
+        <v>-64.8117861058563</v>
+      </c>
+      <c r="M1537" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1538">
-      <c r="A1538" s="24"/>
-      <c r="B1538" s="7"/>
+      <c r="A1538" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1538" s="7" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C1538" s="7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D1538" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="E1538" s="8">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="F1538" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1538" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1538" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1538" s="11">
+        <v>17.7742580138147</v>
+      </c>
+      <c r="K1538" s="11">
+        <v>-64.8117861058563</v>
+      </c>
+      <c r="M1538" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1539">
-      <c r="A1539" s="24"/>
-      <c r="B1539" s="7"/>
+      <c r="A1539" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1539" s="7" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1539" s="7" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D1539" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1539" s="8">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="F1539" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1539" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1539" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1539" s="11">
+        <v>17.7743527293205</v>
+      </c>
+      <c r="K1539" s="11">
+        <v>-64.8119244910777</v>
+      </c>
     </row>
     <row r="1540">
-      <c r="A1540" s="24"/>
-      <c r="B1540" s="7"/>
+      <c r="A1540" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1540" s="7" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1540" s="7" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D1540" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1540" s="8">
+        <v>0.6763888888888889</v>
+      </c>
+      <c r="F1540" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1540" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1540" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1540" s="11">
+        <v>17.7743105683476</v>
+      </c>
+      <c r="K1540" s="11">
+        <v>-64.8117943201214</v>
+      </c>
     </row>
     <row r="1541">
-      <c r="A1541" s="24"/>
-      <c r="B1541" s="7"/>
+      <c r="A1541" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1541" s="7" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1541" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D1541" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E1541" s="8">
+        <v>0.6784722222222223</v>
+      </c>
+      <c r="F1541" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1541" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1541" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1541" s="11">
+        <v>17.7743202913553</v>
+      </c>
+      <c r="K1541" s="11">
+        <v>-64.8117186315358</v>
+      </c>
     </row>
     <row r="1542">
-      <c r="A1542" s="24"/>
-      <c r="B1542" s="7"/>
+      <c r="A1542" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1542" s="7" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1542" s="7" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D1542" s="7">
+        <v>218.0</v>
+      </c>
+      <c r="E1542" s="8">
+        <v>0.68125</v>
+      </c>
+      <c r="F1542" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1542" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1542" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1542" s="11">
+        <v>17.7744473610073</v>
+      </c>
+      <c r="K1542" s="11">
+        <v>-64.811716619879</v>
+      </c>
     </row>
     <row r="1543">
-      <c r="A1543" s="24"/>
-      <c r="B1543" s="7"/>
+      <c r="A1543" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1543" s="7" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1543" s="7" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D1543" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="E1543" s="8">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="F1543" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1543" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1543" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1543" s="11">
+        <v>17.7745056152344</v>
+      </c>
+      <c r="K1543" s="11">
+        <v>-64.8116385005414</v>
+      </c>
     </row>
     <row r="1544">
-      <c r="A1544" s="24"/>
-      <c r="B1544" s="7"/>
+      <c r="A1544" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1544" s="7" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C1544" s="7" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1544" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1544" s="8">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="F1544" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1544" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1544" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1544" s="11">
+        <v>17.7745740115643</v>
+      </c>
+      <c r="K1544" s="11">
+        <v>-64.8116115946323</v>
+      </c>
     </row>
     <row r="1545">
-      <c r="A1545" s="24"/>
-      <c r="B1545" s="7"/>
+      <c r="A1545" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1545" s="7" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C1545" s="7" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1545" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1545" s="8">
+        <v>0.6854166666666667</v>
+      </c>
+      <c r="F1545" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1545" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1545" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1545" s="11">
+        <v>17.7745740115643</v>
+      </c>
+      <c r="K1545" s="11">
+        <v>-64.8116115946323</v>
+      </c>
     </row>
     <row r="1546">
-      <c r="A1546" s="24"/>
-      <c r="B1546" s="7"/>
+      <c r="A1546" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1546" s="7" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C1546" s="7" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D1546" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1546" s="8">
+        <v>0.6881944444444444</v>
+      </c>
+      <c r="F1546" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1546" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1546" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1546" s="11">
+        <v>17.7747007459402</v>
+      </c>
+      <c r="K1546" s="11">
+        <v>-64.8115267697722</v>
+      </c>
     </row>
     <row r="1547">
-      <c r="A1547" s="24"/>
-      <c r="B1547" s="7"/>
+      <c r="A1547" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1547" s="7" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C1547" s="7" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D1547" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1547" s="8">
+        <v>0.6895833333333333</v>
+      </c>
+      <c r="F1547" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1547" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1547" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1547" s="11">
+        <v>17.7747575752437</v>
+      </c>
+      <c r="K1547" s="11">
+        <v>-64.8114904761314</v>
+      </c>
     </row>
     <row r="1548">
-      <c r="A1548" s="24"/>
-      <c r="B1548" s="7"/>
+      <c r="A1548" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1548" s="7" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C1548" s="7" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D1548" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E1548" s="8">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="F1548" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1548" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1548" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1548" s="11">
+        <v>17.7747127320617</v>
+      </c>
+      <c r="K1548" s="11">
+        <v>-64.8114499077201</v>
+      </c>
     </row>
     <row r="1549">
-      <c r="A1549" s="24"/>
-      <c r="B1549" s="7"/>
+      <c r="A1549" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1549" s="7" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C1549" s="7" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1549" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E1549" s="8">
+        <v>0.6930555555555555</v>
+      </c>
+      <c r="F1549" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1549" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1549" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1549" s="11">
+        <v>17.774692280218</v>
+      </c>
+      <c r="K1549" s="11">
+        <v>-64.8114665877074</v>
+      </c>
     </row>
     <row r="1550">
-      <c r="A1550" s="24"/>
-      <c r="B1550" s="7"/>
+      <c r="A1550" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1550" s="7" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C1550" s="7" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D1550" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="E1550" s="8">
+        <v>0.6965277777777777</v>
+      </c>
+      <c r="F1550" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G1550" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1550" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1550" s="11">
+        <v>17.774716168642</v>
+      </c>
+      <c r="K1550" s="11">
+        <v>-64.8114317189902</v>
+      </c>
     </row>
     <row r="1551">
-      <c r="A1551" s="24"/>
-      <c r="B1551" s="7"/>
+      <c r="A1551" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1551" s="7" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C1551" s="7" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D1551" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1551" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F1551" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1551" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1551" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1551" s="11">
+        <v>17.7746872510761</v>
+      </c>
+      <c r="K1551" s="11">
+        <v>-64.8113798350096</v>
+      </c>
     </row>
     <row r="1552">
-      <c r="A1552" s="24"/>
-      <c r="B1552" s="7"/>
+      <c r="A1552" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1552" s="7" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1552" s="7" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1552" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1552" s="8">
+        <v>0.7027777777777777</v>
+      </c>
+      <c r="F1552" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1552" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1552" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1552" s="11">
+        <v>17.7747962158173</v>
+      </c>
+      <c r="K1552" s="11">
+        <v>-64.8113378416747</v>
+      </c>
     </row>
     <row r="1553">
-      <c r="A1553" s="24"/>
-      <c r="B1553" s="7"/>
+      <c r="A1553" s="6">
+        <v>44738.0</v>
+      </c>
+      <c r="B1553" s="7" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1553" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E1553" s="8">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F1553" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1553" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1553" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1553" s="11">
+        <v>17.7748895902187</v>
+      </c>
+      <c r="K1553" s="11">
+        <v>-64.8111925832927</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="24"/>
@@ -59362,19 +61083,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2432</v>
+        <v>2532</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2433</v>
+        <v>2533</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2434</v>
+        <v>2534</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2435</v>
+        <v>2535</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2436</v>
+        <v>2536</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -59398,21 +61119,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2437</v>
+        <v>2537</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2438</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2439</v>
+        <v>2539</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2440</v>
+        <v>2540</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -59424,33 +61145,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2441</v>
+        <v>2541</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2441</v>
+        <v>2541</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2441</v>
+        <v>2541</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2441</v>
+        <v>2541</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2441</v>
+        <v>2541</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2442</v>
+        <v>2542</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2443</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2444</v>
+        <v>2544</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2445</v>
+        <v>2545</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -59461,10 +61182,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2446</v>
+        <v>2546</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -59476,18 +61197,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2448</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2449</v>
+        <v>2549</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2451</v>
+        <v>2551</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -59495,10 +61216,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2452</v>
+        <v>2552</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2453</v>
+        <v>2553</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -59530,10 +61251,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2454</v>
+        <v>2554</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2455</v>
+        <v>2555</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -59565,7 +61286,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2439</v>
+        <v>2539</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -59594,7 +61315,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2446</v>
+        <v>2546</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -59623,7 +61344,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2444</v>
+        <v>2544</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -59646,7 +61367,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2452</v>
+        <v>2552</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -59669,7 +61390,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2456</v>
+        <v>2556</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -59712,16 +61433,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2457</v>
+        <v>2557</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2458</v>
+        <v>2558</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2459</v>
+        <v>2559</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -59751,7 +61472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -59766,7 +61487,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -59781,7 +61502,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -59796,7 +61517,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -59811,7 +61532,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -59826,7 +61547,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -59841,7 +61562,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -59856,7 +61577,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -59871,7 +61592,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -59886,7 +61607,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -59901,7 +61622,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -59916,7 +61637,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -59931,7 +61652,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -59946,7 +61667,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -59961,7 +61682,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -59976,7 +61697,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -59992,7 +61713,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -60008,7 +61729,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -60023,7 +61744,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -60038,7 +61759,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -60053,7 +61774,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -60068,7 +61789,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -60083,7 +61804,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -60098,7 +61819,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -60113,7 +61834,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -60128,7 +61849,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -60143,7 +61864,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -60158,7 +61879,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -60173,7 +61894,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -60188,7 +61909,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -60203,7 +61924,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -60218,7 +61939,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -60233,7 +61954,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -60248,7 +61969,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2447</v>
+        <v>2547</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -60263,7 +61984,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -60278,7 +61999,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -60293,7 +62014,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -60305,12 +62026,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -60325,7 +62046,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -60337,12 +62058,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -60357,7 +62078,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -60372,7 +62093,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -60387,7 +62108,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -60399,12 +62120,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -60419,7 +62140,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -60434,7 +62155,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -60449,7 +62170,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -60464,7 +62185,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -60479,7 +62200,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -60494,7 +62215,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -60509,7 +62230,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -60524,7 +62245,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -60539,7 +62260,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -60554,7 +62275,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -60569,7 +62290,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -60584,7 +62305,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -60599,7 +62320,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -60614,7 +62335,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -60629,7 +62350,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -60644,7 +62365,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -60659,7 +62380,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -60674,7 +62395,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -60689,7 +62410,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2460</v>
+        <v>2560</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -60704,7 +62425,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -60719,7 +62440,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -60734,7 +62455,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -60749,7 +62470,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -60764,7 +62485,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -60779,7 +62500,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -60794,7 +62515,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -60809,7 +62530,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -60824,7 +62545,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -60839,7 +62560,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -60854,7 +62575,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -60869,7 +62590,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -60884,7 +62605,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -60899,7 +62620,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -60914,7 +62635,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -60929,7 +62650,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -60944,7 +62665,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -60959,7 +62680,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -60974,7 +62695,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -60989,7 +62710,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -61004,7 +62725,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -61019,7 +62740,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -61034,7 +62755,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -61049,7 +62770,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -61064,7 +62785,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -61079,7 +62800,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -61094,7 +62815,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -61109,7 +62830,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2462</v>
+        <v>2562</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -61124,7 +62845,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -61139,7 +62860,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -61154,7 +62875,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -61169,7 +62890,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -61184,7 +62905,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -61199,7 +62920,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -61214,7 +62935,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -61229,7 +62950,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -61244,7 +62965,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -61259,7 +62980,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -61274,7 +62995,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -61289,7 +63010,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -61304,7 +63025,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -61319,7 +63040,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -61334,7 +63055,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -61349,7 +63070,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -61364,7 +63085,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -61379,7 +63100,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -61394,7 +63115,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -61409,7 +63130,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -61424,7 +63145,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -61439,7 +63160,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2463</v>
+        <v>2563</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -61454,7 +63175,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -61469,7 +63190,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -61484,7 +63205,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -61499,7 +63220,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -61511,12 +63232,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -61531,7 +63252,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -61546,7 +63267,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -61561,7 +63282,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -61576,7 +63297,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -61591,7 +63312,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -61606,7 +63327,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -61621,7 +63342,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -61636,7 +63357,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -61648,12 +63369,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -61668,7 +63389,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -61680,12 +63401,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2461</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -61700,7 +63421,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -61715,7 +63436,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -61730,7 +63451,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -61745,7 +63466,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -61757,12 +63478,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -61774,12 +63495,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -61791,12 +63512,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -61808,12 +63529,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -61825,12 +63546,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -61842,12 +63563,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -61859,12 +63580,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -61876,12 +63597,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -61893,12 +63614,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -61910,12 +63631,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -61927,12 +63648,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -61944,12 +63665,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -61961,12 +63682,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -61978,12 +63699,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -61995,12 +63716,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -62012,12 +63733,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -62029,12 +63750,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -62046,12 +63767,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -62063,12 +63784,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -62080,12 +63801,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -62097,12 +63818,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -62114,12 +63835,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -62131,12 +63852,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2465</v>
+        <v>2565</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -62148,7 +63869,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2466</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="158">
@@ -64700,22 +66421,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2467</v>
+        <v>2567</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2468</v>
+        <v>2568</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2469</v>
+        <v>2569</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2470</v>
+        <v>2570</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2471</v>
+        <v>2571</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2472</v>
+        <v>2572</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -64726,17 +66447,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2473</v>
+        <v>2573</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2446</v>
+        <v>2546</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2474</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="3">
@@ -64744,7 +66465,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2475</v>
+        <v>2575</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -64765,10 +66486,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2476</v>
+        <v>2576</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2452</v>
+        <v>2552</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -64783,7 +66504,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2477</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="5">
@@ -64791,10 +66512,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2478</v>
+        <v>2578</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2456</v>
+        <v>2556</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -64814,10 +66535,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2479</v>
+        <v>2579</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2480</v>
+        <v>2580</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -64837,10 +66558,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2464</v>
+        <v>2564</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2481</v>
+        <v>2581</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -64860,10 +66581,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2482</v>
+        <v>2582</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2483</v>
+        <v>2583</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8606" uniqueCount="2584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="2694">
   <si>
     <t>Date</t>
   </si>
@@ -7611,6 +7611,336 @@
   </si>
   <si>
     <t>G1425</t>
+  </si>
+  <si>
+    <t>BUT_051</t>
+  </si>
+  <si>
+    <t>G1638</t>
+  </si>
+  <si>
+    <t>BUT_052</t>
+  </si>
+  <si>
+    <t>BUT_053</t>
+  </si>
+  <si>
+    <t>G1650</t>
+  </si>
+  <si>
+    <t>BUT_054</t>
+  </si>
+  <si>
+    <t>G1649</t>
+  </si>
+  <si>
+    <t>BUT_055</t>
+  </si>
+  <si>
+    <t>BUT_056</t>
+  </si>
+  <si>
+    <t>BUT_057</t>
+  </si>
+  <si>
+    <t>G1640</t>
+  </si>
+  <si>
+    <t>BUT_058</t>
+  </si>
+  <si>
+    <t>BUT_059</t>
+  </si>
+  <si>
+    <t>BUT_060</t>
+  </si>
+  <si>
+    <t>G1639</t>
+  </si>
+  <si>
+    <t>BUT_061</t>
+  </si>
+  <si>
+    <t>G1630</t>
+  </si>
+  <si>
+    <t>BUT_062</t>
+  </si>
+  <si>
+    <t>G1629</t>
+  </si>
+  <si>
+    <t>BUT_063</t>
+  </si>
+  <si>
+    <t>G1693</t>
+  </si>
+  <si>
+    <t>BUT_064</t>
+  </si>
+  <si>
+    <t>BUT_065</t>
+  </si>
+  <si>
+    <t>G1400</t>
+  </si>
+  <si>
+    <t>BUT_066</t>
+  </si>
+  <si>
+    <t>G1399</t>
+  </si>
+  <si>
+    <t>BUT_067</t>
+  </si>
+  <si>
+    <t>G1870</t>
+  </si>
+  <si>
+    <t>BUT_068</t>
+  </si>
+  <si>
+    <t>G1822</t>
+  </si>
+  <si>
+    <t>Maybe OFRA</t>
+  </si>
+  <si>
+    <t>BUT_069</t>
+  </si>
+  <si>
+    <t>G1823</t>
+  </si>
+  <si>
+    <t>BUT_070</t>
+  </si>
+  <si>
+    <t>G1824</t>
+  </si>
+  <si>
+    <t>BUT_071</t>
+  </si>
+  <si>
+    <t>G1825</t>
+  </si>
+  <si>
+    <t>BUT_072</t>
+  </si>
+  <si>
+    <t>G1831</t>
+  </si>
+  <si>
+    <t>BUT_073</t>
+  </si>
+  <si>
+    <t>G1901</t>
+  </si>
+  <si>
+    <t>BUT_074</t>
+  </si>
+  <si>
+    <t>BUT_075</t>
+  </si>
+  <si>
+    <t>G1681</t>
+  </si>
+  <si>
+    <t>BUT_076</t>
+  </si>
+  <si>
+    <t>G1691</t>
+  </si>
+  <si>
+    <t>BUT_077</t>
+  </si>
+  <si>
+    <t>BUT_078</t>
+  </si>
+  <si>
+    <t>G1683</t>
+  </si>
+  <si>
+    <t>BUT_079</t>
+  </si>
+  <si>
+    <t>BUT_080</t>
+  </si>
+  <si>
+    <t>G1684</t>
+  </si>
+  <si>
+    <t>BUT_081</t>
+  </si>
+  <si>
+    <t>G1685</t>
+  </si>
+  <si>
+    <t>BUT_082</t>
+  </si>
+  <si>
+    <t>G1682</t>
+  </si>
+  <si>
+    <t>BUT_083</t>
+  </si>
+  <si>
+    <t>G1933</t>
+  </si>
+  <si>
+    <t>BUT_084</t>
+  </si>
+  <si>
+    <t>BUT_085</t>
+  </si>
+  <si>
+    <t>G1675</t>
+  </si>
+  <si>
+    <t>BUT_086</t>
+  </si>
+  <si>
+    <t>G1922</t>
+  </si>
+  <si>
+    <t>BUT_087</t>
+  </si>
+  <si>
+    <t>G1932</t>
+  </si>
+  <si>
+    <t>BUT_088</t>
+  </si>
+  <si>
+    <t>G1923</t>
+  </si>
+  <si>
+    <t>BUT_089</t>
+  </si>
+  <si>
+    <t>G1911</t>
+  </si>
+  <si>
+    <t>BUT_090</t>
+  </si>
+  <si>
+    <t>G1902</t>
+  </si>
+  <si>
+    <t>BUT_091</t>
+  </si>
+  <si>
+    <t>G1904</t>
+  </si>
+  <si>
+    <t>BUT_092</t>
+  </si>
+  <si>
+    <t>G1913</t>
+  </si>
+  <si>
+    <t>BUT_093</t>
+  </si>
+  <si>
+    <t>G1903</t>
+  </si>
+  <si>
+    <t>BUT_094</t>
+  </si>
+  <si>
+    <t>G1692</t>
+  </si>
+  <si>
+    <t>BUT_095</t>
+  </si>
+  <si>
+    <t>G1446</t>
+  </si>
+  <si>
+    <t>BUT_096</t>
+  </si>
+  <si>
+    <t>G1447</t>
+  </si>
+  <si>
+    <t>BUT_097</t>
+  </si>
+  <si>
+    <t>G1448</t>
+  </si>
+  <si>
+    <t>BUT_098</t>
+  </si>
+  <si>
+    <t>G1449</t>
+  </si>
+  <si>
+    <t>BUT_099</t>
+  </si>
+  <si>
+    <t>BUT_100</t>
+  </si>
+  <si>
+    <t>G1440</t>
+  </si>
+  <si>
+    <t>BUT_101</t>
+  </si>
+  <si>
+    <t>G1642</t>
+  </si>
+  <si>
+    <t>BUT_102</t>
+  </si>
+  <si>
+    <t>G1643</t>
+  </si>
+  <si>
+    <t>BUT_103</t>
+  </si>
+  <si>
+    <t>G1645</t>
+  </si>
+  <si>
+    <t>BUT_104</t>
+  </si>
+  <si>
+    <t>G1644</t>
+  </si>
+  <si>
+    <t>BUT_105</t>
+  </si>
+  <si>
+    <t>G1632</t>
+  </si>
+  <si>
+    <t>BUT_106</t>
+  </si>
+  <si>
+    <t>G1624</t>
+  </si>
+  <si>
+    <t>BUT_107</t>
+  </si>
+  <si>
+    <t>G1992</t>
+  </si>
+  <si>
+    <t>BUT_108</t>
+  </si>
+  <si>
+    <t>G1994</t>
+  </si>
+  <si>
+    <t>BUT_109</t>
+  </si>
+  <si>
+    <t>G1993</t>
+  </si>
+  <si>
+    <t>BUT_110</t>
+  </si>
+  <si>
+    <t>G1225</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -59287,244 +59617,1978 @@
       </c>
     </row>
     <row r="1554">
-      <c r="A1554" s="24"/>
-      <c r="B1554" s="7"/>
+      <c r="A1554" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1554" s="7" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1554" s="7" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1554" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="E1554" s="8">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="F1554" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1554" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1554" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1554" s="11">
+        <v>17.7482140157372</v>
+      </c>
+      <c r="K1554" s="11">
+        <v>-64.8954167962074</v>
+      </c>
+      <c r="M1554" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1555">
-      <c r="A1555" s="24"/>
-      <c r="B1555" s="7"/>
+      <c r="A1555" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1555" s="7" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1555" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E1555" s="8">
+        <v>0.6027777777777777</v>
+      </c>
+      <c r="F1555" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1555" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1555" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1555" s="11">
+        <v>17.7482140157372</v>
+      </c>
+      <c r="K1555" s="11">
+        <v>-64.8954167962074</v>
+      </c>
+      <c r="M1555" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1556">
-      <c r="A1556" s="24"/>
-      <c r="B1556" s="7"/>
+      <c r="A1556" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1556" s="7" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1556" s="7" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D1556" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="E1556" s="8">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="F1556" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1556" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1556" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1556" s="11">
+        <v>17.7482475433499</v>
+      </c>
+      <c r="K1556" s="11">
+        <v>-64.8953851964325</v>
+      </c>
     </row>
     <row r="1557">
-      <c r="A1557" s="24"/>
-      <c r="B1557" s="7"/>
+      <c r="A1557" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1557" s="7" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1557" s="7" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1557" s="7">
+        <v>59.0</v>
+      </c>
+      <c r="E1557" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1557" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1557" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1557" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1557" s="11">
+        <v>17.7483414206654</v>
+      </c>
+      <c r="K1557" s="11">
+        <v>-64.8953454662114</v>
+      </c>
+      <c r="M1557" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1558">
-      <c r="A1558" s="24"/>
-      <c r="B1558" s="7"/>
+      <c r="A1558" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1558" s="7" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1558" s="7" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1558" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="E1558" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1558" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1558" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1558" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1558" s="11">
+        <v>17.7483414206654</v>
+      </c>
+      <c r="K1558" s="11">
+        <v>-64.8953454662114</v>
+      </c>
+      <c r="M1558" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1559">
-      <c r="A1559" s="24"/>
-      <c r="B1559" s="7"/>
+      <c r="A1559" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1559" s="7" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1559" s="7" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1559" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E1559" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1559" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1559" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1559" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1559" s="11">
+        <v>17.7483414206654</v>
+      </c>
+      <c r="K1559" s="11">
+        <v>-64.8953454662114</v>
+      </c>
+      <c r="M1559" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1560">
-      <c r="A1560" s="24"/>
-      <c r="B1560" s="7"/>
+      <c r="A1560" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1560" s="7" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1560" s="7" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D1560" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E1560" s="8">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="F1560" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1560" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1560" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1560" s="11">
+        <v>17.7484437637031</v>
+      </c>
+      <c r="K1560" s="11">
+        <v>-64.8953509982675</v>
+      </c>
+      <c r="M1560" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1561">
-      <c r="A1561" s="24"/>
-      <c r="B1561" s="7"/>
+      <c r="A1561" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1561" s="7" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1561" s="7" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D1561" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E1561" s="8">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="F1561" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1561" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1561" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1561" s="11">
+        <v>17.7484437637031</v>
+      </c>
+      <c r="K1561" s="11">
+        <v>-64.8953509982675</v>
+      </c>
+      <c r="M1561" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1562">
-      <c r="A1562" s="24"/>
-      <c r="B1562" s="7"/>
+      <c r="A1562" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1562" s="7" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1562" s="7" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D1562" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="E1562" s="8">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="F1562" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1562" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1562" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1562" s="11">
+        <v>17.7484437637031</v>
+      </c>
+      <c r="K1562" s="11">
+        <v>-64.8953509982675</v>
+      </c>
+      <c r="M1562" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1563">
-      <c r="A1563" s="24"/>
-      <c r="B1563" s="7"/>
+      <c r="A1563" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1563" s="7" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1563" s="7" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1563" s="7">
+        <v>56.0</v>
+      </c>
+      <c r="E1563" s="8">
+        <v>0.6173611111111111</v>
+      </c>
+      <c r="F1563" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1563" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1563" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1563" s="11">
+        <v>17.7484285924584</v>
+      </c>
+      <c r="K1563" s="11">
+        <v>-64.8953059874475</v>
+      </c>
     </row>
     <row r="1564">
-      <c r="A1564" s="24"/>
-      <c r="B1564" s="7"/>
+      <c r="A1564" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1564" s="7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1564" s="7" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D1564" s="7">
+        <v>61.0</v>
+      </c>
+      <c r="E1564" s="8">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="F1564" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1564" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1564" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1564" s="11">
+        <v>17.7484655566514</v>
+      </c>
+      <c r="K1564" s="11">
+        <v>-64.8952542711049</v>
+      </c>
     </row>
     <row r="1565">
-      <c r="A1565" s="24"/>
-      <c r="B1565" s="7"/>
+      <c r="A1565" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1565" s="7" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1565" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1565" s="8">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="F1565" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1565" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1565" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1565" s="11">
+        <v>17.7484828233719</v>
+      </c>
+      <c r="K1565" s="11">
+        <v>-64.8951424565166</v>
+      </c>
     </row>
     <row r="1566">
-      <c r="A1566" s="24"/>
-      <c r="B1566" s="7"/>
+      <c r="A1566" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1566" s="7" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1566" s="7" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1566" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E1566" s="8">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="F1566" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1566" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1566" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1566" s="11">
+        <v>17.7485399879515</v>
+      </c>
+      <c r="K1566" s="11">
+        <v>-64.8950883094221</v>
+      </c>
     </row>
     <row r="1567">
-      <c r="A1567" s="24"/>
-      <c r="B1567" s="7"/>
+      <c r="A1567" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1567" s="7" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1567" s="7" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1567" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E1567" s="8">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="F1567" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1567" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1567" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1567" s="11">
+        <v>17.7485399879515</v>
+      </c>
+      <c r="K1567" s="11">
+        <v>-64.8950883094221</v>
+      </c>
     </row>
     <row r="1568">
-      <c r="A1568" s="24"/>
-      <c r="B1568" s="7"/>
+      <c r="A1568" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1568" s="7" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1568" s="7" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1568" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E1568" s="8">
+        <v>0.6291666666666667</v>
+      </c>
+      <c r="F1568" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1568" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1568" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1568" s="11">
+        <v>17.7486114855856</v>
+      </c>
+      <c r="K1568" s="11">
+        <v>-64.8950015567243</v>
+      </c>
     </row>
     <row r="1569">
-      <c r="A1569" s="24"/>
-      <c r="B1569" s="7"/>
+      <c r="A1569" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1569" s="7" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1569" s="7" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D1569" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="E1569" s="8">
+        <v>0.63125</v>
+      </c>
+      <c r="F1569" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1569" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1569" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1569" s="11">
+        <v>17.7486492879689</v>
+      </c>
+      <c r="K1569" s="11">
+        <v>-64.8950449749827</v>
+      </c>
     </row>
     <row r="1570">
-      <c r="A1570" s="24"/>
-      <c r="B1570" s="7"/>
+      <c r="A1570" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1570" s="7" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1570" s="7" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1570" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="E1570" s="8">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="F1570" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1570" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1570" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1570" s="11">
+        <v>17.7487155050039</v>
+      </c>
+      <c r="K1570" s="11">
+        <v>-64.8949163965881</v>
+      </c>
     </row>
     <row r="1571">
-      <c r="A1571" s="24"/>
-      <c r="B1571" s="7"/>
+      <c r="A1571" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1571" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1571" s="7" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1571" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E1571" s="8">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="F1571" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1571" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1571" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1571" s="11">
+        <v>17.7487280778587</v>
+      </c>
+      <c r="K1571" s="11">
+        <v>-64.8948508501053</v>
+      </c>
+      <c r="M1571" s="7" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="1572">
-      <c r="A1572" s="24"/>
-      <c r="B1572" s="7"/>
+      <c r="A1572" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1572" s="7" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C1572" s="7" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D1572" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E1572" s="8">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F1572" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1572" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1572" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1572" s="11">
+        <v>17.7487666346133</v>
+      </c>
+      <c r="K1572" s="11">
+        <v>-64.8948106169701</v>
+      </c>
     </row>
     <row r="1573">
-      <c r="A1573" s="24"/>
-      <c r="B1573" s="7"/>
+      <c r="A1573" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1573" s="7" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C1573" s="7" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D1573" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E1573" s="8">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="F1573" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1573" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1573" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1573" s="11">
+        <v>17.7488360367715</v>
+      </c>
+      <c r="K1573" s="11">
+        <v>-64.8947388678789</v>
+      </c>
     </row>
     <row r="1574">
-      <c r="A1574" s="24"/>
-      <c r="B1574" s="7"/>
+      <c r="A1574" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1574" s="7" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C1574" s="7" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1574" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E1574" s="8">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="F1574" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1574" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1574" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1574" s="11">
+        <v>17.7488667145371</v>
+      </c>
+      <c r="K1574" s="11">
+        <v>-64.8947242833674</v>
+      </c>
+      <c r="M1574" s="7" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="1575">
-      <c r="A1575" s="24"/>
-      <c r="B1575" s="7"/>
+      <c r="A1575" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1575" s="7" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C1575" s="7" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D1575" s="7">
+        <v>53.0</v>
+      </c>
+      <c r="E1575" s="8">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="F1575" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1575" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1575" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1575" s="11">
+        <v>17.7490955404937</v>
+      </c>
+      <c r="K1575" s="11">
+        <v>-64.8946817032993</v>
+      </c>
     </row>
     <row r="1576">
-      <c r="A1576" s="24"/>
-      <c r="B1576" s="7"/>
+      <c r="A1576" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1576" s="7" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C1576" s="7" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1576" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1576" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1576" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1576" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1576" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1576" s="11">
+        <v>17.7482290193439</v>
+      </c>
+      <c r="K1576" s="11">
+        <v>-64.8954230826348</v>
+      </c>
+      <c r="M1576" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1577">
-      <c r="A1577" s="24"/>
-      <c r="B1577" s="7"/>
+      <c r="A1577" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1577" s="7" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1577" s="7" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1577" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E1577" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1577" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1577" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1577" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1577" s="11">
+        <v>17.7482290193439</v>
+      </c>
+      <c r="K1577" s="11">
+        <v>-64.8954230826348</v>
+      </c>
+      <c r="M1577" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1578">
-      <c r="A1578" s="24"/>
-      <c r="B1578" s="7"/>
+      <c r="A1578" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1578" s="7" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1578" s="7" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D1578" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E1578" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1578" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1578" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1578" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1578" s="11">
+        <v>17.7482377365232</v>
+      </c>
+      <c r="K1578" s="11">
+        <v>-64.8953943327069</v>
+      </c>
     </row>
     <row r="1579">
-      <c r="A1579" s="24"/>
-      <c r="B1579" s="7"/>
+      <c r="A1579" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1579" s="7" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1579" s="7" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1579" s="7">
+        <v>205.0</v>
+      </c>
+      <c r="E1579" s="8">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="F1579" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1579" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1579" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1579" s="11">
+        <v>17.7483394090086</v>
+      </c>
+      <c r="K1579" s="11">
+        <v>-64.8953413590789</v>
+      </c>
+      <c r="M1579" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1580">
-      <c r="A1580" s="24"/>
-      <c r="B1580" s="7"/>
+      <c r="A1580" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1580" s="7" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1580" s="7" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1580" s="7">
+        <v>208.0</v>
+      </c>
+      <c r="E1580" s="8">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="F1580" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1580" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1580" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1580" s="11">
+        <v>17.7483394090086</v>
+      </c>
+      <c r="K1580" s="11">
+        <v>-64.8953413590789</v>
+      </c>
+      <c r="M1580" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1581">
-      <c r="A1581" s="24"/>
-      <c r="B1581" s="7"/>
+      <c r="A1581" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1581" s="7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C1581" s="7" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1581" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E1581" s="8">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="F1581" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1581" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1581" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1581" s="11">
+        <v>17.7484451886266</v>
+      </c>
+      <c r="K1581" s="11">
+        <v>-64.8953516688198</v>
+      </c>
+      <c r="M1581" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1582">
-      <c r="A1582" s="24"/>
-      <c r="B1582" s="7"/>
+      <c r="A1582" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1582" s="7" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1582" s="7" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1582" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1582" s="8">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="F1582" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1582" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1582" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1582" s="11">
+        <v>17.7484451886266</v>
+      </c>
+      <c r="K1582" s="11">
+        <v>-64.8953516688198</v>
+      </c>
+      <c r="M1582" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1583">
-      <c r="A1583" s="24"/>
-      <c r="B1583" s="7"/>
+      <c r="A1583" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1583" s="7" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1583" s="7" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1583" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1583" s="8">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="F1583" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1583" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1583" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1583" s="11">
+        <v>17.7484462782741</v>
+      </c>
+      <c r="K1583" s="11">
+        <v>-64.8953433707356</v>
+      </c>
     </row>
     <row r="1584">
-      <c r="A1584" s="24"/>
-      <c r="B1584" s="7"/>
+      <c r="A1584" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1584" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C1584" s="7" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D1584" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="E1584" s="8">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="F1584" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1584" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1584" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1584" s="11">
+        <v>17.7484419196844</v>
+      </c>
+      <c r="K1584" s="11">
+        <v>-64.8953146208078</v>
+      </c>
     </row>
     <row r="1585">
-      <c r="A1585" s="24"/>
-      <c r="B1585" s="7"/>
+      <c r="A1585" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1585" s="7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1585" s="7" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1585" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1585" s="8">
+        <v>0.61875</v>
+      </c>
+      <c r="F1585" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1585" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1585" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1585" s="11">
+        <v>17.7484643831849</v>
+      </c>
+      <c r="K1585" s="11">
+        <v>-64.8952508345246</v>
+      </c>
     </row>
     <row r="1586">
-      <c r="A1586" s="24"/>
-      <c r="B1586" s="7"/>
+      <c r="A1586" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1586" s="7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C1586" s="7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1586" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E1586" s="8">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="F1586" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1586" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1586" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1586" s="11">
+        <v>17.7484655566514</v>
+      </c>
+      <c r="K1586" s="11">
+        <v>-64.8952542711049</v>
+      </c>
+      <c r="M1586" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1587">
-      <c r="A1587" s="24"/>
-      <c r="B1587" s="7"/>
+      <c r="A1587" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1587" s="7" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1587" s="7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1587" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E1587" s="8">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="F1587" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1587" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1587" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1587" s="11">
+        <v>17.7484655566514</v>
+      </c>
+      <c r="K1587" s="11">
+        <v>-64.8952542711049</v>
+      </c>
+      <c r="M1587" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1588">
-      <c r="A1588" s="24"/>
-      <c r="B1588" s="7"/>
+      <c r="A1588" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1588" s="7" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1588" s="7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1588" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1588" s="8">
+        <v>0.6236111111111111</v>
+      </c>
+      <c r="F1588" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1588" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1588" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1588" s="11">
+        <v>17.7484876010567</v>
+      </c>
+      <c r="K1588" s="11">
+        <v>-64.8951628245413</v>
+      </c>
     </row>
     <row r="1589">
-      <c r="A1589" s="24"/>
-      <c r="B1589" s="7"/>
+      <c r="A1589" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1589" s="7" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1589" s="7" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1589" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E1589" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="F1589" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1589" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1589" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1589" s="11">
+        <v>17.7484846673906</v>
+      </c>
+      <c r="K1589" s="11">
+        <v>-64.8951682727784</v>
+      </c>
     </row>
     <row r="1590">
-      <c r="A1590" s="24"/>
-      <c r="B1590" s="7"/>
+      <c r="A1590" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1590" s="7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1590" s="7" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1590" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E1590" s="8">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="F1590" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1590" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1590" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1590" s="11">
+        <v>17.7485959790647</v>
+      </c>
+      <c r="K1590" s="11">
+        <v>-64.895066684112</v>
+      </c>
     </row>
     <row r="1591">
-      <c r="A1591" s="24"/>
-      <c r="B1591" s="7"/>
+      <c r="A1591" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1591" s="7" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1591" s="7" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D1591" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E1591" s="8">
+        <v>0.6305555555555555</v>
+      </c>
+      <c r="F1591" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1591" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1591" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1591" s="11">
+        <v>17.7486501261592</v>
+      </c>
+      <c r="K1591" s="11">
+        <v>-64.8950396943837</v>
+      </c>
     </row>
     <row r="1592">
-      <c r="A1592" s="24"/>
-      <c r="B1592" s="7"/>
+      <c r="A1592" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1592" s="7" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C1592" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D1592" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E1592" s="8">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="F1592" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1592" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1592" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1592" s="11">
+        <v>17.7487155050039</v>
+      </c>
+      <c r="K1592" s="11">
+        <v>-64.8949163965881</v>
+      </c>
     </row>
     <row r="1593">
-      <c r="A1593" s="24"/>
-      <c r="B1593" s="7"/>
+      <c r="A1593" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1593" s="7" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1593" s="7" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1593" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E1593" s="8">
+        <v>0.6347222222222222</v>
+      </c>
+      <c r="F1593" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1593" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1593" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1593" s="11">
+        <v>17.748728999868</v>
+      </c>
+      <c r="K1593" s="11">
+        <v>-64.8948388639838</v>
+      </c>
     </row>
     <row r="1594">
-      <c r="A1594" s="24"/>
-      <c r="B1594" s="7"/>
+      <c r="A1594" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1594" s="7" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1594" s="7" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D1594" s="7">
+        <v>204.0</v>
+      </c>
+      <c r="E1594" s="8">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F1594" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1594" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1594" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1594" s="11">
+        <v>17.7487666346133</v>
+      </c>
+      <c r="K1594" s="11">
+        <v>-64.8948106169701</v>
+      </c>
     </row>
     <row r="1595">
-      <c r="A1595" s="24"/>
-      <c r="B1595" s="7"/>
+      <c r="A1595" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1595" s="7" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1595" s="7" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D1595" s="7">
+        <v>207.0</v>
+      </c>
+      <c r="E1595" s="8">
+        <v>0.6395833333333333</v>
+      </c>
+      <c r="F1595" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1595" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1595" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1595" s="11">
+        <v>17.7488629426807</v>
+      </c>
+      <c r="K1595" s="11">
+        <v>-64.8947229422629</v>
+      </c>
     </row>
     <row r="1596">
-      <c r="A1596" s="24"/>
-      <c r="B1596" s="7"/>
+      <c r="A1596" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1596" s="7" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1596" s="7" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1596" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1596" s="8">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="F1596" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1596" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1596" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1596" s="11">
+        <v>17.7490700595081</v>
+      </c>
+      <c r="K1596" s="11">
+        <v>-64.8946494329721</v>
+      </c>
     </row>
     <row r="1597">
-      <c r="A1597" s="24"/>
-      <c r="B1597" s="7"/>
+      <c r="A1597" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1597" s="7" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1597" s="7" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1597" s="7">
+        <v>186.0</v>
+      </c>
+      <c r="E1597" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F1597" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1597" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1597" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1597" s="11">
+        <v>17.7482741139829</v>
+      </c>
+      <c r="K1597" s="11">
+        <v>-64.8954167962074</v>
+      </c>
     </row>
     <row r="1598">
-      <c r="A1598" s="24"/>
-      <c r="B1598" s="7"/>
+      <c r="A1598" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1598" s="7" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1598" s="7" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D1598" s="7">
+        <v>106.0</v>
+      </c>
+      <c r="E1598" s="8">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F1598" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1598" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1598" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1598" s="11">
+        <v>17.7482265047729</v>
+      </c>
+      <c r="K1598" s="11">
+        <v>-64.8954010382295</v>
+      </c>
     </row>
     <row r="1599">
-      <c r="A1599" s="24"/>
-      <c r="B1599" s="7"/>
+      <c r="A1599" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1599" s="7" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1599" s="7" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1599" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1599" s="8">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="F1599" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1599" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1599" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1599" s="11">
+        <v>17.7483435161412</v>
+      </c>
+      <c r="K1599" s="11">
+        <v>-64.895341778174</v>
+      </c>
     </row>
     <row r="1600">
-      <c r="A1600" s="24"/>
-      <c r="B1600" s="7"/>
+      <c r="A1600" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1600" s="7" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1600" s="7" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D1600" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="E1600" s="8">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="F1600" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1600" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1600" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1600" s="11">
+        <v>17.7484475355595</v>
+      </c>
+      <c r="K1600" s="11">
+        <v>-64.8953476455063</v>
+      </c>
     </row>
     <row r="1601">
-      <c r="A1601" s="24"/>
-      <c r="B1601" s="7"/>
+      <c r="A1601" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1601" s="7" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1601" s="7" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1601" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E1601" s="8">
+        <v>0.6125</v>
+      </c>
+      <c r="F1601" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1601" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1601" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1601" s="11">
+        <v>17.748451475054</v>
+      </c>
+      <c r="K1601" s="11">
+        <v>-64.8953460529447</v>
+      </c>
     </row>
     <row r="1602">
-      <c r="A1602" s="24"/>
-      <c r="B1602" s="7"/>
+      <c r="A1602" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1602" s="7" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1602" s="7" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1602" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E1602" s="8">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="F1602" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1602" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1602" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1602" s="11">
+        <v>17.7484437637031</v>
+      </c>
+      <c r="K1602" s="11">
+        <v>-64.8953509982675</v>
+      </c>
     </row>
     <row r="1603">
-      <c r="A1603" s="24"/>
-      <c r="B1603" s="7"/>
+      <c r="A1603" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1603" s="7" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C1603" s="7" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D1603" s="7">
+        <v>206.0</v>
+      </c>
+      <c r="E1603" s="8">
+        <v>0.6159722222222223</v>
+      </c>
+      <c r="F1603" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1603" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1603" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1603" s="11">
+        <v>17.7484419196844</v>
+      </c>
+      <c r="K1603" s="11">
+        <v>-64.8953146208078</v>
+      </c>
     </row>
     <row r="1604">
-      <c r="A1604" s="24"/>
-      <c r="B1604" s="7"/>
+      <c r="A1604" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1604" s="7" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1604" s="7" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D1604" s="7">
+        <v>212.0</v>
+      </c>
+      <c r="E1604" s="8">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="F1604" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1604" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1604" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1604" s="11">
+        <v>17.7484916243702</v>
+      </c>
+      <c r="K1604" s="11">
+        <v>-64.8952579591423</v>
+      </c>
     </row>
     <row r="1605">
-      <c r="A1605" s="24"/>
-      <c r="B1605" s="7"/>
+      <c r="A1605" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1605" s="7" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1605" s="7" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D1605" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E1605" s="8">
+        <v>0.6236111111111111</v>
+      </c>
+      <c r="F1605" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1605" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1605" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1605" s="11">
+        <v>17.7484876010567</v>
+      </c>
+      <c r="K1605" s="11">
+        <v>-64.8951628245413</v>
+      </c>
     </row>
     <row r="1606">
-      <c r="A1606" s="24"/>
-      <c r="B1606" s="7"/>
+      <c r="A1606" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1606" s="7" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1606" s="7" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D1606" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1606" s="8">
+        <v>0.6270833333333333</v>
+      </c>
+      <c r="F1606" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1606" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1606" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1606" s="11">
+        <v>17.7485849987715</v>
+      </c>
+      <c r="K1606" s="11">
+        <v>-64.8950594756752</v>
+      </c>
     </row>
     <row r="1607">
-      <c r="A1607" s="24"/>
-      <c r="B1607" s="7"/>
+      <c r="A1607" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1607" s="7" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1607" s="7" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D1607" s="7">
+        <v>213.0</v>
+      </c>
+      <c r="E1607" s="8">
+        <v>0.6298611111111111</v>
+      </c>
+      <c r="F1607" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1607" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1607" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1607" s="11">
+        <v>17.748647108674</v>
+      </c>
+      <c r="K1607" s="11">
+        <v>-64.8950434662402</v>
+      </c>
     </row>
     <row r="1608">
-      <c r="A1608" s="24"/>
-      <c r="B1608" s="7"/>
+      <c r="A1608" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1608" s="7" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1608" s="7" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1608" s="7">
+        <v>214.0</v>
+      </c>
+      <c r="E1608" s="8">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="F1608" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1608" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1608" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1608" s="11">
+        <v>17.7487243060023</v>
+      </c>
+      <c r="K1608" s="11">
+        <v>-64.8948411270976</v>
+      </c>
     </row>
     <row r="1609">
-      <c r="A1609" s="24"/>
-      <c r="B1609" s="7"/>
+      <c r="A1609" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1609" s="7" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1609" s="7" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D1609" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E1609" s="8">
+        <v>0.6368055555555555</v>
+      </c>
+      <c r="F1609" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1609" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1609" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1609" s="11">
+        <v>17.7487666346133</v>
+      </c>
+      <c r="K1609" s="11">
+        <v>-64.8948106169701</v>
+      </c>
     </row>
     <row r="1610">
-      <c r="A1610" s="24"/>
-      <c r="B1610" s="7"/>
+      <c r="A1610" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1610" s="7" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1610" s="7" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D1610" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E1610" s="8">
+        <v>0.6402777777777777</v>
+      </c>
+      <c r="F1610" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1610" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1610" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1610" s="11">
+        <v>17.7488640323281</v>
+      </c>
+      <c r="K1610" s="11">
+        <v>-64.8947230260819</v>
+      </c>
     </row>
     <row r="1611">
-      <c r="A1611" s="24"/>
-      <c r="B1611" s="7"/>
+      <c r="A1611" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1611" s="7" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1611" s="7" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D1611" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E1611" s="8">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="F1611" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1611" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1611" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1611" s="11">
+        <v>17.7490955404937</v>
+      </c>
+      <c r="K1611" s="11">
+        <v>-64.8946817032993</v>
+      </c>
     </row>
     <row r="1612">
-      <c r="A1612" s="24"/>
-      <c r="B1612" s="7"/>
+      <c r="A1612" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1612" s="7" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1612" s="7" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D1612" s="7">
+        <v>203.0</v>
+      </c>
+      <c r="E1612" s="8">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="F1612" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1612" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1612" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1612" s="11">
+        <v>17.7491916809231</v>
+      </c>
+      <c r="K1612" s="11">
+        <v>-64.8945810366422</v>
+      </c>
     </row>
     <row r="1613">
-      <c r="A1613" s="24"/>
-      <c r="B1613" s="7"/>
+      <c r="A1613" s="6">
+        <v>44739.0</v>
+      </c>
+      <c r="B1613" s="7" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1613" s="7" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D1613" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E1613" s="8">
+        <v>0.6506944444444445</v>
+      </c>
+      <c r="F1613" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1613" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1613" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1613" s="11">
+        <v>17.7492107078433</v>
+      </c>
+      <c r="K1613" s="11">
+        <v>-64.8945775162429</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="24"/>
@@ -61083,19 +63147,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2532</v>
+        <v>2642</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2533</v>
+        <v>2643</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2534</v>
+        <v>2644</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2535</v>
+        <v>2645</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2536</v>
+        <v>2646</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -61119,21 +63183,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2537</v>
+        <v>2647</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2538</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2539</v>
+        <v>2649</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2540</v>
+        <v>2650</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -61145,33 +63209,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2541</v>
+        <v>2651</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2541</v>
+        <v>2651</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2541</v>
+        <v>2651</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2541</v>
+        <v>2651</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2541</v>
+        <v>2651</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2542</v>
+        <v>2652</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2543</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2544</v>
+        <v>2654</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2545</v>
+        <v>2655</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -61182,10 +63246,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2546</v>
+        <v>2656</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -61197,18 +63261,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2548</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2549</v>
+        <v>2659</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2550</v>
+        <v>2660</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2551</v>
+        <v>2661</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -61216,10 +63280,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2552</v>
+        <v>2662</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2553</v>
+        <v>2663</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -61251,10 +63315,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2554</v>
+        <v>2664</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2555</v>
+        <v>2665</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -61286,7 +63350,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2539</v>
+        <v>2649</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -61315,7 +63379,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2546</v>
+        <v>2656</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -61344,7 +63408,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2544</v>
+        <v>2654</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -61367,7 +63431,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2552</v>
+        <v>2662</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -61390,7 +63454,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2556</v>
+        <v>2666</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -61433,16 +63497,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2557</v>
+        <v>2667</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2558</v>
+        <v>2668</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2559</v>
+        <v>2669</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -61472,7 +63536,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -61487,7 +63551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -61502,7 +63566,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -61517,7 +63581,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -61532,7 +63596,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -61547,7 +63611,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -61562,7 +63626,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -61577,7 +63641,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -61592,7 +63656,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -61607,7 +63671,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -61622,7 +63686,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -61637,7 +63701,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -61652,7 +63716,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -61667,7 +63731,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -61682,7 +63746,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -61697,7 +63761,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -61713,7 +63777,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -61729,7 +63793,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -61744,7 +63808,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -61759,7 +63823,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -61774,7 +63838,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -61789,7 +63853,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -61804,7 +63868,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -61819,7 +63883,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -61834,7 +63898,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -61849,7 +63913,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -61864,7 +63928,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -61879,7 +63943,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -61894,7 +63958,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -61909,7 +63973,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -61924,7 +63988,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -61939,7 +64003,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -61954,7 +64018,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -61969,7 +64033,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2547</v>
+        <v>2657</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -61984,7 +64048,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -61999,7 +64063,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -62014,7 +64078,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -62026,12 +64090,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -62046,7 +64110,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -62058,12 +64122,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -62078,7 +64142,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -62093,7 +64157,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -62108,7 +64172,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -62120,12 +64184,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -62140,7 +64204,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -62155,7 +64219,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -62170,7 +64234,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -62185,7 +64249,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -62200,7 +64264,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -62215,7 +64279,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -62230,7 +64294,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -62245,7 +64309,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -62260,7 +64324,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -62275,7 +64339,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -62290,7 +64354,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -62305,7 +64369,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -62320,7 +64384,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -62335,7 +64399,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -62350,7 +64414,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -62365,7 +64429,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -62380,7 +64444,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -62395,7 +64459,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -62410,7 +64474,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2560</v>
+        <v>2670</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -62425,7 +64489,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -62440,7 +64504,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -62455,7 +64519,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -62470,7 +64534,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -62485,7 +64549,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -62500,7 +64564,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -62515,7 +64579,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -62530,7 +64594,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -62545,7 +64609,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -62560,7 +64624,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -62575,7 +64639,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -62590,7 +64654,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -62605,7 +64669,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -62620,7 +64684,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -62635,7 +64699,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -62650,7 +64714,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -62665,7 +64729,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -62680,7 +64744,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -62695,7 +64759,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -62710,7 +64774,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -62725,7 +64789,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -62740,7 +64804,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -62755,7 +64819,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -62770,7 +64834,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -62785,7 +64849,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -62800,7 +64864,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -62815,7 +64879,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -62830,7 +64894,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -62845,7 +64909,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -62860,7 +64924,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -62875,7 +64939,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -62890,7 +64954,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -62905,7 +64969,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -62920,7 +64984,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -62935,7 +64999,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -62950,7 +65014,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -62965,7 +65029,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -62980,7 +65044,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -62995,7 +65059,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -63010,7 +65074,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -63025,7 +65089,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -63040,7 +65104,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -63055,7 +65119,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -63070,7 +65134,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -63085,7 +65149,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -63100,7 +65164,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -63115,7 +65179,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -63130,7 +65194,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -63145,7 +65209,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -63160,7 +65224,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2563</v>
+        <v>2673</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -63175,7 +65239,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -63190,7 +65254,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -63205,7 +65269,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -63220,7 +65284,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -63232,12 +65296,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -63252,7 +65316,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -63267,7 +65331,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -63282,7 +65346,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -63297,7 +65361,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -63312,7 +65376,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -63327,7 +65391,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -63342,7 +65406,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -63357,7 +65421,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -63369,12 +65433,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -63389,7 +65453,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -63401,12 +65465,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2561</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -63421,7 +65485,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -63436,7 +65500,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -63451,7 +65515,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -63466,7 +65530,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -63478,12 +65542,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -63495,12 +65559,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -63512,12 +65576,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -63529,12 +65593,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -63546,12 +65610,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -63563,12 +65627,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -63580,12 +65644,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -63597,12 +65661,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -63614,12 +65678,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -63631,12 +65695,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -63648,12 +65712,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -63665,12 +65729,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -63682,12 +65746,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -63699,12 +65763,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -63716,12 +65780,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -63733,12 +65797,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -63750,12 +65814,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -63767,12 +65831,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -63784,12 +65848,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -63801,12 +65865,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -63818,12 +65882,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -63835,12 +65899,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -63852,12 +65916,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2565</v>
+        <v>2675</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -63869,7 +65933,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2566</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="158">
@@ -66421,22 +68485,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2567</v>
+        <v>2677</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2568</v>
+        <v>2678</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2569</v>
+        <v>2679</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2570</v>
+        <v>2680</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2571</v>
+        <v>2681</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2572</v>
+        <v>2682</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -66447,17 +68511,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2573</v>
+        <v>2683</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2546</v>
+        <v>2656</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2574</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="3">
@@ -66465,7 +68529,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2575</v>
+        <v>2685</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -66486,10 +68550,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2576</v>
+        <v>2686</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2552</v>
+        <v>2662</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -66504,7 +68568,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2577</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="5">
@@ -66512,10 +68576,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2578</v>
+        <v>2688</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2556</v>
+        <v>2666</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -66535,10 +68599,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2579</v>
+        <v>2689</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2580</v>
+        <v>2690</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -66558,10 +68622,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2564</v>
+        <v>2674</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2581</v>
+        <v>2691</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -66581,10 +68645,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2582</v>
+        <v>2692</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2583</v>
+        <v>2693</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8924" uniqueCount="2694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9254" uniqueCount="2797">
   <si>
     <t>Date</t>
   </si>
@@ -7941,6 +7941,315 @@
   </si>
   <si>
     <t>G1225</t>
+  </si>
+  <si>
+    <t>DEB_001</t>
+  </si>
+  <si>
+    <t>G1459</t>
+  </si>
+  <si>
+    <t>DEB_002</t>
+  </si>
+  <si>
+    <t>DEB_003</t>
+  </si>
+  <si>
+    <t>G1460</t>
+  </si>
+  <si>
+    <t>DEB_004</t>
+  </si>
+  <si>
+    <t>DEB_005</t>
+  </si>
+  <si>
+    <t>G1470</t>
+  </si>
+  <si>
+    <t>slight disease</t>
+  </si>
+  <si>
+    <t>DEB_006</t>
+  </si>
+  <si>
+    <t>DEB_007</t>
+  </si>
+  <si>
+    <t>G1469</t>
+  </si>
+  <si>
+    <t>DEB_008</t>
+  </si>
+  <si>
+    <t>G1480</t>
+  </si>
+  <si>
+    <t>DEB_009</t>
+  </si>
+  <si>
+    <t>DEB_010</t>
+  </si>
+  <si>
+    <t>G1458</t>
+  </si>
+  <si>
+    <t>DEB_011</t>
+  </si>
+  <si>
+    <t>DEB_012</t>
+  </si>
+  <si>
+    <t>DEB_013</t>
+  </si>
+  <si>
+    <t>G1490</t>
+  </si>
+  <si>
+    <t>DEB_014</t>
+  </si>
+  <si>
+    <t>pale</t>
+  </si>
+  <si>
+    <t>DEB_015</t>
+  </si>
+  <si>
+    <t>DEB_016</t>
+  </si>
+  <si>
+    <t>G1468</t>
+  </si>
+  <si>
+    <t>DEB_017</t>
+  </si>
+  <si>
+    <t>DEB_018</t>
+  </si>
+  <si>
+    <t>G1488</t>
+  </si>
+  <si>
+    <t>DEB_019</t>
+  </si>
+  <si>
+    <t>G1489</t>
+  </si>
+  <si>
+    <t>DEB_020</t>
+  </si>
+  <si>
+    <t>DEB_021</t>
+  </si>
+  <si>
+    <t>DEB_022</t>
+  </si>
+  <si>
+    <t>G1479</t>
+  </si>
+  <si>
+    <t>DEB_023</t>
+  </si>
+  <si>
+    <t>DEB_024</t>
+  </si>
+  <si>
+    <t>DEB_025</t>
+  </si>
+  <si>
+    <t>G1498</t>
+  </si>
+  <si>
+    <t>DEB_026</t>
+  </si>
+  <si>
+    <t>DEB_027</t>
+  </si>
+  <si>
+    <t>G1499</t>
+  </si>
+  <si>
+    <t>DEB_028</t>
+  </si>
+  <si>
+    <t>DEB_029</t>
+  </si>
+  <si>
+    <t>DEB_030</t>
+  </si>
+  <si>
+    <t>G1478</t>
+  </si>
+  <si>
+    <t>DEB_031</t>
+  </si>
+  <si>
+    <t>G1500</t>
+  </si>
+  <si>
+    <t>DEB_032</t>
+  </si>
+  <si>
+    <t>G1456</t>
+  </si>
+  <si>
+    <t>DEB_033</t>
+  </si>
+  <si>
+    <t>G1457</t>
+  </si>
+  <si>
+    <t>DEB_034</t>
+  </si>
+  <si>
+    <t>G1495</t>
+  </si>
+  <si>
+    <t>DEB_035</t>
+  </si>
+  <si>
+    <t>DEB_036</t>
+  </si>
+  <si>
+    <t>DEB_037</t>
+  </si>
+  <si>
+    <t>G1494</t>
+  </si>
+  <si>
+    <t>DEB_038</t>
+  </si>
+  <si>
+    <t>G1493</t>
+  </si>
+  <si>
+    <t>DEB_039</t>
+  </si>
+  <si>
+    <t>DEB_040</t>
+  </si>
+  <si>
+    <t>G1452</t>
+  </si>
+  <si>
+    <t>DEB_041</t>
+  </si>
+  <si>
+    <t>G1492</t>
+  </si>
+  <si>
+    <t>DEB_042</t>
+  </si>
+  <si>
+    <t>DEB_043</t>
+  </si>
+  <si>
+    <t>G1453</t>
+  </si>
+  <si>
+    <t>DEB_044</t>
+  </si>
+  <si>
+    <t>DEB_045</t>
+  </si>
+  <si>
+    <t>G1461</t>
+  </si>
+  <si>
+    <t>DEB_046</t>
+  </si>
+  <si>
+    <t>DEB_047</t>
+  </si>
+  <si>
+    <t>G1462</t>
+  </si>
+  <si>
+    <t>DEB_048</t>
+  </si>
+  <si>
+    <t>G1454</t>
+  </si>
+  <si>
+    <t>DEB_049</t>
+  </si>
+  <si>
+    <t>DEB_050</t>
+  </si>
+  <si>
+    <t>G1463</t>
+  </si>
+  <si>
+    <t>DEB_051</t>
+  </si>
+  <si>
+    <t>DEB_052</t>
+  </si>
+  <si>
+    <t>G1455</t>
+  </si>
+  <si>
+    <t>DEB_053</t>
+  </si>
+  <si>
+    <t>G1464</t>
+  </si>
+  <si>
+    <t>DEB_054</t>
+  </si>
+  <si>
+    <t>DEB_055</t>
+  </si>
+  <si>
+    <t>G1471</t>
+  </si>
+  <si>
+    <t>DEB_056</t>
+  </si>
+  <si>
+    <t>G1465</t>
+  </si>
+  <si>
+    <t>DEB_057</t>
+  </si>
+  <si>
+    <t>G1481</t>
+  </si>
+  <si>
+    <t>DEB_058</t>
+  </si>
+  <si>
+    <t>G1472</t>
+  </si>
+  <si>
+    <t>DEB_059</t>
+  </si>
+  <si>
+    <t>DEB_060</t>
+  </si>
+  <si>
+    <t>DEB_061</t>
+  </si>
+  <si>
+    <t>G1473</t>
+  </si>
+  <si>
+    <t>DEB_062</t>
+  </si>
+  <si>
+    <t>G1482</t>
+  </si>
+  <si>
+    <t>DEB_063</t>
+  </si>
+  <si>
+    <t>G1474</t>
+  </si>
+  <si>
+    <t>DEB_064</t>
+  </si>
+  <si>
+    <t>G1475</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -61591,263 +61900,2085 @@
       </c>
     </row>
     <row r="1614">
-      <c r="A1614" s="24"/>
-      <c r="B1614" s="7"/>
+      <c r="A1614" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1614" s="7" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1614" s="7" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D1614" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E1614" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F1614" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1614" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1614" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1614" s="11">
+        <v>17.7610717713833</v>
+      </c>
+      <c r="K1614" s="11">
+        <v>-64.6690336614847</v>
+      </c>
     </row>
     <row r="1615">
-      <c r="A1615" s="24"/>
-      <c r="B1615" s="7"/>
+      <c r="A1615" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1615" s="7" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1615" s="7" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D1615" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1615" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F1615" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1615" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1615" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1615" s="11">
+        <v>17.7610717713833</v>
+      </c>
+      <c r="K1615" s="11">
+        <v>-64.6690336614847</v>
+      </c>
     </row>
     <row r="1616">
-      <c r="A1616" s="24"/>
-      <c r="B1616" s="7"/>
+      <c r="A1616" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1616" s="7" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1616" s="7" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1616" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E1616" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1616" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1616" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1616" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1616" s="11">
+        <v>17.7611262537539</v>
+      </c>
+      <c r="K1616" s="11">
+        <v>-64.6691091824323</v>
+      </c>
     </row>
     <row r="1617">
-      <c r="A1617" s="24"/>
-      <c r="B1617" s="7"/>
+      <c r="A1617" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1617" s="7" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1617" s="7" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1617" s="7">
+        <v>204.0</v>
+      </c>
+      <c r="E1617" s="8">
+        <v>0.5076388888888889</v>
+      </c>
+      <c r="F1617" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1617" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1617" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1617" s="11">
+        <v>17.7611262537539</v>
+      </c>
+      <c r="K1617" s="11">
+        <v>-64.6691091824323</v>
+      </c>
     </row>
     <row r="1618">
-      <c r="A1618" s="24"/>
-      <c r="B1618" s="7"/>
+      <c r="A1618" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1618" s="7" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1618" s="7" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D1618" s="7">
+        <v>205.0</v>
+      </c>
+      <c r="E1618" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1618" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1618" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1618" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1618" s="11">
+        <v>17.7611826639622</v>
+      </c>
+      <c r="K1618" s="11">
+        <v>-64.6691217552871</v>
+      </c>
+      <c r="M1618" s="7" t="s">
+        <v>2650</v>
+      </c>
     </row>
     <row r="1619">
-      <c r="A1619" s="24"/>
-      <c r="B1619" s="7"/>
+      <c r="A1619" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1619" s="7" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1619" s="7" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D1619" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E1619" s="8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="F1619" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1619" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1619" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1619" s="11">
+        <v>17.7611826639622</v>
+      </c>
+      <c r="K1619" s="11">
+        <v>-64.6691217552871</v>
+      </c>
     </row>
     <row r="1620">
-      <c r="A1620" s="24"/>
-      <c r="B1620" s="7"/>
+      <c r="A1620" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1620" s="7" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1620" s="7" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1620" s="7">
+        <v>208.0</v>
+      </c>
+      <c r="E1620" s="8">
+        <v>0.5145833333333333</v>
+      </c>
+      <c r="F1620" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1620" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1620" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1620" s="11">
+        <v>17.761211078614</v>
+      </c>
+      <c r="K1620" s="11">
+        <v>-64.6691859606653</v>
+      </c>
+      <c r="M1620" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1621">
-      <c r="A1621" s="24"/>
-      <c r="B1621" s="7"/>
+      <c r="A1621" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1621" s="7" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1621" s="7" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D1621" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1621" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F1621" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1621" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1621" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1621" s="11">
+        <v>17.7611965779215</v>
+      </c>
+      <c r="K1621" s="11">
+        <v>-64.6692260261625</v>
+      </c>
     </row>
     <row r="1622">
-      <c r="A1622" s="24"/>
-      <c r="B1622" s="7"/>
+      <c r="A1622" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1622" s="7" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1622" s="7" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D1622" s="7">
+        <v>207.0</v>
+      </c>
+      <c r="E1622" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F1622" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1622" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1622" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1622" s="11">
+        <v>17.7611965779215</v>
+      </c>
+      <c r="K1622" s="11">
+        <v>-64.6692260261625</v>
+      </c>
     </row>
     <row r="1623">
-      <c r="A1623" s="24"/>
-      <c r="B1623" s="7"/>
+      <c r="A1623" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1623" s="7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1623" s="7" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1623" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E1623" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1623" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1623" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1623" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1623" s="11">
+        <v>17.7611949853599</v>
+      </c>
+      <c r="K1623" s="11">
+        <v>-64.6692491602153</v>
+      </c>
     </row>
     <row r="1624">
-      <c r="A1624" s="24"/>
-      <c r="B1624" s="7"/>
+      <c r="A1624" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1624" s="7" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1624" s="7" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1624" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E1624" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1624" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1624" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1624" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1624" s="11">
+        <v>17.7611949853599</v>
+      </c>
+      <c r="K1624" s="11">
+        <v>-64.6692491602153</v>
+      </c>
     </row>
     <row r="1625">
-      <c r="A1625" s="24"/>
-      <c r="B1625" s="7"/>
+      <c r="A1625" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1625" s="7" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1625" s="7" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1625" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E1625" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1625" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1625" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1625" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1625" s="11">
+        <v>17.7611949853599</v>
+      </c>
+      <c r="K1625" s="11">
+        <v>-64.6692491602153</v>
+      </c>
     </row>
     <row r="1626">
-      <c r="A1626" s="24"/>
-      <c r="B1626" s="7"/>
+      <c r="A1626" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1626" s="7" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1626" s="7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1626" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1626" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1626" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1626" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1626" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1626" s="11">
+        <v>17.7612430974841</v>
+      </c>
+      <c r="K1626" s="11">
+        <v>-64.6692791674286</v>
+      </c>
+      <c r="M1626" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1627">
-      <c r="A1627" s="24"/>
-      <c r="B1627" s="7"/>
+      <c r="A1627" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1627" s="7" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1627" s="7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1627" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1627" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1627" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1627" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1627" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1627" s="11">
+        <v>17.7612430974841</v>
+      </c>
+      <c r="K1627" s="11">
+        <v>-64.6692791674286</v>
+      </c>
+      <c r="M1627" s="7" t="s">
+        <v>2664</v>
+      </c>
     </row>
     <row r="1628">
-      <c r="A1628" s="24"/>
-      <c r="B1628" s="7"/>
+      <c r="A1628" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1628" s="7" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1628" s="7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1628" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E1628" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F1628" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1628" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1628" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1628" s="11">
+        <v>17.7612430974841</v>
+      </c>
+      <c r="K1628" s="11">
+        <v>-64.6692791674286</v>
+      </c>
     </row>
     <row r="1629">
-      <c r="A1629" s="24"/>
-      <c r="B1629" s="7"/>
+      <c r="A1629" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1629" s="7" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1629" s="7" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D1629" s="7">
+        <v>215.0</v>
+      </c>
+      <c r="E1629" s="8">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="F1629" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1629" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1629" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1629" s="11">
+        <v>17.7611707616597</v>
+      </c>
+      <c r="K1629" s="11">
+        <v>-64.6693577896804</v>
+      </c>
     </row>
     <row r="1630">
-      <c r="A1630" s="24"/>
-      <c r="B1630" s="7"/>
+      <c r="A1630" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1630" s="7" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1630" s="7" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D1630" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1630" s="8">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="F1630" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1630" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1630" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1630" s="11">
+        <v>17.7611707616597</v>
+      </c>
+      <c r="K1630" s="11">
+        <v>-64.6693577896804</v>
+      </c>
     </row>
     <row r="1631">
-      <c r="A1631" s="24"/>
-      <c r="B1631" s="7"/>
+      <c r="A1631" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1631" s="7" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C1631" s="7" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1631" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E1631" s="8">
+        <v>0.5361111111111111</v>
+      </c>
+      <c r="F1631" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1631" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1631" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1631" s="11">
+        <v>17.7611497230828</v>
+      </c>
+      <c r="K1631" s="11">
+        <v>-64.6693789120764</v>
+      </c>
     </row>
     <row r="1632">
-      <c r="A1632" s="24"/>
-      <c r="B1632" s="7"/>
+      <c r="A1632" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1632" s="7" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1632" s="7" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1632" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E1632" s="8">
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="F1632" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1632" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1632" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1632" s="11">
+        <v>17.7611365634948</v>
+      </c>
+      <c r="K1632" s="11">
+        <v>-64.6693878807127</v>
+      </c>
     </row>
     <row r="1633">
-      <c r="A1633" s="24"/>
-      <c r="B1633" s="7"/>
+      <c r="A1633" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1633" s="7" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1633" s="7" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1633" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="E1633" s="8">
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="F1633" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1633" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1633" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1633" s="11">
+        <v>17.7611365634948</v>
+      </c>
+      <c r="K1633" s="11">
+        <v>-64.6693878807127</v>
+      </c>
     </row>
     <row r="1634">
-      <c r="A1634" s="24"/>
-      <c r="B1634" s="7"/>
+      <c r="A1634" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1634" s="7" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1634" s="7" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1634" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E1634" s="8">
+        <v>0.5388888888888889</v>
+      </c>
+      <c r="F1634" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1634" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1634" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1634" s="11">
+        <v>17.7611365634948</v>
+      </c>
+      <c r="K1634" s="11">
+        <v>-64.6693878807127</v>
+      </c>
     </row>
     <row r="1635">
-      <c r="A1635" s="24"/>
-      <c r="B1635" s="7"/>
+      <c r="A1635" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1635" s="7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C1635" s="7" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D1635" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E1635" s="8">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="F1635" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1635" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1635" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1635" s="11">
+        <v>17.7612726017833</v>
+      </c>
+      <c r="K1635" s="11">
+        <v>-64.6695821732283</v>
+      </c>
+      <c r="M1635" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1636">
-      <c r="A1636" s="24"/>
-      <c r="B1636" s="7"/>
+      <c r="A1636" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1636" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C1636" s="7" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D1636" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E1636" s="8">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="F1636" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1636" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1636" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1636" s="11">
+        <v>17.7612726017833</v>
+      </c>
+      <c r="K1636" s="11">
+        <v>-64.6695821732283</v>
+      </c>
     </row>
     <row r="1637">
-      <c r="A1637" s="24"/>
-      <c r="B1637" s="7"/>
+      <c r="A1637" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1637" s="7" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C1637" s="7" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D1637" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1637" s="8">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="F1637" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1637" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1637" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1637" s="11">
+        <v>17.7612726017833</v>
+      </c>
+      <c r="K1637" s="11">
+        <v>-64.6695821732283</v>
+      </c>
     </row>
     <row r="1638">
-      <c r="A1638" s="24"/>
-      <c r="B1638" s="7"/>
+      <c r="A1638" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1638" s="7" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1638" s="7" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1638" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E1638" s="8">
+        <v>0.5597222222222222</v>
+      </c>
+      <c r="F1638" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1638" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1638" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1638" s="11">
+        <v>17.761353822425</v>
+      </c>
+      <c r="K1638" s="11">
+        <v>-64.669829774648</v>
+      </c>
     </row>
     <row r="1639">
-      <c r="A1639" s="24"/>
-      <c r="B1639" s="7"/>
+      <c r="A1639" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1639" s="7" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C1639" s="7" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1639" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E1639" s="8">
+        <v>0.5597222222222222</v>
+      </c>
+      <c r="F1639" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1639" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1639" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1639" s="11">
+        <v>17.761353822425</v>
+      </c>
+      <c r="K1639" s="11">
+        <v>-64.669829774648</v>
+      </c>
     </row>
     <row r="1640">
-      <c r="A1640" s="24"/>
-      <c r="B1640" s="7"/>
+      <c r="A1640" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1640" s="7" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1640" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D1640" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E1640" s="8">
+        <v>0.5638888888888889</v>
+      </c>
+      <c r="F1640" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1640" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1640" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1640" s="11">
+        <v>17.7613549120724</v>
+      </c>
+      <c r="K1640" s="11">
+        <v>-64.6697098296136</v>
+      </c>
     </row>
     <row r="1641">
-      <c r="A1641" s="24"/>
-      <c r="B1641" s="7"/>
+      <c r="A1641" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1641" s="7" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C1641" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D1641" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E1641" s="8">
+        <v>0.5638888888888889</v>
+      </c>
+      <c r="F1641" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1641" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1641" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1641" s="11">
+        <v>17.7613549120724</v>
+      </c>
+      <c r="K1641" s="11">
+        <v>-64.6697098296136</v>
+      </c>
     </row>
     <row r="1642">
-      <c r="A1642" s="24"/>
-      <c r="B1642" s="7"/>
+      <c r="A1642" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1642" s="7" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C1642" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D1642" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1642" s="8">
+        <v>0.5638888888888889</v>
+      </c>
+      <c r="F1642" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1642" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1642" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1642" s="11">
+        <v>17.7613549120724</v>
+      </c>
+      <c r="K1642" s="11">
+        <v>-64.6697098296136</v>
+      </c>
     </row>
     <row r="1643">
-      <c r="A1643" s="24"/>
-      <c r="B1643" s="7"/>
+      <c r="A1643" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1643" s="7" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C1643" s="7" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1643" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1643" s="8">
+        <v>0.56875</v>
+      </c>
+      <c r="F1643" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1643" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1643" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1643" s="11">
+        <v>17.7612990885973</v>
+      </c>
+      <c r="K1643" s="11">
+        <v>-64.6697099134326</v>
+      </c>
+      <c r="M1643" s="7" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="1644">
-      <c r="A1644" s="24"/>
-      <c r="B1644" s="7"/>
+      <c r="A1644" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1644" s="7" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1644" s="7" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1644" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E1644" s="8">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="F1644" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1644" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1644" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1644" s="11">
+        <v>17.7613663114607</v>
+      </c>
+      <c r="K1644" s="11">
+        <v>-64.6697364002466</v>
+      </c>
     </row>
     <row r="1645">
-      <c r="A1645" s="24"/>
-      <c r="B1645" s="7"/>
+      <c r="A1645" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1645" s="7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1645" s="7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1645" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E1645" s="8">
+        <v>0.5736111111111111</v>
+      </c>
+      <c r="F1645" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1645" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1645" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1645" s="11">
+        <v>17.7613851707429</v>
+      </c>
+      <c r="K1645" s="11">
+        <v>-64.6697949897498</v>
+      </c>
     </row>
     <row r="1646">
-      <c r="A1646" s="24"/>
-      <c r="B1646" s="7"/>
+      <c r="A1646" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1646" s="7" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1646" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1646" s="7">
+        <v>209.0</v>
+      </c>
+      <c r="E1646" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F1646" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1646" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1646" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1646" s="11">
+        <v>17.7610717713833</v>
+      </c>
+      <c r="K1646" s="11">
+        <v>-64.6690336614847</v>
+      </c>
     </row>
     <row r="1647">
-      <c r="A1647" s="24"/>
-      <c r="B1647" s="7"/>
+      <c r="A1647" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1647" s="7" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1647" s="7" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1647" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1647" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1647" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1647" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1647" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1647" s="11">
+        <v>17.7611308638006</v>
+      </c>
+      <c r="K1647" s="11">
+        <v>-64.6691228449345</v>
+      </c>
     </row>
     <row r="1648">
-      <c r="A1648" s="24"/>
-      <c r="B1648" s="7"/>
+      <c r="A1648" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1648" s="7" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C1648" s="7" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1648" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="E1648" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1648" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1648" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1648" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1648" s="11">
+        <v>17.7611308638006</v>
+      </c>
+      <c r="K1648" s="11">
+        <v>-64.6691228449345</v>
+      </c>
     </row>
     <row r="1649">
-      <c r="A1649" s="24"/>
-      <c r="B1649" s="7"/>
+      <c r="A1649" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1649" s="7" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C1649" s="7" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1649" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1649" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F1649" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1649" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1649" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1649" s="11">
+        <v>17.7611308638006</v>
+      </c>
+      <c r="K1649" s="11">
+        <v>-64.6691228449345</v>
+      </c>
     </row>
     <row r="1650">
-      <c r="A1650" s="24"/>
-      <c r="B1650" s="7"/>
+      <c r="A1650" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1650" s="7" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C1650" s="7" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1650" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E1650" s="8">
+        <v>0.5125</v>
+      </c>
+      <c r="F1650" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1650" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1650" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1650" s="11">
+        <v>17.7611739467829</v>
+      </c>
+      <c r="K1650" s="11">
+        <v>-64.6691372618079</v>
+      </c>
+      <c r="M1650" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1651">
-      <c r="A1651" s="24"/>
-      <c r="B1651" s="7"/>
+      <c r="A1651" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1651" s="7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C1651" s="7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1651" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E1651" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1651" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1651" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1651" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1651" s="11">
+        <v>17.7612050436437</v>
+      </c>
+      <c r="K1651" s="11">
+        <v>-64.6691792551428</v>
+      </c>
     </row>
     <row r="1652">
-      <c r="A1652" s="24"/>
-      <c r="B1652" s="7"/>
+      <c r="A1652" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1652" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1652" s="7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1652" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1652" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F1652" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1652" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1652" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1652" s="11">
+        <v>17.7612050436437</v>
+      </c>
+      <c r="K1652" s="11">
+        <v>-64.6691792551428</v>
+      </c>
     </row>
     <row r="1653">
-      <c r="A1653" s="24"/>
-      <c r="B1653" s="7"/>
+      <c r="A1653" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1653" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1653" s="7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D1653" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E1653" s="8">
+        <v>0.51875</v>
+      </c>
+      <c r="F1653" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1653" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1653" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1653" s="11">
+        <v>17.7611985895783</v>
+      </c>
+      <c r="K1653" s="11">
+        <v>-64.6692328993231</v>
+      </c>
     </row>
     <row r="1654">
-      <c r="A1654" s="24"/>
-      <c r="B1654" s="7"/>
+      <c r="A1654" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1654" s="7" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C1654" s="7" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D1654" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1654" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1654" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1654" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1654" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1654" s="11">
+        <v>17.7611949853599</v>
+      </c>
+      <c r="K1654" s="11">
+        <v>-64.6692491602153</v>
+      </c>
     </row>
     <row r="1655">
-      <c r="A1655" s="24"/>
-      <c r="B1655" s="7"/>
+      <c r="A1655" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1655" s="7" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1655" s="7" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D1655" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1655" s="8">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F1655" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1655" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1655" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1655" s="11">
+        <v>17.7611949853599</v>
+      </c>
+      <c r="K1655" s="11">
+        <v>-64.6692491602153</v>
+      </c>
     </row>
     <row r="1656">
-      <c r="A1656" s="24"/>
-      <c r="B1656" s="7"/>
+      <c r="A1656" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1656" s="7" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1656" s="7" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1656" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E1656" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1656" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1656" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1656" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1656" s="11">
+        <v>17.7612446900457</v>
+      </c>
+      <c r="K1656" s="11">
+        <v>-64.6692719589919</v>
+      </c>
     </row>
     <row r="1657">
-      <c r="A1657" s="24"/>
-      <c r="B1657" s="7"/>
+      <c r="A1657" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1657" s="7" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1657" s="7" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1657" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E1657" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F1657" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1657" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1657" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1657" s="11">
+        <v>17.7612446900457</v>
+      </c>
+      <c r="K1657" s="11">
+        <v>-64.6692719589919</v>
+      </c>
     </row>
     <row r="1658">
-      <c r="A1658" s="24"/>
-      <c r="B1658" s="7"/>
+      <c r="A1658" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1658" s="7" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1658" s="7" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D1658" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E1658" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F1658" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1658" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1658" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1658" s="11">
+        <v>17.761258604005</v>
+      </c>
+      <c r="K1658" s="11">
+        <v>-64.6692894771695</v>
+      </c>
     </row>
     <row r="1659">
-      <c r="A1659" s="24"/>
-      <c r="B1659" s="7"/>
+      <c r="A1659" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1659" s="7" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1659" s="7" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D1659" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E1659" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F1659" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1659" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1659" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1659" s="11">
+        <v>17.761258604005</v>
+      </c>
+      <c r="K1659" s="11">
+        <v>-64.6692894771695</v>
+      </c>
     </row>
     <row r="1660">
-      <c r="A1660" s="24"/>
-      <c r="B1660" s="7"/>
+      <c r="A1660" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1660" s="7" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1660" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D1660" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="E1660" s="8">
+        <v>0.5305555555555556</v>
+      </c>
+      <c r="F1660" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1660" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1660" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1660" s="11">
+        <v>17.7611906267703</v>
+      </c>
+      <c r="K1660" s="11">
+        <v>-64.6693940833211</v>
+      </c>
     </row>
     <row r="1661">
-      <c r="A1661" s="24"/>
-      <c r="B1661" s="7"/>
+      <c r="A1661" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1661" s="7" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1661" s="7" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D1661" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E1661" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F1661" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1661" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1661" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1661" s="11">
+        <v>17.7611791435629</v>
+      </c>
+      <c r="K1661" s="11">
+        <v>-64.6693612262607</v>
+      </c>
     </row>
     <row r="1662">
-      <c r="A1662" s="24"/>
-      <c r="B1662" s="7"/>
+      <c r="A1662" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1662" s="7" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1662" s="7" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D1662" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1662" s="8">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="F1662" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1662" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1662" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1662" s="11">
+        <v>17.7611791435629</v>
+      </c>
+      <c r="K1662" s="11">
+        <v>-64.6693612262607</v>
+      </c>
     </row>
     <row r="1663">
-      <c r="A1663" s="24"/>
-      <c r="B1663" s="7"/>
+      <c r="A1663" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1663" s="7" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1663" s="7" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1663" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1663" s="8">
+        <v>0.5368055555555555</v>
+      </c>
+      <c r="F1663" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1663" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1663" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1663" s="11">
+        <v>17.7611365634948</v>
+      </c>
+      <c r="K1663" s="11">
+        <v>-64.669380672276</v>
+      </c>
+      <c r="M1663" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1664">
-      <c r="A1664" s="24"/>
-      <c r="B1664" s="7"/>
+      <c r="A1664" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1664" s="7" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1664" s="7" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1664" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E1664" s="8">
+        <v>0.5368055555555555</v>
+      </c>
+      <c r="F1664" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1664" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1664" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1664" s="11">
+        <v>17.7611365634948</v>
+      </c>
+      <c r="K1664" s="11">
+        <v>-64.669380672276</v>
+      </c>
     </row>
     <row r="1665">
-      <c r="A1665" s="24"/>
-      <c r="B1665" s="7"/>
+      <c r="A1665" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1665" s="7" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1665" s="7" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1665" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1665" s="8">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F1665" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1665" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1665" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1665" s="11">
+        <v>17.7612943947315</v>
+      </c>
+      <c r="K1665" s="11">
+        <v>-64.669526014477</v>
+      </c>
     </row>
     <row r="1666">
-      <c r="A1666" s="24"/>
-      <c r="B1666" s="7"/>
+      <c r="A1666" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1666" s="7" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1666" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1666" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="E1666" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F1666" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1666" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1666" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1666" s="11">
+        <v>17.7612741943449</v>
+      </c>
+      <c r="K1666" s="11">
+        <v>-64.6695165429264</v>
+      </c>
     </row>
     <row r="1667">
-      <c r="A1667" s="24"/>
-      <c r="B1667" s="7"/>
+      <c r="A1667" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1667" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C1667" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1667" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="E1667" s="8">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F1667" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1667" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1667" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1667" s="11">
+        <v>17.7612741943449</v>
+      </c>
+      <c r="K1667" s="11">
+        <v>-64.6695165429264</v>
+      </c>
     </row>
     <row r="1668">
-      <c r="A1668" s="24"/>
-      <c r="B1668" s="7"/>
+      <c r="A1668" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1668" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1668" s="7" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1668" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E1668" s="8">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F1668" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1668" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1668" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1668" s="11">
+        <v>17.7612788043916</v>
+      </c>
+      <c r="K1668" s="11">
+        <v>-64.6695646550506</v>
+      </c>
+      <c r="M1668" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1669">
-      <c r="A1669" s="24"/>
-      <c r="B1669" s="7"/>
+      <c r="A1669" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1669" s="7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1669" s="7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D1669" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="E1669" s="8">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F1669" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1669" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1669" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1669" s="11">
+        <v>17.7613029442728</v>
+      </c>
+      <c r="K1669" s="11">
+        <v>-64.6697175409645</v>
+      </c>
     </row>
     <row r="1670">
-      <c r="A1670" s="24"/>
-      <c r="B1670" s="7"/>
+      <c r="A1670" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1670" s="7" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C1670" s="7" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D1670" s="7">
+        <v>218.0</v>
+      </c>
+      <c r="E1670" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F1670" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1670" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1670" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1670" s="11">
+        <v>17.7612934727222</v>
+      </c>
+      <c r="K1670" s="11">
+        <v>-64.6697255875915</v>
+      </c>
+      <c r="M1670" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="1671">
-      <c r="A1671" s="24"/>
-      <c r="B1671" s="7"/>
+      <c r="A1671" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1671" s="7" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C1671" s="7" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1671" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E1671" s="8">
+        <v>0.5631944444444444</v>
+      </c>
+      <c r="F1671" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1671" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1671" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1671" s="11">
+        <v>17.7613733522594</v>
+      </c>
+      <c r="K1671" s="11">
+        <v>-64.66971879825</v>
+      </c>
     </row>
     <row r="1672">
-      <c r="A1672" s="24"/>
-      <c r="B1672" s="7"/>
+      <c r="A1672" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1672" s="7" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C1672" s="7" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1672" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E1672" s="8">
+        <v>0.5631944444444444</v>
+      </c>
+      <c r="F1672" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1672" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1672" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1672" s="11">
+        <v>17.7613733522594</v>
+      </c>
+      <c r="K1672" s="11">
+        <v>-64.66971879825</v>
+      </c>
     </row>
     <row r="1673">
-      <c r="A1673" s="24"/>
-      <c r="B1673" s="7"/>
+      <c r="A1673" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1673" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C1673" s="7" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1673" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E1673" s="8">
+        <v>0.5631944444444444</v>
+      </c>
+      <c r="F1673" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1673" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1673" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1673" s="11">
+        <v>17.7613733522594</v>
+      </c>
+      <c r="K1673" s="11">
+        <v>-64.66971879825</v>
+      </c>
     </row>
     <row r="1674">
-      <c r="A1674" s="24"/>
-      <c r="B1674" s="7"/>
+      <c r="A1674" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1674" s="7" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C1674" s="7" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D1674" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="E1674" s="8">
+        <v>0.5722222222222222</v>
+      </c>
+      <c r="F1674" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1674" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1674" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1674" s="11">
+        <v>17.7613554988056</v>
+      </c>
+      <c r="K1674" s="11">
+        <v>-64.6697285212576</v>
+      </c>
     </row>
     <row r="1675">
-      <c r="A1675" s="24"/>
-      <c r="B1675" s="7"/>
+      <c r="A1675" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1675" s="7" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1675" s="7" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D1675" s="7">
+        <v>211.0</v>
+      </c>
+      <c r="E1675" s="8">
+        <v>0.575</v>
+      </c>
+      <c r="F1675" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1675" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1675" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1675" s="11">
+        <v>17.7613783814013</v>
+      </c>
+      <c r="K1675" s="11">
+        <v>-64.6698147710413</v>
+      </c>
     </row>
     <row r="1676">
-      <c r="A1676" s="24"/>
-      <c r="B1676" s="7"/>
+      <c r="A1676" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1676" s="7" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C1676" s="7" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D1676" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E1676" s="8">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="F1676" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1676" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1676" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1676" s="11">
+        <v>17.7613442670554</v>
+      </c>
+      <c r="K1676" s="11">
+        <v>-64.6698367316276</v>
+      </c>
     </row>
     <row r="1677">
-      <c r="A1677" s="24"/>
-      <c r="B1677" s="7"/>
+      <c r="A1677" s="6">
+        <v>44740.0</v>
+      </c>
+      <c r="B1677" s="7" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C1677" s="7" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D1677" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E1677" s="8">
+        <v>0.5784722222222223</v>
+      </c>
+      <c r="F1677" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1677" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1677" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1677" s="11">
+        <v>17.7613560855389</v>
+      </c>
+      <c r="K1677" s="11">
+        <v>-64.6698047965765</v>
+      </c>
     </row>
     <row r="1678">
-      <c r="A1678" s="24"/>
+      <c r="A1678" s="6"/>
       <c r="B1678" s="7"/>
     </row>
     <row r="1679">
@@ -63147,19 +65278,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2642</v>
+        <v>2745</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2643</v>
+        <v>2746</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2644</v>
+        <v>2747</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2645</v>
+        <v>2748</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2646</v>
+        <v>2749</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -63183,21 +65314,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2647</v>
+        <v>2750</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2648</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2649</v>
+        <v>2752</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2650</v>
+        <v>2753</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -63209,33 +65340,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2651</v>
+        <v>2754</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2651</v>
+        <v>2754</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2651</v>
+        <v>2754</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2651</v>
+        <v>2754</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2651</v>
+        <v>2754</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2652</v>
+        <v>2755</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2653</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2654</v>
+        <v>2757</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2655</v>
+        <v>2758</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -63246,10 +65377,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2656</v>
+        <v>2759</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -63261,18 +65392,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2658</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2659</v>
+        <v>2762</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2660</v>
+        <v>2763</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2661</v>
+        <v>2764</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -63280,10 +65411,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2662</v>
+        <v>2765</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2663</v>
+        <v>2766</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -63315,10 +65446,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2664</v>
+        <v>2767</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2665</v>
+        <v>2768</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -63350,7 +65481,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2649</v>
+        <v>2752</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -63379,7 +65510,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2656</v>
+        <v>2759</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -63408,7 +65539,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2654</v>
+        <v>2757</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -63431,7 +65562,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2662</v>
+        <v>2765</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -63454,7 +65585,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2666</v>
+        <v>2769</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -63497,16 +65628,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2667</v>
+        <v>2770</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2668</v>
+        <v>2771</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2669</v>
+        <v>2772</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -63536,7 +65667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -63551,7 +65682,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -63566,7 +65697,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -63581,7 +65712,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -63596,7 +65727,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -63611,7 +65742,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -63626,7 +65757,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -63641,7 +65772,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -63656,7 +65787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -63671,7 +65802,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -63686,7 +65817,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -63701,7 +65832,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -63716,7 +65847,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -63731,7 +65862,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -63746,7 +65877,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -63761,7 +65892,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -63777,7 +65908,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -63793,7 +65924,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -63808,7 +65939,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -63823,7 +65954,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -63838,7 +65969,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -63853,7 +65984,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -63868,7 +65999,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -63883,7 +66014,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -63898,7 +66029,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -63913,7 +66044,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -63928,7 +66059,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -63943,7 +66074,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -63958,7 +66089,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -63973,7 +66104,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -63988,7 +66119,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -64003,7 +66134,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -64018,7 +66149,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -64033,7 +66164,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2657</v>
+        <v>2760</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -64048,7 +66179,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -64063,7 +66194,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -64078,7 +66209,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -64090,12 +66221,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -64110,7 +66241,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -64122,12 +66253,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -64142,7 +66273,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -64157,7 +66288,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -64172,7 +66303,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -64184,12 +66315,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -64204,7 +66335,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -64219,7 +66350,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -64234,7 +66365,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -64249,7 +66380,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -64264,7 +66395,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -64279,7 +66410,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -64294,7 +66425,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -64309,7 +66440,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -64324,7 +66455,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -64339,7 +66470,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -64354,7 +66485,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -64369,7 +66500,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -64384,7 +66515,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -64399,7 +66530,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -64414,7 +66545,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -64429,7 +66560,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -64444,7 +66575,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -64459,7 +66590,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -64474,7 +66605,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2670</v>
+        <v>2773</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -64489,7 +66620,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -64504,7 +66635,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -64519,7 +66650,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -64534,7 +66665,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -64549,7 +66680,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -64564,7 +66695,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -64579,7 +66710,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -64594,7 +66725,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -64609,7 +66740,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -64624,7 +66755,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -64639,7 +66770,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -64654,7 +66785,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -64669,7 +66800,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -64684,7 +66815,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -64699,7 +66830,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -64714,7 +66845,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -64729,7 +66860,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -64744,7 +66875,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -64759,7 +66890,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -64774,7 +66905,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -64789,7 +66920,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -64804,7 +66935,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -64819,7 +66950,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -64834,7 +66965,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -64849,7 +66980,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -64864,7 +66995,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -64879,7 +67010,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -64894,7 +67025,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2672</v>
+        <v>2775</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -64909,7 +67040,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -64924,7 +67055,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -64939,7 +67070,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -64954,7 +67085,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -64969,7 +67100,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -64984,7 +67115,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -64999,7 +67130,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -65014,7 +67145,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -65029,7 +67160,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -65044,7 +67175,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -65059,7 +67190,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -65074,7 +67205,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -65089,7 +67220,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -65104,7 +67235,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -65119,7 +67250,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -65134,7 +67265,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -65149,7 +67280,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -65164,7 +67295,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -65179,7 +67310,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -65194,7 +67325,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -65209,7 +67340,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -65224,7 +67355,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2673</v>
+        <v>2776</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -65239,7 +67370,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -65254,7 +67385,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -65269,7 +67400,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -65284,7 +67415,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -65296,12 +67427,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -65316,7 +67447,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -65331,7 +67462,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -65346,7 +67477,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -65361,7 +67492,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -65376,7 +67507,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -65391,7 +67522,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -65406,7 +67537,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -65421,7 +67552,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -65433,12 +67564,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -65453,7 +67584,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -65465,12 +67596,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2671</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -65485,7 +67616,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -65500,7 +67631,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -65515,7 +67646,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -65530,7 +67661,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -65542,12 +67673,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -65559,12 +67690,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -65576,12 +67707,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -65593,12 +67724,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -65610,12 +67741,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -65627,12 +67758,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -65644,12 +67775,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -65661,12 +67792,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -65678,12 +67809,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -65695,12 +67826,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -65712,12 +67843,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -65729,12 +67860,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -65746,12 +67877,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -65763,12 +67894,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -65780,12 +67911,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -65797,12 +67928,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -65814,12 +67945,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -65831,12 +67962,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -65848,12 +67979,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -65865,12 +67996,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -65882,12 +68013,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -65899,12 +68030,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -65916,12 +68047,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2675</v>
+        <v>2778</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -65933,7 +68064,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2676</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="158">
@@ -68485,22 +70616,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2677</v>
+        <v>2780</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2678</v>
+        <v>2781</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2679</v>
+        <v>2782</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2680</v>
+        <v>2783</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2681</v>
+        <v>2784</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2682</v>
+        <v>2785</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -68511,17 +70642,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2683</v>
+        <v>2786</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2656</v>
+        <v>2759</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2684</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="3">
@@ -68529,7 +70660,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2685</v>
+        <v>2788</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -68550,10 +70681,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2686</v>
+        <v>2789</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2662</v>
+        <v>2765</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -68568,7 +70699,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2687</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="5">
@@ -68576,10 +70707,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2688</v>
+        <v>2791</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2666</v>
+        <v>2769</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -68599,10 +70730,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2689</v>
+        <v>2792</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2690</v>
+        <v>2793</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -68622,10 +70753,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2674</v>
+        <v>2777</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2691</v>
+        <v>2794</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -68645,10 +70776,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2692</v>
+        <v>2795</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2693</v>
+        <v>2796</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9254" uniqueCount="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9656" uniqueCount="2930">
   <si>
     <t>Date</t>
   </si>
@@ -8250,6 +8250,405 @@
   </si>
   <si>
     <t>G1475</t>
+  </si>
+  <si>
+    <t>FRD_001</t>
+  </si>
+  <si>
+    <t>G1756</t>
+  </si>
+  <si>
+    <t>FRD_002</t>
+  </si>
+  <si>
+    <t>FRD_003</t>
+  </si>
+  <si>
+    <t>G1757</t>
+  </si>
+  <si>
+    <t>FRD_004</t>
+  </si>
+  <si>
+    <t>FRD_005</t>
+  </si>
+  <si>
+    <t>G1758</t>
+  </si>
+  <si>
+    <t>FRD_006</t>
+  </si>
+  <si>
+    <t>maybe ofav?</t>
+  </si>
+  <si>
+    <t>FRD_007</t>
+  </si>
+  <si>
+    <t>G1766</t>
+  </si>
+  <si>
+    <t>FRD_008</t>
+  </si>
+  <si>
+    <t>G1759</t>
+  </si>
+  <si>
+    <t>FRD_009</t>
+  </si>
+  <si>
+    <t>FRD_010</t>
+  </si>
+  <si>
+    <t>G1767</t>
+  </si>
+  <si>
+    <t>FRD_011</t>
+  </si>
+  <si>
+    <t>FRD_012</t>
+  </si>
+  <si>
+    <t>FRD_013</t>
+  </si>
+  <si>
+    <t>G1760</t>
+  </si>
+  <si>
+    <t>FRD_014</t>
+  </si>
+  <si>
+    <t>G1776</t>
+  </si>
+  <si>
+    <t>FRD_015</t>
+  </si>
+  <si>
+    <t>FRD_016</t>
+  </si>
+  <si>
+    <t>G1768</t>
+  </si>
+  <si>
+    <t>FRD_017</t>
+  </si>
+  <si>
+    <t>FRD_018</t>
+  </si>
+  <si>
+    <t>G1769</t>
+  </si>
+  <si>
+    <t>FRD_019</t>
+  </si>
+  <si>
+    <t>FRD_020</t>
+  </si>
+  <si>
+    <t>FRD_021</t>
+  </si>
+  <si>
+    <t>G1777</t>
+  </si>
+  <si>
+    <t>FRD_022</t>
+  </si>
+  <si>
+    <t>G1770</t>
+  </si>
+  <si>
+    <t>FRD_023</t>
+  </si>
+  <si>
+    <t>G1778</t>
+  </si>
+  <si>
+    <t>FRD_024</t>
+  </si>
+  <si>
+    <t>FRD_025</t>
+  </si>
+  <si>
+    <t>G1786</t>
+  </si>
+  <si>
+    <t>FRD_026</t>
+  </si>
+  <si>
+    <t>FRD_027</t>
+  </si>
+  <si>
+    <t>G1779</t>
+  </si>
+  <si>
+    <t>FRD_028</t>
+  </si>
+  <si>
+    <t>G1780</t>
+  </si>
+  <si>
+    <t>FRD_029</t>
+  </si>
+  <si>
+    <t>G1788</t>
+  </si>
+  <si>
+    <t>FRD_030</t>
+  </si>
+  <si>
+    <t>G1787</t>
+  </si>
+  <si>
+    <t>FRD_031</t>
+  </si>
+  <si>
+    <t>G1485</t>
+  </si>
+  <si>
+    <t>FRD_032</t>
+  </si>
+  <si>
+    <t>FRD_033</t>
+  </si>
+  <si>
+    <t>G1484</t>
+  </si>
+  <si>
+    <t>FRD_034</t>
+  </si>
+  <si>
+    <t>FRD_035</t>
+  </si>
+  <si>
+    <t>FRD_036</t>
+  </si>
+  <si>
+    <t>G1483</t>
+  </si>
+  <si>
+    <t>FRD_037</t>
+  </si>
+  <si>
+    <t>FRD_038</t>
+  </si>
+  <si>
+    <t>FRD_039</t>
+  </si>
+  <si>
+    <t>G1491</t>
+  </si>
+  <si>
+    <t>FRD_040</t>
+  </si>
+  <si>
+    <t>FRD_041</t>
+  </si>
+  <si>
+    <t>FRD_042</t>
+  </si>
+  <si>
+    <t>FRD_043</t>
+  </si>
+  <si>
+    <t>FRD_044</t>
+  </si>
+  <si>
+    <t>G1467</t>
+  </si>
+  <si>
+    <t>FRD_045</t>
+  </si>
+  <si>
+    <t>FRD_046</t>
+  </si>
+  <si>
+    <t>G1476</t>
+  </si>
+  <si>
+    <t>FRD_047</t>
+  </si>
+  <si>
+    <t>G1477</t>
+  </si>
+  <si>
+    <t>FRD_048</t>
+  </si>
+  <si>
+    <t>FRD_049</t>
+  </si>
+  <si>
+    <t>G1486</t>
+  </si>
+  <si>
+    <t>FRD_050</t>
+  </si>
+  <si>
+    <t>G1487</t>
+  </si>
+  <si>
+    <t>FRD_051</t>
+  </si>
+  <si>
+    <t>G1497</t>
+  </si>
+  <si>
+    <t>FRD_052</t>
+  </si>
+  <si>
+    <t>G1496</t>
+  </si>
+  <si>
+    <t>FRD_053</t>
+  </si>
+  <si>
+    <t>G1701</t>
+  </si>
+  <si>
+    <t>FRD_054</t>
+  </si>
+  <si>
+    <t>G1711</t>
+  </si>
+  <si>
+    <t>FRD_055</t>
+  </si>
+  <si>
+    <t>G1703</t>
+  </si>
+  <si>
+    <t>FRD_056</t>
+  </si>
+  <si>
+    <t>FRD_057</t>
+  </si>
+  <si>
+    <t>G1712</t>
+  </si>
+  <si>
+    <t>FRD_058</t>
+  </si>
+  <si>
+    <t>G1721</t>
+  </si>
+  <si>
+    <t>FRD_059</t>
+  </si>
+  <si>
+    <t>G1713</t>
+  </si>
+  <si>
+    <t>FRD_060</t>
+  </si>
+  <si>
+    <t>G1751</t>
+  </si>
+  <si>
+    <t>FRD_061</t>
+  </si>
+  <si>
+    <t>G1752</t>
+  </si>
+  <si>
+    <t>FRD_062</t>
+  </si>
+  <si>
+    <t>G1753</t>
+  </si>
+  <si>
+    <t>FRD_063</t>
+  </si>
+  <si>
+    <t>G1761</t>
+  </si>
+  <si>
+    <t>FRD_064</t>
+  </si>
+  <si>
+    <t>G1754</t>
+  </si>
+  <si>
+    <t>FRD_065</t>
+  </si>
+  <si>
+    <t>G1755</t>
+  </si>
+  <si>
+    <t>FRD_066</t>
+  </si>
+  <si>
+    <t>G1762</t>
+  </si>
+  <si>
+    <t>FRD_067</t>
+  </si>
+  <si>
+    <t>G1763</t>
+  </si>
+  <si>
+    <t>FRD_068</t>
+  </si>
+  <si>
+    <t>G1771</t>
+  </si>
+  <si>
+    <t>FRD_069</t>
+  </si>
+  <si>
+    <t>FRD_070</t>
+  </si>
+  <si>
+    <t>G1764</t>
+  </si>
+  <si>
+    <t>FRD_071</t>
+  </si>
+  <si>
+    <t>G1772</t>
+  </si>
+  <si>
+    <t>FRD_072</t>
+  </si>
+  <si>
+    <t>G1765</t>
+  </si>
+  <si>
+    <t>FRD_073</t>
+  </si>
+  <si>
+    <t>FRD_074</t>
+  </si>
+  <si>
+    <t>G1773</t>
+  </si>
+  <si>
+    <t>FRD_075</t>
+  </si>
+  <si>
+    <t>G1781</t>
+  </si>
+  <si>
+    <t>FRD_076</t>
+  </si>
+  <si>
+    <t>FRD_077</t>
+  </si>
+  <si>
+    <t>G1774</t>
+  </si>
+  <si>
+    <t>FRD_078</t>
+  </si>
+  <si>
+    <t>G1775</t>
+  </si>
+  <si>
+    <t>FRD_079</t>
+  </si>
+  <si>
+    <t>G1782</t>
+  </si>
+  <si>
+    <t>FRD_080</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -63978,324 +64377,2570 @@
       </c>
     </row>
     <row r="1678">
-      <c r="A1678" s="6"/>
-      <c r="B1678" s="7"/>
+      <c r="A1678" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1678" s="7" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C1678" s="7" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1678" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E1678" s="8">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="F1678" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1678" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1678" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1678" s="11">
+        <v>17.7028851862997</v>
+      </c>
+      <c r="K1678" s="11">
+        <v>-64.8902154061943</v>
+      </c>
     </row>
     <row r="1679">
-      <c r="A1679" s="24"/>
-      <c r="B1679" s="7"/>
+      <c r="A1679" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1679" s="7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C1679" s="7" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1679" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E1679" s="8">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="F1679" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1679" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1679" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1679" s="11">
+        <v>17.7028851862997</v>
+      </c>
+      <c r="K1679" s="11">
+        <v>-64.8902154061943</v>
+      </c>
     </row>
     <row r="1680">
-      <c r="A1680" s="24"/>
-      <c r="B1680" s="7"/>
+      <c r="A1680" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1680" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C1680" s="7" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1680" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E1680" s="8">
+        <v>0.5743055555555555</v>
+      </c>
+      <c r="F1680" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1680" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1680" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1680" s="11">
+        <v>17.7028961665928</v>
+      </c>
+      <c r="K1680" s="11">
+        <v>-64.8902123048902</v>
+      </c>
+      <c r="M1680" s="7" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="1681">
-      <c r="A1681" s="24"/>
-      <c r="B1681" s="7"/>
+      <c r="A1681" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1681" s="7" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C1681" s="7" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1681" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E1681" s="8">
+        <v>0.5743055555555555</v>
+      </c>
+      <c r="F1681" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1681" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1681" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1681" s="11">
+        <v>17.7028961665928</v>
+      </c>
+      <c r="K1681" s="11">
+        <v>-64.8902123048902</v>
+      </c>
     </row>
     <row r="1682">
-      <c r="A1682" s="24"/>
-      <c r="B1682" s="7"/>
+      <c r="A1682" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1682" s="7" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C1682" s="7" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D1682" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E1682" s="8">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="F1682" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1682" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1682" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1682" s="11">
+        <v>17.7030066400766</v>
+      </c>
+      <c r="K1682" s="11">
+        <v>-64.8902147356421</v>
+      </c>
     </row>
     <row r="1683">
-      <c r="A1683" s="24"/>
-      <c r="B1683" s="7"/>
+      <c r="A1683" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1683" s="7" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1683" s="7" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D1683" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E1683" s="8">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="F1683" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1683" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1683" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1683" s="11">
+        <v>17.7030066400766</v>
+      </c>
+      <c r="K1683" s="11">
+        <v>-64.8902147356421</v>
+      </c>
+      <c r="M1683" s="7" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="1684">
-      <c r="A1684" s="24"/>
-      <c r="B1684" s="7"/>
+      <c r="A1684" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1684" s="7" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1684" s="7" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1684" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="E1684" s="8">
+        <v>0.5819444444444445</v>
+      </c>
+      <c r="F1684" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1684" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1684" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1684" s="11">
+        <v>17.7030770480633</v>
+      </c>
+      <c r="K1684" s="11">
+        <v>-64.8902054317296</v>
+      </c>
     </row>
     <row r="1685">
-      <c r="A1685" s="24"/>
-      <c r="B1685" s="7"/>
+      <c r="A1685" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1685" s="7" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1685" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D1685" s="7">
+        <v>204.0</v>
+      </c>
+      <c r="E1685" s="8">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F1685" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1685" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1685" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1685" s="11">
+        <v>17.7030545845628</v>
+      </c>
+      <c r="K1685" s="11">
+        <v>-64.8901184275746</v>
+      </c>
     </row>
     <row r="1686">
-      <c r="A1686" s="24"/>
-      <c r="B1686" s="7"/>
+      <c r="A1686" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1686" s="7" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1686" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D1686" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E1686" s="8">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F1686" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1686" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1686" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1686" s="11">
+        <v>17.7030545845628</v>
+      </c>
+      <c r="K1686" s="11">
+        <v>-64.8901184275746</v>
+      </c>
     </row>
     <row r="1687">
-      <c r="A1687" s="24"/>
-      <c r="B1687" s="7"/>
+      <c r="A1687" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1687" s="7" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1687" s="7" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1687" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E1687" s="8">
+        <v>0.5895833333333333</v>
+      </c>
+      <c r="F1687" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1687" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1687" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1687" s="11">
+        <v>17.7031057141721</v>
+      </c>
+      <c r="K1687" s="11">
+        <v>-64.890024298802</v>
+      </c>
     </row>
     <row r="1688">
-      <c r="A1688" s="24"/>
-      <c r="B1688" s="7"/>
+      <c r="A1688" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1688" s="7" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C1688" s="7" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1688" s="7">
+        <v>205.0</v>
+      </c>
+      <c r="E1688" s="8">
+        <v>0.5895833333333333</v>
+      </c>
+      <c r="F1688" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1688" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1688" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1688" s="11">
+        <v>17.7031057141721</v>
+      </c>
+      <c r="K1688" s="11">
+        <v>-64.890024298802</v>
+      </c>
     </row>
     <row r="1689">
-      <c r="A1689" s="24"/>
-      <c r="B1689" s="7"/>
+      <c r="A1689" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1689" s="7" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C1689" s="7" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D1689" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E1689" s="8">
+        <v>0.5895833333333333</v>
+      </c>
+      <c r="F1689" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1689" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1689" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1689" s="11">
+        <v>17.7031057141721</v>
+      </c>
+      <c r="K1689" s="11">
+        <v>-64.890024298802</v>
+      </c>
     </row>
     <row r="1690">
-      <c r="A1690" s="24"/>
-      <c r="B1690" s="7"/>
+      <c r="A1690" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1690" s="7" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1690" s="7" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1690" s="7">
+        <v>207.0</v>
+      </c>
+      <c r="E1690" s="8">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="F1690" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1690" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1690" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1690" s="11">
+        <v>17.7031125035137</v>
+      </c>
+      <c r="K1690" s="11">
+        <v>-64.8900040984154</v>
+      </c>
     </row>
     <row r="1691">
-      <c r="A1691" s="24"/>
-      <c r="B1691" s="7"/>
+      <c r="A1691" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1691" s="7" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1691" s="7" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1691" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E1691" s="8">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F1691" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1691" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1691" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1691" s="11">
+        <v>17.7031077258289</v>
+      </c>
+      <c r="K1691" s="11">
+        <v>-64.890005774796</v>
+      </c>
     </row>
     <row r="1692">
-      <c r="A1692" s="24"/>
-      <c r="B1692" s="7"/>
+      <c r="A1692" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1692" s="7" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1692" s="7" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1692" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E1692" s="8">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F1692" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1692" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1692" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1692" s="11">
+        <v>17.7031077258289</v>
+      </c>
+      <c r="K1692" s="11">
+        <v>-64.890005774796</v>
+      </c>
     </row>
     <row r="1693">
-      <c r="A1693" s="24"/>
-      <c r="B1693" s="7"/>
+      <c r="A1693" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1693" s="7" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C1693" s="7" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D1693" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E1693" s="8">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="F1693" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1693" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1693" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1693" s="11">
+        <v>17.703147623688</v>
+      </c>
+      <c r="K1693" s="11">
+        <v>-64.8900194372982</v>
+      </c>
     </row>
     <row r="1694">
-      <c r="A1694" s="24"/>
-      <c r="B1694" s="7"/>
+      <c r="A1694" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1694" s="7" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1694" s="7" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D1694" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E1694" s="8">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="F1694" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1694" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1694" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1694" s="11">
+        <v>17.703147623688</v>
+      </c>
+      <c r="K1694" s="11">
+        <v>-64.8900194372982</v>
+      </c>
     </row>
     <row r="1695">
-      <c r="A1695" s="24"/>
-      <c r="B1695" s="7"/>
+      <c r="A1695" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1695" s="7" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1695" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1695" s="7">
+        <v>208.0</v>
+      </c>
+      <c r="E1695" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1695" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1695" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1695" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1695" s="11">
+        <v>17.7031849231571</v>
+      </c>
+      <c r="K1695" s="11">
+        <v>-64.8900238797069</v>
+      </c>
     </row>
     <row r="1696">
-      <c r="A1696" s="24"/>
-      <c r="B1696" s="7"/>
+      <c r="A1696" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1696" s="7" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1696" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1696" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E1696" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1696" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1696" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1696" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1696" s="11">
+        <v>17.7031849231571</v>
+      </c>
+      <c r="K1696" s="11">
+        <v>-64.8900238797069</v>
+      </c>
     </row>
     <row r="1697">
-      <c r="A1697" s="24"/>
-      <c r="B1697" s="7"/>
+      <c r="A1697" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1697" s="7" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1697" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1697" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E1697" s="8">
+        <v>0.6013888888888889</v>
+      </c>
+      <c r="F1697" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1697" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1697" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1697" s="11">
+        <v>17.7031849231571</v>
+      </c>
+      <c r="K1697" s="11">
+        <v>-64.8900238797069</v>
+      </c>
     </row>
     <row r="1698">
-      <c r="A1698" s="24"/>
-      <c r="B1698" s="7"/>
+      <c r="A1698" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1698" s="7" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1698" s="7" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D1698" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="E1698" s="8">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="F1698" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1698" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1698" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1698" s="11">
+        <v>17.7032197080553</v>
+      </c>
+      <c r="K1698" s="11">
+        <v>-64.8900341056287</v>
+      </c>
     </row>
     <row r="1699">
-      <c r="A1699" s="24"/>
-      <c r="B1699" s="7"/>
+      <c r="A1699" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1699" s="7" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C1699" s="7" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D1699" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="E1699" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1699" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1699" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1699" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1699" s="11">
+        <v>17.7032253239304</v>
+      </c>
+      <c r="K1699" s="11">
+        <v>-64.8900387156755</v>
+      </c>
     </row>
     <row r="1700">
-      <c r="A1700" s="24"/>
-      <c r="B1700" s="7"/>
+      <c r="A1700" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1700" s="7" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1700" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D1700" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E1700" s="8">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="F1700" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1700" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1700" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1700" s="11">
+        <v>17.7032332029194</v>
+      </c>
+      <c r="K1700" s="11">
+        <v>-64.8900564853102</v>
+      </c>
     </row>
     <row r="1701">
-      <c r="A1701" s="24"/>
-      <c r="B1701" s="7"/>
+      <c r="A1701" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1701" s="7" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1701" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D1701" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E1701" s="8">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="F1701" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1701" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1701" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1701" s="11">
+        <v>17.7032332029194</v>
+      </c>
+      <c r="K1701" s="11">
+        <v>-64.8900564853102</v>
+      </c>
     </row>
     <row r="1702">
-      <c r="A1702" s="24"/>
-      <c r="B1702" s="7"/>
+      <c r="A1702" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1702" s="7" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C1702" s="7" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D1702" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E1702" s="8">
+        <v>0.6125</v>
+      </c>
+      <c r="F1702" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1702" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1702" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1702" s="11">
+        <v>17.703245440498</v>
+      </c>
+      <c r="K1702" s="11">
+        <v>-64.8900279868394</v>
+      </c>
     </row>
     <row r="1703">
-      <c r="A1703" s="24"/>
-      <c r="B1703" s="7"/>
+      <c r="A1703" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1703" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C1703" s="7" t="s">
+        <v>2784</v>
+      </c>
+      <c r="D1703" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E1703" s="8">
+        <v>0.6125</v>
+      </c>
+      <c r="F1703" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1703" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1703" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1703" s="11">
+        <v>17.703245440498</v>
+      </c>
+      <c r="K1703" s="11">
+        <v>-64.8900279868394</v>
+      </c>
     </row>
     <row r="1704">
-      <c r="A1704" s="24"/>
-      <c r="B1704" s="7"/>
+      <c r="A1704" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1704" s="7" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C1704" s="7" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D1704" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E1704" s="8">
+        <v>0.6194444444444445</v>
+      </c>
+      <c r="F1704" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1704" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1704" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1704" s="11">
+        <v>17.7033555787057</v>
+      </c>
+      <c r="K1704" s="11">
+        <v>-64.8901078663766</v>
+      </c>
     </row>
     <row r="1705">
-      <c r="A1705" s="24"/>
-      <c r="B1705" s="7"/>
+      <c r="A1705" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1705" s="7" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C1705" s="7" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D1705" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E1705" s="8">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F1705" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1705" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1705" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1705" s="11">
+        <v>17.703409222886</v>
+      </c>
+      <c r="K1705" s="11">
+        <v>-64.8902216926217</v>
+      </c>
     </row>
     <row r="1706">
-      <c r="A1706" s="24"/>
-      <c r="B1706" s="7"/>
+      <c r="A1706" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1706" s="7" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1706" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1706" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E1706" s="8">
+        <v>0.6256944444444444</v>
+      </c>
+      <c r="F1706" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1706" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1706" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1706" s="11">
+        <v>17.7035750169307</v>
+      </c>
+      <c r="K1706" s="11">
+        <v>-64.8903605807573</v>
+      </c>
     </row>
     <row r="1707">
-      <c r="A1707" s="24"/>
-      <c r="B1707" s="7"/>
+      <c r="A1707" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1707" s="7" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1707" s="7" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1707" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E1707" s="8">
+        <v>0.6305555555555555</v>
+      </c>
+      <c r="F1707" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1707" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1707" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1707" s="11">
+        <v>17.7038333471864</v>
+      </c>
+      <c r="K1707" s="11">
+        <v>-64.8903537914157</v>
+      </c>
     </row>
     <row r="1708">
-      <c r="A1708" s="24"/>
-      <c r="B1708" s="7"/>
+      <c r="A1708" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1708" s="7" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C1708" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D1708" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E1708" s="8">
+        <v>0.5736111111111111</v>
+      </c>
+      <c r="F1708" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1708" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1708" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1708" s="11">
+        <v>17.7028851024807</v>
+      </c>
+      <c r="K1708" s="11">
+        <v>-64.8902153223753</v>
+      </c>
     </row>
     <row r="1709">
-      <c r="A1709" s="24"/>
-      <c r="B1709" s="7"/>
+      <c r="A1709" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1709" s="7" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1709" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D1709" s="7">
+        <v>219.0</v>
+      </c>
+      <c r="E1709" s="8">
+        <v>0.5736111111111111</v>
+      </c>
+      <c r="F1709" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1709" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1709" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1709" s="11">
+        <v>17.7028851024807</v>
+      </c>
+      <c r="K1709" s="11">
+        <v>-64.8902153223753</v>
+      </c>
     </row>
     <row r="1710">
-      <c r="A1710" s="24"/>
-      <c r="B1710" s="7"/>
+      <c r="A1710" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1710" s="7" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C1710" s="7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D1710" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E1710" s="8">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="F1710" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1710" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1710" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1710" s="11">
+        <v>17.7028840128332</v>
+      </c>
+      <c r="K1710" s="11">
+        <v>-64.8902113828808</v>
+      </c>
     </row>
     <row r="1711">
-      <c r="A1711" s="24"/>
-      <c r="B1711" s="7"/>
+      <c r="A1711" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1711" s="7" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1711" s="7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D1711" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E1711" s="8">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="F1711" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1711" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1711" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1711" s="11">
+        <v>17.7028840128332</v>
+      </c>
+      <c r="K1711" s="11">
+        <v>-64.8902113828808</v>
+      </c>
     </row>
     <row r="1712">
-      <c r="A1712" s="24"/>
-      <c r="B1712" s="7"/>
+      <c r="A1712" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1712" s="7" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1712" s="7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D1712" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="E1712" s="8">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="F1712" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1712" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1712" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1712" s="11">
+        <v>17.7028840128332</v>
+      </c>
+      <c r="K1712" s="11">
+        <v>-64.8902113828808</v>
+      </c>
     </row>
     <row r="1713">
-      <c r="A1713" s="24"/>
-      <c r="B1713" s="7"/>
+      <c r="A1713" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1713" s="7" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1713" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1713" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E1713" s="8">
+        <v>0.5819444444444445</v>
+      </c>
+      <c r="F1713" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1713" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1713" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1713" s="11">
+        <v>17.7030770480633</v>
+      </c>
+      <c r="K1713" s="11">
+        <v>-64.8902054317296</v>
+      </c>
     </row>
     <row r="1714">
-      <c r="A1714" s="24"/>
-      <c r="B1714" s="7"/>
+      <c r="A1714" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1714" s="7" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1714" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1714" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E1714" s="8">
+        <v>0.5819444444444445</v>
+      </c>
+      <c r="F1714" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1714" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1714" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1714" s="11">
+        <v>17.7030770480633</v>
+      </c>
+      <c r="K1714" s="11">
+        <v>-64.8902054317296</v>
+      </c>
     </row>
     <row r="1715">
-      <c r="A1715" s="24"/>
-      <c r="B1715" s="7"/>
+      <c r="A1715" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1715" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1715" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1715" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E1715" s="8">
+        <v>0.5819444444444445</v>
+      </c>
+      <c r="F1715" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1715" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1715" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1715" s="11">
+        <v>17.7030770480633</v>
+      </c>
+      <c r="K1715" s="11">
+        <v>-64.8902054317296</v>
+      </c>
     </row>
     <row r="1716">
-      <c r="A1716" s="24"/>
-      <c r="B1716" s="7"/>
+      <c r="A1716" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1716" s="7" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1716" s="7" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1716" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="E1716" s="8">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F1716" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1716" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1716" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1716" s="11">
+        <v>17.7030905429274</v>
+      </c>
+      <c r="K1716" s="11">
+        <v>-64.8900439124554</v>
+      </c>
     </row>
     <row r="1717">
-      <c r="A1717" s="24"/>
-      <c r="B1717" s="7"/>
+      <c r="A1717" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1717" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C1717" s="7" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1717" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="E1717" s="8">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F1717" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1717" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1717" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1717" s="11">
+        <v>17.7030905429274</v>
+      </c>
+      <c r="K1717" s="11">
+        <v>-64.8900439124554</v>
+      </c>
     </row>
     <row r="1718">
-      <c r="A1718" s="24"/>
-      <c r="B1718" s="7"/>
+      <c r="A1718" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1718" s="7" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C1718" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1718" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E1718" s="8">
+        <v>0.5923611111111111</v>
+      </c>
+      <c r="F1718" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1718" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1718" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1718" s="11">
+        <v>17.7031195443124</v>
+      </c>
+      <c r="K1718" s="11">
+        <v>-64.890024131164</v>
+      </c>
     </row>
     <row r="1719">
-      <c r="A1719" s="24"/>
-      <c r="B1719" s="7"/>
+      <c r="A1719" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1719" s="7" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1719" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1719" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E1719" s="8">
+        <v>0.5923611111111111</v>
+      </c>
+      <c r="F1719" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1719" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1719" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1719" s="11">
+        <v>17.7031195443124</v>
+      </c>
+      <c r="K1719" s="11">
+        <v>-64.890024131164</v>
+      </c>
     </row>
     <row r="1720">
-      <c r="A1720" s="24"/>
-      <c r="B1720" s="7"/>
+      <c r="A1720" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1720" s="7" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C1720" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1720" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E1720" s="8">
+        <v>0.5923611111111111</v>
+      </c>
+      <c r="F1720" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1720" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1720" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1720" s="11">
+        <v>17.7031195443124</v>
+      </c>
+      <c r="K1720" s="11">
+        <v>-64.890024131164</v>
+      </c>
     </row>
     <row r="1721">
-      <c r="A1721" s="24"/>
-      <c r="B1721" s="7"/>
+      <c r="A1721" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1721" s="7" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1721" s="7" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1721" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E1721" s="8">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F1721" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1721" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1721" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1721" s="11">
+        <v>17.7031077258289</v>
+      </c>
+      <c r="K1721" s="11">
+        <v>-64.890005774796</v>
+      </c>
     </row>
     <row r="1722">
-      <c r="A1722" s="24"/>
-      <c r="B1722" s="7"/>
+      <c r="A1722" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1722" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C1722" s="7" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1722" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E1722" s="8">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F1722" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1722" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1722" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1722" s="11">
+        <v>17.7031077258289</v>
+      </c>
+      <c r="K1722" s="11">
+        <v>-64.890005774796</v>
+      </c>
     </row>
     <row r="1723">
-      <c r="A1723" s="24"/>
-      <c r="B1723" s="7"/>
+      <c r="A1723" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1723" s="7" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C1723" s="7" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1723" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E1723" s="8">
+        <v>0.5979166666666667</v>
+      </c>
+      <c r="F1723" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1723" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1723" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1723" s="11">
+        <v>17.703147623688</v>
+      </c>
+      <c r="K1723" s="11">
+        <v>-64.8900194372982</v>
+      </c>
     </row>
     <row r="1724">
-      <c r="A1724" s="24"/>
-      <c r="B1724" s="7"/>
+      <c r="A1724" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1724" s="7" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C1724" s="7" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D1724" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E1724" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F1724" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1724" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1724" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1724" s="11">
+        <v>17.7031747810543</v>
+      </c>
+      <c r="K1724" s="11">
+        <v>-64.8900222871453</v>
+      </c>
     </row>
     <row r="1725">
-      <c r="A1725" s="24"/>
-      <c r="B1725" s="7"/>
+      <c r="A1725" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1725" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C1725" s="7" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D1725" s="7">
+        <v>216.0</v>
+      </c>
+      <c r="E1725" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F1725" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1725" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1725" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1725" s="11">
+        <v>17.7031747810543</v>
+      </c>
+      <c r="K1725" s="11">
+        <v>-64.8900222871453</v>
+      </c>
     </row>
     <row r="1726">
-      <c r="A1726" s="24"/>
-      <c r="B1726" s="7"/>
+      <c r="A1726" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1726" s="7" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C1726" s="7" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D1726" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E1726" s="8">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F1726" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1726" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1726" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1726" s="11">
+        <v>17.7032130863518</v>
+      </c>
+      <c r="K1726" s="11">
+        <v>-64.8900377098471</v>
+      </c>
     </row>
     <row r="1727">
-      <c r="A1727" s="24"/>
-      <c r="B1727" s="7"/>
+      <c r="A1727" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1727" s="7" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1727" s="7" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D1727" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="E1727" s="8">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="F1727" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1727" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1727" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1727" s="11">
+        <v>17.7032060455531</v>
+      </c>
+      <c r="K1727" s="11">
+        <v>-64.890029495582</v>
+      </c>
     </row>
     <row r="1728">
-      <c r="A1728" s="24"/>
-      <c r="B1728" s="7"/>
+      <c r="A1728" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1728" s="7" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1728" s="7" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1728" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E1728" s="8">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="F1728" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1728" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1728" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1728" s="11">
+        <v>17.7032310236245</v>
+      </c>
+      <c r="K1728" s="11">
+        <v>-64.8900523781776</v>
+      </c>
     </row>
     <row r="1729">
-      <c r="A1729" s="24"/>
-      <c r="B1729" s="7"/>
+      <c r="A1729" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1729" s="7" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1729" s="7" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1729" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E1729" s="8">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="F1729" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1729" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1729" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1729" s="11">
+        <v>17.7032332029194</v>
+      </c>
+      <c r="K1729" s="11">
+        <v>-64.8900564853102</v>
+      </c>
     </row>
     <row r="1730">
-      <c r="A1730" s="24"/>
-      <c r="B1730" s="7"/>
+      <c r="A1730" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1730" s="7" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1730" s="7" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D1730" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E1730" s="8">
+        <v>0.6125</v>
+      </c>
+      <c r="F1730" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1730" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1730" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1730" s="11">
+        <v>17.703245440498</v>
+      </c>
+      <c r="K1730" s="11">
+        <v>-64.8900279868394</v>
+      </c>
     </row>
     <row r="1731">
-      <c r="A1731" s="24"/>
-      <c r="B1731" s="7"/>
+      <c r="A1731" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1731" s="7" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1731" s="7" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D1731" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="E1731" s="8">
+        <v>0.6138888888888889</v>
+      </c>
+      <c r="F1731" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1731" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1731" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1731" s="11">
+        <v>17.7032352145761</v>
+      </c>
+      <c r="K1731" s="11">
+        <v>-64.8900328483433</v>
+      </c>
     </row>
     <row r="1732">
-      <c r="A1732" s="24"/>
-      <c r="B1732" s="7"/>
+      <c r="A1732" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1732" s="7" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C1732" s="7" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D1732" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E1732" s="8">
+        <v>0.61875</v>
+      </c>
+      <c r="F1732" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1732" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1732" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1732" s="11">
+        <v>17.7033461071551</v>
+      </c>
+      <c r="K1732" s="11">
+        <v>-64.8900919407606</v>
+      </c>
     </row>
     <row r="1733">
-      <c r="A1733" s="24"/>
-      <c r="B1733" s="7"/>
+      <c r="A1733" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1733" s="7" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C1733" s="7" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D1733" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E1733" s="8">
+        <v>0.61875</v>
+      </c>
+      <c r="F1733" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1733" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1733" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1733" s="11">
+        <v>17.7033461071551</v>
+      </c>
+      <c r="K1733" s="11">
+        <v>-64.8900919407606</v>
+      </c>
     </row>
     <row r="1734">
-      <c r="A1734" s="24"/>
-      <c r="B1734" s="7"/>
+      <c r="A1734" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1734" s="7" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C1734" s="7" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1734" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E1734" s="8">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F1734" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1734" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1734" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1734" s="11">
+        <v>17.703409222886</v>
+      </c>
+      <c r="K1734" s="11">
+        <v>-64.8902216926217</v>
+      </c>
     </row>
     <row r="1735">
-      <c r="A1735" s="24"/>
-      <c r="B1735" s="7"/>
+      <c r="A1735" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1735" s="7" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1735" s="7" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1735" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E1735" s="8">
+        <v>0.6236111111111111</v>
+      </c>
+      <c r="F1735" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1735" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1735" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1735" s="11">
+        <v>17.7035517990589</v>
+      </c>
+      <c r="K1735" s="11">
+        <v>-64.8902995605022</v>
+      </c>
     </row>
     <row r="1736">
-      <c r="A1736" s="24"/>
-      <c r="B1736" s="7"/>
+      <c r="A1736" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1736" s="7" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1736" s="7" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1736" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E1736" s="8">
+        <v>0.6291666666666667</v>
+      </c>
+      <c r="F1736" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1736" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1736" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1736" s="11">
+        <v>17.7038496080786</v>
+      </c>
+      <c r="K1736" s="11">
+        <v>-64.8902876581997</v>
+      </c>
     </row>
     <row r="1737">
-      <c r="A1737" s="24"/>
-      <c r="B1737" s="7"/>
+      <c r="A1737" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1737" s="7" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1737" s="7" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1737" s="7">
+        <v>217.0</v>
+      </c>
+      <c r="E1737" s="8">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="F1737" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1737" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1737" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1737" s="11">
+        <v>17.7028851862997</v>
+      </c>
+      <c r="K1737" s="11">
+        <v>-64.8902154061943</v>
+      </c>
     </row>
     <row r="1738">
-      <c r="A1738" s="24"/>
-      <c r="B1738" s="7"/>
+      <c r="A1738" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1738" s="7" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1738" s="7" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1738" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="E1738" s="8">
+        <v>0.5736111111111111</v>
+      </c>
+      <c r="F1738" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1738" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1738" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1738" s="11">
+        <v>17.7028851024807</v>
+      </c>
+      <c r="K1738" s="11">
+        <v>-64.8902153223753</v>
+      </c>
     </row>
     <row r="1739">
-      <c r="A1739" s="24"/>
-      <c r="B1739" s="7"/>
+      <c r="A1739" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1739" s="7" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1739" s="7" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1739" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E1739" s="8">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F1739" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1739" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1739" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1739" s="11">
+        <v>17.7028635609895</v>
+      </c>
+      <c r="K1739" s="11">
+        <v>-64.8902331758291</v>
+      </c>
     </row>
     <row r="1740">
-      <c r="A1740" s="24"/>
-      <c r="B1740" s="7"/>
+      <c r="A1740" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1740" s="7" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1740" s="7" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1740" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E1740" s="8">
+        <v>0.5791666666666667</v>
+      </c>
+      <c r="F1740" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1740" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1740" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1740" s="11">
+        <v>17.7030772157013</v>
+      </c>
+      <c r="K1740" s="11">
+        <v>-64.8901719041169</v>
+      </c>
     </row>
     <row r="1741">
-      <c r="A1741" s="24"/>
-      <c r="B1741" s="7"/>
+      <c r="A1741" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1741" s="7" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1741" s="7" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1741" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E1741" s="8">
+        <v>0.58125</v>
+      </c>
+      <c r="F1741" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1741" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1741" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1741" s="11">
+        <v>17.7030820772052</v>
+      </c>
+      <c r="K1741" s="11">
+        <v>-64.8902136459947</v>
+      </c>
     </row>
     <row r="1742">
-      <c r="A1742" s="24"/>
-      <c r="B1742" s="7"/>
+      <c r="A1742" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1742" s="7" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C1742" s="7" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D1742" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E1742" s="8">
+        <v>0.5840277777777778</v>
+      </c>
+      <c r="F1742" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1742" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1742" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1742" s="11">
+        <v>17.7030534949154</v>
+      </c>
+      <c r="K1742" s="11">
+        <v>-64.890124797821</v>
+      </c>
     </row>
     <row r="1743">
-      <c r="A1743" s="24"/>
-      <c r="B1743" s="7"/>
+      <c r="A1743" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1743" s="7" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1743" s="7" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D1743" s="7">
+        <v>160.0</v>
+      </c>
+      <c r="E1743" s="8">
+        <v>0.5861111111111111</v>
+      </c>
+      <c r="F1743" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1743" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1743" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1743" s="11">
+        <v>17.7030945662409</v>
+      </c>
+      <c r="K1743" s="11">
+        <v>-64.8900393024087</v>
+      </c>
     </row>
     <row r="1744">
-      <c r="A1744" s="24"/>
-      <c r="B1744" s="7"/>
+      <c r="A1744" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1744" s="7" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1744" s="7" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1744" s="7">
+        <v>161.0</v>
+      </c>
+      <c r="E1744" s="8">
+        <v>0.5881944444444445</v>
+      </c>
+      <c r="F1744" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1744" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1744" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1744" s="11">
+        <v>17.7031004335731</v>
+      </c>
+      <c r="K1744" s="11">
+        <v>-64.8900345247239</v>
+      </c>
     </row>
     <row r="1745">
-      <c r="A1745" s="24"/>
-      <c r="B1745" s="7"/>
+      <c r="A1745" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1745" s="7" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1745" s="7" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1745" s="7">
+        <v>162.0</v>
+      </c>
+      <c r="E1745" s="8">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="F1745" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1745" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1745" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1745" s="11">
+        <v>17.703113425523</v>
+      </c>
+      <c r="K1745" s="11">
+        <v>-64.8900305852294</v>
+      </c>
     </row>
     <row r="1746">
-      <c r="A1746" s="24"/>
-      <c r="B1746" s="7"/>
+      <c r="A1746" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1746" s="7" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1746" s="7" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1746" s="7">
+        <v>163.0</v>
+      </c>
+      <c r="E1746" s="8">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="F1746" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1746" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1746" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1746" s="11">
+        <v>17.703113425523</v>
+      </c>
+      <c r="K1746" s="11">
+        <v>-64.8900305852294</v>
+      </c>
     </row>
     <row r="1747">
-      <c r="A1747" s="24"/>
-      <c r="B1747" s="7"/>
+      <c r="A1747" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1747" s="7" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1747" s="7" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1747" s="7">
+        <v>164.0</v>
+      </c>
+      <c r="E1747" s="8">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="F1747" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1747" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1747" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1747" s="11">
+        <v>17.7031125035137</v>
+      </c>
+      <c r="K1747" s="11">
+        <v>-64.8900040984154</v>
+      </c>
     </row>
     <row r="1748">
-      <c r="A1748" s="24"/>
-      <c r="B1748" s="7"/>
+      <c r="A1748" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1748" s="7" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C1748" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1748" s="7">
+        <v>165.0</v>
+      </c>
+      <c r="E1748" s="8">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F1748" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1748" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1748" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1748" s="11">
+        <v>17.7031077258289</v>
+      </c>
+      <c r="K1748" s="11">
+        <v>-64.890005774796</v>
+      </c>
     </row>
     <row r="1749">
-      <c r="A1749" s="24"/>
-      <c r="B1749" s="7"/>
+      <c r="A1749" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1749" s="7" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1749" s="7" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1749" s="7">
+        <v>166.0</v>
+      </c>
+      <c r="E1749" s="8">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="F1749" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1749" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1749" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1749" s="11">
+        <v>17.7031486295164</v>
+      </c>
+      <c r="K1749" s="11">
+        <v>-64.8900139890611</v>
+      </c>
     </row>
     <row r="1750">
-      <c r="A1750" s="24"/>
-      <c r="B1750" s="7"/>
+      <c r="A1750" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1750" s="7" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1750" s="7" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1750" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="E1750" s="8">
+        <v>0.5986111111111111</v>
+      </c>
+      <c r="F1750" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1750" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1750" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1750" s="11">
+        <v>17.7031534072012</v>
+      </c>
+      <c r="K1750" s="11">
+        <v>-64.8900198563933</v>
+      </c>
     </row>
     <row r="1751">
-      <c r="A1751" s="24"/>
-      <c r="B1751" s="7"/>
+      <c r="A1751" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1751" s="7" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C1751" s="7" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1751" s="7">
+        <v>168.0</v>
+      </c>
+      <c r="E1751" s="8">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="F1751" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1751" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1751" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1751" s="11">
+        <v>17.7032022736967</v>
+      </c>
+      <c r="K1751" s="11">
+        <v>-64.8900370392948</v>
+      </c>
     </row>
     <row r="1752">
-      <c r="A1752" s="24"/>
-      <c r="B1752" s="7"/>
+      <c r="A1752" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1752" s="7" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1752" s="7" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1752" s="7">
+        <v>169.0</v>
+      </c>
+      <c r="E1752" s="8">
+        <v>0.6034722222222222</v>
+      </c>
+      <c r="F1752" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1752" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1752" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1752" s="11">
+        <v>17.7032145112753</v>
+      </c>
+      <c r="K1752" s="11">
+        <v>-64.890032177791</v>
+      </c>
     </row>
     <row r="1753">
-      <c r="A1753" s="24"/>
-      <c r="B1753" s="7"/>
+      <c r="A1753" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1753" s="7" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C1753" s="7" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1753" s="7">
+        <v>170.0</v>
+      </c>
+      <c r="E1753" s="8">
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="F1753" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1753" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1753" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1753" s="11">
+        <v>17.7032060455531</v>
+      </c>
+      <c r="K1753" s="11">
+        <v>-64.890029495582</v>
+      </c>
     </row>
     <row r="1754">
-      <c r="A1754" s="24"/>
-      <c r="B1754" s="7"/>
+      <c r="A1754" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1754" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1754" s="7" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D1754" s="7">
+        <v>171.0</v>
+      </c>
+      <c r="E1754" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F1754" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1754" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1754" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1754" s="11">
+        <v>17.7032253239304</v>
+      </c>
+      <c r="K1754" s="11">
+        <v>-64.8900387156755</v>
+      </c>
     </row>
     <row r="1755">
-      <c r="A1755" s="24"/>
-      <c r="B1755" s="7"/>
+      <c r="A1755" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1755" s="7" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1755" s="7" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1755" s="7">
+        <v>172.0</v>
+      </c>
+      <c r="E1755" s="8">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="F1755" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1755" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1755" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1755" s="11">
+        <v>17.7032347116619</v>
+      </c>
+      <c r="K1755" s="11">
+        <v>-64.8900458402932</v>
+      </c>
     </row>
     <row r="1756">
-      <c r="A1756" s="24"/>
-      <c r="B1756" s="7"/>
+      <c r="A1756" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1756" s="7" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C1756" s="7" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1756" s="7">
+        <v>173.0</v>
+      </c>
+      <c r="E1756" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F1756" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1756" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1756" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1756" s="11">
+        <v>17.7032379806042</v>
+      </c>
+      <c r="K1756" s="11">
+        <v>-64.8900333512574</v>
+      </c>
     </row>
     <row r="1757">
-      <c r="A1757" s="24"/>
-      <c r="B1757" s="7"/>
+      <c r="A1757" s="6">
+        <v>44741.0</v>
+      </c>
+      <c r="B1757" s="7" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1757" s="7" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1757" s="7">
+        <v>174.0</v>
+      </c>
+      <c r="E1757" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F1757" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1757" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1757" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J1757" s="11">
+        <v>17.7032379806042</v>
+      </c>
+      <c r="K1757" s="11">
+        <v>-64.8900333512574</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="24"/>
@@ -65278,19 +67923,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2745</v>
+        <v>2878</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2746</v>
+        <v>2879</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2747</v>
+        <v>2880</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2748</v>
+        <v>2881</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2749</v>
+        <v>2882</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -65314,21 +67959,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>2750</v>
+        <v>2883</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>2751</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2752</v>
+        <v>2885</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2753</v>
+        <v>2886</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -65340,33 +67985,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>2754</v>
+        <v>2887</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>2754</v>
+        <v>2887</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2754</v>
+        <v>2887</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>2754</v>
+        <v>2887</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2754</v>
+        <v>2887</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2755</v>
+        <v>2888</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2756</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2757</v>
+        <v>2890</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2758</v>
+        <v>2891</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -65377,10 +68022,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2759</v>
+        <v>2892</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -65392,18 +68037,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2761</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2762</v>
+        <v>2895</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2763</v>
+        <v>2896</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2764</v>
+        <v>2897</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -65411,10 +68056,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2765</v>
+        <v>2898</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2766</v>
+        <v>2899</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -65446,10 +68091,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2767</v>
+        <v>2900</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2768</v>
+        <v>2901</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -65481,7 +68126,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2752</v>
+        <v>2885</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -65510,7 +68155,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2759</v>
+        <v>2892</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -65539,7 +68184,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2757</v>
+        <v>2890</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -65562,7 +68207,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2765</v>
+        <v>2898</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -65585,7 +68230,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2769</v>
+        <v>2902</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -65628,16 +68273,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>2770</v>
+        <v>2903</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2771</v>
+        <v>2904</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2772</v>
+        <v>2905</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>12</v>
@@ -65667,7 +68312,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -65682,7 +68327,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -65697,7 +68342,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -65712,7 +68357,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -65727,7 +68372,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -65742,7 +68387,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -65757,7 +68402,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -65772,7 +68417,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -65787,7 +68432,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -65802,7 +68447,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -65817,7 +68462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -65832,7 +68477,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -65847,7 +68492,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -65862,7 +68507,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -65877,7 +68522,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -65892,7 +68537,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -65908,7 +68553,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -65924,7 +68569,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -65939,7 +68584,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -65954,7 +68599,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -65969,7 +68614,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -65984,7 +68629,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -65999,7 +68644,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -66014,7 +68659,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -66029,7 +68674,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -66044,7 +68689,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -66059,7 +68704,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -66074,7 +68719,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -66089,7 +68734,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -66104,7 +68749,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -66119,7 +68764,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -66134,7 +68779,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -66149,7 +68794,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -66164,7 +68809,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>2760</v>
+        <v>2893</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -66179,7 +68824,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -66194,7 +68839,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -66209,7 +68854,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -66221,12 +68866,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -66241,7 +68886,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -66253,12 +68898,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -66273,7 +68918,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -66288,7 +68933,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -66303,7 +68948,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -66315,12 +68960,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -66335,7 +68980,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -66350,7 +68995,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -66365,7 +69010,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -66380,7 +69025,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -66395,7 +69040,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -66410,7 +69055,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -66425,7 +69070,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -66440,7 +69085,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -66455,7 +69100,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -66470,7 +69115,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -66485,7 +69130,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -66500,7 +69145,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -66515,7 +69160,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -66530,7 +69175,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -66545,7 +69190,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -66560,7 +69205,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -66575,7 +69220,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -66590,7 +69235,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -66605,7 +69250,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>2773</v>
+        <v>2906</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -66620,7 +69265,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -66635,7 +69280,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -66650,7 +69295,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -66665,7 +69310,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -66680,7 +69325,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -66695,7 +69340,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -66710,7 +69355,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -66725,7 +69370,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -66740,7 +69385,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -66755,7 +69400,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -66770,7 +69415,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -66785,7 +69430,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -66800,7 +69445,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -66815,7 +69460,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -66830,7 +69475,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -66845,7 +69490,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -66860,7 +69505,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -66875,7 +69520,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -66890,7 +69535,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -66905,7 +69550,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -66920,7 +69565,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -66935,7 +69580,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -66950,7 +69595,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -66965,7 +69610,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -66980,7 +69625,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -66995,7 +69640,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -67010,7 +69655,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -67025,7 +69670,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>2775</v>
+        <v>2908</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -67040,7 +69685,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -67055,7 +69700,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -67070,7 +69715,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -67085,7 +69730,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -67100,7 +69745,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -67115,7 +69760,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -67130,7 +69775,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -67145,7 +69790,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -67160,7 +69805,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -67175,7 +69820,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -67190,7 +69835,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -67205,7 +69850,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -67220,7 +69865,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -67235,7 +69880,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -67250,7 +69895,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -67265,7 +69910,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -67280,7 +69925,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -67295,7 +69940,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -67310,7 +69955,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -67325,7 +69970,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -67340,7 +69985,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -67355,7 +70000,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>2776</v>
+        <v>2909</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -67370,7 +70015,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -67385,7 +70030,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -67400,7 +70045,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -67415,7 +70060,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -67427,12 +70072,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -67447,7 +70092,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -67462,7 +70107,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -67477,7 +70122,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -67492,7 +70137,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -67507,7 +70152,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -67522,7 +70167,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -67537,7 +70182,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -67552,7 +70197,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -67564,12 +70209,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -67584,7 +70229,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -67596,12 +70241,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>2774</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -67616,7 +70261,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -67631,7 +70276,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -67646,7 +70291,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -67661,7 +70306,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -67673,12 +70318,12 @@
         <v>1298</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -67690,12 +70335,12 @@
         <v>1300</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -67707,12 +70352,12 @@
         <v>1302</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -67724,12 +70369,12 @@
         <v>1304</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -67741,12 +70386,12 @@
         <v>1306</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -67758,12 +70403,12 @@
         <v>1309</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -67775,12 +70420,12 @@
         <v>1312</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -67792,12 +70437,12 @@
         <v>1315</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -67809,12 +70454,12 @@
         <v>1318</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -67826,12 +70471,12 @@
         <v>1321</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -67843,12 +70488,12 @@
         <v>1323</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -67860,12 +70505,12 @@
         <v>1325</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -67877,12 +70522,12 @@
         <v>1327</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -67894,12 +70539,12 @@
         <v>1329</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -67911,12 +70556,12 @@
         <v>1331</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -67928,12 +70573,12 @@
         <v>1333</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -67945,12 +70590,12 @@
         <v>1335</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -67962,12 +70607,12 @@
         <v>1337</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -67979,12 +70624,12 @@
         <v>1340</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -67996,12 +70641,12 @@
         <v>1342</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -68013,12 +70658,12 @@
         <v>1344</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -68030,12 +70675,12 @@
         <v>1346</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -68047,12 +70692,12 @@
         <v>1348</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>2778</v>
+        <v>2911</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -68064,7 +70709,7 @@
         <v>1350</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>2779</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="158">
@@ -70616,22 +73261,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2780</v>
+        <v>2913</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2781</v>
+        <v>2914</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2782</v>
+        <v>2915</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2783</v>
+        <v>2916</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2784</v>
+        <v>2917</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2785</v>
+        <v>2918</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -70642,17 +73287,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2786</v>
+        <v>2919</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2759</v>
+        <v>2892</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>2787</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="3">
@@ -70660,7 +73305,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2788</v>
+        <v>2921</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -70681,10 +73326,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2789</v>
+        <v>2922</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2765</v>
+        <v>2898</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -70699,7 +73344,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>2790</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="5">
@@ -70707,10 +73352,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2791</v>
+        <v>2924</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2769</v>
+        <v>2902</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -70730,10 +73375,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2792</v>
+        <v>2925</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2793</v>
+        <v>2926</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -70753,10 +73398,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2777</v>
+        <v>2910</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>2794</v>
+        <v>2927</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -70776,10 +73421,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>2795</v>
+        <v>2928</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>2796</v>
+        <v>2929</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1353</v>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11073" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11671" uniqueCount="3636">
   <si>
     <t>Date</t>
   </si>
@@ -10163,6 +10163,603 @@
     <t>G2705</t>
   </si>
   <si>
+    <t>HON_001</t>
+  </si>
+  <si>
+    <t>G2706</t>
+  </si>
+  <si>
+    <t>HON_002</t>
+  </si>
+  <si>
+    <t>HON_003</t>
+  </si>
+  <si>
+    <t>G2707</t>
+  </si>
+  <si>
+    <t>HON_004</t>
+  </si>
+  <si>
+    <t>HON_005</t>
+  </si>
+  <si>
+    <t>HON_006</t>
+  </si>
+  <si>
+    <t>G2708</t>
+  </si>
+  <si>
+    <t>HON_007</t>
+  </si>
+  <si>
+    <t>next to each other; off from ofra above</t>
+  </si>
+  <si>
+    <t>HON_008</t>
+  </si>
+  <si>
+    <t>HON_009</t>
+  </si>
+  <si>
+    <t>G2709</t>
+  </si>
+  <si>
+    <t>HON_010</t>
+  </si>
+  <si>
+    <t>HON_011</t>
+  </si>
+  <si>
+    <t>HON_012</t>
+  </si>
+  <si>
+    <t>G2710</t>
+  </si>
+  <si>
+    <t>HON_013</t>
+  </si>
+  <si>
+    <t>HON_014</t>
+  </si>
+  <si>
+    <t>HON_015</t>
+  </si>
+  <si>
+    <t>G2716</t>
+  </si>
+  <si>
+    <t>HON_016</t>
+  </si>
+  <si>
+    <t>HON_017</t>
+  </si>
+  <si>
+    <t>HON_018</t>
+  </si>
+  <si>
+    <t>G2717</t>
+  </si>
+  <si>
+    <t>HON_019</t>
+  </si>
+  <si>
+    <t>HON_020</t>
+  </si>
+  <si>
+    <t>HON_021</t>
+  </si>
+  <si>
+    <t>G2718</t>
+  </si>
+  <si>
+    <t>HON_022</t>
+  </si>
+  <si>
+    <t>HON_023</t>
+  </si>
+  <si>
+    <t>HON_024</t>
+  </si>
+  <si>
+    <t>G2719</t>
+  </si>
+  <si>
+    <t>HON_025</t>
+  </si>
+  <si>
+    <t>HON_026</t>
+  </si>
+  <si>
+    <t>G2720</t>
+  </si>
+  <si>
+    <t>HON_027</t>
+  </si>
+  <si>
+    <t>HON_028</t>
+  </si>
+  <si>
+    <t>G2726</t>
+  </si>
+  <si>
+    <t>HON_029</t>
+  </si>
+  <si>
+    <t>G2799</t>
+  </si>
+  <si>
+    <t>HON_030</t>
+  </si>
+  <si>
+    <t>G2728</t>
+  </si>
+  <si>
+    <t>HON_031</t>
+  </si>
+  <si>
+    <t>G2727</t>
+  </si>
+  <si>
+    <t>HON_032</t>
+  </si>
+  <si>
+    <t>G2736</t>
+  </si>
+  <si>
+    <t>HON_033</t>
+  </si>
+  <si>
+    <t>G2730</t>
+  </si>
+  <si>
+    <t>HON_034</t>
+  </si>
+  <si>
+    <t>G2738</t>
+  </si>
+  <si>
+    <t>HON_035</t>
+  </si>
+  <si>
+    <t>G2740</t>
+  </si>
+  <si>
+    <t>HON_036</t>
+  </si>
+  <si>
+    <t>G2739</t>
+  </si>
+  <si>
+    <t>HON_037</t>
+  </si>
+  <si>
+    <t>G2737</t>
+  </si>
+  <si>
+    <t>HON_038</t>
+  </si>
+  <si>
+    <t>G2746</t>
+  </si>
+  <si>
+    <t>HON_039</t>
+  </si>
+  <si>
+    <t>G0657</t>
+  </si>
+  <si>
+    <t>HON_040</t>
+  </si>
+  <si>
+    <t>G0656</t>
+  </si>
+  <si>
+    <t>HON_041</t>
+  </si>
+  <si>
+    <t>G0658</t>
+  </si>
+  <si>
+    <t>HON_042</t>
+  </si>
+  <si>
+    <t>G0666</t>
+  </si>
+  <si>
+    <t>HON_043</t>
+  </si>
+  <si>
+    <t>G0659</t>
+  </si>
+  <si>
+    <t>not so happy</t>
+  </si>
+  <si>
+    <t>HON_044</t>
+  </si>
+  <si>
+    <t>G0660</t>
+  </si>
+  <si>
+    <t>HON_045</t>
+  </si>
+  <si>
+    <t>G0667</t>
+  </si>
+  <si>
+    <t>HON_046</t>
+  </si>
+  <si>
+    <t>G0668</t>
+  </si>
+  <si>
+    <t>HON_047</t>
+  </si>
+  <si>
+    <t>HON_048</t>
+  </si>
+  <si>
+    <t>G0676</t>
+  </si>
+  <si>
+    <t>HON_049</t>
+  </si>
+  <si>
+    <t>HON_050</t>
+  </si>
+  <si>
+    <t>G0669</t>
+  </si>
+  <si>
+    <t>HON_051</t>
+  </si>
+  <si>
+    <t>G0678</t>
+  </si>
+  <si>
+    <t>HON_052</t>
+  </si>
+  <si>
+    <t>G0677</t>
+  </si>
+  <si>
+    <t>HON_053</t>
+  </si>
+  <si>
+    <t>HON_054</t>
+  </si>
+  <si>
+    <t>G0686</t>
+  </si>
+  <si>
+    <t>HON_055</t>
+  </si>
+  <si>
+    <t>G0670</t>
+  </si>
+  <si>
+    <t>HON_056</t>
+  </si>
+  <si>
+    <t>G0679</t>
+  </si>
+  <si>
+    <t>HON_057</t>
+  </si>
+  <si>
+    <t>G2714</t>
+  </si>
+  <si>
+    <t>HON_058</t>
+  </si>
+  <si>
+    <t>HON_059</t>
+  </si>
+  <si>
+    <t>HON_060</t>
+  </si>
+  <si>
+    <t>G0682</t>
+  </si>
+  <si>
+    <t>HON_061</t>
+  </si>
+  <si>
+    <t>HON_062</t>
+  </si>
+  <si>
+    <t>G2715</t>
+  </si>
+  <si>
+    <t>HON_063</t>
+  </si>
+  <si>
+    <t>HON_064</t>
+  </si>
+  <si>
+    <t>HON_065</t>
+  </si>
+  <si>
+    <t>G0691</t>
+  </si>
+  <si>
+    <t>HON_066</t>
+  </si>
+  <si>
+    <t>HON_067</t>
+  </si>
+  <si>
+    <t>HON_068</t>
+  </si>
+  <si>
+    <t>G2744</t>
+  </si>
+  <si>
+    <t>HON_069</t>
+  </si>
+  <si>
+    <t>HON_070</t>
+  </si>
+  <si>
+    <t>G2745</t>
+  </si>
+  <si>
+    <t>HON_071</t>
+  </si>
+  <si>
+    <t>HON_072</t>
+  </si>
+  <si>
+    <t>HON_073</t>
+  </si>
+  <si>
+    <t>G0692</t>
+  </si>
+  <si>
+    <t>HON_074</t>
+  </si>
+  <si>
+    <t>HON_075</t>
+  </si>
+  <si>
+    <t>HON_076</t>
+  </si>
+  <si>
+    <t>G0681</t>
+  </si>
+  <si>
+    <t>HON_077</t>
+  </si>
+  <si>
+    <t>HON_078</t>
+  </si>
+  <si>
+    <t>HON_079</t>
+  </si>
+  <si>
+    <t>G0693</t>
+  </si>
+  <si>
+    <t>HON_080</t>
+  </si>
+  <si>
+    <t>HON_081</t>
+  </si>
+  <si>
+    <t>G0683</t>
+  </si>
+  <si>
+    <t>HON_082</t>
+  </si>
+  <si>
+    <t>HON_083</t>
+  </si>
+  <si>
+    <t>G0684</t>
+  </si>
+  <si>
+    <t>HON_084</t>
+  </si>
+  <si>
+    <t>G0685</t>
+  </si>
+  <si>
+    <t>HON_085</t>
+  </si>
+  <si>
+    <t>G0694</t>
+  </si>
+  <si>
+    <t>HON_086</t>
+  </si>
+  <si>
+    <t>G0663</t>
+  </si>
+  <si>
+    <t>HON_087</t>
+  </si>
+  <si>
+    <t>G0695</t>
+  </si>
+  <si>
+    <t>HON_088</t>
+  </si>
+  <si>
+    <t>G0673</t>
+  </si>
+  <si>
+    <t>HON_089</t>
+  </si>
+  <si>
+    <t>G2743</t>
+  </si>
+  <si>
+    <t>HON_090</t>
+  </si>
+  <si>
+    <t>G0674</t>
+  </si>
+  <si>
+    <t>HON_091</t>
+  </si>
+  <si>
+    <t>G0675</t>
+  </si>
+  <si>
+    <t>HON_092</t>
+  </si>
+  <si>
+    <t>G2735</t>
+  </si>
+  <si>
+    <t>HON_093</t>
+  </si>
+  <si>
+    <t>G2734</t>
+  </si>
+  <si>
+    <t>HON_094</t>
+  </si>
+  <si>
+    <t>G2741</t>
+  </si>
+  <si>
+    <t>HON_095</t>
+  </si>
+  <si>
+    <t>G2732</t>
+  </si>
+  <si>
+    <t>HON_096</t>
+  </si>
+  <si>
+    <t>HON_097</t>
+  </si>
+  <si>
+    <t>G2742</t>
+  </si>
+  <si>
+    <t>HON_098</t>
+  </si>
+  <si>
+    <t>G0651</t>
+  </si>
+  <si>
+    <t>HON_099</t>
+  </si>
+  <si>
+    <t>G2723</t>
+  </si>
+  <si>
+    <t>HON_100</t>
+  </si>
+  <si>
+    <t>G0652</t>
+  </si>
+  <si>
+    <t>HON_101</t>
+  </si>
+  <si>
+    <t>G0653</t>
+  </si>
+  <si>
+    <t>HON_102</t>
+  </si>
+  <si>
+    <t>G0661</t>
+  </si>
+  <si>
+    <t>HON_103</t>
+  </si>
+  <si>
+    <t>G0654</t>
+  </si>
+  <si>
+    <t>HON_104</t>
+  </si>
+  <si>
+    <t>G0662</t>
+  </si>
+  <si>
+    <t>HON_105</t>
+  </si>
+  <si>
+    <t>G0655</t>
+  </si>
+  <si>
+    <t>HON_106</t>
+  </si>
+  <si>
+    <t>G2725</t>
+  </si>
+  <si>
+    <t>HON_107</t>
+  </si>
+  <si>
+    <t>G2724</t>
+  </si>
+  <si>
+    <t>HON_108</t>
+  </si>
+  <si>
+    <t>G2721</t>
+  </si>
+  <si>
+    <t>HON_109</t>
+  </si>
+  <si>
+    <t>G0664</t>
+  </si>
+  <si>
+    <t>HON_110</t>
+  </si>
+  <si>
+    <t>G0671</t>
+  </si>
+  <si>
+    <t>HON_112</t>
+  </si>
+  <si>
+    <t>G0665</t>
+  </si>
+  <si>
+    <t>HON_113</t>
+  </si>
+  <si>
+    <t>G0672</t>
+  </si>
+  <si>
+    <t>HON_114</t>
+  </si>
+  <si>
+    <t>G2713</t>
+  </si>
+  <si>
+    <t>HON_115</t>
+  </si>
+  <si>
+    <t>G2722</t>
+  </si>
+  <si>
+    <t>HON_116</t>
+  </si>
+  <si>
+    <t>G2733</t>
+  </si>
+  <si>
+    <t>HON_117</t>
+  </si>
+  <si>
+    <t>G2731</t>
+  </si>
+  <si>
+    <t>HON_118</t>
+  </si>
+  <si>
+    <t>G0680</t>
+  </si>
+  <si>
     <t>Site_ID</t>
   </si>
   <si>
@@ -10317,6 +10914,15 @@
   </si>
   <si>
     <t>SRB</t>
+  </si>
+  <si>
+    <t>Yawzi</t>
+  </si>
+  <si>
+    <t>YAW</t>
+  </si>
+  <si>
+    <t>NPS dock</t>
   </si>
 </sst>
 </file>
@@ -77638,483 +78244,3781 @@
       </c>
     </row>
     <row r="2043">
-      <c r="A2043" s="28"/>
+      <c r="A2043" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2043" s="7" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C2043" s="7" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D2043" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E2043" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F2043" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2043" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2043" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2043" s="11">
+        <v>18.3495791908354</v>
+      </c>
+      <c r="K2043" s="11">
+        <v>-64.6789393946528</v>
+      </c>
     </row>
     <row r="2044">
-      <c r="A2044" s="28"/>
-      <c r="B2044" s="7"/>
+      <c r="A2044" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2044" s="7" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C2044" s="7" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D2044" s="7">
+        <v>182.0</v>
+      </c>
+      <c r="E2044" s="8">
+        <v>0.5006944444444444</v>
+      </c>
+      <c r="F2044" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2044" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2044" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2044" s="11">
+        <v>18.3495791908354</v>
+      </c>
+      <c r="K2044" s="11">
+        <v>-64.6789393946528</v>
+      </c>
     </row>
     <row r="2045">
-      <c r="A2045" s="28"/>
-      <c r="B2045" s="7"/>
+      <c r="A2045" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2045" s="7" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C2045" s="7" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D2045" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E2045" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F2045" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2045" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2045" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2045" s="11">
+        <v>18.3492469321936</v>
+      </c>
+      <c r="K2045" s="11">
+        <v>-64.6790445875376</v>
+      </c>
+      <c r="M2045" s="7" t="s">
+        <v>2908</v>
+      </c>
     </row>
     <row r="2046">
-      <c r="A2046" s="28"/>
-      <c r="B2046" s="7"/>
+      <c r="A2046" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2046" s="7" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C2046" s="7" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D2046" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="E2046" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F2046" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2046" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2046" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2046" s="11">
+        <v>18.3492469321936</v>
+      </c>
+      <c r="K2046" s="11">
+        <v>-64.6790445875376</v>
+      </c>
     </row>
     <row r="2047">
-      <c r="A2047" s="28"/>
-      <c r="B2047" s="7"/>
+      <c r="A2047" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2047" s="7" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C2047" s="7" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D2047" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E2047" s="8">
+        <v>0.5048611111111111</v>
+      </c>
+      <c r="F2047" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2047" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2047" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2047" s="11">
+        <v>18.3492469321936</v>
+      </c>
+      <c r="K2047" s="11">
+        <v>-64.6790445875376</v>
+      </c>
     </row>
     <row r="2048">
-      <c r="A2048" s="28"/>
-      <c r="B2048" s="7"/>
+      <c r="A2048" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2048" s="7" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C2048" s="7" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D2048" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E2048" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F2048" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2048" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2048" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2048" s="11">
+        <v>18.3492325153202</v>
+      </c>
+      <c r="K2048" s="11">
+        <v>-64.679021704942</v>
+      </c>
     </row>
     <row r="2049">
-      <c r="A2049" s="28"/>
-      <c r="B2049" s="7"/>
+      <c r="A2049" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2049" s="7" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C2049" s="7" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D2049" s="7">
+        <v>184.0</v>
+      </c>
+      <c r="E2049" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F2049" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2049" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2049" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2049" s="11">
+        <v>18.3492325153202</v>
+      </c>
+      <c r="K2049" s="11">
+        <v>-64.679021704942</v>
+      </c>
+      <c r="M2049" s="7" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="2050">
-      <c r="A2050" s="28"/>
-      <c r="B2050" s="7"/>
+      <c r="A2050" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2050" s="7" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C2050" s="7" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D2050" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E2050" s="8">
+        <v>0.5090277777777777</v>
+      </c>
+      <c r="F2050" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2050" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2050" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2050" s="11">
+        <v>18.3492325153202</v>
+      </c>
+      <c r="K2050" s="11">
+        <v>-64.679021704942</v>
+      </c>
+      <c r="M2050" s="14" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="2051">
-      <c r="A2051" s="28"/>
-      <c r="B2051" s="7"/>
+      <c r="A2051" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2051" s="7" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C2051" s="7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D2051" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="E2051" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F2051" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2051" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2051" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2051" s="11">
+        <v>18.3492867462337</v>
+      </c>
+      <c r="K2051" s="11">
+        <v>-64.6789754368365</v>
+      </c>
     </row>
     <row r="2052">
-      <c r="A2052" s="28"/>
-      <c r="B2052" s="7"/>
+      <c r="A2052" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2052" s="7" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C2052" s="7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D2052" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E2052" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F2052" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2052" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2052" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2052" s="11">
+        <v>18.3492867462337</v>
+      </c>
+      <c r="K2052" s="11">
+        <v>-64.6789754368365</v>
+      </c>
     </row>
     <row r="2053">
-      <c r="A2053" s="28"/>
-      <c r="B2053" s="7"/>
+      <c r="A2053" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2053" s="7" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C2053" s="7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D2053" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="E2053" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F2053" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2053" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2053" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2053" s="11">
+        <v>18.3492867462337</v>
+      </c>
+      <c r="K2053" s="11">
+        <v>-64.6789754368365</v>
+      </c>
     </row>
     <row r="2054">
-      <c r="A2054" s="28"/>
-      <c r="B2054" s="7"/>
+      <c r="A2054" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2054" s="7" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C2054" s="7" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D2054" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="E2054" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F2054" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2054" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2054" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2054" s="11">
+        <v>18.3493480179459</v>
+      </c>
+      <c r="K2054" s="11">
+        <v>-64.6789818909019</v>
+      </c>
     </row>
     <row r="2055">
-      <c r="A2055" s="28"/>
-      <c r="B2055" s="7"/>
+      <c r="A2055" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2055" s="7" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C2055" s="7" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D2055" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E2055" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F2055" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2055" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2055" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2055" s="11">
+        <v>18.3493480179459</v>
+      </c>
+      <c r="K2055" s="11">
+        <v>-64.6789818909019</v>
+      </c>
     </row>
     <row r="2056">
-      <c r="A2056" s="28"/>
-      <c r="B2056" s="7"/>
+      <c r="A2056" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2056" s="7" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C2056" s="7" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D2056" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="E2056" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F2056" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2056" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2056" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2056" s="11">
+        <v>18.3493480179459</v>
+      </c>
+      <c r="K2056" s="11">
+        <v>-64.6789818909019</v>
+      </c>
     </row>
     <row r="2057">
-      <c r="A2057" s="28"/>
-      <c r="B2057" s="7"/>
+      <c r="A2057" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2057" s="7" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C2057" s="7" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D2057" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E2057" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F2057" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2057" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2057" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2057" s="11">
+        <v>18.3493752591312</v>
+      </c>
+      <c r="K2057" s="11">
+        <v>-64.678923888132</v>
+      </c>
     </row>
     <row r="2058">
-      <c r="A2058" s="28"/>
-      <c r="B2058" s="7"/>
+      <c r="A2058" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2058" s="7" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C2058" s="7" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D2058" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E2058" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F2058" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2058" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2058" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2058" s="11">
+        <v>18.3493752591312</v>
+      </c>
+      <c r="K2058" s="11">
+        <v>-64.678923888132</v>
+      </c>
     </row>
     <row r="2059">
-      <c r="A2059" s="28"/>
-      <c r="B2059" s="7"/>
+      <c r="A2059" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2059" s="7" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C2059" s="7" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D2059" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="E2059" s="8">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F2059" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2059" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2059" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2059" s="11">
+        <v>18.3493752591312</v>
+      </c>
+      <c r="K2059" s="11">
+        <v>-64.678923888132</v>
+      </c>
     </row>
     <row r="2060">
-      <c r="A2060" s="28"/>
-      <c r="B2060" s="7"/>
+      <c r="A2060" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2060" s="7" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C2060" s="7" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D2060" s="7">
+        <v>91.0</v>
+      </c>
+      <c r="E2060" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F2060" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2060" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2060" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2060" s="11">
+        <v>18.3494313340634</v>
+      </c>
+      <c r="K2060" s="11">
+        <v>-64.678966132924</v>
+      </c>
     </row>
     <row r="2061">
-      <c r="A2061" s="28"/>
-      <c r="B2061" s="7"/>
+      <c r="A2061" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2061" s="7" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C2061" s="7" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D2061" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E2061" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F2061" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2061" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2061" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2061" s="11">
+        <v>18.3494313340634</v>
+      </c>
+      <c r="K2061" s="11">
+        <v>-64.678966132924</v>
+      </c>
     </row>
     <row r="2062">
-      <c r="A2062" s="28"/>
-      <c r="B2062" s="7"/>
+      <c r="A2062" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2062" s="7" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C2062" s="7" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D2062" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E2062" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F2062" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2062" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2062" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2062" s="11">
+        <v>18.3494313340634</v>
+      </c>
+      <c r="K2062" s="11">
+        <v>-64.678966132924</v>
+      </c>
     </row>
     <row r="2063">
-      <c r="A2063" s="28"/>
-      <c r="B2063" s="7"/>
+      <c r="A2063" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2063" s="7" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C2063" s="7" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D2063" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E2063" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="F2063" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2063" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2063" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2063" s="11">
+        <v>18.349464610219</v>
+      </c>
+      <c r="K2063" s="11">
+        <v>-64.6789660491049</v>
+      </c>
     </row>
     <row r="2064">
-      <c r="A2064" s="28"/>
-      <c r="B2064" s="7"/>
+      <c r="A2064" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2064" s="7" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C2064" s="7" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D2064" s="7">
+        <v>94.0</v>
+      </c>
+      <c r="E2064" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="F2064" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2064" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2064" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2064" s="11">
+        <v>18.349464610219</v>
+      </c>
+      <c r="K2064" s="11">
+        <v>-64.6789660491049</v>
+      </c>
     </row>
     <row r="2065">
-      <c r="A2065" s="28"/>
-      <c r="B2065" s="7"/>
+      <c r="A2065" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2065" s="7" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C2065" s="7" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D2065" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E2065" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="F2065" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2065" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2065" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2065" s="11">
+        <v>18.349464610219</v>
+      </c>
+      <c r="K2065" s="11">
+        <v>-64.6789660491049</v>
+      </c>
+      <c r="M2065" s="7" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="2066">
-      <c r="A2066" s="28"/>
-      <c r="B2066" s="7"/>
+      <c r="A2066" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2066" s="7" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C2066" s="7" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D2066" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="E2066" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F2066" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2066" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2066" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2066" s="11">
+        <v>18.3495529554784</v>
+      </c>
+      <c r="K2066" s="11">
+        <v>-64.6789858303964</v>
+      </c>
     </row>
     <row r="2067">
-      <c r="A2067" s="28"/>
-      <c r="B2067" s="7"/>
+      <c r="A2067" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2067" s="7" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C2067" s="7" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D2067" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="E2067" s="8">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F2067" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2067" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2067" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2067" s="11">
+        <v>18.3495529554784</v>
+      </c>
+      <c r="K2067" s="11">
+        <v>-64.6789858303964</v>
+      </c>
     </row>
     <row r="2068">
-      <c r="A2068" s="28"/>
-      <c r="B2068" s="7"/>
+      <c r="A2068" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2068" s="7" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C2068" s="7" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D2068" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E2068" s="8">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="F2068" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2068" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2068" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2068" s="11">
+        <v>18.3495957031846</v>
+      </c>
+      <c r="K2068" s="11">
+        <v>-64.679050706327</v>
+      </c>
     </row>
     <row r="2069">
-      <c r="A2069" s="28"/>
-      <c r="B2069" s="7"/>
+      <c r="A2069" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2069" s="7" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C2069" s="7" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D2069" s="7">
+        <v>96.0</v>
+      </c>
+      <c r="E2069" s="8">
+        <v>0.5402777777777777</v>
+      </c>
+      <c r="F2069" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2069" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2069" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2069" s="11">
+        <v>18.3495957031846</v>
+      </c>
+      <c r="K2069" s="11">
+        <v>-64.679050706327</v>
+      </c>
     </row>
     <row r="2070">
-      <c r="A2070" s="28"/>
-      <c r="B2070" s="7"/>
+      <c r="A2070" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2070" s="7" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C2070" s="7" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D2070" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="E2070" s="8">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F2070" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2070" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2070" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2070" s="11">
+        <v>18.3496745768934</v>
+      </c>
+      <c r="K2070" s="11">
+        <v>-64.6789589244872</v>
+      </c>
     </row>
     <row r="2071">
-      <c r="A2071" s="28"/>
-      <c r="B2071" s="7"/>
+      <c r="A2071" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2071" s="7" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C2071" s="7" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D2071" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="E2071" s="8">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="F2071" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2071" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2071" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2071" s="11">
+        <v>18.3496612496674</v>
+      </c>
+      <c r="K2071" s="11">
+        <v>-64.6789731737226</v>
+      </c>
     </row>
     <row r="2072">
-      <c r="A2072" s="28"/>
-      <c r="B2072" s="7"/>
+      <c r="A2072" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2072" s="7" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C2072" s="7" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D2072" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E2072" s="8">
+        <v>0.5506944444444445</v>
+      </c>
+      <c r="F2072" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2072" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2072" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2072" s="11">
+        <v>18.3498075138777</v>
+      </c>
+      <c r="K2072" s="11">
+        <v>-64.6790288295597</v>
+      </c>
+      <c r="M2072" s="7" t="s">
+        <v>2908</v>
+      </c>
     </row>
     <row r="2073">
-      <c r="A2073" s="28"/>
-      <c r="B2073" s="7"/>
+      <c r="A2073" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2073" s="7" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C2073" s="7" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D2073" s="7">
+        <v>91.0</v>
+      </c>
+      <c r="E2073" s="8">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F2073" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2073" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2073" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2073" s="11">
+        <v>18.3498026523739</v>
+      </c>
+      <c r="K2073" s="11">
+        <v>-64.6791259758174</v>
+      </c>
     </row>
     <row r="2074">
-      <c r="A2074" s="28"/>
-      <c r="B2074" s="7"/>
+      <c r="A2074" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2074" s="7" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C2074" s="7" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D2074" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E2074" s="8">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F2074" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2074" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2074" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2074" s="11">
+        <v>18.3498622477055</v>
+      </c>
+      <c r="K2074" s="11">
+        <v>-64.6792585775256</v>
+      </c>
     </row>
     <row r="2075">
-      <c r="A2075" s="28"/>
-      <c r="B2075" s="7"/>
+      <c r="A2075" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2075" s="7" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C2075" s="7" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D2075" s="7">
+        <v>131.0</v>
+      </c>
+      <c r="E2075" s="8">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F2075" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2075" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2075" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2075" s="11">
+        <v>18.349863756448</v>
+      </c>
+      <c r="K2075" s="11">
+        <v>-64.6793824620545</v>
+      </c>
     </row>
     <row r="2076">
-      <c r="A2076" s="28"/>
-      <c r="B2076" s="7"/>
+      <c r="A2076" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2076" s="7" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C2076" s="7" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D2076" s="7">
+        <v>111.0</v>
+      </c>
+      <c r="E2076" s="8">
+        <v>0.5583333333333333</v>
+      </c>
+      <c r="F2076" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2076" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2076" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2076" s="11">
+        <v>18.3499342482537</v>
+      </c>
+      <c r="K2076" s="11">
+        <v>-64.6794971264899</v>
+      </c>
     </row>
     <row r="2077">
-      <c r="A2077" s="28"/>
-      <c r="B2077" s="7"/>
+      <c r="A2077" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2077" s="7" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C2077" s="7" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D2077" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E2077" s="8">
+        <v>0.5722222222222222</v>
+      </c>
+      <c r="F2077" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2077" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2077" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2077" s="11">
+        <v>18.3510336186737</v>
+      </c>
+      <c r="K2077" s="11">
+        <v>-64.6796371042728</v>
+      </c>
     </row>
     <row r="2078">
-      <c r="A2078" s="28"/>
-      <c r="B2078" s="7"/>
+      <c r="A2078" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2078" s="7" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C2078" s="7" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D2078" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="E2078" s="8">
+        <v>0.5743055555555555</v>
+      </c>
+      <c r="F2078" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2078" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2078" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2078" s="11">
+        <v>18.3511294238269</v>
+      </c>
+      <c r="K2078" s="11">
+        <v>-64.6796675305814</v>
+      </c>
+      <c r="M2078" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="2079">
-      <c r="A2079" s="28"/>
-      <c r="B2079" s="7"/>
+      <c r="A2079" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2079" s="7" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C2079" s="7" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D2079" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E2079" s="8">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F2079" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2079" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2079" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2079" s="11">
+        <v>18.3511791285127</v>
+      </c>
+      <c r="K2079" s="11">
+        <v>-64.6797447279096</v>
+      </c>
     </row>
     <row r="2080">
-      <c r="A2080" s="28"/>
-      <c r="B2080" s="7"/>
+      <c r="A2080" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2080" s="7" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2080" s="7" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D2080" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E2080" s="8">
+        <v>0.5826388888888889</v>
+      </c>
+      <c r="F2080" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2080" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2080" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2080" s="11">
+        <v>18.3512915298343</v>
+      </c>
+      <c r="K2080" s="11">
+        <v>-64.6797514334321</v>
+      </c>
     </row>
     <row r="2081">
-      <c r="A2081" s="28"/>
-      <c r="B2081" s="7"/>
+      <c r="A2081" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2081" s="7" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C2081" s="7" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D2081" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E2081" s="8">
+        <v>0.6277777777777778</v>
+      </c>
+      <c r="F2081" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2081" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2081" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2081" s="11">
+        <v>18.3521096874028</v>
+      </c>
+      <c r="K2081" s="11">
+        <v>-64.6797569654882</v>
+      </c>
     </row>
     <row r="2082">
-      <c r="A2082" s="28"/>
-      <c r="B2082" s="7"/>
+      <c r="A2082" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2082" s="7" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C2082" s="7" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D2082" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E2082" s="8">
+        <v>0.6298611111111111</v>
+      </c>
+      <c r="F2082" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2082" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2082" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2082" s="11">
+        <v>18.3521096874028</v>
+      </c>
+      <c r="K2082" s="11">
+        <v>-64.6797569654882</v>
+      </c>
     </row>
     <row r="2083">
-      <c r="A2083" s="28"/>
-      <c r="B2083" s="7"/>
+      <c r="A2083" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2083" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C2083" s="7" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D2083" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E2083" s="8">
+        <v>0.6340277777777777</v>
+      </c>
+      <c r="F2083" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2083" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2083" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2083" s="11">
+        <v>18.3521142136306</v>
+      </c>
+      <c r="K2083" s="11">
+        <v>-64.6799775771797</v>
+      </c>
     </row>
     <row r="2084">
-      <c r="A2084" s="28"/>
-      <c r="B2084" s="7"/>
+      <c r="A2084" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2084" s="7" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C2084" s="7" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D2084" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E2084" s="8">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="F2084" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2084" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2084" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2084" s="11">
+        <v>18.352133994922</v>
+      </c>
+      <c r="K2084" s="11">
+        <v>-64.6800353284925</v>
+      </c>
     </row>
     <row r="2085">
-      <c r="A2085" s="28"/>
-      <c r="B2085" s="7"/>
+      <c r="A2085" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2085" s="7" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C2085" s="7" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D2085" s="7">
+        <v>93.0</v>
+      </c>
+      <c r="E2085" s="8">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="F2085" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2085" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2085" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2085" s="11">
+        <v>18.352146986872</v>
+      </c>
+      <c r="K2085" s="11">
+        <v>-64.6800976898521</v>
+      </c>
+      <c r="M2085" s="7" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="2086">
-      <c r="A2086" s="28"/>
-      <c r="B2086" s="7"/>
+      <c r="A2086" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2086" s="7" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C2086" s="7" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D2086" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="E2086" s="8">
+        <v>0.6402777777777777</v>
+      </c>
+      <c r="F2086" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2086" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2086" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2086" s="11">
+        <v>18.3521434664726</v>
+      </c>
+      <c r="K2086" s="11">
+        <v>-64.6800826024264</v>
+      </c>
+      <c r="M2086" s="7" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="2087">
-      <c r="A2087" s="28"/>
-      <c r="B2087" s="7"/>
+      <c r="A2087" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2087" s="7" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C2087" s="7" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D2087" s="7">
+        <v>176.0</v>
+      </c>
+      <c r="E2087" s="8">
+        <v>0.6423611111111112</v>
+      </c>
+      <c r="F2087" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2087" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2087" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2087" s="11">
+        <v>18.3521668519825</v>
+      </c>
+      <c r="K2087" s="11">
+        <v>-64.6801088377833</v>
+      </c>
     </row>
     <row r="2088">
-      <c r="A2088" s="28"/>
-      <c r="B2088" s="7"/>
+      <c r="A2088" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2088" s="7" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C2088" s="7" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D2088" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="E2088" s="8">
+        <v>0.6486111111111111</v>
+      </c>
+      <c r="F2088" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2088" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2088" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2088" s="11">
+        <v>18.3522779121995</v>
+      </c>
+      <c r="K2088" s="11">
+        <v>-64.6800931636244</v>
+      </c>
     </row>
     <row r="2089">
-      <c r="A2089" s="28"/>
-      <c r="B2089" s="7"/>
+      <c r="A2089" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2089" s="7" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C2089" s="7" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D2089" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E2089" s="8">
+        <v>0.6486111111111111</v>
+      </c>
+      <c r="F2089" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2089" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2089" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2089" s="11">
+        <v>18.3522779121995</v>
+      </c>
+      <c r="K2089" s="11">
+        <v>-64.6800931636244</v>
+      </c>
     </row>
     <row r="2090">
-      <c r="A2090" s="28"/>
-      <c r="B2090" s="7"/>
+      <c r="A2090" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2090" s="7" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C2090" s="7" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D2090" s="7">
+        <v>185.0</v>
+      </c>
+      <c r="E2090" s="8">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="F2090" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2090" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2090" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2090" s="11">
+        <v>18.3523591328412</v>
+      </c>
+      <c r="K2090" s="11">
+        <v>-64.6800971869379</v>
+      </c>
     </row>
     <row r="2091">
-      <c r="A2091" s="28"/>
-      <c r="B2091" s="7"/>
+      <c r="A2091" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2091" s="7" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C2091" s="7" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D2091" s="7">
+        <v>132.0</v>
+      </c>
+      <c r="E2091" s="8">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="F2091" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2091" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2091" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2091" s="11">
+        <v>18.3523591328412</v>
+      </c>
+      <c r="K2091" s="11">
+        <v>-64.6800971869379</v>
+      </c>
     </row>
     <row r="2092">
-      <c r="A2092" s="28"/>
-      <c r="B2092" s="7"/>
+      <c r="A2092" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2092" s="7" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C2092" s="7" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D2092" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E2092" s="8">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="F2092" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2092" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2092" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2092" s="11">
+        <v>18.3523603901267</v>
+      </c>
+      <c r="K2092" s="11">
+        <v>-64.6801451314241</v>
+      </c>
     </row>
     <row r="2093">
-      <c r="A2093" s="28"/>
-      <c r="B2093" s="7"/>
+      <c r="A2093" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2093" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C2093" s="7" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D2093" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E2093" s="8">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="F2093" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2093" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2093" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2093" s="11">
+        <v>18.3524365816265</v>
+      </c>
+      <c r="K2093" s="11">
+        <v>-64.6801147889346</v>
+      </c>
     </row>
     <row r="2094">
-      <c r="A2094" s="28"/>
-      <c r="B2094" s="7"/>
+      <c r="A2094" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2094" s="7" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C2094" s="7" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D2094" s="7">
+        <v>53.0</v>
+      </c>
+      <c r="E2094" s="8">
+        <v>0.6625</v>
+      </c>
+      <c r="F2094" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2094" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2094" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2094" s="11">
+        <v>18.352326862514</v>
+      </c>
+      <c r="K2094" s="11">
+        <v>-64.6800751425326</v>
+      </c>
     </row>
     <row r="2095">
-      <c r="A2095" s="28"/>
-      <c r="B2095" s="7"/>
+      <c r="A2095" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2095" s="7" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2095" s="7" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D2095" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E2095" s="8">
+        <v>0.6625</v>
+      </c>
+      <c r="F2095" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2095" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2095" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2095" s="11">
+        <v>18.352326862514</v>
+      </c>
+      <c r="K2095" s="11">
+        <v>-64.6800751425326</v>
+      </c>
     </row>
     <row r="2096">
-      <c r="A2096" s="28"/>
-      <c r="B2096" s="7"/>
+      <c r="A2096" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2096" s="7" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C2096" s="7" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D2096" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E2096" s="8">
+        <v>0.6652777777777777</v>
+      </c>
+      <c r="F2096" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2096" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2096" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2096" s="11">
+        <v>18.3523842785507</v>
+      </c>
+      <c r="K2096" s="11">
+        <v>-64.6801588777453</v>
+      </c>
     </row>
     <row r="2097">
-      <c r="A2097" s="28"/>
-      <c r="B2097" s="7"/>
+      <c r="A2097" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2097" s="7" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C2097" s="7" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D2097" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E2097" s="8">
+        <v>0.6680555555555555</v>
+      </c>
+      <c r="F2097" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2097" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2097" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2097" s="11">
+        <v>18.3525504078716</v>
+      </c>
+      <c r="K2097" s="11">
+        <v>-64.6801685169339</v>
+      </c>
     </row>
     <row r="2098">
-      <c r="A2098" s="28"/>
-      <c r="B2098" s="7"/>
+      <c r="A2098" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2098" s="7" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C2098" s="7" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D2098" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E2098" s="8">
+        <v>0.675</v>
+      </c>
+      <c r="F2098" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2098" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2098" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2098" s="11">
+        <v>18.3525927364826</v>
+      </c>
+      <c r="K2098" s="11">
+        <v>-64.6803582832217</v>
+      </c>
     </row>
     <row r="2099">
-      <c r="A2099" s="28"/>
-      <c r="B2099" s="7"/>
+      <c r="A2099" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2099" s="7" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C2099" s="7" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D2099" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="E2099" s="8">
+        <v>0.50625</v>
+      </c>
+      <c r="F2099" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2099" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2099" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2099" s="11">
+        <v>18.3492483571172</v>
+      </c>
+      <c r="K2099" s="11">
+        <v>-64.6790383849293</v>
+      </c>
     </row>
     <row r="2100">
-      <c r="A2100" s="28"/>
-      <c r="B2100" s="7"/>
+      <c r="A2100" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2100" s="7" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C2100" s="7" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D2100" s="7">
+        <v>133.0</v>
+      </c>
+      <c r="E2100" s="8">
+        <v>0.50625</v>
+      </c>
+      <c r="F2100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2100" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2100" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2100" s="11">
+        <v>18.3492483571172</v>
+      </c>
+      <c r="K2100" s="11">
+        <v>-64.6790383849293</v>
+      </c>
     </row>
     <row r="2101">
-      <c r="A2101" s="28"/>
-      <c r="B2101" s="7"/>
+      <c r="A2101" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2101" s="7" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C2101" s="7" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D2101" s="7">
+        <v>121.0</v>
+      </c>
+      <c r="E2101" s="8">
+        <v>0.50625</v>
+      </c>
+      <c r="F2101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2101" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2101" s="11">
+        <v>18.3492483571172</v>
+      </c>
+      <c r="K2101" s="11">
+        <v>-64.6790383849293</v>
+      </c>
     </row>
     <row r="2102">
-      <c r="A2102" s="28"/>
-      <c r="B2102" s="7"/>
+      <c r="A2102" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2102" s="7" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C2102" s="7" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D2102" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E2102" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F2102" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2102" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2102" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2102" s="11">
+        <v>18.3492867462337</v>
+      </c>
+      <c r="K2102" s="11">
+        <v>-64.6789754368365</v>
+      </c>
     </row>
     <row r="2103">
-      <c r="A2103" s="28"/>
-      <c r="B2103" s="7"/>
+      <c r="A2103" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2103" s="7" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C2103" s="7" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D2103" s="7">
+        <v>183.0</v>
+      </c>
+      <c r="E2103" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="F2103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2103" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2103" s="11">
+        <v>18.3492867462337</v>
+      </c>
+      <c r="K2103" s="11">
+        <v>-64.6789754368365</v>
+      </c>
     </row>
     <row r="2104">
-      <c r="A2104" s="28"/>
-      <c r="B2104" s="7"/>
+      <c r="A2104" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2104" s="7" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C2104" s="7" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D2104" s="7">
+        <v>130.0</v>
+      </c>
+      <c r="E2104" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F2104" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2104" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2104" s="11">
+        <v>18.3492547273636</v>
+      </c>
+      <c r="K2104" s="11">
+        <v>-64.6789621934295</v>
+      </c>
     </row>
     <row r="2105">
-      <c r="A2105" s="28"/>
-      <c r="B2105" s="7"/>
+      <c r="A2105" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2105" s="7" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C2105" s="7" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D2105" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E2105" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F2105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2105" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2105" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2105" s="11">
+        <v>18.3492547273636</v>
+      </c>
+      <c r="K2105" s="11">
+        <v>-64.6789621934295</v>
+      </c>
     </row>
     <row r="2106">
-      <c r="A2106" s="28"/>
-      <c r="B2106" s="7"/>
+      <c r="A2106" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2106" s="7" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C2106" s="7" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D2106" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="E2106" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F2106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2106" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2106" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2106" s="11">
+        <v>18.3492547273636</v>
+      </c>
+      <c r="K2106" s="11">
+        <v>-64.6789621934295</v>
+      </c>
     </row>
     <row r="2107">
-      <c r="A2107" s="28"/>
-      <c r="B2107" s="7"/>
+      <c r="A2107" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2107" s="7" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C2107" s="7" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D2107" s="7">
+        <v>181.0</v>
+      </c>
+      <c r="E2107" s="8">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="F2107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2107" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2107" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2107" s="11">
+        <v>18.3493674639612</v>
+      </c>
+      <c r="K2107" s="11">
+        <v>-64.6789214573801</v>
+      </c>
     </row>
     <row r="2108">
-      <c r="A2108" s="28"/>
-      <c r="B2108" s="7"/>
+      <c r="A2108" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2108" s="7" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C2108" s="7" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D2108" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E2108" s="8">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="F2108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2108" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2108" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2108" s="11">
+        <v>18.3493674639612</v>
+      </c>
+      <c r="K2108" s="11">
+        <v>-64.6789214573801</v>
+      </c>
     </row>
     <row r="2109">
-      <c r="A2109" s="28"/>
-      <c r="B2109" s="7"/>
+      <c r="A2109" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2109" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C2109" s="7" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D2109" s="7">
+        <v>129.0</v>
+      </c>
+      <c r="E2109" s="8">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="F2109" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2109" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2109" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2109" s="11">
+        <v>18.3493674639612</v>
+      </c>
+      <c r="K2109" s="11">
+        <v>-64.6789214573801</v>
+      </c>
     </row>
     <row r="2110">
-      <c r="A2110" s="28"/>
-      <c r="B2110" s="7"/>
+      <c r="A2110" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2110" s="7" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C2110" s="7" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D2110" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E2110" s="8">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="F2110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2110" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2110" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2110" s="11">
+        <v>18.3493673801422</v>
+      </c>
+      <c r="K2110" s="11">
+        <v>-64.6789439208806</v>
+      </c>
     </row>
     <row r="2111">
-      <c r="A2111" s="28"/>
-      <c r="B2111" s="7"/>
+      <c r="A2111" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2111" s="7" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C2111" s="7" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D2111" s="7">
+        <v>125.0</v>
+      </c>
+      <c r="E2111" s="8">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="F2111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2111" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2111" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2111" s="11">
+        <v>18.3493673801422</v>
+      </c>
+      <c r="K2111" s="11">
+        <v>-64.6789439208806</v>
+      </c>
     </row>
     <row r="2112">
-      <c r="A2112" s="28"/>
-      <c r="B2112" s="7"/>
+      <c r="A2112" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2112" s="7" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C2112" s="7" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D2112" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E2112" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F2112" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2112" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2112" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2112" s="11">
+        <v>18.3494288194925</v>
+      </c>
+      <c r="K2112" s="11">
+        <v>-64.6789566613734</v>
+      </c>
     </row>
     <row r="2113">
-      <c r="A2113" s="28"/>
-      <c r="B2113" s="7"/>
+      <c r="A2113" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2113" s="7" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C2113" s="7" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D2113" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E2113" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F2113" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2113" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2113" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2113" s="11">
+        <v>18.3494288194925</v>
+      </c>
+      <c r="K2113" s="11">
+        <v>-64.6789566613734</v>
+      </c>
     </row>
     <row r="2114">
-      <c r="A2114" s="28"/>
-      <c r="B2114" s="7"/>
+      <c r="A2114" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2114" s="7" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C2114" s="7" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D2114" s="7">
+        <v>179.0</v>
+      </c>
+      <c r="E2114" s="8">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F2114" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2114" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2114" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2114" s="11">
+        <v>18.3494288194925</v>
+      </c>
+      <c r="K2114" s="11">
+        <v>-64.6789566613734</v>
+      </c>
     </row>
     <row r="2115">
-      <c r="A2115" s="28"/>
-      <c r="B2115" s="7"/>
+      <c r="A2115" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2115" s="7" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C2115" s="7" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D2115" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E2115" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F2115" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2115" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2115" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2115" s="11">
+        <v>18.3494390454143</v>
+      </c>
+      <c r="K2115" s="11">
+        <v>-64.678955655545</v>
+      </c>
     </row>
     <row r="2116">
-      <c r="A2116" s="28"/>
-      <c r="B2116" s="7"/>
+      <c r="A2116" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2116" s="7" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C2116" s="7" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D2116" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="E2116" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F2116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2116" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2116" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2116" s="11">
+        <v>18.3494390454143</v>
+      </c>
+      <c r="K2116" s="11">
+        <v>-64.678955655545</v>
+      </c>
     </row>
     <row r="2117">
-      <c r="A2117" s="28"/>
-      <c r="B2117" s="7"/>
+      <c r="A2117" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2117" s="7" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C2117" s="7" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D2117" s="7">
+        <v>122.0</v>
+      </c>
+      <c r="E2117" s="8">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="F2117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2117" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2117" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2117" s="11">
+        <v>18.3494390454143</v>
+      </c>
+      <c r="K2117" s="11">
+        <v>-64.678955655545</v>
+      </c>
     </row>
     <row r="2118">
-      <c r="A2118" s="28"/>
-      <c r="B2118" s="7"/>
+      <c r="A2118" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2118" s="7" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C2118" s="7" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D2118" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E2118" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2118" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2118" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2118" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2118" s="11">
+        <v>18.3494741655886</v>
+      </c>
+      <c r="K2118" s="11">
+        <v>-64.6790116466582</v>
+      </c>
     </row>
     <row r="2119">
-      <c r="A2119" s="28"/>
-      <c r="B2119" s="7"/>
+      <c r="A2119" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2119" s="7" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C2119" s="7" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D2119" s="7">
+        <v>127.0</v>
+      </c>
+      <c r="E2119" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2119" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2119" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2119" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2119" s="11">
+        <v>18.3494741655886</v>
+      </c>
+      <c r="K2119" s="11">
+        <v>-64.6790116466582</v>
+      </c>
     </row>
     <row r="2120">
-      <c r="A2120" s="28"/>
-      <c r="B2120" s="7"/>
+      <c r="A2120" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2120" s="7" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C2120" s="7" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D2120" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E2120" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2120" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2120" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2120" s="11">
+        <v>18.3494741655886</v>
+      </c>
+      <c r="K2120" s="11">
+        <v>-64.6790116466582</v>
+      </c>
     </row>
     <row r="2121">
-      <c r="A2121" s="28"/>
-      <c r="B2121" s="7"/>
+      <c r="A2121" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2121" s="7" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C2121" s="7" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D2121" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E2121" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F2121" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2121" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2121" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2121" s="11">
+        <v>18.3496081084013</v>
+      </c>
+      <c r="K2121" s="11">
+        <v>-64.679013742134</v>
+      </c>
     </row>
     <row r="2122">
-      <c r="A2122" s="28"/>
-      <c r="B2122" s="7"/>
+      <c r="A2122" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2122" s="7" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C2122" s="7" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D2122" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E2122" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F2122" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2122" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2122" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2122" s="11">
+        <v>18.3496081084013</v>
+      </c>
+      <c r="K2122" s="11">
+        <v>-64.679013742134</v>
+      </c>
     </row>
     <row r="2123">
-      <c r="A2123" s="28"/>
-      <c r="B2123" s="7"/>
+      <c r="A2123" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2123" s="7" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C2123" s="7" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D2123" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="E2123" s="8">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F2123" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2123" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2123" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2123" s="11">
+        <v>18.3496745768934</v>
+      </c>
+      <c r="K2123" s="11">
+        <v>-64.6789589244872</v>
+      </c>
     </row>
     <row r="2124">
-      <c r="A2124" s="28"/>
-      <c r="B2124" s="7"/>
+      <c r="A2124" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2124" s="7" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C2124" s="7" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D2124" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E2124" s="8">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F2124" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2124" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2124" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2124" s="11">
+        <v>18.3496745768934</v>
+      </c>
+      <c r="K2124" s="11">
+        <v>-64.6789589244872</v>
+      </c>
     </row>
     <row r="2125">
-      <c r="A2125" s="28"/>
-      <c r="B2125" s="7"/>
+      <c r="A2125" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2125" s="7" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C2125" s="7" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D2125" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E2125" s="8">
+        <v>0.5479166666666667</v>
+      </c>
+      <c r="F2125" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2125" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2125" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2125" s="11">
+        <v>18.3497756626457</v>
+      </c>
+      <c r="K2125" s="11">
+        <v>-64.6789449267089</v>
+      </c>
     </row>
     <row r="2126">
-      <c r="A2126" s="28"/>
-      <c r="B2126" s="7"/>
+      <c r="A2126" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2126" s="7" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C2126" s="7" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D2126" s="7">
+        <v>124.0</v>
+      </c>
+      <c r="E2126" s="8">
+        <v>0.55</v>
+      </c>
+      <c r="F2126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2126" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2126" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2126" s="11">
+        <v>18.3497908338904</v>
+      </c>
+      <c r="K2126" s="11">
+        <v>-64.6790146641433</v>
+      </c>
     </row>
     <row r="2127">
-      <c r="A2127" s="28"/>
-      <c r="B2127" s="7"/>
+      <c r="A2127" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2127" s="7" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C2127" s="7" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D2127" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="E2127" s="8">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="F2127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2127" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2127" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2127" s="11">
+        <v>18.3498117886484</v>
+      </c>
+      <c r="K2127" s="11">
+        <v>-64.6791471820325</v>
+      </c>
     </row>
     <row r="2128">
-      <c r="A2128" s="28"/>
-      <c r="B2128" s="7"/>
+      <c r="A2128" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2128" s="7" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C2128" s="7" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D2128" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E2128" s="8">
+        <v>0.55625</v>
+      </c>
+      <c r="F2128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2128" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2128" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2128" s="11">
+        <v>18.3498782571405</v>
+      </c>
+      <c r="K2128" s="11">
+        <v>-64.6794105414301</v>
+      </c>
     </row>
     <row r="2129">
-      <c r="A2129" s="28"/>
-      <c r="B2129" s="7"/>
+      <c r="A2129" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2129" s="7" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C2129" s="7" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D2129" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E2129" s="8">
+        <v>0.5576388888888889</v>
+      </c>
+      <c r="F2129" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2129" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2129" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2129" s="11">
+        <v>18.3499447256327</v>
+      </c>
+      <c r="K2129" s="11">
+        <v>-64.6794612519443</v>
+      </c>
     </row>
     <row r="2130">
-      <c r="A2130" s="28"/>
-      <c r="B2130" s="7"/>
+      <c r="A2130" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2130" s="7" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C2130" s="7" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D2130" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="E2130" s="8">
+        <v>0.5604166666666667</v>
+      </c>
+      <c r="F2130" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2130" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2130" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2130" s="11">
+        <v>18.3500612340868</v>
+      </c>
+      <c r="K2130" s="11">
+        <v>-64.6795102022588</v>
+      </c>
     </row>
     <row r="2131">
-      <c r="A2131" s="28"/>
-      <c r="B2131" s="7"/>
+      <c r="A2131" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2131" s="7" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C2131" s="7" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D2131" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E2131" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="F2131" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2131" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2131" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2131" s="11">
+        <v>18.3501031436026</v>
+      </c>
+      <c r="K2131" s="11">
+        <v>-64.6794712264091</v>
+      </c>
     </row>
     <row r="2132">
-      <c r="A2132" s="28"/>
-      <c r="B2132" s="7"/>
+      <c r="A2132" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2132" s="7" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C2132" s="7" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D2132" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E2132" s="8">
+        <v>0.56875</v>
+      </c>
+      <c r="F2132" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2132" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2132" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2132" s="11">
+        <v>18.3506995160133</v>
+      </c>
+      <c r="K2132" s="11">
+        <v>-64.6795409638435</v>
+      </c>
     </row>
     <row r="2133">
-      <c r="A2133" s="28"/>
-      <c r="B2133" s="7"/>
+      <c r="A2133" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2133" s="7" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2133" s="7" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D2133" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="E2133" s="8">
+        <v>0.5743055555555555</v>
+      </c>
+      <c r="F2133" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2133" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2133" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2133" s="11">
+        <v>18.3511294238269</v>
+      </c>
+      <c r="K2133" s="11">
+        <v>-64.6796675305814</v>
+      </c>
     </row>
     <row r="2134">
-      <c r="A2134" s="28"/>
-      <c r="B2134" s="7"/>
+      <c r="A2134" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2134" s="7" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C2134" s="7" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D2134" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E2134" s="8">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F2134" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2134" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2134" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2134" s="11">
+        <v>18.3511239755899</v>
+      </c>
+      <c r="K2134" s="11">
+        <v>-64.6796694584191</v>
+      </c>
     </row>
     <row r="2135">
-      <c r="A2135" s="28"/>
-      <c r="B2135" s="7"/>
+      <c r="A2135" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2135" s="7" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C2135" s="7" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D2135" s="7">
+        <v>178.0</v>
+      </c>
+      <c r="E2135" s="8">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="F2135" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2135" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2135" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2135" s="11">
+        <v>18.3511158451438</v>
+      </c>
+      <c r="K2135" s="11">
+        <v>-64.6796517726034</v>
+      </c>
     </row>
     <row r="2136">
-      <c r="A2136" s="28"/>
-      <c r="B2136" s="7"/>
+      <c r="A2136" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2136" s="7" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C2136" s="7" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D2136" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E2136" s="8">
+        <v>0.5791666666666667</v>
+      </c>
+      <c r="F2136" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2136" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2136" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2136" s="11">
+        <v>18.3511207904667</v>
+      </c>
+      <c r="K2136" s="11">
+        <v>-64.6797524392605</v>
+      </c>
     </row>
     <row r="2137">
-      <c r="A2137" s="28"/>
-      <c r="B2137" s="7"/>
+      <c r="A2137" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2137" s="7" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C2137" s="7" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D2137" s="7">
+        <v>114.0</v>
+      </c>
+      <c r="E2137" s="8">
+        <v>0.5840277777777778</v>
+      </c>
+      <c r="F2137" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2137" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2137" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2137" s="11">
+        <v>18.351534018293</v>
+      </c>
+      <c r="K2137" s="11">
+        <v>-64.6796490903944</v>
+      </c>
     </row>
     <row r="2138">
-      <c r="A2138" s="28"/>
-      <c r="B2138" s="7"/>
+      <c r="A2138" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2138" s="7" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C2138" s="7" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D2138" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="E2138" s="8">
+        <v>0.5840277777777778</v>
+      </c>
+      <c r="F2138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2138" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2138" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2138" s="11">
+        <v>18.351534018293</v>
+      </c>
+      <c r="K2138" s="11">
+        <v>-64.6796490903944</v>
+      </c>
     </row>
     <row r="2139">
-      <c r="A2139" s="28"/>
-      <c r="B2139" s="7"/>
+      <c r="A2139" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2139" s="7" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C2139" s="7" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D2139" s="7">
+        <v>126.0</v>
+      </c>
+      <c r="E2139" s="8">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F2139" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2139" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2139" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2139" s="11">
+        <v>18.3515796996653</v>
+      </c>
+      <c r="K2139" s="11">
+        <v>-64.6796274650842</v>
+      </c>
     </row>
     <row r="2140">
-      <c r="A2140" s="28"/>
-      <c r="B2140" s="7"/>
+      <c r="A2140" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2140" s="7" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C2140" s="7" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D2140" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="E2140" s="8">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="F2140" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2140" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2140" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2140" s="11">
+        <v>18.3520817756653</v>
+      </c>
+      <c r="K2140" s="11">
+        <v>-64.6799722127616</v>
+      </c>
     </row>
     <row r="2141">
-      <c r="A2141" s="28"/>
-      <c r="B2141" s="7"/>
+      <c r="A2141" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2141" s="7" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C2141" s="7" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D2141" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E2141" s="8">
+        <v>0.6361111111111111</v>
+      </c>
+      <c r="F2141" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2141" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2141" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2141" s="11">
+        <v>18.352133994922</v>
+      </c>
+      <c r="K2141" s="11">
+        <v>-64.6800353284925</v>
+      </c>
     </row>
     <row r="2142">
-      <c r="A2142" s="28"/>
-      <c r="B2142" s="7"/>
+      <c r="A2142" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2142" s="7" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C2142" s="7" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D2142" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E2142" s="8">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="F2142" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2142" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2142" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2142" s="11">
+        <v>18.352146986872</v>
+      </c>
+      <c r="K2142" s="11">
+        <v>-64.6800976898521</v>
+      </c>
     </row>
     <row r="2143">
-      <c r="A2143" s="28"/>
-      <c r="B2143" s="7"/>
+      <c r="A2143" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2143" s="7" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C2143" s="7" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D2143" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E2143" s="8">
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="F2143" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2143" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2143" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2143" s="11">
+        <v>18.3521724678576</v>
+      </c>
+      <c r="K2143" s="11">
+        <v>-64.6800612285733</v>
+      </c>
     </row>
     <row r="2144">
-      <c r="A2144" s="28"/>
-      <c r="B2144" s="7"/>
+      <c r="A2144" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2144" s="7" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C2144" s="7" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D2144" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E2144" s="8">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="F2144" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2144" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2144" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2144" s="11">
+        <v>18.3522500004619</v>
+      </c>
+      <c r="K2144" s="11">
+        <v>-64.6800856199116</v>
+      </c>
     </row>
     <row r="2145">
-      <c r="A2145" s="28"/>
-      <c r="B2145" s="7"/>
+      <c r="A2145" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2145" s="7" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C2145" s="7" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D2145" s="7">
+        <v>128.0</v>
+      </c>
+      <c r="E2145" s="8">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="F2145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2145" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2145" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2145" s="11">
+        <v>18.3522623218596</v>
+      </c>
+      <c r="K2145" s="11">
+        <v>-64.6801102627069</v>
+      </c>
     </row>
     <row r="2146">
-      <c r="A2146" s="28"/>
-      <c r="B2146" s="7"/>
+      <c r="A2146" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2146" s="7" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2146" s="7" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D2146" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E2146" s="8">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="F2146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2146" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2146" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2146" s="11">
+        <v>18.3522624056786</v>
+      </c>
+      <c r="K2146" s="11">
+        <v>-64.6800727117807</v>
+      </c>
     </row>
     <row r="2147">
-      <c r="A2147" s="28"/>
-      <c r="B2147" s="7"/>
+      <c r="A2147" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2147" s="7" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C2147" s="7" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D2147" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E2147" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F2147" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2147" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2147" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2147" s="11">
+        <v>18.3523628208786</v>
+      </c>
+      <c r="K2147" s="11">
+        <v>-64.6800910681486</v>
+      </c>
     </row>
     <row r="2148">
-      <c r="A2148" s="28"/>
-      <c r="B2148" s="7"/>
+      <c r="A2148" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2148" s="7" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C2148" s="7" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D2148" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="E2148" s="8">
+        <v>0.6513888888888889</v>
+      </c>
+      <c r="F2148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2148" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2148" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2148" s="11">
+        <v>18.3523745555431</v>
+      </c>
+      <c r="K2148" s="11">
+        <v>-64.6800951752812</v>
+      </c>
     </row>
     <row r="2149">
-      <c r="A2149" s="28"/>
-      <c r="B2149" s="7"/>
+      <c r="A2149" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2149" s="7" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C2149" s="7" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D2149" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E2149" s="8">
+        <v>0.6534722222222222</v>
+      </c>
+      <c r="F2149" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2149" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2149" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2149" s="11">
+        <v>18.3523591328412</v>
+      </c>
+      <c r="K2149" s="11">
+        <v>-64.6800971869379</v>
+      </c>
     </row>
     <row r="2150">
-      <c r="A2150" s="28"/>
-      <c r="B2150" s="7"/>
+      <c r="A2150" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2150" s="7" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C2150" s="7" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D2150" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E2150" s="8">
+        <v>0.6548611111111111</v>
+      </c>
+      <c r="F2150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2150" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2150" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2150" s="11">
+        <v>18.3523018844426</v>
+      </c>
+      <c r="K2150" s="11">
+        <v>-64.6801007073373</v>
+      </c>
     </row>
     <row r="2151">
-      <c r="A2151" s="28"/>
-      <c r="B2151" s="7"/>
+      <c r="A2151" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2151" s="7" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C2151" s="7" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D2151" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E2151" s="8">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="F2151" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2151" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2151" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2151" s="11">
+        <v>18.3523603901267</v>
+      </c>
+      <c r="K2151" s="11">
+        <v>-64.6801451314241</v>
+      </c>
     </row>
     <row r="2152">
-      <c r="A2152" s="28"/>
-      <c r="B2152" s="7"/>
+      <c r="A2152" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2152" s="7" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C2152" s="7" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D2152" s="7">
+        <v>134.0</v>
+      </c>
+      <c r="E2152" s="8">
+        <v>0.6590277777777778</v>
+      </c>
+      <c r="F2152" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2152" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2152" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2152" s="11">
+        <v>18.3524365816265</v>
+      </c>
+      <c r="K2152" s="11">
+        <v>-64.6801147889346</v>
+      </c>
     </row>
     <row r="2153">
-      <c r="A2153" s="28"/>
-      <c r="B2153" s="7"/>
+      <c r="A2153" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2153" s="7" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C2153" s="7" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D2153" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E2153" s="8">
+        <v>0.6618055555555555</v>
+      </c>
+      <c r="F2153" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2153" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2153" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2153" s="11">
+        <v>18.3523784112185</v>
+      </c>
+      <c r="K2153" s="11">
+        <v>-64.6801297087222</v>
+      </c>
     </row>
     <row r="2154">
-      <c r="A2154" s="28"/>
-      <c r="B2154" s="7"/>
+      <c r="A2154" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2154" s="7" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C2154" s="7" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D2154" s="7">
+        <v>103.0</v>
+      </c>
+      <c r="E2154" s="8">
+        <v>0.6638888888888889</v>
+      </c>
+      <c r="F2154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2154" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2154" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2154" s="11">
+        <v>18.3524050656706</v>
+      </c>
+      <c r="K2154" s="11">
+        <v>-64.6801516693085</v>
+      </c>
     </row>
     <row r="2155">
-      <c r="A2155" s="28"/>
-      <c r="B2155" s="7"/>
+      <c r="A2155" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2155" s="7" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2155" s="7" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D2155" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E2155" s="8">
+        <v>0.6680555555555555</v>
+      </c>
+      <c r="F2155" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2155" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2155" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2155" s="11">
+        <v>18.3525504078716</v>
+      </c>
+      <c r="K2155" s="11">
+        <v>-64.6801685169339</v>
+      </c>
     </row>
     <row r="2156">
-      <c r="A2156" s="28"/>
-      <c r="B2156" s="7"/>
+      <c r="A2156" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2156" s="7" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C2156" s="7" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D2156" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E2156" s="8">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F2156" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2156" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2156" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2156" s="11">
+        <v>18.352554179728</v>
+      </c>
+      <c r="K2156" s="11">
+        <v>-64.6803531702608</v>
+      </c>
     </row>
     <row r="2157">
-      <c r="A2157" s="28"/>
-      <c r="B2157" s="7"/>
+      <c r="A2157" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2157" s="7" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C2157" s="7" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D2157" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="E2157" s="8">
+        <v>0.6715277777777777</v>
+      </c>
+      <c r="F2157" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2157" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2157" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2157" s="11">
+        <v>18.3525644894689</v>
+      </c>
+      <c r="K2157" s="11">
+        <v>-64.6801803354174</v>
+      </c>
     </row>
     <row r="2158">
-      <c r="A2158" s="28"/>
-      <c r="B2158" s="7"/>
+      <c r="A2158" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2158" s="7" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C2158" s="7" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D2158" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E2158" s="8">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="F2158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2158" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2158" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2158" s="11">
+        <v>18.3525940775871</v>
+      </c>
+      <c r="K2158" s="11">
+        <v>-64.6803387533873</v>
+      </c>
     </row>
     <row r="2159">
-      <c r="A2159" s="28"/>
-      <c r="B2159" s="7"/>
+      <c r="A2159" s="6">
+        <v>44753.0</v>
+      </c>
+      <c r="B2159" s="7" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C2159" s="7" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D2159" s="7">
+        <v>98.0</v>
+      </c>
+      <c r="E2159" s="8">
+        <v>0.6805555555555556</v>
+      </c>
+      <c r="F2159" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2159" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2159" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2159" s="11">
+        <v>18.3529773820192</v>
+      </c>
+      <c r="K2159" s="11">
+        <v>-64.6806706767529</v>
+      </c>
     </row>
     <row r="2160">
       <c r="A2160" s="28"/>
-      <c r="B2160" s="7"/>
     </row>
     <row r="2161">
       <c r="A2161" s="28"/>
-      <c r="B2161" s="7"/>
     </row>
     <row r="2162">
       <c r="A2162" s="28"/>
-      <c r="B2162" s="7"/>
     </row>
     <row r="2163">
       <c r="A2163" s="28"/>
@@ -81455,10 +85359,6 @@
     <row r="2997">
       <c r="A2997" s="28"/>
       <c r="B2997" s="7"/>
-    </row>
-    <row r="2998">
-      <c r="A2998" s="28"/>
-      <c r="B2998" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -81477,19 +85377,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>3382</v>
+        <v>3581</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3383</v>
+        <v>3582</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3384</v>
+        <v>3583</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3385</v>
+        <v>3584</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3386</v>
+        <v>3585</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -81513,21 +85413,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>3387</v>
+        <v>3586</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>3388</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>3389</v>
+        <v>3588</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3390</v>
+        <v>3589</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -81539,33 +85439,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>3391</v>
+        <v>3590</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>3391</v>
+        <v>3590</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>3391</v>
+        <v>3590</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>3391</v>
+        <v>3590</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>3391</v>
+        <v>3590</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>3392</v>
+        <v>3591</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3393</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3394</v>
+        <v>3593</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3395</v>
+        <v>3594</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -81576,10 +85476,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>3396</v>
+        <v>3595</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -81591,18 +85491,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3398</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>3399</v>
+        <v>3598</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3400</v>
+        <v>3599</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3401</v>
+        <v>3600</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -81610,10 +85510,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>3402</v>
+        <v>3601</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3403</v>
+        <v>3602</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -81645,10 +85545,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>3404</v>
+        <v>3603</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3405</v>
+        <v>3604</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -81680,7 +85580,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3389</v>
+        <v>3588</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -81709,7 +85609,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3396</v>
+        <v>3595</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -81738,7 +85638,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3394</v>
+        <v>3593</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -81761,7 +85661,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3402</v>
+        <v>3601</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -81784,7 +85684,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3406</v>
+        <v>3605</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -81827,16 +85727,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="30" t="s">
-        <v>3407</v>
+        <v>3606</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>3408</v>
+        <v>3607</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>3409</v>
+        <v>3608</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>12</v>
@@ -81866,7 +85766,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -81881,7 +85781,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -81896,7 +85796,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -81911,7 +85811,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -81926,7 +85826,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -81941,7 +85841,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -81956,7 +85856,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -81971,7 +85871,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -81986,7 +85886,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -82001,7 +85901,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -82016,7 +85916,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -82031,7 +85931,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -82046,7 +85946,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -82061,7 +85961,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -82076,7 +85976,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -82091,7 +85991,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -82107,7 +86007,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -82123,7 +86023,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -82138,7 +86038,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -82153,7 +86053,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -82168,7 +86068,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -82183,7 +86083,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -82198,7 +86098,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -82213,7 +86113,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -82228,7 +86128,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -82243,7 +86143,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -82258,7 +86158,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -82273,7 +86173,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -82288,7 +86188,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -82303,7 +86203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -82318,7 +86218,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -82333,7 +86233,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -82348,7 +86248,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -82363,7 +86263,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>3397</v>
+        <v>3596</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -82378,7 +86278,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -82393,7 +86293,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -82408,7 +86308,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -82420,12 +86320,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -82440,7 +86340,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -82452,12 +86352,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -82472,7 +86372,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -82487,7 +86387,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -82502,7 +86402,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -82514,12 +86414,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -82534,7 +86434,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -82549,7 +86449,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -82564,7 +86464,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -82579,7 +86479,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -82594,7 +86494,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -82609,7 +86509,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -82624,7 +86524,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -82639,7 +86539,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -82654,7 +86554,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -82669,7 +86569,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -82684,7 +86584,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -82699,7 +86599,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -82714,7 +86614,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -82729,7 +86629,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -82744,7 +86644,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -82759,7 +86659,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -82774,7 +86674,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -82789,7 +86689,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -82804,7 +86704,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>3410</v>
+        <v>3609</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -82819,7 +86719,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -82834,7 +86734,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -82849,7 +86749,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -82864,7 +86764,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -82879,7 +86779,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -82894,7 +86794,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -82909,7 +86809,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -82924,7 +86824,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -82939,7 +86839,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -82954,7 +86854,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -82969,7 +86869,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -82984,7 +86884,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -82999,7 +86899,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -83014,7 +86914,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -83029,7 +86929,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -83044,7 +86944,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -83059,7 +86959,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -83074,7 +86974,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -83089,7 +86989,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -83104,7 +87004,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -83119,7 +87019,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -83134,7 +87034,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -83149,7 +87049,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -83164,7 +87064,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -83179,7 +87079,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -83194,7 +87094,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -83209,7 +87109,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -83224,7 +87124,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>3412</v>
+        <v>3611</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -83239,7 +87139,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -83254,7 +87154,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -83269,7 +87169,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -83284,7 +87184,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -83299,7 +87199,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -83314,7 +87214,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -83329,7 +87229,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -83344,7 +87244,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -83359,7 +87259,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -83374,7 +87274,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -83389,7 +87289,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -83404,7 +87304,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -83419,7 +87319,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -83434,7 +87334,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -83449,7 +87349,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -83464,7 +87364,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -83479,7 +87379,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -83494,7 +87394,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -83509,7 +87409,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -83524,7 +87424,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -83539,7 +87439,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -83554,7 +87454,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>3413</v>
+        <v>3612</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -83569,7 +87469,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -83584,7 +87484,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -83599,7 +87499,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -83614,7 +87514,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -83626,12 +87526,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -83646,7 +87546,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -83661,7 +87561,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -83676,7 +87576,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -83691,7 +87591,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -83706,7 +87606,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -83721,7 +87621,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -83736,7 +87636,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -83751,7 +87651,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -83763,12 +87663,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -83783,7 +87683,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -83795,12 +87695,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>3411</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -83815,7 +87715,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -83830,7 +87730,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -83845,7 +87745,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -83860,7 +87760,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -83872,12 +87772,12 @@
         <v>1297</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -83889,12 +87789,12 @@
         <v>1299</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -83906,12 +87806,12 @@
         <v>1301</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -83923,12 +87823,12 @@
         <v>1303</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -83940,12 +87840,12 @@
         <v>1305</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -83957,12 +87857,12 @@
         <v>1308</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -83974,12 +87874,12 @@
         <v>1311</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -83991,12 +87891,12 @@
         <v>1314</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -84008,12 +87908,12 @@
         <v>1317</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -84025,12 +87925,12 @@
         <v>1320</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -84042,12 +87942,12 @@
         <v>1322</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -84059,12 +87959,12 @@
         <v>1324</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -84076,12 +87976,12 @@
         <v>1326</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -84093,12 +87993,12 @@
         <v>1328</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -84110,12 +88010,12 @@
         <v>1330</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -84127,12 +88027,12 @@
         <v>1332</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -84144,12 +88044,12 @@
         <v>1334</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -84161,12 +88061,12 @@
         <v>1336</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -84178,12 +88078,12 @@
         <v>1339</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -84195,12 +88095,12 @@
         <v>1341</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -84212,12 +88112,12 @@
         <v>1343</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -84229,12 +88129,12 @@
         <v>1345</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -84246,12 +88146,12 @@
         <v>1347</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>3415</v>
+        <v>3614</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -84263,7 +88163,7 @@
         <v>1349</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>3416</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="158">
@@ -86815,22 +90715,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3417</v>
+        <v>3616</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3418</v>
+        <v>3617</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3419</v>
+        <v>3618</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3420</v>
+        <v>3619</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>3421</v>
+        <v>3620</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3422</v>
+        <v>3621</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -86841,17 +90741,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3423</v>
+        <v>3622</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3396</v>
+        <v>3595</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>3424</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="3">
@@ -86859,7 +90759,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3425</v>
+        <v>3624</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -86880,10 +90780,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3426</v>
+        <v>3625</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3402</v>
+        <v>3601</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -86898,7 +90798,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>3427</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="5">
@@ -86906,10 +90806,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3428</v>
+        <v>3627</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3406</v>
+        <v>3605</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -86929,10 +90829,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3429</v>
+        <v>3628</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3430</v>
+        <v>3629</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -86952,10 +90852,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>3414</v>
+        <v>3613</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3431</v>
+        <v>3630</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -86975,10 +90875,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>3432</v>
+        <v>3631</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>3433</v>
+        <v>3632</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1352</v>
@@ -87016,6 +90916,72 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
     </row>
+    <row r="9">
+      <c r="A9" s="34">
+        <v>44748.0</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16">
+        <v>44753.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data/Genotype_Samples_2022.xlsx
+++ b/Data/Genotype_Samples_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12458" uniqueCount="3883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13035" uniqueCount="4096">
   <si>
     <t>Date</t>
   </si>
@@ -11499,6 +11499,645 @@
   </si>
   <si>
     <t>RFB_116</t>
+  </si>
+  <si>
+    <t>HNB_001</t>
+  </si>
+  <si>
+    <t>G2749</t>
+  </si>
+  <si>
+    <t>HNB_002</t>
+  </si>
+  <si>
+    <t>G2748</t>
+  </si>
+  <si>
+    <t>ofra hybrid?</t>
+  </si>
+  <si>
+    <t>HNB_003</t>
+  </si>
+  <si>
+    <t>G2750</t>
+  </si>
+  <si>
+    <t>HNB_004</t>
+  </si>
+  <si>
+    <t>G0650</t>
+  </si>
+  <si>
+    <t>HNB_005</t>
+  </si>
+  <si>
+    <t>G0649</t>
+  </si>
+  <si>
+    <t>HNB_006</t>
+  </si>
+  <si>
+    <t>G0648</t>
+  </si>
+  <si>
+    <t>HNB_007</t>
+  </si>
+  <si>
+    <t>G0639</t>
+  </si>
+  <si>
+    <t>HNB_008</t>
+  </si>
+  <si>
+    <t>G2747</t>
+  </si>
+  <si>
+    <t>HNB_009</t>
+  </si>
+  <si>
+    <t>G0647</t>
+  </si>
+  <si>
+    <t>HNB_010</t>
+  </si>
+  <si>
+    <t>G0638</t>
+  </si>
+  <si>
+    <t>HNB_011</t>
+  </si>
+  <si>
+    <t>G0637</t>
+  </si>
+  <si>
+    <t>HNB_012</t>
+  </si>
+  <si>
+    <t>G0646</t>
+  </si>
+  <si>
+    <t>HNB_013</t>
+  </si>
+  <si>
+    <t>G0640</t>
+  </si>
+  <si>
+    <t>HNB_014</t>
+  </si>
+  <si>
+    <t>G2174</t>
+  </si>
+  <si>
+    <t>HNB_015</t>
+  </si>
+  <si>
+    <t>G0066</t>
+  </si>
+  <si>
+    <t>HNB_016</t>
+  </si>
+  <si>
+    <t>G0096</t>
+  </si>
+  <si>
+    <t>HNB_017</t>
+  </si>
+  <si>
+    <t>G0097</t>
+  </si>
+  <si>
+    <t>HNB_018</t>
+  </si>
+  <si>
+    <t>G0098</t>
+  </si>
+  <si>
+    <t>HNB_019</t>
+  </si>
+  <si>
+    <t>G0099</t>
+  </si>
+  <si>
+    <t>HNB_020</t>
+  </si>
+  <si>
+    <t>G0100</t>
+  </si>
+  <si>
+    <t>HNB_021</t>
+  </si>
+  <si>
+    <t>G0602</t>
+  </si>
+  <si>
+    <t>HNB_022</t>
+  </si>
+  <si>
+    <t>G0088</t>
+  </si>
+  <si>
+    <t>HNB_023</t>
+  </si>
+  <si>
+    <t>G0603</t>
+  </si>
+  <si>
+    <t>HNB_024</t>
+  </si>
+  <si>
+    <t>G0938</t>
+  </si>
+  <si>
+    <t>HNB_025</t>
+  </si>
+  <si>
+    <t>G0450</t>
+  </si>
+  <si>
+    <t>HNB_026</t>
+  </si>
+  <si>
+    <t>G0090</t>
+  </si>
+  <si>
+    <t>HNB_027</t>
+  </si>
+  <si>
+    <t>G0406</t>
+  </si>
+  <si>
+    <t>near G2392</t>
+  </si>
+  <si>
+    <t>HNB_028</t>
+  </si>
+  <si>
+    <t>G0089</t>
+  </si>
+  <si>
+    <t>HNB_029</t>
+  </si>
+  <si>
+    <t>G0604</t>
+  </si>
+  <si>
+    <t>POP_001</t>
+  </si>
+  <si>
+    <t>G0856</t>
+  </si>
+  <si>
+    <t>POP_002</t>
+  </si>
+  <si>
+    <t>G0857</t>
+  </si>
+  <si>
+    <t>POP_003</t>
+  </si>
+  <si>
+    <t>POP_004</t>
+  </si>
+  <si>
+    <t>G0858</t>
+  </si>
+  <si>
+    <t>POP_005</t>
+  </si>
+  <si>
+    <t>POP_006</t>
+  </si>
+  <si>
+    <t>G0859</t>
+  </si>
+  <si>
+    <t>POP_007</t>
+  </si>
+  <si>
+    <t>POP_008</t>
+  </si>
+  <si>
+    <t>G0860</t>
+  </si>
+  <si>
+    <t>POP_009</t>
+  </si>
+  <si>
+    <t>POP_010</t>
+  </si>
+  <si>
+    <t>G0868</t>
+  </si>
+  <si>
+    <t>POP_011</t>
+  </si>
+  <si>
+    <t>up to the right of tag</t>
+  </si>
+  <si>
+    <t>POP_012</t>
+  </si>
+  <si>
+    <t>POP_013</t>
+  </si>
+  <si>
+    <t>G0866</t>
+  </si>
+  <si>
+    <t>OANN?</t>
+  </si>
+  <si>
+    <t>POP_014</t>
+  </si>
+  <si>
+    <t>POP_015</t>
+  </si>
+  <si>
+    <t>G0869</t>
+  </si>
+  <si>
+    <t>POP_016</t>
+  </si>
+  <si>
+    <t>POP_017</t>
+  </si>
+  <si>
+    <t>G0867</t>
+  </si>
+  <si>
+    <t>POP_018</t>
+  </si>
+  <si>
+    <t>POP_019</t>
+  </si>
+  <si>
+    <t>G0870</t>
+  </si>
+  <si>
+    <t>POP_020</t>
+  </si>
+  <si>
+    <t>G0876</t>
+  </si>
+  <si>
+    <t>POP_021</t>
+  </si>
+  <si>
+    <t>POP_022</t>
+  </si>
+  <si>
+    <t>G0877</t>
+  </si>
+  <si>
+    <t>POP_023</t>
+  </si>
+  <si>
+    <t>G0878</t>
+  </si>
+  <si>
+    <t>POP_024</t>
+  </si>
+  <si>
+    <t>G0879</t>
+  </si>
+  <si>
+    <t>POP_025</t>
+  </si>
+  <si>
+    <t>G0880</t>
+  </si>
+  <si>
+    <t>POP_026</t>
+  </si>
+  <si>
+    <t>G0087</t>
+  </si>
+  <si>
+    <t>next to DEND that KA sampled</t>
+  </si>
+  <si>
+    <t>POP_027</t>
+  </si>
+  <si>
+    <t>G0886</t>
+  </si>
+  <si>
+    <t>POP_028</t>
+  </si>
+  <si>
+    <t>G0887</t>
+  </si>
+  <si>
+    <t>POP_029</t>
+  </si>
+  <si>
+    <t>G0888</t>
+  </si>
+  <si>
+    <t>OFRA?</t>
+  </si>
+  <si>
+    <t>POP_030</t>
+  </si>
+  <si>
+    <t>G0889</t>
+  </si>
+  <si>
+    <t>POP_031</t>
+  </si>
+  <si>
+    <t>G0899</t>
+  </si>
+  <si>
+    <t>POP_032</t>
+  </si>
+  <si>
+    <t>G0410</t>
+  </si>
+  <si>
+    <t>POP_033</t>
+  </si>
+  <si>
+    <t>G0418</t>
+  </si>
+  <si>
+    <t>POP_034</t>
+  </si>
+  <si>
+    <t>G0419</t>
+  </si>
+  <si>
+    <t>POP_035</t>
+  </si>
+  <si>
+    <t>G0900</t>
+  </si>
+  <si>
+    <t>POP_036</t>
+  </si>
+  <si>
+    <t>G0896</t>
+  </si>
+  <si>
+    <t>POP_037</t>
+  </si>
+  <si>
+    <t>G0897</t>
+  </si>
+  <si>
+    <t>POP_038</t>
+  </si>
+  <si>
+    <t>G2185</t>
+  </si>
+  <si>
+    <t>POP_039</t>
+  </si>
+  <si>
+    <t>POP_040</t>
+  </si>
+  <si>
+    <t>G2183</t>
+  </si>
+  <si>
+    <t>POP_041</t>
+  </si>
+  <si>
+    <t>POP_042</t>
+  </si>
+  <si>
+    <t>G2194</t>
+  </si>
+  <si>
+    <t>POP_043</t>
+  </si>
+  <si>
+    <t>POP_044</t>
+  </si>
+  <si>
+    <t>G0494</t>
+  </si>
+  <si>
+    <t>POP_045</t>
+  </si>
+  <si>
+    <t>G2184</t>
+  </si>
+  <si>
+    <t>POP_046</t>
+  </si>
+  <si>
+    <t>POP_047</t>
+  </si>
+  <si>
+    <t>G2182</t>
+  </si>
+  <si>
+    <t>POP_048</t>
+  </si>
+  <si>
+    <t>POP_049</t>
+  </si>
+  <si>
+    <t>G2175</t>
+  </si>
+  <si>
+    <t>POP_050</t>
+  </si>
+  <si>
+    <t>G2181</t>
+  </si>
+  <si>
+    <t>POP_051</t>
+  </si>
+  <si>
+    <t>POP_052</t>
+  </si>
+  <si>
+    <t>G0493</t>
+  </si>
+  <si>
+    <t>POP_053</t>
+  </si>
+  <si>
+    <t>POP_054</t>
+  </si>
+  <si>
+    <t>G0426</t>
+  </si>
+  <si>
+    <t>POP_055</t>
+  </si>
+  <si>
+    <t>G0427</t>
+  </si>
+  <si>
+    <t>PALE</t>
+  </si>
+  <si>
+    <t>POP_056</t>
+  </si>
+  <si>
+    <t>POP_057</t>
+  </si>
+  <si>
+    <t>G0409</t>
+  </si>
+  <si>
+    <t>POP_058</t>
+  </si>
+  <si>
+    <t>G2193</t>
+  </si>
+  <si>
+    <t>POP_059</t>
+  </si>
+  <si>
+    <t>G0416</t>
+  </si>
+  <si>
+    <t>POP_060</t>
+  </si>
+  <si>
+    <t>G0079</t>
+  </si>
+  <si>
+    <t>POP_061</t>
+  </si>
+  <si>
+    <t>POP_062</t>
+  </si>
+  <si>
+    <t>G0068</t>
+  </si>
+  <si>
+    <t>POP_063</t>
+  </si>
+  <si>
+    <t>G0439</t>
+  </si>
+  <si>
+    <t>POP_064</t>
+  </si>
+  <si>
+    <t>G0495</t>
+  </si>
+  <si>
+    <t>POP_065</t>
+  </si>
+  <si>
+    <t>G2192</t>
+  </si>
+  <si>
+    <t>POP_066</t>
+  </si>
+  <si>
+    <t>G0440</t>
+  </si>
+  <si>
+    <t>POP_067</t>
+  </si>
+  <si>
+    <t>POP_068</t>
+  </si>
+  <si>
+    <t>G2195</t>
+  </si>
+  <si>
+    <t>POP_069</t>
+  </si>
+  <si>
+    <t>POP_070</t>
+  </si>
+  <si>
+    <t>G0086</t>
+  </si>
+  <si>
+    <t>POP_071</t>
+  </si>
+  <si>
+    <t>G0428</t>
+  </si>
+  <si>
+    <t>POP_072</t>
+  </si>
+  <si>
+    <t>G0429</t>
+  </si>
+  <si>
+    <t>maybe ofav</t>
+  </si>
+  <si>
+    <t>POP_073</t>
+  </si>
+  <si>
+    <t>G0417</t>
+  </si>
+  <si>
+    <t>POP_074</t>
+  </si>
+  <si>
+    <t>G2191</t>
+  </si>
+  <si>
+    <t>POP_075</t>
+  </si>
+  <si>
+    <t>G0056</t>
+  </si>
+  <si>
+    <t>POP_076</t>
+  </si>
+  <si>
+    <t>G0076</t>
+  </si>
+  <si>
+    <t>POP_077</t>
+  </si>
+  <si>
+    <t>G0057</t>
+  </si>
+  <si>
+    <t>POP_078</t>
+  </si>
+  <si>
+    <t>G0059</t>
+  </si>
+  <si>
+    <t>POP_079</t>
+  </si>
+  <si>
+    <t>G0067</t>
+  </si>
+  <si>
+    <t>POP_080</t>
+  </si>
+  <si>
+    <t>G0077</t>
+  </si>
+  <si>
+    <t>POP_081</t>
+  </si>
+  <si>
+    <t>G0408</t>
+  </si>
+  <si>
+    <t>POP_082</t>
+  </si>
+  <si>
+    <t>G0058</t>
+  </si>
+  <si>
+    <t>POP_083</t>
+  </si>
+  <si>
+    <t>G0060</t>
+  </si>
+  <si>
+    <t>POP_084</t>
+  </si>
+  <si>
+    <t>G0407</t>
   </si>
   <si>
     <t>Site_ID</t>
@@ -87784,455 +88423,3653 @@
       </c>
     </row>
     <row r="2317">
-      <c r="A2317" s="6"/>
+      <c r="A2317" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2317" s="7" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C2317" s="7" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D2317" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="E2317" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2317" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2317" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2317" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2317" s="11">
+        <v>18.3495824597776</v>
+      </c>
+      <c r="K2317" s="11">
+        <v>-64.7805964574218</v>
+      </c>
     </row>
     <row r="2318">
-      <c r="A2318" s="29"/>
-      <c r="B2318" s="7"/>
+      <c r="A2318" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2318" s="7" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C2318" s="7" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D2318" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="E2318" s="8">
+        <v>0.5375</v>
+      </c>
+      <c r="F2318" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2318" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2318" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2318" s="11">
+        <v>18.3495345152915</v>
+      </c>
+      <c r="K2318" s="11">
+        <v>-64.7806444019079</v>
+      </c>
+      <c r="M2318" s="7" t="s">
+        <v>3832</v>
+      </c>
     </row>
     <row r="2319">
-      <c r="A2319" s="29"/>
-      <c r="B2319" s="7"/>
+      <c r="A2319" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2319" s="7" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C2319" s="7" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D2319" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="E2319" s="8">
+        <v>0.5423611111111111</v>
+      </c>
+      <c r="F2319" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2319" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2319" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2319" s="11">
+        <v>18.3496014866978</v>
+      </c>
+      <c r="K2319" s="11">
+        <v>-64.780879849568</v>
+      </c>
     </row>
     <row r="2320">
-      <c r="A2320" s="29"/>
-      <c r="B2320" s="7"/>
+      <c r="A2320" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2320" s="7" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C2320" s="7" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D2320" s="7">
+        <v>99.0</v>
+      </c>
+      <c r="E2320" s="8">
+        <v>0.5458333333333333</v>
+      </c>
+      <c r="F2320" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2320" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2320" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2320" s="11">
+        <v>18.3495832979679</v>
+      </c>
+      <c r="K2320" s="11">
+        <v>-64.7809815220535</v>
+      </c>
     </row>
     <row r="2321">
-      <c r="A2321" s="29"/>
-      <c r="B2321" s="7"/>
+      <c r="A2321" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2321" s="7" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C2321" s="7" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D2321" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="E2321" s="8">
+        <v>0.5486111111111112</v>
+      </c>
+      <c r="F2321" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2321" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2321" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2321" s="11">
+        <v>18.3497174084187</v>
+      </c>
+      <c r="K2321" s="11">
+        <v>-64.7810163069516</v>
+      </c>
     </row>
     <row r="2322">
-      <c r="A2322" s="29"/>
-      <c r="B2322" s="7"/>
+      <c r="A2322" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2322" s="7" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C2322" s="7" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D2322" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="E2322" s="8">
+        <v>0.5506944444444445</v>
+      </c>
+      <c r="F2322" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2322" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2322" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2322" s="11">
+        <v>18.3498203381896</v>
+      </c>
+      <c r="K2322" s="11">
+        <v>-64.7810412850231</v>
+      </c>
     </row>
     <row r="2323">
-      <c r="A2323" s="29"/>
-      <c r="B2323" s="7"/>
+      <c r="A2323" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2323" s="7" t="s">
+        <v>3841</v>
+      </c>
+      <c r="C2323" s="7" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D2323" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="E2323" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F2323" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2323" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2323" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2323" s="11">
+        <v>18.3500537741929</v>
+      </c>
+      <c r="K2323" s="11">
+        <v>-64.7811938356608</v>
+      </c>
     </row>
     <row r="2324">
-      <c r="A2324" s="29"/>
-      <c r="B2324" s="7"/>
+      <c r="A2324" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2324" s="7" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C2324" s="7" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D2324" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="E2324" s="8">
+        <v>0.6048611111111111</v>
+      </c>
+      <c r="F2324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2324" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2324" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2324" s="11">
+        <v>18.3478415384889</v>
+      </c>
+      <c r="K2324" s="11">
+        <v>-64.7801184374839</v>
+      </c>
     </row>
     <row r="2325">
-      <c r="A2325" s="29"/>
-      <c r="B2325" s="7"/>
+      <c r="A2325" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2325" s="7" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C2325" s="7" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D2325" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="E2325" s="8">
+        <v>0.60625</v>
+      </c>
+      <c r="F2325" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2325" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2325" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2325" s="11">
+        <v>18.3476721402258</v>
+      </c>
+      <c r="K2325" s="11">
+        <v>-64.7806094493717</v>
+      </c>
     </row>
     <row r="2326">
-      <c r="A2326" s="29"/>
-      <c r="B2326" s="7"/>
+      <c r="A2326" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2326" s="7" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C2326" s="7" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D2326" s="7">
+        <v>177.0</v>
+      </c>
+      <c r="E2326" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F2326" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2326" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2326" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2326" s="11">
+        <v>18.3474778477103</v>
+      </c>
+      <c r="K2326" s="11">
+        <v>-64.7809562087059</v>
+      </c>
     </row>
     <row r="2327">
-      <c r="A2327" s="29"/>
-      <c r="B2327" s="7"/>
+      <c r="A2327" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2327" s="7" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C2327" s="7" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D2327" s="7">
+        <v>106.0</v>
+      </c>
+      <c r="E2327" s="8">
+        <v>0.6097222222222223</v>
+      </c>
+      <c r="F2327" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2327" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2327" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2327" s="11">
+        <v>18.3474496845156</v>
+      </c>
+      <c r="K2327" s="11">
+        <v>-64.7808276303113</v>
+      </c>
     </row>
     <row r="2328">
-      <c r="A2328" s="29"/>
-      <c r="B2328" s="7"/>
+      <c r="A2328" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2328" s="7" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C2328" s="7" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D2328" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="E2328" s="8">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F2328" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2328" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2328" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2328" s="11">
+        <v>18.3475013170391</v>
+      </c>
+      <c r="K2328" s="11">
+        <v>-64.7807867266238</v>
+      </c>
     </row>
     <row r="2329">
-      <c r="A2329" s="29"/>
-      <c r="B2329" s="7"/>
+      <c r="A2329" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2329" s="7" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C2329" s="7" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D2329" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="E2329" s="8">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="F2329" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2329" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2329" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2329" s="11">
+        <v>18.3472537994385</v>
+      </c>
+      <c r="K2329" s="11">
+        <v>-64.7807070147246</v>
+      </c>
     </row>
     <row r="2330">
-      <c r="A2330" s="29"/>
-      <c r="B2330" s="7"/>
+      <c r="A2330" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2330" s="7" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C2330" s="7" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D2330" s="7">
+        <v>53.0</v>
+      </c>
+      <c r="E2330" s="8">
+        <v>0.6201388888888889</v>
+      </c>
+      <c r="F2330" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2330" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2330" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2330" s="11">
+        <v>18.3472475968301</v>
+      </c>
+      <c r="K2330" s="11">
+        <v>-64.7806192561984</v>
+      </c>
     </row>
     <row r="2331">
-      <c r="A2331" s="29"/>
-      <c r="B2331" s="7"/>
+      <c r="A2331" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2331" s="7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C2331" s="7" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D2331" s="7">
+        <v>93.0</v>
+      </c>
+      <c r="E2331" s="8">
+        <v>0.5368055555555555</v>
+      </c>
+      <c r="F2331" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2331" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2331" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2331" s="11">
+        <v>18.349551782012</v>
+      </c>
+      <c r="K2331" s="11">
+        <v>-64.7806680388749</v>
+      </c>
     </row>
     <row r="2332">
-      <c r="A2332" s="29"/>
-      <c r="B2332" s="7"/>
+      <c r="A2332" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2332" s="7" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C2332" s="7" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D2332" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="E2332" s="8">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F2332" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2332" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2332" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2332" s="11">
+        <v>18.3495700545609</v>
+      </c>
+      <c r="K2332" s="11">
+        <v>-64.7808205056936</v>
+      </c>
     </row>
     <row r="2333">
-      <c r="A2333" s="29"/>
-      <c r="B2333" s="7"/>
+      <c r="A2333" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2333" s="7" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C2333" s="7" t="s">
+        <v>3862</v>
+      </c>
+      <c r="D2333" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="E2333" s="8">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F2333" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2333" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2333" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2333" s="11">
+        <v>18.3495980501175</v>
+      </c>
+      <c r="K2333" s="11">
+        <v>-64.7808782570064</v>
+      </c>
     </row>
     <row r="2334">
-      <c r="A2334" s="29"/>
-      <c r="B2334" s="7"/>
+      <c r="A2334" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2334" s="7" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C2334" s="7" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D2334" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="E2334" s="8">
+        <v>0.5430555555555555</v>
+      </c>
+      <c r="F2334" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2334" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2334" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2334" s="11">
+        <v>18.3496117126197</v>
+      </c>
+      <c r="K2334" s="11">
+        <v>-64.7809185739607</v>
+      </c>
     </row>
     <row r="2335">
-      <c r="A2335" s="29"/>
-      <c r="B2335" s="7"/>
+      <c r="A2335" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2335" s="7" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C2335" s="7" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D2335" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="E2335" s="8">
+        <v>0.5472222222222223</v>
+      </c>
+      <c r="F2335" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2335" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2335" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2335" s="11">
+        <v>18.3496437314898</v>
+      </c>
+      <c r="K2335" s="11">
+        <v>-64.78097230196</v>
+      </c>
+      <c r="M2335" s="7" t="s">
+        <v>2663</v>
+      </c>
     </row>
     <row r="2336">
-      <c r="A2336" s="29"/>
-      <c r="B2336" s="7"/>
+      <c r="A2336" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2336" s="7" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C2336" s="7" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D2336" s="7">
+        <v>126.0</v>
+      </c>
+      <c r="E2336" s="8">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="F2336" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2336" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2336" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2336" s="11">
+        <v>18.3497286401689</v>
+      </c>
+      <c r="K2336" s="11">
+        <v>-64.781038518995</v>
+      </c>
     </row>
     <row r="2337">
-      <c r="A2337" s="29"/>
-      <c r="B2337" s="7"/>
+      <c r="A2337" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2337" s="7" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C2337" s="7" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D2337" s="7">
+        <v>128.0</v>
+      </c>
+      <c r="E2337" s="8">
+        <v>0.5534722222222223</v>
+      </c>
+      <c r="F2337" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2337" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2337" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2337" s="11">
+        <v>18.34990080446</v>
+      </c>
+      <c r="K2337" s="11">
+        <v>-64.7810652572662</v>
+      </c>
     </row>
     <row r="2338">
-      <c r="A2338" s="29"/>
-      <c r="B2338" s="7"/>
+      <c r="A2338" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2338" s="7" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C2338" s="7" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D2338" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="E2338" s="8">
+        <v>0.5569444444444445</v>
+      </c>
+      <c r="F2338" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2338" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2338" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2338" s="11">
+        <v>18.3500537741929</v>
+      </c>
+      <c r="K2338" s="11">
+        <v>-64.7811938356608</v>
+      </c>
     </row>
     <row r="2339">
-      <c r="A2339" s="29"/>
-      <c r="B2339" s="7"/>
+      <c r="A2339" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2339" s="7" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C2339" s="7" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D2339" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="E2339" s="8">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="F2339" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2339" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2339" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2339" s="11">
+        <v>18.3476259559393</v>
+      </c>
+      <c r="K2339" s="11">
+        <v>-64.781062239781</v>
+      </c>
     </row>
     <row r="2340">
-      <c r="A2340" s="29"/>
-      <c r="B2340" s="7"/>
+      <c r="A2340" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2340" s="7" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C2340" s="7" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D2340" s="7">
+        <v>132.0</v>
+      </c>
+      <c r="E2340" s="8">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="F2340" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2340" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2340" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2340" s="11">
+        <v>18.3474778477103</v>
+      </c>
+      <c r="K2340" s="11">
+        <v>-64.7809562087059</v>
+      </c>
     </row>
     <row r="2341">
-      <c r="A2341" s="29"/>
-      <c r="B2341" s="7"/>
+      <c r="A2341" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2341" s="7" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C2341" s="7" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D2341" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="E2341" s="8">
+        <v>0.6104166666666667</v>
+      </c>
+      <c r="F2341" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2341" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2341" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2341" s="11">
+        <v>18.3474306575954</v>
+      </c>
+      <c r="K2341" s="11">
+        <v>-64.7808441426605</v>
+      </c>
     </row>
     <row r="2342">
-      <c r="A2342" s="29"/>
-      <c r="B2342" s="7"/>
+      <c r="A2342" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2342" s="7" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C2342" s="7" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D2342" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="E2342" s="8">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F2342" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2342" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2342" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2342" s="11">
+        <v>18.3475013170391</v>
+      </c>
+      <c r="K2342" s="11">
+        <v>-64.7807867266238</v>
+      </c>
     </row>
     <row r="2343">
-      <c r="A2343" s="29"/>
-      <c r="B2343" s="7"/>
+      <c r="A2343" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2343" s="7" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C2343" s="7" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D2343" s="7">
+        <v>121.0</v>
+      </c>
+      <c r="E2343" s="8">
+        <v>0.6131944444444445</v>
+      </c>
+      <c r="F2343" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2343" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2343" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2343" s="11">
+        <v>18.3474698010832</v>
+      </c>
+      <c r="K2343" s="11">
+        <v>-64.7807022370398</v>
+      </c>
+      <c r="M2343" s="7" t="s">
+        <v>3883</v>
+      </c>
     </row>
     <row r="2344">
-      <c r="A2344" s="29"/>
-      <c r="B2344" s="7"/>
+      <c r="A2344" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2344" s="7" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C2344" s="7" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D2344" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="E2344" s="8">
+        <v>0.6152777777777778</v>
+      </c>
+      <c r="F2344" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2344" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2344" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2344" s="11">
+        <v>18.3474416378886</v>
+      </c>
+      <c r="K2344" s="11">
+        <v>-64.7806742414832</v>
+      </c>
     </row>
     <row r="2345">
-      <c r="A2345" s="29"/>
-      <c r="B2345" s="7"/>
+      <c r="A2345" s="6">
+        <v>44756.0</v>
+      </c>
+      <c r="B2345" s="7" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C2345" s="7" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D2345" s="7">
+        <v>136.0</v>
+      </c>
+      <c r="E2345" s="8">
+        <v>0.6208333333333333</v>
+      </c>
+      <c r="F2345" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2345" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2345" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2345" s="11">
+        <v>18.3471522945911</v>
+      </c>
+      <c r="K2345" s="11">
+        <v>-64.7805827949196</v>
+      </c>
     </row>
     <row r="2346">
-      <c r="A2346" s="29"/>
-      <c r="B2346" s="7"/>
+      <c r="A2346" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2346" s="7" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C2346" s="7" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D2346" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="E2346" s="8">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="F2346" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2346" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2346" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2346" s="11">
+        <v>18.3451530430466</v>
+      </c>
+      <c r="K2346" s="11">
+        <v>-64.6941620204598</v>
+      </c>
     </row>
     <row r="2347">
-      <c r="A2347" s="29"/>
-      <c r="B2347" s="7"/>
+      <c r="A2347" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2347" s="7" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C2347" s="7" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D2347" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="E2347" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="F2347" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2347" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2347" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2347" s="11">
+        <v>18.3460413571447</v>
+      </c>
+      <c r="K2347" s="11">
+        <v>-64.6908706985414</v>
+      </c>
     </row>
     <row r="2348">
-      <c r="A2348" s="29"/>
-      <c r="B2348" s="7"/>
+      <c r="A2348" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2348" s="7" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C2348" s="7" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D2348" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="E2348" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="F2348" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2348" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2348" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2348" s="11">
+        <v>18.3460413571447</v>
+      </c>
+      <c r="K2348" s="11">
+        <v>-64.6908706985414</v>
+      </c>
     </row>
     <row r="2349">
-      <c r="A2349" s="29"/>
-      <c r="B2349" s="7"/>
+      <c r="A2349" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2349" s="7" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C2349" s="7" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D2349" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="E2349" s="8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F2349" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2349" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2349" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2349" s="11">
+        <v>18.3461217395961</v>
+      </c>
+      <c r="K2349" s="11">
+        <v>-64.6921727433801</v>
+      </c>
     </row>
     <row r="2350">
-      <c r="A2350" s="29"/>
-      <c r="B2350" s="7"/>
+      <c r="A2350" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2350" s="7" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C2350" s="7" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D2350" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="E2350" s="8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F2350" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2350" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2350" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2350" s="11">
+        <v>18.3461217395961</v>
+      </c>
+      <c r="K2350" s="11">
+        <v>-64.6921727433801</v>
+      </c>
     </row>
     <row r="2351">
-      <c r="A2351" s="29"/>
-      <c r="B2351" s="7"/>
+      <c r="A2351" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2351" s="7" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C2351" s="7" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D2351" s="7">
+        <v>93.0</v>
+      </c>
+      <c r="E2351" s="8">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="F2351" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2351" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2351" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2351" s="11">
+        <v>18.3449360355735</v>
+      </c>
+      <c r="K2351" s="11">
+        <v>-64.69378458336</v>
+      </c>
     </row>
     <row r="2352">
-      <c r="A2352" s="29"/>
-      <c r="B2352" s="7"/>
+      <c r="A2352" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2352" s="7" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C2352" s="7" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D2352" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="E2352" s="8">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="F2352" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2352" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2352" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2352" s="11">
+        <v>18.3449360355735</v>
+      </c>
+      <c r="K2352" s="11">
+        <v>-64.69378458336</v>
+      </c>
     </row>
     <row r="2353">
-      <c r="A2353" s="29"/>
-      <c r="B2353" s="7"/>
+      <c r="A2353" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2353" s="7" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C2353" s="7" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D2353" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="E2353" s="8">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F2353" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2353" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2353" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2353" s="11">
+        <v>18.3448787033558</v>
+      </c>
+      <c r="K2353" s="11">
+        <v>-64.693829510361</v>
+      </c>
     </row>
     <row r="2354">
-      <c r="A2354" s="29"/>
-      <c r="B2354" s="7"/>
+      <c r="A2354" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2354" s="7" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C2354" s="7" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D2354" s="7">
+        <v>119.0</v>
+      </c>
+      <c r="E2354" s="8">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F2354" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2354" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2354" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2354" s="11">
+        <v>18.3448787033558</v>
+      </c>
+      <c r="K2354" s="11">
+        <v>-64.693829510361</v>
+      </c>
     </row>
     <row r="2355">
-      <c r="A2355" s="29"/>
-      <c r="B2355" s="7"/>
+      <c r="A2355" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2355" s="7" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C2355" s="7" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D2355" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="E2355" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F2355" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2355" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2355" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2355" s="11">
+        <v>18.3448043558747</v>
+      </c>
+      <c r="K2355" s="11">
+        <v>-64.6937863435596</v>
+      </c>
+      <c r="M2355" s="7" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="2356">
-      <c r="A2356" s="29"/>
-      <c r="B2356" s="7"/>
+      <c r="A2356" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2356" s="7" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C2356" s="7" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D2356" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="E2356" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F2356" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2356" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2356" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2356" s="11">
+        <v>18.3448043558747</v>
+      </c>
+      <c r="K2356" s="11">
+        <v>-64.6937863435596</v>
+      </c>
+      <c r="M2356" s="7" t="s">
+        <v>3905</v>
+      </c>
     </row>
     <row r="2357">
-      <c r="A2357" s="29"/>
-      <c r="B2357" s="7"/>
+      <c r="A2357" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2357" s="7" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C2357" s="7" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D2357" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E2357" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F2357" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2357" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2357" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2357" s="11">
+        <v>18.3448043558747</v>
+      </c>
+      <c r="K2357" s="11">
+        <v>-64.6937863435596</v>
+      </c>
     </row>
     <row r="2358">
-      <c r="A2358" s="29"/>
-      <c r="B2358" s="7"/>
+      <c r="A2358" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2358" s="7" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C2358" s="7" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D2358" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="E2358" s="8">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="F2358" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2358" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2358" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2358" s="11">
+        <v>18.344958666712</v>
+      </c>
+      <c r="K2358" s="11">
+        <v>-64.6937990840524</v>
+      </c>
+      <c r="M2358" s="7" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="2359">
-      <c r="A2359" s="29"/>
-      <c r="B2359" s="7"/>
+      <c r="A2359" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2359" s="7" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C2359" s="7" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D2359" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="E2359" s="8">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="F2359" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2359" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2359" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2359" s="11">
+        <v>18.344958666712</v>
+      </c>
+      <c r="K2359" s="11">
+        <v>-64.6937990840524</v>
+      </c>
     </row>
     <row r="2360">
-      <c r="A2360" s="29"/>
-      <c r="B2360" s="7"/>
+      <c r="A2360" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2360" s="7" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C2360" s="7" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D2360" s="7">
+        <v>111.0</v>
+      </c>
+      <c r="E2360" s="8">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="F2360" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2360" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2360" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2360" s="11">
+        <v>18.3450671285391</v>
+      </c>
+      <c r="K2360" s="11">
+        <v>-64.6937907859683</v>
+      </c>
     </row>
     <row r="2361">
-      <c r="A2361" s="29"/>
-      <c r="B2361" s="7"/>
+      <c r="A2361" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2361" s="7" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C2361" s="7" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D2361" s="7">
+        <v>94.0</v>
+      </c>
+      <c r="E2361" s="8">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="F2361" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2361" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2361" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2361" s="11">
+        <v>18.3450671285391</v>
+      </c>
+      <c r="K2361" s="11">
+        <v>-64.6937907859683</v>
+      </c>
     </row>
     <row r="2362">
-      <c r="A2362" s="29"/>
-      <c r="B2362" s="7"/>
+      <c r="A2362" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2362" s="7" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C2362" s="7" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D2362" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="E2362" s="8">
+        <v>0.4986111111111111</v>
+      </c>
+      <c r="F2362" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2362" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2362" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2362" s="11">
+        <v>18.3451259694994</v>
+      </c>
+      <c r="K2362" s="11">
+        <v>-64.6938074659556</v>
+      </c>
     </row>
     <row r="2363">
-      <c r="A2363" s="29"/>
-      <c r="B2363" s="7"/>
+      <c r="A2363" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2363" s="7" t="s">
+        <v>3916</v>
+      </c>
+      <c r="C2363" s="7" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D2363" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E2363" s="8">
+        <v>0.4986111111111111</v>
+      </c>
+      <c r="F2363" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2363" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2363" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2363" s="11">
+        <v>18.3451259694994</v>
+      </c>
+      <c r="K2363" s="11">
+        <v>-64.6938074659556</v>
+      </c>
     </row>
     <row r="2364">
-      <c r="A2364" s="29"/>
-      <c r="B2364" s="7"/>
+      <c r="A2364" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2364" s="7" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C2364" s="7" t="s">
+        <v>3918</v>
+      </c>
+      <c r="D2364" s="7">
+        <v>182.0</v>
+      </c>
+      <c r="E2364" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F2364" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2364" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2364" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2364" s="11">
+        <v>18.345257313922</v>
+      </c>
+      <c r="K2364" s="11">
+        <v>-64.6936932206154</v>
+      </c>
     </row>
     <row r="2365">
-      <c r="A2365" s="29"/>
-      <c r="B2365" s="7"/>
+      <c r="A2365" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2365" s="7" t="s">
+        <v>3919</v>
+      </c>
+      <c r="C2365" s="7" t="s">
+        <v>3920</v>
+      </c>
+      <c r="D2365" s="7">
+        <v>185.0</v>
+      </c>
+      <c r="E2365" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F2365" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2365" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2365" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2365" s="11">
+        <v>18.3452305756509</v>
+      </c>
+      <c r="K2365" s="11">
+        <v>-64.6937220543623</v>
+      </c>
     </row>
     <row r="2366">
-      <c r="A2366" s="29"/>
-      <c r="B2366" s="7"/>
+      <c r="A2366" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2366" s="7" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C2366" s="7" t="s">
+        <v>3920</v>
+      </c>
+      <c r="D2366" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="E2366" s="8">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F2366" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2366" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2366" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2366" s="11">
+        <v>18.3452305756509</v>
+      </c>
+      <c r="K2366" s="11">
+        <v>-64.6937220543623</v>
+      </c>
     </row>
     <row r="2367">
-      <c r="A2367" s="29"/>
-      <c r="B2367" s="7"/>
+      <c r="A2367" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2367" s="7" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C2367" s="7" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D2367" s="7">
+        <v>214.0</v>
+      </c>
+      <c r="E2367" s="8">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F2367" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2367" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2367" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2367" s="11">
+        <v>18.3452595770359</v>
+      </c>
+      <c r="K2367" s="11">
+        <v>-64.6936007682234</v>
+      </c>
     </row>
     <row r="2368">
-      <c r="A2368" s="29"/>
-      <c r="B2368" s="7"/>
+      <c r="A2368" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2368" s="7" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C2368" s="7" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D2368" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E2368" s="8">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F2368" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2368" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2368" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2368" s="11">
+        <v>18.3452998101711</v>
+      </c>
+      <c r="K2368" s="11">
+        <v>-64.693528264761</v>
+      </c>
     </row>
     <row r="2369">
-      <c r="A2369" s="29"/>
-      <c r="B2369" s="7"/>
+      <c r="A2369" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2369" s="7" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C2369" s="7" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D2369" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="E2369" s="8">
+        <v>0.51875</v>
+      </c>
+      <c r="F2369" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2369" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2369" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2369" s="11">
+        <v>18.3454023208469</v>
+      </c>
+      <c r="K2369" s="11">
+        <v>-64.6935723535717</v>
+      </c>
     </row>
     <row r="2370">
-      <c r="A2370" s="29"/>
-      <c r="B2370" s="7"/>
+      <c r="A2370" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2370" s="7" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C2370" s="7" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D2370" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="E2370" s="8">
+        <v>0.5215277777777778</v>
+      </c>
+      <c r="F2370" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2370" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2370" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2370" s="11">
+        <v>18.3452853094786</v>
+      </c>
+      <c r="K2370" s="11">
+        <v>-64.6935383230448</v>
+      </c>
     </row>
     <row r="2371">
-      <c r="A2371" s="29"/>
-      <c r="B2371" s="7"/>
+      <c r="A2371" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2371" s="7" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C2371" s="7" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D2371" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="E2371" s="8">
+        <v>0.5263888888888889</v>
+      </c>
+      <c r="F2371" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2371" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2371" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2371" s="11">
+        <v>18.3453131373972</v>
+      </c>
+      <c r="K2371" s="11">
+        <v>-64.6935531590134</v>
+      </c>
+      <c r="M2371" s="7" t="s">
+        <v>3932</v>
+      </c>
     </row>
     <row r="2372">
-      <c r="A2372" s="29"/>
-      <c r="B2372" s="7"/>
+      <c r="A2372" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2372" s="7" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C2372" s="7" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E2372" s="8">
+        <v>0.5284722222222222</v>
+      </c>
+      <c r="F2372" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2372" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2372" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2372" s="11">
+        <v>18.3453811146319</v>
+      </c>
+      <c r="K2372" s="11">
+        <v>-64.693541675806</v>
+      </c>
     </row>
     <row r="2373">
-      <c r="A2373" s="29"/>
-      <c r="B2373" s="7"/>
+      <c r="A2373" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2373" s="7" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C2373" s="7" t="s">
+        <v>3936</v>
+      </c>
+      <c r="D2373" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="E2373" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="F2373" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2373" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2373" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2373" s="11">
+        <v>18.3454035781324</v>
+      </c>
+      <c r="K2373" s="11">
+        <v>-64.6935440227389</v>
+      </c>
     </row>
     <row r="2374">
-      <c r="A2374" s="29"/>
-      <c r="B2374" s="7"/>
+      <c r="A2374" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2374" s="7" t="s">
+        <v>3937</v>
+      </c>
+      <c r="C2374" s="7" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D2374" s="7">
+        <v>131.0</v>
+      </c>
+      <c r="E2374" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2374" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2374" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2374" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2374" s="11">
+        <v>18.3454644307494</v>
+      </c>
+      <c r="K2374" s="11">
+        <v>-64.6935387421399</v>
+      </c>
+      <c r="M2374" s="7" t="s">
+        <v>3939</v>
+      </c>
     </row>
     <row r="2375">
-      <c r="A2375" s="29"/>
-      <c r="B2375" s="7"/>
+      <c r="A2375" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2375" s="7" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C2375" s="7" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D2375" s="7">
+        <v>176.0</v>
+      </c>
+      <c r="E2375" s="8">
+        <v>0.5409722222222222</v>
+      </c>
+      <c r="F2375" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2375" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2375" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2375" s="11">
+        <v>18.3456581365317</v>
+      </c>
+      <c r="K2375" s="11">
+        <v>-64.6933216508478</v>
+      </c>
     </row>
     <row r="2376">
-      <c r="A2376" s="29"/>
-      <c r="B2376" s="7"/>
+      <c r="A2376" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2376" s="7" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C2376" s="7" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D2376" s="7">
+        <v>112.0</v>
+      </c>
+      <c r="E2376" s="8">
+        <v>0.5784722222222223</v>
+      </c>
+      <c r="F2376" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2376" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2376" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2376" s="11">
+        <v>18.3449795376509</v>
+      </c>
+      <c r="K2376" s="11">
+        <v>-64.6942991483957</v>
+      </c>
     </row>
     <row r="2377">
-      <c r="A2377" s="29"/>
-      <c r="B2377" s="7"/>
+      <c r="A2377" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2377" s="7" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C2377" s="7" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D2377" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="E2377" s="8">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F2377" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2377" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2377" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2377" s="11">
+        <v>18.3450998179615</v>
+      </c>
+      <c r="K2377" s="11">
+        <v>-64.6942611783743</v>
+      </c>
     </row>
     <row r="2378">
-      <c r="A2378" s="29"/>
-      <c r="B2378" s="7"/>
+      <c r="A2378" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2378" s="7" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C2378" s="7" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D2378" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="E2378" s="8">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F2378" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2378" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2378" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2378" s="11">
+        <v>18.3453083597124</v>
+      </c>
+      <c r="K2378" s="11">
+        <v>-64.6940682269633</v>
+      </c>
     </row>
     <row r="2379">
-      <c r="A2379" s="29"/>
-      <c r="B2379" s="7"/>
+      <c r="A2379" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2379" s="7" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C2379" s="7" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D2379" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="E2379" s="8">
+        <v>0.5847222222222223</v>
+      </c>
+      <c r="F2379" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2379" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2379" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2379" s="11">
+        <v>18.345333756879</v>
+      </c>
+      <c r="K2379" s="11">
+        <v>-64.6940752677619</v>
+      </c>
     </row>
     <row r="2380">
-      <c r="A2380" s="29"/>
-      <c r="B2380" s="7"/>
+      <c r="A2380" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2380" s="7" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C2380" s="7" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D2380" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E2380" s="8">
+        <v>0.5888888888888889</v>
+      </c>
+      <c r="F2380" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2380" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2380" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2380" s="11">
+        <v>18.3454275503755</v>
+      </c>
+      <c r="K2380" s="11">
+        <v>-64.6939710807055</v>
+      </c>
     </row>
     <row r="2381">
-      <c r="A2381" s="29"/>
-      <c r="B2381" s="7"/>
+      <c r="A2381" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2381" s="7" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C2381" s="7" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D2381" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="E2381" s="8">
+        <v>0.5909722222222222</v>
+      </c>
+      <c r="F2381" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2381" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2381" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2381" s="11">
+        <v>18.3454429730773</v>
+      </c>
+      <c r="K2381" s="11">
+        <v>-64.6940050274134</v>
+      </c>
     </row>
     <row r="2382">
-      <c r="A2382" s="29"/>
-      <c r="B2382" s="7"/>
+      <c r="A2382" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2382" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C2382" s="7" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D2382" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E2382" s="8">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="F2382" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2382" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2382" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2382" s="11">
+        <v>18.3455316536129</v>
+      </c>
+      <c r="K2382" s="11">
+        <v>-64.6939128264785</v>
+      </c>
     </row>
     <row r="2383">
-      <c r="A2383" s="29"/>
-      <c r="B2383" s="7"/>
+      <c r="A2383" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2383" s="7" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C2383" s="7" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D2383" s="7">
+        <v>184.0</v>
+      </c>
+      <c r="E2383" s="8">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="F2383" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2383" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2383" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2383" s="11">
+        <v>18.3451530430466</v>
+      </c>
+      <c r="K2383" s="11">
+        <v>-64.6941620204598</v>
+      </c>
     </row>
     <row r="2384">
-      <c r="A2384" s="29"/>
-      <c r="B2384" s="7"/>
+      <c r="A2384" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2384" s="7" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C2384" s="7" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D2384" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="E2384" s="8">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="F2384" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2384" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2384" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2384" s="11">
+        <v>18.3451530430466</v>
+      </c>
+      <c r="K2384" s="11">
+        <v>-64.6941620204598</v>
+      </c>
     </row>
     <row r="2385">
-      <c r="A2385" s="29"/>
-      <c r="B2385" s="7"/>
+      <c r="A2385" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2385" s="7" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C2385" s="7" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D2385" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="E2385" s="8">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="F2385" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2385" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2385" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2385" s="11">
+        <v>18.3459499944001</v>
+      </c>
+      <c r="K2385" s="11">
+        <v>-64.6914415899664</v>
+      </c>
     </row>
     <row r="2386">
-      <c r="A2386" s="29"/>
-      <c r="B2386" s="7"/>
+      <c r="A2386" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2386" s="7" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C2386" s="7" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D2386" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="E2386" s="8">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="F2386" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2386" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2386" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2386" s="11">
+        <v>18.3459499944001</v>
+      </c>
+      <c r="K2386" s="11">
+        <v>-64.6914415899664</v>
+      </c>
     </row>
     <row r="2387">
-      <c r="A2387" s="29"/>
-      <c r="B2387" s="7"/>
+      <c r="A2387" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2387" s="7" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C2387" s="7" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D2387" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="E2387" s="8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F2387" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2387" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2387" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2387" s="11">
+        <v>18.3461217395961</v>
+      </c>
+      <c r="K2387" s="11">
+        <v>-64.6921727433801</v>
+      </c>
+      <c r="M2387" s="7" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="2388">
-      <c r="A2388" s="29"/>
-      <c r="B2388" s="7"/>
+      <c r="A2388" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2388" s="7" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C2388" s="7" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D2388" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E2388" s="8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F2388" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2388" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2388" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2388" s="11">
+        <v>18.3461217395961</v>
+      </c>
+      <c r="K2388" s="11">
+        <v>-64.6921727433801</v>
+      </c>
     </row>
     <row r="2389">
-      <c r="A2389" s="29"/>
-      <c r="B2389" s="7"/>
+      <c r="A2389" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2389" s="7" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C2389" s="7" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D2389" s="7">
+        <v>97.0</v>
+      </c>
+      <c r="E2389" s="8">
+        <v>0.475</v>
+      </c>
+      <c r="F2389" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2389" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2389" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2389" s="11">
+        <v>18.3450014982373</v>
+      </c>
+      <c r="K2389" s="11">
+        <v>-64.6937659755349</v>
+      </c>
     </row>
     <row r="2390">
-      <c r="A2390" s="29"/>
-      <c r="B2390" s="7"/>
+      <c r="A2390" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2390" s="7" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C2390" s="7" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D2390" s="7">
+        <v>96.0</v>
+      </c>
+      <c r="E2390" s="8">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="F2390" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2390" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2390" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2390" s="11">
+        <v>18.3448998257518</v>
+      </c>
+      <c r="K2390" s="11">
+        <v>-64.6938482858241</v>
+      </c>
     </row>
     <row r="2391">
-      <c r="A2391" s="29"/>
-      <c r="B2391" s="7"/>
+      <c r="A2391" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2391" s="7" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C2391" s="7" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D2391" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="E2391" s="8">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="F2391" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2391" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2391" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2391" s="11">
+        <v>18.3448998257518</v>
+      </c>
+      <c r="K2391" s="11">
+        <v>-64.6938482858241</v>
+      </c>
     </row>
     <row r="2392">
-      <c r="A2392" s="29"/>
-      <c r="B2392" s="7"/>
+      <c r="A2392" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2392" s="7" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C2392" s="7" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D2392" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="E2392" s="8">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="F2392" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2392" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2392" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2392" s="11">
+        <v>18.3449068665504</v>
+      </c>
+      <c r="K2392" s="11">
+        <v>-64.6938249003142</v>
+      </c>
     </row>
     <row r="2393">
-      <c r="A2393" s="29"/>
-      <c r="B2393" s="7"/>
+      <c r="A2393" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2393" s="7" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C2393" s="7" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D2393" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="E2393" s="8">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="F2393" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2393" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2393" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2393" s="11">
+        <v>18.3449068665504</v>
+      </c>
+      <c r="K2393" s="11">
+        <v>-64.6938249003142</v>
+      </c>
     </row>
     <row r="2394">
-      <c r="A2394" s="29"/>
-      <c r="B2394" s="7"/>
+      <c r="A2394" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2394" s="7" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C2394" s="7" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D2394" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="E2394" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F2394" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2394" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2394" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2394" s="11">
+        <v>18.3448518812656</v>
+      </c>
+      <c r="K2394" s="11">
+        <v>-64.6937963180244</v>
+      </c>
     </row>
     <row r="2395">
-      <c r="A2395" s="29"/>
-      <c r="B2395" s="7"/>
+      <c r="A2395" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2395" s="7" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C2395" s="7" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D2395" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="E2395" s="8">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F2395" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2395" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2395" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2395" s="11">
+        <v>18.344765631482</v>
+      </c>
+      <c r="K2395" s="11">
+        <v>-64.6938536502421</v>
+      </c>
     </row>
     <row r="2396">
-      <c r="A2396" s="29"/>
-      <c r="B2396" s="7"/>
+      <c r="A2396" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2396" s="7" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C2396" s="7" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D2396" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="E2396" s="8">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F2396" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2396" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2396" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2396" s="11">
+        <v>18.344765631482</v>
+      </c>
+      <c r="K2396" s="11">
+        <v>-64.6938536502421</v>
+      </c>
     </row>
     <row r="2397">
-      <c r="A2397" s="29"/>
-      <c r="B2397" s="7"/>
+      <c r="A2397" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2397" s="7" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C2397" s="7" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D2397" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E2397" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F2397" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2397" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2397" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2397" s="11">
+        <v>18.3447651285678</v>
+      </c>
+      <c r="K2397" s="11">
+        <v>-64.6938589308411</v>
+      </c>
     </row>
     <row r="2398">
-      <c r="A2398" s="29"/>
-      <c r="B2398" s="7"/>
+      <c r="A2398" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2398" s="7" t="s">
+        <v>3980</v>
+      </c>
+      <c r="C2398" s="7" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D2398" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="E2398" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F2398" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2398" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2398" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2398" s="11">
+        <v>18.3447651285678</v>
+      </c>
+      <c r="K2398" s="11">
+        <v>-64.6938589308411</v>
+      </c>
     </row>
     <row r="2399">
-      <c r="A2399" s="29"/>
-      <c r="B2399" s="7"/>
+      <c r="A2399" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2399" s="7" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C2399" s="7" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D2399" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="E2399" s="8">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="F2399" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2399" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2399" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2399" s="11">
+        <v>18.3449254743755</v>
+      </c>
+      <c r="K2399" s="11">
+        <v>-64.6937893610448</v>
+      </c>
     </row>
     <row r="2400">
-      <c r="A2400" s="29"/>
-      <c r="B2400" s="7"/>
+      <c r="A2400" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2400" s="7" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C2400" s="7" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D2400" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E2400" s="8">
+        <v>0.49236111111111114</v>
+      </c>
+      <c r="F2400" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2400" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2400" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2400" s="11">
+        <v>18.3449755143374</v>
+      </c>
+      <c r="K2400" s="11">
+        <v>-64.6938015986234</v>
+      </c>
+      <c r="M2400" s="7" t="s">
+        <v>3985</v>
+      </c>
     </row>
     <row r="2401">
-      <c r="A2401" s="29"/>
-      <c r="B2401" s="7"/>
+      <c r="A2401" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2401" s="7" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C2401" s="7" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D2401" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E2401" s="8">
+        <v>0.49236111111111114</v>
+      </c>
+      <c r="F2401" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2401" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2401" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2401" s="11">
+        <v>18.3449755143374</v>
+      </c>
+      <c r="K2401" s="11">
+        <v>-64.6938015986234</v>
+      </c>
+      <c r="M2401" s="7" t="s">
+        <v>3985</v>
+      </c>
     </row>
     <row r="2402">
-      <c r="A2402" s="29"/>
-      <c r="B2402" s="7"/>
+      <c r="A2402" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2402" s="7" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C2402" s="7" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D2402" s="7">
+        <v>124.0</v>
+      </c>
+      <c r="E2402" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="F2402" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2402" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2402" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2402" s="11">
+        <v>18.3451419789344</v>
+      </c>
+      <c r="K2402" s="11">
+        <v>-64.693795228377</v>
+      </c>
     </row>
     <row r="2403">
-      <c r="A2403" s="29"/>
-      <c r="B2403" s="7"/>
+      <c r="A2403" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2403" s="7" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C2403" s="7" t="s">
+        <v>3990</v>
+      </c>
+      <c r="D2403" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="E2403" s="8">
+        <v>0.4979166666666667</v>
+      </c>
+      <c r="F2403" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2403" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2403" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2403" s="11">
+        <v>18.3450555615127</v>
+      </c>
+      <c r="K2403" s="11">
+        <v>-64.6937412489206</v>
+      </c>
     </row>
     <row r="2404">
-      <c r="A2404" s="29"/>
-      <c r="B2404" s="7"/>
+      <c r="A2404" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2404" s="7" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C2404" s="7" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D2404" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="E2404" s="8">
+        <v>0.49930555555555556</v>
+      </c>
+      <c r="F2404" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2404" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2404" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2404" s="11">
+        <v>18.3451590780169</v>
+      </c>
+      <c r="K2404" s="11">
+        <v>-64.6937942225486</v>
+      </c>
     </row>
     <row r="2405">
-      <c r="A2405" s="29"/>
-      <c r="B2405" s="7"/>
+      <c r="A2405" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2405" s="7" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C2405" s="7" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D2405" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="E2405" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F2405" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2405" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2405" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2405" s="11">
+        <v>18.345233425498</v>
+      </c>
+      <c r="K2405" s="11">
+        <v>-64.693766226992</v>
+      </c>
     </row>
     <row r="2406">
-      <c r="A2406" s="29"/>
-      <c r="B2406" s="7"/>
+      <c r="A2406" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2406" s="7" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C2406" s="7" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D2406" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="E2406" s="8">
+        <v>0.5013888888888889</v>
+      </c>
+      <c r="F2406" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2406" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2406" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2406" s="11">
+        <v>18.345233425498</v>
+      </c>
+      <c r="K2406" s="11">
+        <v>-64.693766226992</v>
+      </c>
     </row>
     <row r="2407">
-      <c r="A2407" s="29"/>
-      <c r="B2407" s="7"/>
+      <c r="A2407" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2407" s="7" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C2407" s="7" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D2407" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="E2407" s="8">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F2407" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2407" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2407" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2407" s="11">
+        <v>18.345257313922</v>
+      </c>
+      <c r="K2407" s="11">
+        <v>-64.6936932206154</v>
+      </c>
     </row>
     <row r="2408">
-      <c r="A2408" s="29"/>
-      <c r="B2408" s="7"/>
+      <c r="A2408" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2408" s="7" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C2408" s="7" t="s">
+        <v>3999</v>
+      </c>
+      <c r="D2408" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E2408" s="8">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="F2408" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2408" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2408" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2408" s="11">
+        <v>18.3452377002686</v>
+      </c>
+      <c r="K2408" s="11">
+        <v>-64.6936732716858</v>
+      </c>
     </row>
     <row r="2409">
-      <c r="A2409" s="29"/>
-      <c r="B2409" s="7"/>
+      <c r="A2409" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2409" s="7" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C2409" s="7" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D2409" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="E2409" s="8">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F2409" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2409" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2409" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2409" s="11">
+        <v>18.3451961260289</v>
+      </c>
+      <c r="K2409" s="11">
+        <v>-64.6936802286655</v>
+      </c>
     </row>
     <row r="2410">
-      <c r="A2410" s="29"/>
-      <c r="B2410" s="7"/>
+      <c r="A2410" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2410" s="7" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C2410" s="7" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D2410" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="E2410" s="8">
+        <v>0.5097222222222222</v>
+      </c>
+      <c r="F2410" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2410" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2410" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2410" s="11">
+        <v>18.3452966250479</v>
+      </c>
+      <c r="K2410" s="11">
+        <v>-64.6937219705433</v>
+      </c>
     </row>
     <row r="2411">
-      <c r="A2411" s="29"/>
-      <c r="B2411" s="7"/>
+      <c r="A2411" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2411" s="7" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C2411" s="7" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D2411" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="E2411" s="8">
+        <v>0.5125</v>
+      </c>
+      <c r="F2411" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2411" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2411" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2411" s="11">
+        <v>18.3452962897718</v>
+      </c>
+      <c r="K2411" s="11">
+        <v>-64.6936767920852</v>
+      </c>
     </row>
     <row r="2412">
-      <c r="A2412" s="29"/>
-      <c r="B2412" s="7"/>
+      <c r="A2412" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2412" s="7" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C2412" s="7" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D2412" s="7">
+        <v>103.0</v>
+      </c>
+      <c r="E2412" s="8">
+        <v>0.5125</v>
+      </c>
+      <c r="F2412" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2412" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2412" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2412" s="11">
+        <v>18.3452962897718</v>
+      </c>
+      <c r="K2412" s="11">
+        <v>-64.6936767920852</v>
+      </c>
     </row>
     <row r="2413">
-      <c r="A2413" s="29"/>
-      <c r="B2413" s="7"/>
+      <c r="A2413" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2413" s="7" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C2413" s="7" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D2413" s="7">
+        <v>114.0</v>
+      </c>
+      <c r="E2413" s="8">
+        <v>0.5152777777777777</v>
+      </c>
+      <c r="F2413" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2413" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2413" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2413" s="11">
+        <v>18.3453474193811</v>
+      </c>
+      <c r="K2413" s="11">
+        <v>-64.6936311107129</v>
+      </c>
     </row>
     <row r="2414">
-      <c r="A2414" s="29"/>
-      <c r="B2414" s="7"/>
+      <c r="A2414" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2414" s="7" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C2414" s="7" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D2414" s="7">
+        <v>127.0</v>
+      </c>
+      <c r="E2414" s="8">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="F2414" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2414" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2414" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2414" s="11">
+        <v>18.3453617524356</v>
+      </c>
+      <c r="K2414" s="11">
+        <v>-64.6935642231256</v>
+      </c>
     </row>
     <row r="2415">
-      <c r="A2415" s="29"/>
-      <c r="B2415" s="7"/>
+      <c r="A2415" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2415" s="7" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C2415" s="7" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D2415" s="7">
+        <v>178.0</v>
+      </c>
+      <c r="E2415" s="8">
+        <v>0.525</v>
+      </c>
+      <c r="F2415" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2415" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2415" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2415" s="11">
+        <v>18.3453069347888</v>
+      </c>
+      <c r="K2415" s="11">
+        <v>-64.6934849303216</v>
+      </c>
     </row>
     <row r="2416">
-      <c r="A2416" s="29"/>
-      <c r="B2416" s="7"/>
+      <c r="A2416" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2416" s="7" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2416" s="7" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D2416" s="7">
+        <v>129.0</v>
+      </c>
+      <c r="E2416" s="8">
+        <v>0.5291666666666667</v>
+      </c>
+      <c r="F2416" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2416" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2416" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2416" s="11">
+        <v>18.3453771751374</v>
+      </c>
+      <c r="K2416" s="11">
+        <v>-64.693573275581</v>
+      </c>
     </row>
     <row r="2417">
-      <c r="A2417" s="29"/>
-      <c r="B2417" s="7"/>
+      <c r="A2417" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2417" s="7" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C2417" s="7" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D2417" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="E2417" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="F2417" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2417" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2417" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2417" s="11">
+        <v>18.3454035781324</v>
+      </c>
+      <c r="K2417" s="11">
+        <v>-64.6935440227389</v>
+      </c>
+      <c r="M2417" s="7" t="s">
+        <v>4016</v>
+      </c>
     </row>
     <row r="2418">
-      <c r="A2418" s="29"/>
-      <c r="B2418" s="7"/>
+      <c r="A2418" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2418" s="7" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C2418" s="7" t="s">
+        <v>4018</v>
+      </c>
+      <c r="D2418" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="E2418" s="8">
+        <v>0.5340277777777778</v>
+      </c>
+      <c r="F2418" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2418" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2418" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2418" s="11">
+        <v>18.3454644307494</v>
+      </c>
+      <c r="K2418" s="11">
+        <v>-64.6935387421399</v>
+      </c>
     </row>
     <row r="2419">
-      <c r="A2419" s="29"/>
-      <c r="B2419" s="7"/>
+      <c r="A2419" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2419" s="7" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C2419" s="7" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D2419" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="E2419" s="8">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F2419" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2419" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2419" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2419" s="11">
+        <v>18.3455671928823</v>
+      </c>
+      <c r="K2419" s="11">
+        <v>-64.6934276819229</v>
+      </c>
     </row>
     <row r="2420">
-      <c r="A2420" s="29"/>
-      <c r="B2420" s="7"/>
+      <c r="A2420" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2420" s="7" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C2420" s="7" t="s">
+        <v>4022</v>
+      </c>
+      <c r="D2420" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="E2420" s="8">
+        <v>0.5784722222222223</v>
+      </c>
+      <c r="F2420" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2420" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2420" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2420" s="11">
+        <v>18.3449795376509</v>
+      </c>
+      <c r="K2420" s="11">
+        <v>-64.6942991483957</v>
+      </c>
     </row>
     <row r="2421">
-      <c r="A2421" s="29"/>
-      <c r="B2421" s="7"/>
+      <c r="A2421" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2421" s="7" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C2421" s="7" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D2421" s="7">
+        <v>122.0</v>
+      </c>
+      <c r="E2421" s="8">
+        <v>0.58125</v>
+      </c>
+      <c r="F2421" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2421" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2421" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2421" s="11">
+        <v>18.3452952001244</v>
+      </c>
+      <c r="K2421" s="11">
+        <v>-64.6941239666194</v>
+      </c>
     </row>
     <row r="2422">
-      <c r="A2422" s="29"/>
-      <c r="B2422" s="7"/>
+      <c r="A2422" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2422" s="7" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C2422" s="7" t="s">
+        <v>4026</v>
+      </c>
+      <c r="D2422" s="7">
+        <v>92.0</v>
+      </c>
+      <c r="E2422" s="8">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F2422" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2422" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2422" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2422" s="11">
+        <v>18.3453083597124</v>
+      </c>
+      <c r="K2422" s="11">
+        <v>-64.6940682269633</v>
+      </c>
     </row>
     <row r="2423">
-      <c r="A2423" s="29"/>
-      <c r="B2423" s="7"/>
+      <c r="A2423" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2423" s="7" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C2423" s="7" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D2423" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="E2423" s="8">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F2423" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2423" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2423" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2423" s="11">
+        <v>18.3453748282045</v>
+      </c>
+      <c r="K2423" s="11">
+        <v>-64.6940398123115</v>
+      </c>
     </row>
     <row r="2424">
-      <c r="A2424" s="29"/>
-      <c r="B2424" s="7"/>
+      <c r="A2424" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2424" s="7" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C2424" s="7" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D2424" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="E2424" s="8">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F2424" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2424" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2424" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2424" s="11">
+        <v>18.3453502692282</v>
+      </c>
+      <c r="K2424" s="11">
+        <v>-64.694014666602</v>
+      </c>
     </row>
     <row r="2425">
-      <c r="A2425" s="29"/>
-      <c r="B2425" s="7"/>
+      <c r="A2425" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2425" s="7" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C2425" s="7" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D2425" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="E2425" s="8">
+        <v>0.5881944444444445</v>
+      </c>
+      <c r="F2425" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2425" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2425" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2425" s="11">
+        <v>18.3453779295087</v>
+      </c>
+      <c r="K2425" s="11">
+        <v>-64.6939919516444</v>
+      </c>
     </row>
     <row r="2426">
-      <c r="A2426" s="29"/>
-      <c r="B2426" s="7"/>
+      <c r="A2426" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2426" s="7" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C2426" s="7" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D2426" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="E2426" s="8">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="F2426" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2426" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2426" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2426" s="11">
+        <v>18.3454019855708</v>
+      </c>
+      <c r="K2426" s="11">
+        <v>-64.6939868386835</v>
+      </c>
     </row>
     <row r="2427">
-      <c r="A2427" s="29"/>
-      <c r="B2427" s="7"/>
+      <c r="A2427" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2427" s="7" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C2427" s="7" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D2427" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E2427" s="8">
+        <v>0.5916666666666667</v>
+      </c>
+      <c r="F2427" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2427" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2427" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2427" s="11">
+        <v>18.345526875928</v>
+      </c>
+      <c r="K2427" s="11">
+        <v>-64.6939705777913</v>
+      </c>
     </row>
     <row r="2428">
-      <c r="A2428" s="29"/>
-      <c r="B2428" s="7"/>
+      <c r="A2428" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2428" s="7" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C2428" s="7" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D2428" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="E2428" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="F2428" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2428" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2428" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2428" s="11">
+        <v>18.3455226849765</v>
+      </c>
+      <c r="K2428" s="11">
+        <v>-64.6938738506287</v>
+      </c>
     </row>
     <row r="2429">
-      <c r="A2429" s="29"/>
-      <c r="B2429" s="7"/>
+      <c r="A2429" s="6">
+        <v>44760.0</v>
+      </c>
+      <c r="B2429" s="7" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C2429" s="7" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D2429" s="7">
+        <v>125.0</v>
+      </c>
+      <c r="E2429" s="8">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F2429" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2429" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2429" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J2429" s="11">
+        <v>18.3455999661237</v>
+      </c>
+      <c r="K2429" s="11">
+        <v>-64.693406810984</v>
+      </c>
     </row>
     <row r="2430">
       <c r="A2430" s="29"/>
@@ -90523,19 +94360,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>3828</v>
+        <v>4041</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3829</v>
+        <v>4042</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3830</v>
+        <v>4043</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3831</v>
+        <v>4044</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3832</v>
+        <v>4045</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
@@ -90559,21 +94396,21 @@
         <v>51</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>3833</v>
+        <v>4046</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>3834</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>3835</v>
+        <v>4048</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3836</v>
+        <v>4049</v>
       </c>
       <c r="C2" s="7">
         <v>7.0</v>
@@ -90585,33 +94422,33 @@
         <v>44688.0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>3837</v>
+        <v>4050</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>3837</v>
+        <v>4050</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>3837</v>
+        <v>4050</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>3837</v>
+        <v>4050</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>3837</v>
+        <v>4050</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>3838</v>
+        <v>4051</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>3839</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3840</v>
+        <v>4053</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3841</v>
+        <v>4054</v>
       </c>
       <c r="C3" s="7">
         <v>25.0</v>
@@ -90622,10 +94459,10 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>3842</v>
+        <v>4055</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="C4" s="7">
         <v>15.0</v>
@@ -90637,18 +94474,18 @@
         <v>44690.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3844</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>3845</v>
+        <v>4058</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3846</v>
+        <v>4059</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3847</v>
+        <v>4060</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -90656,10 +94493,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>3848</v>
+        <v>4061</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3849</v>
+        <v>4062</v>
       </c>
       <c r="C6" s="7">
         <v>20.0</v>
@@ -90691,10 +94528,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>3850</v>
+        <v>4063</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3851</v>
+        <v>4064</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>78</v>
@@ -90726,7 +94563,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3835</v>
+        <v>4048</v>
       </c>
       <c r="C2" s="7">
         <v>2.0</v>
@@ -90755,7 +94592,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3842</v>
+        <v>4055</v>
       </c>
       <c r="C3" s="7">
         <v>5.0</v>
@@ -90784,7 +94621,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3840</v>
+        <v>4053</v>
       </c>
       <c r="F4" s="7">
         <v>17.0</v>
@@ -90807,7 +94644,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3848</v>
+        <v>4061</v>
       </c>
       <c r="F5" s="7">
         <v>6.0</v>
@@ -90830,7 +94667,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3852</v>
+        <v>4065</v>
       </c>
       <c r="F6" s="7">
         <v>11.0</v>
@@ -90873,16 +94710,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>3853</v>
+        <v>4066</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>3854</v>
+        <v>4067</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>3855</v>
+        <v>4068</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>12</v>
@@ -90912,7 +94749,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B2" s="6">
         <v>44690.0</v>
@@ -90927,7 +94764,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B3" s="6">
         <v>44690.0</v>
@@ -90942,7 +94779,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B4" s="6">
         <v>44690.0</v>
@@ -90957,7 +94794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B5" s="6">
         <v>44690.0</v>
@@ -90972,7 +94809,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B6" s="6">
         <v>44690.0</v>
@@ -90987,7 +94824,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B7" s="6">
         <v>44690.0</v>
@@ -91002,7 +94839,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B8" s="6">
         <v>44690.0</v>
@@ -91017,7 +94854,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B9" s="6">
         <v>44690.0</v>
@@ -91032,7 +94869,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B10" s="6">
         <v>44690.0</v>
@@ -91047,7 +94884,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B11" s="6">
         <v>44690.0</v>
@@ -91062,7 +94899,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B12" s="6">
         <v>44690.0</v>
@@ -91077,7 +94914,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B13" s="6">
         <v>44690.0</v>
@@ -91092,7 +94929,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B14" s="6">
         <v>44690.0</v>
@@ -91107,7 +94944,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B15" s="6">
         <v>44690.0</v>
@@ -91122,7 +94959,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B16" s="6">
         <v>44690.0</v>
@@ -91137,7 +94974,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B17" s="6">
         <v>44690.0</v>
@@ -91153,7 +94990,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B18" s="6">
         <v>44690.0</v>
@@ -91169,7 +95006,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B19" s="6">
         <v>44690.0</v>
@@ -91184,7 +95021,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B20" s="6">
         <v>44690.0</v>
@@ -91199,7 +95036,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B21" s="6">
         <v>44690.0</v>
@@ -91214,7 +95051,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B22" s="6">
         <v>44690.0</v>
@@ -91229,7 +95066,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B23" s="6">
         <v>44690.0</v>
@@ -91244,7 +95081,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B24" s="6">
         <v>44690.0</v>
@@ -91259,7 +95096,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B25" s="6">
         <v>44690.0</v>
@@ -91274,7 +95111,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B26" s="6">
         <v>44690.0</v>
@@ -91289,7 +95126,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B27" s="6">
         <v>44690.0</v>
@@ -91304,7 +95141,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B28" s="6">
         <v>44690.0</v>
@@ -91319,7 +95156,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B29" s="6">
         <v>44690.0</v>
@@ -91334,7 +95171,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B30" s="6">
         <v>44690.0</v>
@@ -91349,7 +95186,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B31" s="6">
         <v>44690.0</v>
@@ -91364,7 +95201,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B32" s="6">
         <v>44690.0</v>
@@ -91379,7 +95216,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B33" s="6">
         <v>44690.0</v>
@@ -91394,7 +95231,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B34" s="6">
         <v>44690.0</v>
@@ -91409,7 +95246,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>3843</v>
+        <v>4056</v>
       </c>
       <c r="B35" s="6">
         <v>44690.0</v>
@@ -91424,7 +95261,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B36" s="6">
         <v>44704.0</v>
@@ -91439,7 +95276,7 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B37" s="6">
         <v>44704.0</v>
@@ -91454,7 +95291,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B38" s="6">
         <v>44704.0</v>
@@ -91466,12 +95303,12 @@
         <v>22.0</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B39" s="6">
         <v>44704.0</v>
@@ -91486,7 +95323,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B40" s="6">
         <v>44704.0</v>
@@ -91498,12 +95335,12 @@
         <v>34.0</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B41" s="6">
         <v>44704.0</v>
@@ -91518,7 +95355,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B42" s="6">
         <v>44704.0</v>
@@ -91533,7 +95370,7 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B43" s="6">
         <v>44704.0</v>
@@ -91548,7 +95385,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B44" s="6">
         <v>44704.0</v>
@@ -91560,12 +95397,12 @@
         <v>6.0</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B45" s="6">
         <v>44704.0</v>
@@ -91580,7 +95417,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B46" s="6">
         <v>44704.0</v>
@@ -91595,7 +95432,7 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B47" s="6">
         <v>44704.0</v>
@@ -91610,7 +95447,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B48" s="6">
         <v>44704.0</v>
@@ -91625,7 +95462,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B49" s="6">
         <v>44704.0</v>
@@ -91640,7 +95477,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B50" s="6">
         <v>44704.0</v>
@@ -91655,7 +95492,7 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B51" s="6">
         <v>44704.0</v>
@@ -91670,7 +95507,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B52" s="6">
         <v>44704.0</v>
@@ -91685,7 +95522,7 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B53" s="6">
         <v>44704.0</v>
@@ -91700,7 +95537,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B54" s="6">
         <v>44704.0</v>
@@ -91715,7 +95552,7 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B55" s="6">
         <v>44704.0</v>
@@ -91730,7 +95567,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B56" s="6">
         <v>44704.0</v>
@@ -91745,7 +95582,7 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B57" s="6">
         <v>44704.0</v>
@@ -91760,7 +95597,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B58" s="6">
         <v>44704.0</v>
@@ -91775,7 +95612,7 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B59" s="6">
         <v>44704.0</v>
@@ -91790,7 +95627,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B60" s="6">
         <v>44704.0</v>
@@ -91805,7 +95642,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B61" s="6">
         <v>44704.0</v>
@@ -91820,7 +95657,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B62" s="6">
         <v>44704.0</v>
@@ -91835,7 +95672,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B63" s="6">
         <v>44704.0</v>
@@ -91850,7 +95687,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>3856</v>
+        <v>4069</v>
       </c>
       <c r="B64" s="6">
         <v>44704.0</v>
@@ -91865,7 +95702,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B65" s="6">
         <v>44704.0</v>
@@ -91880,7 +95717,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B66" s="6">
         <v>44704.0</v>
@@ -91895,7 +95732,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B67" s="6">
         <v>44704.0</v>
@@ -91910,7 +95747,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B68" s="6">
         <v>44704.0</v>
@@ -91925,7 +95762,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B69" s="6">
         <v>44704.0</v>
@@ -91940,7 +95777,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B70" s="6">
         <v>44704.0</v>
@@ -91955,7 +95792,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B71" s="6">
         <v>44704.0</v>
@@ -91970,7 +95807,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B72" s="6">
         <v>44704.0</v>
@@ -91985,7 +95822,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B73" s="6">
         <v>44704.0</v>
@@ -92000,7 +95837,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B74" s="6">
         <v>44704.0</v>
@@ -92015,7 +95852,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B75" s="6">
         <v>44704.0</v>
@@ -92030,7 +95867,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B76" s="6">
         <v>44704.0</v>
@@ -92045,7 +95882,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B77" s="6">
         <v>44704.0</v>
@@ -92060,7 +95897,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B78" s="6">
         <v>44704.0</v>
@@ -92075,7 +95912,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B79" s="6">
         <v>44704.0</v>
@@ -92090,7 +95927,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B80" s="6">
         <v>44704.0</v>
@@ -92105,7 +95942,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B81" s="6">
         <v>44704.0</v>
@@ -92120,7 +95957,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B82" s="6">
         <v>44704.0</v>
@@ -92135,7 +95972,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B83" s="6">
         <v>44704.0</v>
@@ -92150,7 +95987,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B84" s="6">
         <v>44704.0</v>
@@ -92165,7 +96002,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B85" s="6">
         <v>44704.0</v>
@@ -92180,7 +96017,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B86" s="6">
         <v>44704.0</v>
@@ -92195,7 +96032,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B87" s="6">
         <v>44704.0</v>
@@ -92210,7 +96047,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B88" s="6">
         <v>44704.0</v>
@@ -92225,7 +96062,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B89" s="6">
         <v>44704.0</v>
@@ -92240,7 +96077,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B90" s="6">
         <v>44704.0</v>
@@ -92255,7 +96092,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B91" s="6">
         <v>44704.0</v>
@@ -92270,7 +96107,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>3858</v>
+        <v>4071</v>
       </c>
       <c r="B92" s="6">
         <v>44704.0</v>
@@ -92285,7 +96122,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B93" s="6">
         <v>44705.0</v>
@@ -92300,7 +96137,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B94" s="6">
         <v>44705.0</v>
@@ -92315,7 +96152,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B95" s="6">
         <v>44705.0</v>
@@ -92330,7 +96167,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B96" s="6">
         <v>44705.0</v>
@@ -92345,7 +96182,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B97" s="6">
         <v>44705.0</v>
@@ -92360,7 +96197,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B98" s="6">
         <v>44705.0</v>
@@ -92375,7 +96212,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B99" s="6">
         <v>44705.0</v>
@@ -92390,7 +96227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B100" s="6">
         <v>44705.0</v>
@@ -92405,7 +96242,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B101" s="6">
         <v>44705.0</v>
@@ -92420,7 +96257,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B102" s="6">
         <v>44705.0</v>
@@ -92435,7 +96272,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B103" s="6">
         <v>44705.0</v>
@@ -92450,7 +96287,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B104" s="6">
         <v>44705.0</v>
@@ -92465,7 +96302,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B105" s="6">
         <v>44705.0</v>
@@ -92480,7 +96317,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B106" s="6">
         <v>44705.0</v>
@@ -92495,7 +96332,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B107" s="6">
         <v>44705.0</v>
@@ -92510,7 +96347,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B108" s="6">
         <v>44705.0</v>
@@ -92525,7 +96362,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B109" s="6">
         <v>44705.0</v>
@@ -92540,7 +96377,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B110" s="6">
         <v>44705.0</v>
@@ -92555,7 +96392,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B111" s="6">
         <v>44705.0</v>
@@ -92570,7 +96407,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B112" s="6">
         <v>44705.0</v>
@@ -92585,7 +96422,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B113" s="6">
         <v>44705.0</v>
@@ -92600,7 +96437,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>3859</v>
+        <v>4072</v>
       </c>
       <c r="B114" s="6">
         <v>44705.0</v>
@@ -92615,7 +96452,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B115" s="6">
         <v>44708.0</v>
@@ -92630,7 +96467,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B116" s="6">
         <v>44708.0</v>
@@ -92645,7 +96482,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B117" s="6">
         <v>44708.0</v>
@@ -92660,7 +96497,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B118" s="6">
         <v>44708.0</v>
@@ -92672,12 +96509,12 @@
         <v>39.0</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B119" s="6">
         <v>44708.0</v>
@@ -92692,7 +96529,7 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B120" s="6">
         <v>44708.0</v>
@@ -92707,7 +96544,7 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B121" s="6">
         <v>44708.0</v>
@@ -92722,7 +96559,7 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B122" s="6">
         <v>44708.0</v>
@@ -92737,7 +96574,7 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B123" s="6">
         <v>44708.0</v>
@@ -92752,7 +96589,7 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B124" s="6">
         <v>44708.0</v>
@@ -92767,7 +96604,7 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B125" s="6">
         <v>44708.0</v>
@@ -92782,7 +96619,7 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B126" s="6">
         <v>44708.0</v>
@@ -92797,7 +96634,7 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B127" s="6">
         <v>44708.0</v>
@@ -92809,12 +96646,12 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B128" s="6">
         <v>44708.0</v>
@@ -92829,7 +96666,7 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B129" s="6">
         <v>44708.0</v>
@@ -92841,12 +96678,12 @@
         <v>40.0</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>3857</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B130" s="6">
         <v>44708.0</v>
@@ -92861,7 +96698,7 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B131" s="6">
         <v>44708.0</v>
@@ -92876,7 +96713,7 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B132" s="6">
         <v>44708.0</v>
@@ -92891,7 +96728,7 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="B133" s="6">
         <v>44708.0</v>
@@ -92906,7 +96743,7 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B134" s="6">
         <v>44713.0</v>
@@ -92918,12 +96755,12 @@
         <v>1297</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B135" s="6">
         <v>44713.0</v>
@@ -92935,12 +96772,12 @@
         <v>1299</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B136" s="6">
         <v>44713.0</v>
@@ -92952,12 +96789,12 @@
         <v>1301</v>
       </c>
       <c r="E136" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B137" s="6">
         <v>44713.0</v>
@@ -92969,12 +96806,12 @@
         <v>1303</v>
       </c>
       <c r="E137" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B138" s="6">
         <v>44713.0</v>
@@ -92986,12 +96823,12 @@
         <v>1305</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B139" s="6">
         <v>44713.0</v>
@@ -93003,12 +96840,12 @@
         <v>1308</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B140" s="6">
         <v>44713.0</v>
@@ -93020,12 +96857,12 @@
         <v>1311</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B141" s="6">
         <v>44713.0</v>
@@ -93037,12 +96874,12 @@
         <v>1314</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B142" s="6">
         <v>44713.0</v>
@@ -93054,12 +96891,12 @@
         <v>1317</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B143" s="6">
         <v>44713.0</v>
@@ -93071,12 +96908,12 @@
         <v>1320</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B144" s="6">
         <v>44713.0</v>
@@ -93088,12 +96925,12 @@
         <v>1322</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B145" s="6">
         <v>44713.0</v>
@@ -93105,12 +96942,12 @@
         <v>1324</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B146" s="6">
         <v>44713.0</v>
@@ -93122,12 +96959,12 @@
         <v>1326</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B147" s="6">
         <v>44713.0</v>
@@ -93139,12 +96976,12 @@
         <v>1328</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B148" s="6">
         <v>44713.0</v>
@@ -93156,12 +96993,12 @@
         <v>1330</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B149" s="6">
         <v>44713.0</v>
@@ -93173,12 +97010,12 @@
         <v>1332</v>
       </c>
       <c r="E149" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B150" s="6">
         <v>44713.0</v>
@@ -93190,12 +97027,12 @@
         <v>1334</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B151" s="6">
         <v>44713.0</v>
@@ -93207,12 +97044,12 @@
         <v>1336</v>
       </c>
       <c r="E151" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B152" s="6">
         <v>44713.0</v>
@@ -93224,12 +97061,12 @@
         <v>1339</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B153" s="6">
         <v>44713.0</v>
@@ -93241,12 +97078,12 @@
         <v>1341</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B154" s="6">
         <v>44713.0</v>
@@ -93258,12 +97095,12 @@
         <v>1343</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B155" s="6">
         <v>44713.0</v>
@@ -93275,12 +97112,12 @@
         <v>1345</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B156" s="6">
         <v>44713.0</v>
@@ -93292,12 +97129,12 @@
         <v>1347</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>3861</v>
+        <v>4074</v>
       </c>
       <c r="B157" s="6">
         <v>44713.0</v>
@@ -93309,7 +97146,7 @@
         <v>1349</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>3862</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="158">
@@ -95861,22 +99698,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3863</v>
+        <v>4076</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3864</v>
+        <v>4077</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3865</v>
+        <v>4078</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3866</v>
+        <v>4079</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>3867</v>
+        <v>4080</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3868</v>
+        <v>4081</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -95887,17 +99724,17 @@
         <v>44690.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3869</v>
+        <v>4082</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3842</v>
+        <v>4055</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>3870</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="3">
@@ -95905,7 +99742,7 @@
         <v>44692.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>3871</v>
+        <v>4084</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
@@ -95926,10 +99763,10 @@
         <v>44694.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3872</v>
+        <v>4085</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3848</v>
+        <v>4061</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -95944,7 +99781,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>3873</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="5">
@@ -95952,10 +99789,10 @@
         <v>44695.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3874</v>
+        <v>4087</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3852</v>
+        <v>4065</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -95975,10 +99812,10 @@
         <v>44697.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3875</v>
+        <v>4088</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3876</v>
+        <v>4089</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -95998,10 +99835,10 @@
         <v>44698.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>3860</v>
+        <v>4073</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3877</v>
+        <v>4090</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -96021,10 +99858,10 @@
         <v>44726.0</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>3878</v>
+        <v>4091</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>3879</v>
+        <v>4092</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>1352</v>
@@ -96067,10 +99904,10 @@
         <v>44748.0</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>3880</v>
+        <v>4093</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>3881</v>
+        <v>4094</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>2879</v>
@@ -96113,7 +99950,7 @@
         <v>44753.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3882</v>
+        <v>4095</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>2879</v>
